--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFEA4673-1477-4C3B-9503-841FE133E1F3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7EAE5DA-3F1C-4C63-9B93-417BE6493BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="893">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="896">
   <si>
     <t>Category</t>
   </si>
@@ -2752,6 +2752,15 @@
   </si>
   <si>
     <t>user profile</t>
+  </si>
+  <si>
+    <t>Done(3 days)</t>
+  </si>
+  <si>
+    <t>Open(5 days needed)</t>
+  </si>
+  <si>
+    <t>Will finished it in future 2 days</t>
   </si>
 </sst>
 </file>
@@ -3167,7 +3176,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3672,7 +3681,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3681,16 +3690,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3698,35 +3704,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3746,11 +3728,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3763,6 +3772,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -18771,8 +18795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G208" sqref="G208:H208"/>
+    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179:H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19081,13 +19105,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="193" t="s">
+      <c r="B17" s="199" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="199"/>
+      <c r="F17" s="199"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19357,13 +19381,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="193" t="s">
+      <c r="B34" s="199" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="193"/>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
+      <c r="C34" s="199"/>
+      <c r="D34" s="199"/>
+      <c r="E34" s="199"/>
+      <c r="F34" s="199"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19384,10 +19408,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="195" t="s">
+      <c r="G35" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="195"/>
+      <c r="H35" s="192"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19406,8 +19430,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -19426,8 +19450,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="183"/>
-      <c r="H37" s="183"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="188"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -19446,8 +19470,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
+      <c r="G38" s="188"/>
+      <c r="H38" s="188"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -19466,8 +19490,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="194"/>
-      <c r="H39" s="194"/>
+      <c r="G39" s="200"/>
+      <c r="H39" s="200"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19486,8 +19510,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19506,10 +19530,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="196" t="s">
+      <c r="G41" s="201" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="197"/>
+      <c r="H41" s="202"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -19528,10 +19552,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="196" t="s">
+      <c r="G42" s="201" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="197"/>
+      <c r="H42" s="202"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -19550,10 +19574,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="196" t="s">
+      <c r="G43" s="201" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="197"/>
+      <c r="H43" s="202"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -19572,8 +19596,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="198"/>
-      <c r="H44" s="199"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="204"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -19594,10 +19618,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="196" t="s">
+      <c r="G45" s="201" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="197"/>
+      <c r="H45" s="202"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -19618,8 +19642,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
+      <c r="G46" s="188"/>
+      <c r="H46" s="188"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -19640,8 +19664,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
+      <c r="G47" s="188"/>
+      <c r="H47" s="188"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -19662,10 +19686,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="183" t="s">
+      <c r="G48" s="188" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="183"/>
+      <c r="H48" s="188"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -19684,8 +19708,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="192"/>
-      <c r="H49" s="192"/>
+      <c r="G49" s="183"/>
+      <c r="H49" s="183"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19704,8 +19728,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="192"/>
-      <c r="H50" s="192"/>
+      <c r="G50" s="183"/>
+      <c r="H50" s="183"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19726,8 +19750,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="192"/>
-      <c r="H51" s="192"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19748,8 +19772,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="183"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19770,8 +19794,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="192"/>
-      <c r="H53" s="192"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19792,8 +19816,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="192"/>
-      <c r="H54" s="192"/>
+      <c r="G54" s="183"/>
+      <c r="H54" s="183"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19814,8 +19838,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="192"/>
-      <c r="H55" s="192"/>
+      <c r="G55" s="183"/>
+      <c r="H55" s="183"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19834,8 +19858,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="192"/>
-      <c r="H56" s="192"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19854,8 +19878,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="192"/>
-      <c r="H57" s="192"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="183"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19874,8 +19898,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
+      <c r="G58" s="183"/>
+      <c r="H58" s="183"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19896,8 +19920,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="192"/>
-      <c r="H59" s="192"/>
+      <c r="G59" s="183"/>
+      <c r="H59" s="183"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20008,13 +20032,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="193" t="s">
+      <c r="B70" s="199" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="193"/>
-      <c r="D70" s="193"/>
-      <c r="E70" s="193"/>
-      <c r="F70" s="193"/>
+      <c r="C70" s="199"/>
+      <c r="D70" s="199"/>
+      <c r="E70" s="199"/>
+      <c r="F70" s="199"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20035,10 +20059,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="200" t="s">
+      <c r="G71" s="206" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="200"/>
+      <c r="H71" s="206"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20059,10 +20083,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="189" t="s">
+      <c r="G72" s="205" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="183"/>
+      <c r="H72" s="188"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -20083,10 +20107,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="183" t="s">
+      <c r="G73" s="188" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="183"/>
+      <c r="H73" s="188"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -20107,8 +20131,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="183"/>
-      <c r="H74" s="183"/>
+      <c r="G74" s="188"/>
+      <c r="H74" s="188"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -20129,10 +20153,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="190" t="s">
+      <c r="G75" s="189" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="191"/>
+      <c r="H75" s="190"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -20153,8 +20177,8 @@
       <c r="F76" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="183"/>
-      <c r="H76" s="183"/>
+      <c r="G76" s="188"/>
+      <c r="H76" s="188"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -20173,8 +20197,8 @@
       <c r="F77" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="183"/>
-      <c r="H77" s="183"/>
+      <c r="G77" s="188"/>
+      <c r="H77" s="188"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -20193,8 +20217,8 @@
       <c r="F78" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="190"/>
-      <c r="H78" s="191"/>
+      <c r="G78" s="189"/>
+      <c r="H78" s="190"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -20213,8 +20237,8 @@
       <c r="F79" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="183"/>
-      <c r="H79" s="183"/>
+      <c r="G79" s="188"/>
+      <c r="H79" s="188"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -20233,8 +20257,8 @@
       <c r="F80" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="183"/>
-      <c r="H80" s="183"/>
+      <c r="G80" s="188"/>
+      <c r="H80" s="188"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -20253,8 +20277,8 @@
       <c r="F81" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="183"/>
-      <c r="H81" s="183"/>
+      <c r="G81" s="188"/>
+      <c r="H81" s="188"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -20273,8 +20297,8 @@
       <c r="F82" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="183"/>
-      <c r="H82" s="183"/>
+      <c r="G82" s="188"/>
+      <c r="H82" s="188"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -20293,8 +20317,8 @@
       <c r="F83" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="183"/>
-      <c r="H83" s="183"/>
+      <c r="G83" s="188"/>
+      <c r="H83" s="188"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -20313,8 +20337,8 @@
       <c r="F84" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="183"/>
-      <c r="H84" s="183"/>
+      <c r="G84" s="188"/>
+      <c r="H84" s="188"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -20333,8 +20357,8 @@
       <c r="F85" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="183"/>
-      <c r="H85" s="183"/>
+      <c r="G85" s="188"/>
+      <c r="H85" s="188"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -20353,8 +20377,8 @@
       <c r="F86" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="183"/>
-      <c r="H86" s="183"/>
+      <c r="G86" s="188"/>
+      <c r="H86" s="188"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -20373,8 +20397,8 @@
       <c r="F87" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="183"/>
-      <c r="H87" s="183"/>
+      <c r="G87" s="188"/>
+      <c r="H87" s="188"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -20393,8 +20417,8 @@
       <c r="F88" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="183"/>
-      <c r="H88" s="183"/>
+      <c r="G88" s="188"/>
+      <c r="H88" s="188"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -20413,8 +20437,8 @@
       <c r="F89" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="183"/>
-      <c r="H89" s="183"/>
+      <c r="G89" s="188"/>
+      <c r="H89" s="188"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -20433,8 +20457,8 @@
       <c r="F90" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="183"/>
-      <c r="H90" s="183"/>
+      <c r="G90" s="188"/>
+      <c r="H90" s="188"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -20453,8 +20477,8 @@
       <c r="F91" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="183"/>
-      <c r="H91" s="183"/>
+      <c r="G91" s="188"/>
+      <c r="H91" s="188"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -20473,8 +20497,8 @@
       <c r="F92" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="183"/>
-      <c r="H92" s="183"/>
+      <c r="G92" s="188"/>
+      <c r="H92" s="188"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -20493,8 +20517,8 @@
       <c r="F93" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="183"/>
-      <c r="H93" s="183"/>
+      <c r="G93" s="188"/>
+      <c r="H93" s="188"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -20597,8 +20621,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="192"/>
-      <c r="H98" s="192"/>
+      <c r="G98" s="183"/>
+      <c r="H98" s="183"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20619,10 +20643,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="183" t="s">
+      <c r="G99" s="188" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="183"/>
+      <c r="H99" s="188"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -20643,10 +20667,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="183" t="s">
+      <c r="G100" s="188" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="183"/>
+      <c r="H100" s="188"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -20667,10 +20691,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="183" t="s">
+      <c r="G101" s="188" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="183"/>
+      <c r="H101" s="188"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -20689,8 +20713,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="183"/>
-      <c r="H102" s="183"/>
+      <c r="G102" s="188"/>
+      <c r="H102" s="188"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -20709,8 +20733,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="183"/>
-      <c r="H103" s="183"/>
+      <c r="G103" s="188"/>
+      <c r="H103" s="188"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -20731,8 +20755,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="183"/>
-      <c r="H104" s="183"/>
+      <c r="G104" s="188"/>
+      <c r="H104" s="188"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -20751,8 +20775,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="183"/>
-      <c r="H105" s="183"/>
+      <c r="G105" s="188"/>
+      <c r="H105" s="188"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -20771,8 +20795,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="183"/>
-      <c r="H106" s="183"/>
+      <c r="G106" s="188"/>
+      <c r="H106" s="188"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -20791,8 +20815,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="183"/>
-      <c r="H107" s="183"/>
+      <c r="G107" s="188"/>
+      <c r="H107" s="188"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -20813,8 +20837,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="183"/>
-      <c r="H108" s="183"/>
+      <c r="G108" s="188"/>
+      <c r="H108" s="188"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -20835,10 +20859,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="202" t="s">
+      <c r="G109" s="193" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="203"/>
+      <c r="H109" s="194"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -20855,8 +20879,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="204"/>
-      <c r="H110" s="205"/>
+      <c r="G110" s="195"/>
+      <c r="H110" s="196"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -20873,8 +20897,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="204"/>
-      <c r="H111" s="205"/>
+      <c r="G111" s="195"/>
+      <c r="H111" s="196"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -20891,8 +20915,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="204"/>
-      <c r="H112" s="205"/>
+      <c r="G112" s="195"/>
+      <c r="H112" s="196"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -20909,8 +20933,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="204"/>
-      <c r="H113" s="205"/>
+      <c r="G113" s="195"/>
+      <c r="H113" s="196"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -20927,8 +20951,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="204"/>
-      <c r="H114" s="205"/>
+      <c r="G114" s="195"/>
+      <c r="H114" s="196"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -20945,8 +20969,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="204"/>
-      <c r="H115" s="205"/>
+      <c r="G115" s="195"/>
+      <c r="H115" s="196"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -20963,8 +20987,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="204"/>
-      <c r="H116" s="205"/>
+      <c r="G116" s="195"/>
+      <c r="H116" s="196"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -20981,8 +21005,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="204"/>
-      <c r="H117" s="205"/>
+      <c r="G117" s="195"/>
+      <c r="H117" s="196"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -20999,8 +21023,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="204"/>
-      <c r="H118" s="205"/>
+      <c r="G118" s="195"/>
+      <c r="H118" s="196"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -21017,8 +21041,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="204"/>
-      <c r="H119" s="205"/>
+      <c r="G119" s="195"/>
+      <c r="H119" s="196"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -21035,8 +21059,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="204"/>
-      <c r="H120" s="205"/>
+      <c r="G120" s="195"/>
+      <c r="H120" s="196"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -21053,8 +21077,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="206"/>
-      <c r="H121" s="207"/>
+      <c r="G121" s="197"/>
+      <c r="H121" s="198"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21190,13 +21214,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="193" t="s">
+      <c r="B135" s="199" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="193"/>
-      <c r="D135" s="193"/>
-      <c r="E135" s="193"/>
-      <c r="F135" s="193"/>
+      <c r="C135" s="199"/>
+      <c r="D135" s="199"/>
+      <c r="E135" s="199"/>
+      <c r="F135" s="199"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21217,10 +21241,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="195" t="s">
+      <c r="G136" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="195"/>
+      <c r="H136" s="192"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -21236,8 +21260,8 @@
       <c r="E137" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F137" s="159" t="s">
-        <v>501</v>
+      <c r="F137" s="214" t="s">
+        <v>893</v>
       </c>
       <c r="G137" s="184"/>
       <c r="H137" s="185"/>
@@ -21261,10 +21285,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="189" t="s">
+      <c r="G138" s="205" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="183"/>
+      <c r="H138" s="188"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -21283,10 +21307,10 @@
         <v>758</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="G139" s="183"/>
-      <c r="H139" s="183"/>
+        <v>501</v>
+      </c>
+      <c r="G139" s="188"/>
+      <c r="H139" s="188"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -21295,7 +21319,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="208" t="s">
+      <c r="C140" s="186" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="162" t="s">
@@ -21305,10 +21329,10 @@
         <v>632</v>
       </c>
       <c r="F140" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G140" s="183"/>
-      <c r="H140" s="183"/>
+        <v>883</v>
+      </c>
+      <c r="G140" s="188"/>
+      <c r="H140" s="188"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -21317,7 +21341,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="209"/>
+      <c r="C141" s="187"/>
       <c r="D141" s="162" t="s">
         <v>797</v>
       </c>
@@ -21325,10 +21349,10 @@
         <v>632</v>
       </c>
       <c r="F141" s="159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G141" s="183"/>
-      <c r="H141" s="183"/>
+        <v>883</v>
+      </c>
+      <c r="G141" s="188"/>
+      <c r="H141" s="188"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -21337,7 +21361,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="208" t="s">
+      <c r="C142" s="186" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21349,8 +21373,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="183"/>
-      <c r="H142" s="183"/>
+      <c r="G142" s="188"/>
+      <c r="H142" s="188"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -21359,7 +21383,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="209"/>
+      <c r="C143" s="187"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21369,8 +21393,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="183"/>
-      <c r="H143" s="183"/>
+      <c r="G143" s="188"/>
+      <c r="H143" s="188"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -21379,7 +21403,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="208" t="s">
+      <c r="C144" s="186" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21401,7 +21425,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="209"/>
+      <c r="C145" s="187"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -21411,8 +21435,8 @@
       <c r="F145" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="G145" s="183"/>
-      <c r="H145" s="183"/>
+      <c r="G145" s="188"/>
+      <c r="H145" s="188"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -21433,8 +21457,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="183"/>
-      <c r="H146" s="183"/>
+      <c r="G146" s="188"/>
+      <c r="H146" s="188"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -21453,8 +21477,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="183"/>
-      <c r="H147" s="183"/>
+      <c r="G147" s="188"/>
+      <c r="H147" s="188"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -21473,8 +21497,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="183"/>
-      <c r="H148" s="183"/>
+      <c r="G148" s="188"/>
+      <c r="H148" s="188"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -21495,10 +21519,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="183" t="s">
+      <c r="G149" s="188" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="183"/>
+      <c r="H149" s="188"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -21519,10 +21543,10 @@
       <c r="F150" s="159" t="s">
         <v>883</v>
       </c>
-      <c r="G150" s="183" t="s">
+      <c r="G150" s="188" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="183"/>
+      <c r="H150" s="188"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -21543,10 +21567,10 @@
       <c r="F151" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="G151" s="183" t="s">
+      <c r="G151" s="188" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="183"/>
+      <c r="H151" s="188"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -21567,8 +21591,8 @@
       <c r="F152" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="183"/>
-      <c r="H152" s="183"/>
+      <c r="G152" s="188"/>
+      <c r="H152" s="188"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -21587,8 +21611,8 @@
       <c r="F153" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="183"/>
-      <c r="H153" s="183"/>
+      <c r="G153" s="188"/>
+      <c r="H153" s="188"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -21607,8 +21631,8 @@
       <c r="F154" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="183"/>
-      <c r="H154" s="183"/>
+      <c r="G154" s="188"/>
+      <c r="H154" s="188"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -21627,8 +21651,8 @@
       <c r="F155" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="183"/>
-      <c r="H155" s="183"/>
+      <c r="G155" s="188"/>
+      <c r="H155" s="188"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -21647,8 +21671,8 @@
       <c r="F156" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="183"/>
-      <c r="H156" s="183"/>
+      <c r="G156" s="188"/>
+      <c r="H156" s="188"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -21667,8 +21691,8 @@
       <c r="F157" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="183"/>
-      <c r="H157" s="183"/>
+      <c r="G157" s="188"/>
+      <c r="H157" s="188"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -21687,8 +21711,8 @@
       <c r="F158" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="183"/>
-      <c r="H158" s="183"/>
+      <c r="G158" s="188"/>
+      <c r="H158" s="188"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -21707,8 +21731,8 @@
       <c r="F159" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="183"/>
-      <c r="H159" s="183"/>
+      <c r="G159" s="188"/>
+      <c r="H159" s="188"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -21727,8 +21751,8 @@
       <c r="F160" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="183"/>
-      <c r="H160" s="183"/>
+      <c r="G160" s="188"/>
+      <c r="H160" s="188"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -21747,8 +21771,8 @@
       <c r="F161" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="183"/>
-      <c r="H161" s="183"/>
+      <c r="G161" s="188"/>
+      <c r="H161" s="188"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -21767,8 +21791,8 @@
       <c r="F162" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="183"/>
-      <c r="H162" s="183"/>
+      <c r="G162" s="188"/>
+      <c r="H162" s="188"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -21787,8 +21811,8 @@
       <c r="F163" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="183"/>
-      <c r="H163" s="183"/>
+      <c r="G163" s="188"/>
+      <c r="H163" s="188"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -21807,8 +21831,8 @@
       <c r="F164" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="183"/>
-      <c r="H164" s="183"/>
+      <c r="G164" s="188"/>
+      <c r="H164" s="188"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -21827,8 +21851,8 @@
       <c r="F165" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="183"/>
-      <c r="H165" s="183"/>
+      <c r="G165" s="188"/>
+      <c r="H165" s="188"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -21847,8 +21871,8 @@
       <c r="F166" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="183"/>
-      <c r="H166" s="183"/>
+      <c r="G166" s="188"/>
+      <c r="H166" s="188"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -21867,8 +21891,8 @@
       <c r="F167" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="183"/>
-      <c r="H167" s="183"/>
+      <c r="G167" s="188"/>
+      <c r="H167" s="188"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -21887,8 +21911,8 @@
       <c r="F168" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="183"/>
-      <c r="H168" s="183"/>
+      <c r="G168" s="188"/>
+      <c r="H168" s="188"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -21907,8 +21931,8 @@
       <c r="F169" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="183"/>
-      <c r="H169" s="183"/>
+      <c r="G169" s="188"/>
+      <c r="H169" s="188"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -21927,8 +21951,8 @@
       <c r="F170" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="183"/>
-      <c r="H170" s="183"/>
+      <c r="G170" s="188"/>
+      <c r="H170" s="188"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -21947,8 +21971,8 @@
       <c r="F171" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="183"/>
-      <c r="H171" s="183"/>
+      <c r="G171" s="188"/>
+      <c r="H171" s="188"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -21967,8 +21991,8 @@
       <c r="F172" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="183"/>
-      <c r="H172" s="183"/>
+      <c r="G172" s="188"/>
+      <c r="H172" s="188"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -21987,8 +22011,8 @@
       <c r="F173" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="183"/>
-      <c r="H173" s="183"/>
+      <c r="G173" s="188"/>
+      <c r="H173" s="188"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -22007,8 +22031,8 @@
       <c r="F174" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="183"/>
-      <c r="H174" s="183"/>
+      <c r="G174" s="188"/>
+      <c r="H174" s="188"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -22027,8 +22051,8 @@
       <c r="F175" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="183"/>
-      <c r="H175" s="183"/>
+      <c r="G175" s="188"/>
+      <c r="H175" s="188"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="164">
@@ -22037,7 +22061,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="186" t="s">
+      <c r="C176" s="207" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22046,11 +22070,13 @@
       <c r="E176" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F176" s="165" t="s">
-        <v>883</v>
-      </c>
-      <c r="G176" s="183"/>
-      <c r="H176" s="183"/>
+      <c r="F176" s="214" t="s">
+        <v>894</v>
+      </c>
+      <c r="G176" s="215" t="s">
+        <v>895</v>
+      </c>
+      <c r="H176" s="216"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="164">
@@ -22059,18 +22085,18 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="187"/>
+      <c r="C177" s="208"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F177" s="165" t="s">
+      <c r="F177" s="214" t="s">
         <v>883</v>
       </c>
-      <c r="G177" s="183"/>
-      <c r="H177" s="183"/>
+      <c r="G177" s="217"/>
+      <c r="H177" s="218"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="164">
@@ -22079,7 +22105,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="186" t="s">
+      <c r="C178" s="207" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22091,8 +22117,8 @@
       <c r="F178" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="183"/>
-      <c r="H178" s="183"/>
+      <c r="G178" s="188"/>
+      <c r="H178" s="188"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="164">
@@ -22101,7 +22127,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="187"/>
+      <c r="C179" s="208"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -22111,8 +22137,8 @@
       <c r="F179" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="183"/>
-      <c r="H179" s="183"/>
+      <c r="G179" s="188"/>
+      <c r="H179" s="188"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="164">
@@ -22121,7 +22147,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="186" t="s">
+      <c r="C180" s="207" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22133,8 +22159,8 @@
       <c r="F180" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="183"/>
-      <c r="H180" s="183"/>
+      <c r="G180" s="188"/>
+      <c r="H180" s="188"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="164">
@@ -22143,7 +22169,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="188"/>
+      <c r="C181" s="209"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -22153,8 +22179,8 @@
       <c r="F181" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="183"/>
-      <c r="H181" s="183"/>
+      <c r="G181" s="188"/>
+      <c r="H181" s="188"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="164">
@@ -22163,7 +22189,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="188"/>
+      <c r="C182" s="209"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -22173,8 +22199,8 @@
       <c r="F182" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="183"/>
-      <c r="H182" s="183"/>
+      <c r="G182" s="188"/>
+      <c r="H182" s="188"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="164">
@@ -22183,7 +22209,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="188"/>
+      <c r="C183" s="209"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -22193,8 +22219,8 @@
       <c r="F183" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G183" s="183"/>
-      <c r="H183" s="183"/>
+      <c r="G183" s="188"/>
+      <c r="H183" s="188"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="164">
@@ -22203,7 +22229,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="188"/>
+      <c r="C184" s="209"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -22213,8 +22239,8 @@
       <c r="F184" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="183"/>
-      <c r="H184" s="183"/>
+      <c r="G184" s="188"/>
+      <c r="H184" s="188"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="164">
@@ -22223,7 +22249,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="188"/>
+      <c r="C185" s="209"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -22233,8 +22259,8 @@
       <c r="F185" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="183"/>
-      <c r="H185" s="183"/>
+      <c r="G185" s="188"/>
+      <c r="H185" s="188"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="164">
@@ -22243,7 +22269,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="188"/>
+      <c r="C186" s="209"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -22253,8 +22279,8 @@
       <c r="F186" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="183"/>
-      <c r="H186" s="183"/>
+      <c r="G186" s="188"/>
+      <c r="H186" s="188"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="164">
@@ -22263,7 +22289,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="188"/>
+      <c r="C187" s="209"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -22273,8 +22299,8 @@
       <c r="F187" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="183"/>
-      <c r="H187" s="183"/>
+      <c r="G187" s="188"/>
+      <c r="H187" s="188"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="164">
@@ -22283,7 +22309,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="188"/>
+      <c r="C188" s="209"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -22293,8 +22319,8 @@
       <c r="F188" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G188" s="183"/>
-      <c r="H188" s="183"/>
+      <c r="G188" s="188"/>
+      <c r="H188" s="188"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="164">
@@ -22303,7 +22329,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="188"/>
+      <c r="C189" s="209"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -22313,8 +22339,8 @@
       <c r="F189" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="183"/>
-      <c r="H189" s="183"/>
+      <c r="G189" s="188"/>
+      <c r="H189" s="188"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="164">
@@ -22323,7 +22349,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="188"/>
+      <c r="C190" s="209"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -22333,8 +22359,8 @@
       <c r="F190" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="183"/>
-      <c r="H190" s="183"/>
+      <c r="G190" s="188"/>
+      <c r="H190" s="188"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="164">
@@ -22343,7 +22369,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="188"/>
+      <c r="C191" s="209"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -22353,8 +22379,8 @@
       <c r="F191" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="183"/>
-      <c r="H191" s="183"/>
+      <c r="G191" s="188"/>
+      <c r="H191" s="188"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="164">
@@ -22363,7 +22389,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="188"/>
+      <c r="C192" s="209"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -22373,8 +22399,8 @@
       <c r="F192" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="183"/>
-      <c r="H192" s="183"/>
+      <c r="G192" s="188"/>
+      <c r="H192" s="188"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="164">
@@ -22383,7 +22409,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="188"/>
+      <c r="C193" s="209"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -22393,8 +22419,8 @@
       <c r="F193" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="183"/>
-      <c r="H193" s="183"/>
+      <c r="G193" s="188"/>
+      <c r="H193" s="188"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="164">
@@ -22403,7 +22429,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="188"/>
+      <c r="C194" s="209"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -22413,8 +22439,8 @@
       <c r="F194" s="165" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="183"/>
-      <c r="H194" s="183"/>
+      <c r="G194" s="188"/>
+      <c r="H194" s="188"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="164">
@@ -22423,7 +22449,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="188"/>
+      <c r="C195" s="209"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -22433,8 +22459,8 @@
       <c r="F195" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="183"/>
-      <c r="H195" s="183"/>
+      <c r="G195" s="188"/>
+      <c r="H195" s="188"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="164">
@@ -22443,7 +22469,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="188"/>
+      <c r="C196" s="209"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -22453,8 +22479,8 @@
       <c r="F196" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="183"/>
-      <c r="H196" s="183"/>
+      <c r="G196" s="188"/>
+      <c r="H196" s="188"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="164">
@@ -22463,7 +22489,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="188"/>
+      <c r="C197" s="209"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -22473,8 +22499,8 @@
       <c r="F197" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="183"/>
-      <c r="H197" s="183"/>
+      <c r="G197" s="188"/>
+      <c r="H197" s="188"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="164">
@@ -22483,7 +22509,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="188"/>
+      <c r="C198" s="209"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -22493,8 +22519,8 @@
       <c r="F198" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G198" s="183"/>
-      <c r="H198" s="183"/>
+      <c r="G198" s="188"/>
+      <c r="H198" s="188"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="164">
@@ -22503,7 +22529,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="188"/>
+      <c r="C199" s="209"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -22513,8 +22539,8 @@
       <c r="F199" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G199" s="183"/>
-      <c r="H199" s="183"/>
+      <c r="G199" s="188"/>
+      <c r="H199" s="188"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="164">
@@ -22523,7 +22549,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="188"/>
+      <c r="C200" s="209"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -22533,8 +22559,8 @@
       <c r="F200" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="183"/>
-      <c r="H200" s="183"/>
+      <c r="G200" s="188"/>
+      <c r="H200" s="188"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="164">
@@ -22543,7 +22569,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="188"/>
+      <c r="C201" s="209"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -22553,8 +22579,8 @@
       <c r="F201" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="183"/>
-      <c r="H201" s="183"/>
+      <c r="G201" s="188"/>
+      <c r="H201" s="188"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="164">
@@ -22563,7 +22589,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="188"/>
+      <c r="C202" s="209"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -22573,8 +22599,8 @@
       <c r="F202" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="183"/>
-      <c r="H202" s="183"/>
+      <c r="G202" s="188"/>
+      <c r="H202" s="188"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="164">
@@ -22583,7 +22609,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="187"/>
+      <c r="C203" s="208"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -22593,8 +22619,8 @@
       <c r="F203" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="183"/>
-      <c r="H203" s="183"/>
+      <c r="G203" s="188"/>
+      <c r="H203" s="188"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="164">
@@ -22615,8 +22641,8 @@
       <c r="F204" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="183"/>
-      <c r="H204" s="183"/>
+      <c r="G204" s="188"/>
+      <c r="H204" s="188"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="164">
@@ -22635,10 +22661,10 @@
       <c r="F205" s="168" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="183" t="s">
+      <c r="G205" s="188" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="183"/>
+      <c r="H205" s="188"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="169">
@@ -22703,8 +22729,8 @@
       <c r="F208" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="G208" s="192"/>
-      <c r="H208" s="192"/>
+      <c r="G208" s="183"/>
+      <c r="H208" s="183"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22927,48 +22953,180 @@
       <c r="H223" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="201" t="s">
+      <c r="A227" s="191" t="s">
         <v>528</v>
       </c>
-      <c r="B227" s="201"/>
-      <c r="C227" s="201"/>
-      <c r="D227" s="201"/>
+      <c r="B227" s="191"/>
+      <c r="C227" s="191"/>
+      <c r="D227" s="191"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="105">
         <v>1</v>
       </c>
-      <c r="B228" s="183" t="s">
+      <c r="B228" s="188" t="s">
         <v>560</v>
       </c>
-      <c r="C228" s="183"/>
-      <c r="D228" s="183"/>
+      <c r="C228" s="188"/>
+      <c r="D228" s="188"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="105">
         <v>2</v>
       </c>
-      <c r="B229" s="183" t="s">
+      <c r="B229" s="188" t="s">
         <v>568</v>
       </c>
-      <c r="C229" s="183"/>
-      <c r="D229" s="183"/>
+      <c r="C229" s="188"/>
+      <c r="D229" s="188"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="147">
         <v>2.1</v>
       </c>
-      <c r="B230" s="183" t="s">
+      <c r="B230" s="188" t="s">
         <v>704</v>
       </c>
-      <c r="C230" s="183"/>
-      <c r="D230" s="183"/>
+      <c r="C230" s="188"/>
+      <c r="D230" s="188"/>
     </row>
   </sheetData>
   <autoFilter ref="A136:H206" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="157">
+  <mergeCells count="156">
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
     <mergeCell ref="G208:H208"/>
     <mergeCell ref="G206:H206"/>
     <mergeCell ref="C146:C148"/>
@@ -22993,139 +23151,6 @@
     <mergeCell ref="G184:H184"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E7EAE5DA-3F1C-4C63-9B93-417BE6493BEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{858AC81D-8AD2-4958-A119-AAF677940B96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3656,6 +3656,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3680,9 +3683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3690,13 +3690,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3704,11 +3722,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3728,38 +3770,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3772,21 +3787,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -13016,7 +13016,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="175" t="s">
+      <c r="A2" s="176" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="116">
@@ -13042,7 +13042,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="176"/>
+      <c r="A3" s="177"/>
       <c r="B3" s="116">
         <v>102</v>
       </c>
@@ -13066,7 +13066,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="176"/>
+      <c r="A4" s="177"/>
       <c r="B4" s="116">
         <v>103</v>
       </c>
@@ -13090,7 +13090,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="176"/>
+      <c r="A5" s="177"/>
       <c r="B5" s="116">
         <v>104</v>
       </c>
@@ -13114,7 +13114,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="176"/>
+      <c r="A6" s="177"/>
       <c r="B6" s="116">
         <v>105</v>
       </c>
@@ -13138,7 +13138,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="176"/>
+      <c r="A7" s="177"/>
       <c r="B7" s="148">
         <v>106</v>
       </c>
@@ -13160,7 +13160,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="176"/>
+      <c r="A8" s="177"/>
       <c r="B8" s="116">
         <v>107</v>
       </c>
@@ -13180,7 +13180,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="176"/>
+      <c r="A9" s="177"/>
       <c r="B9" s="116">
         <v>108</v>
       </c>
@@ -13200,7 +13200,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="176"/>
+      <c r="A10" s="177"/>
       <c r="B10" s="116">
         <v>109</v>
       </c>
@@ -13220,7 +13220,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="177"/>
+      <c r="A11" s="178"/>
       <c r="B11" s="22">
         <v>110</v>
       </c>
@@ -13238,7 +13238,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="176" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="116">
@@ -13260,7 +13260,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="176"/>
+      <c r="A13" s="177"/>
       <c r="B13" s="116">
         <v>202</v>
       </c>
@@ -13280,7 +13280,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="176"/>
+      <c r="A14" s="177"/>
       <c r="B14" s="116">
         <v>203</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="177"/>
+      <c r="A15" s="178"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -13310,7 +13310,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="176" t="s">
         <v>604</v>
       </c>
       <c r="B16" s="116">
@@ -13332,7 +13332,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="176"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="116">
         <v>302</v>
       </c>
@@ -13352,7 +13352,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="176"/>
+      <c r="A18" s="177"/>
       <c r="B18" s="116">
         <v>303</v>
       </c>
@@ -13372,7 +13372,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="176"/>
+      <c r="A19" s="177"/>
       <c r="B19" s="116">
         <v>304</v>
       </c>
@@ -13392,7 +13392,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="176"/>
+      <c r="A20" s="177"/>
       <c r="B20" s="116">
         <v>305</v>
       </c>
@@ -13412,7 +13412,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="176"/>
+      <c r="A21" s="177"/>
       <c r="B21" s="122">
         <v>306</v>
       </c>
@@ -13436,7 +13436,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="176"/>
+      <c r="A22" s="177"/>
       <c r="B22" s="122">
         <v>307</v>
       </c>
@@ -13456,7 +13456,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="176"/>
+      <c r="A23" s="177"/>
       <c r="B23" s="122">
         <v>308</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="H23" s="132"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="176"/>
+      <c r="A24" s="177"/>
       <c r="B24" s="122">
         <v>309</v>
       </c>
@@ -13492,7 +13492,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="176"/>
+      <c r="A25" s="177"/>
       <c r="B25" s="122">
         <v>310</v>
       </c>
@@ -13512,7 +13512,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="176"/>
+      <c r="A26" s="177"/>
       <c r="B26" s="122">
         <v>311</v>
       </c>
@@ -13532,7 +13532,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="176"/>
+      <c r="A27" s="177"/>
       <c r="B27" s="122">
         <v>312</v>
       </c>
@@ -13552,7 +13552,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="176"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="122">
         <v>313</v>
       </c>
@@ -13572,7 +13572,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="176"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="122">
         <v>314</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="176"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="122">
         <v>315</v>
       </c>
@@ -13612,7 +13612,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="176"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="122">
         <v>316</v>
       </c>
@@ -13632,7 +13632,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="176"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="122">
         <v>317</v>
       </c>
@@ -13652,7 +13652,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="176"/>
+      <c r="A33" s="177"/>
       <c r="B33" s="122">
         <v>318</v>
       </c>
@@ -13672,7 +13672,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="176"/>
+      <c r="A34" s="177"/>
       <c r="B34" s="122">
         <v>319</v>
       </c>
@@ -13692,7 +13692,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="176"/>
+      <c r="A35" s="177"/>
       <c r="B35" s="122">
         <v>320</v>
       </c>
@@ -13712,7 +13712,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="176"/>
+      <c r="A36" s="177"/>
       <c r="B36" s="122">
         <v>321</v>
       </c>
@@ -13732,7 +13732,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="176"/>
+      <c r="A37" s="177"/>
       <c r="B37" s="122">
         <v>322</v>
       </c>
@@ -13752,7 +13752,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="176"/>
+      <c r="A38" s="177"/>
       <c r="B38" s="122">
         <v>323</v>
       </c>
@@ -13772,7 +13772,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="176"/>
+      <c r="A39" s="177"/>
       <c r="B39" s="122">
         <v>324</v>
       </c>
@@ -13792,7 +13792,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="177"/>
+      <c r="A40" s="178"/>
       <c r="B40" s="122"/>
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
@@ -13802,7 +13802,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="176" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="22">
@@ -13828,7 +13828,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="176"/>
+      <c r="A42" s="177"/>
       <c r="B42" s="22">
         <v>402</v>
       </c>
@@ -13852,7 +13852,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="176"/>
+      <c r="A43" s="177"/>
       <c r="B43" s="22">
         <v>403</v>
       </c>
@@ -13876,7 +13876,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="176"/>
+      <c r="A44" s="177"/>
       <c r="B44" s="166">
         <v>404</v>
       </c>
@@ -13900,7 +13900,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="176"/>
+      <c r="A45" s="177"/>
       <c r="B45" s="166">
         <v>405</v>
       </c>
@@ -13924,7 +13924,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="176"/>
+      <c r="A46" s="177"/>
       <c r="B46" s="22">
         <v>406</v>
       </c>
@@ -13948,7 +13948,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="176"/>
+      <c r="A47" s="177"/>
       <c r="B47" s="22">
         <v>407</v>
       </c>
@@ -13972,7 +13972,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="176"/>
+      <c r="A48" s="177"/>
       <c r="B48" s="22">
         <v>408</v>
       </c>
@@ -13996,7 +13996,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="176"/>
+      <c r="A49" s="177"/>
       <c r="B49" s="166">
         <v>409</v>
       </c>
@@ -14020,7 +14020,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="176"/>
+      <c r="A50" s="177"/>
       <c r="B50" s="22">
         <v>410</v>
       </c>
@@ -14044,7 +14044,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="176"/>
+      <c r="A51" s="177"/>
       <c r="B51" s="167">
         <v>411</v>
       </c>
@@ -14068,7 +14068,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="176"/>
+      <c r="A52" s="177"/>
       <c r="B52" s="22">
         <v>412</v>
       </c>
@@ -14092,7 +14092,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="176"/>
+      <c r="A53" s="177"/>
       <c r="B53" s="22">
         <v>413</v>
       </c>
@@ -14116,7 +14116,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="176"/>
+      <c r="A54" s="177"/>
       <c r="B54" s="122">
         <v>414</v>
       </c>
@@ -14140,7 +14140,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="176"/>
+      <c r="A55" s="177"/>
       <c r="B55" s="122">
         <v>415</v>
       </c>
@@ -14164,7 +14164,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="176"/>
+      <c r="A56" s="177"/>
       <c r="B56" s="122">
         <v>416</v>
       </c>
@@ -14188,7 +14188,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="176"/>
+      <c r="A57" s="177"/>
       <c r="B57" s="122">
         <v>417</v>
       </c>
@@ -14212,7 +14212,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="176"/>
+      <c r="A58" s="177"/>
       <c r="B58" s="122">
         <v>418</v>
       </c>
@@ -14236,7 +14236,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="176"/>
+      <c r="A59" s="177"/>
       <c r="B59" s="122">
         <v>419</v>
       </c>
@@ -14254,7 +14254,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="176"/>
+      <c r="A60" s="177"/>
       <c r="B60" s="161">
         <v>420</v>
       </c>
@@ -14278,7 +14278,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="176"/>
+      <c r="A61" s="177"/>
       <c r="B61" s="161">
         <v>421</v>
       </c>
@@ -14302,7 +14302,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="176"/>
+      <c r="A62" s="177"/>
       <c r="B62" s="161">
         <v>422</v>
       </c>
@@ -14326,7 +14326,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="176"/>
+      <c r="A63" s="177"/>
       <c r="B63" s="161">
         <v>423</v>
       </c>
@@ -14350,7 +14350,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="176"/>
+      <c r="A64" s="177"/>
       <c r="B64" s="161">
         <v>424</v>
       </c>
@@ -14374,7 +14374,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="176"/>
+      <c r="A65" s="177"/>
       <c r="B65" s="161">
         <v>425</v>
       </c>
@@ -14398,7 +14398,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="176"/>
+      <c r="A66" s="177"/>
       <c r="B66" s="161">
         <v>426</v>
       </c>
@@ -14422,7 +14422,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="176"/>
+      <c r="A67" s="177"/>
       <c r="B67" s="161">
         <v>427</v>
       </c>
@@ -14446,7 +14446,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="176"/>
+      <c r="A68" s="177"/>
       <c r="B68" s="161">
         <v>428</v>
       </c>
@@ -14470,7 +14470,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="176"/>
+      <c r="A69" s="177"/>
       <c r="B69" s="161">
         <v>429</v>
       </c>
@@ -14494,7 +14494,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="176"/>
+      <c r="A70" s="177"/>
       <c r="B70" s="161">
         <v>430</v>
       </c>
@@ -14518,7 +14518,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="176"/>
+      <c r="A71" s="177"/>
       <c r="B71" s="161">
         <v>431</v>
       </c>
@@ -14542,7 +14542,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="176"/>
+      <c r="A72" s="177"/>
       <c r="B72" s="161">
         <v>432</v>
       </c>
@@ -14566,7 +14566,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="176"/>
+      <c r="A73" s="177"/>
       <c r="B73" s="161">
         <v>433</v>
       </c>
@@ -14590,7 +14590,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="176"/>
+      <c r="A74" s="177"/>
       <c r="B74" s="161">
         <v>434</v>
       </c>
@@ -14614,7 +14614,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="176"/>
+      <c r="A75" s="177"/>
       <c r="B75" s="161">
         <v>435</v>
       </c>
@@ -14638,7 +14638,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="176"/>
+      <c r="A76" s="177"/>
       <c r="B76" s="161">
         <v>436</v>
       </c>
@@ -14662,7 +14662,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="176"/>
+      <c r="A77" s="177"/>
       <c r="B77" s="161">
         <v>437</v>
       </c>
@@ -14686,7 +14686,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="176"/>
+      <c r="A78" s="177"/>
       <c r="B78" s="161">
         <v>438</v>
       </c>
@@ -14710,7 +14710,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="176"/>
+      <c r="A79" s="177"/>
       <c r="B79" s="161">
         <v>439</v>
       </c>
@@ -14734,7 +14734,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="176"/>
+      <c r="A80" s="177"/>
       <c r="B80" s="161">
         <v>440</v>
       </c>
@@ -14758,7 +14758,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="176"/>
+      <c r="A81" s="177"/>
       <c r="B81" s="161">
         <v>441</v>
       </c>
@@ -14782,7 +14782,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="176"/>
+      <c r="A82" s="177"/>
       <c r="B82" s="161">
         <v>442</v>
       </c>
@@ -14806,7 +14806,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="176"/>
+      <c r="A83" s="177"/>
       <c r="B83" s="161">
         <v>443</v>
       </c>
@@ -14830,7 +14830,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="176"/>
+      <c r="A84" s="177"/>
       <c r="B84" s="161">
         <v>444</v>
       </c>
@@ -14854,7 +14854,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="176"/>
+      <c r="A85" s="177"/>
       <c r="B85" s="161">
         <v>445</v>
       </c>
@@ -14878,7 +14878,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="176"/>
+      <c r="A86" s="177"/>
       <c r="B86" s="161">
         <v>446</v>
       </c>
@@ -14902,7 +14902,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="176"/>
+      <c r="A87" s="177"/>
       <c r="B87" s="161">
         <v>447</v>
       </c>
@@ -14926,7 +14926,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="176"/>
+      <c r="A88" s="177"/>
       <c r="B88" s="161">
         <v>448</v>
       </c>
@@ -14950,7 +14950,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="176"/>
+      <c r="A89" s="177"/>
       <c r="B89" s="122">
         <v>449</v>
       </c>
@@ -14974,7 +14974,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="176"/>
+      <c r="A90" s="177"/>
       <c r="B90" s="122">
         <v>450</v>
       </c>
@@ -14996,7 +14996,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="176"/>
+      <c r="A91" s="177"/>
       <c r="B91" s="161">
         <v>451</v>
       </c>
@@ -15018,7 +15018,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="176"/>
+      <c r="A92" s="177"/>
       <c r="B92" s="122">
         <v>452</v>
       </c>
@@ -15042,7 +15042,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="176"/>
+      <c r="A93" s="177"/>
       <c r="B93" s="122">
         <v>453</v>
       </c>
@@ -15066,7 +15066,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="176"/>
+      <c r="A94" s="177"/>
       <c r="B94" s="122">
         <v>454</v>
       </c>
@@ -15090,7 +15090,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="176"/>
+      <c r="A95" s="177"/>
       <c r="B95" s="122">
         <v>455</v>
       </c>
@@ -15112,7 +15112,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="176"/>
+      <c r="A96" s="177"/>
       <c r="B96" s="122">
         <v>456</v>
       </c>
@@ -15136,7 +15136,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="176"/>
+      <c r="A97" s="177"/>
       <c r="B97" s="122">
         <v>457</v>
       </c>
@@ -15158,7 +15158,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="176"/>
+      <c r="A98" s="177"/>
       <c r="B98" s="122">
         <v>458</v>
       </c>
@@ -15180,7 +15180,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="176"/>
+      <c r="A99" s="177"/>
       <c r="B99" s="122">
         <v>459</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="176"/>
+      <c r="A100" s="177"/>
       <c r="B100" s="122">
         <v>460</v>
       </c>
@@ -15224,7 +15224,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="176"/>
+      <c r="A101" s="177"/>
       <c r="B101" s="122">
         <v>461</v>
       </c>
@@ -15246,7 +15246,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="176"/>
+      <c r="A102" s="177"/>
       <c r="B102" s="122">
         <v>462</v>
       </c>
@@ -15266,7 +15266,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="176"/>
+      <c r="A103" s="177"/>
       <c r="B103" s="122">
         <v>463</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="176"/>
+      <c r="A104" s="177"/>
       <c r="B104" s="122">
         <v>464</v>
       </c>
@@ -15308,7 +15308,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="176"/>
+      <c r="A105" s="177"/>
       <c r="B105" s="22">
         <v>465</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="176"/>
+      <c r="A106" s="177"/>
       <c r="B106" s="22">
         <v>466</v>
       </c>
@@ -15348,7 +15348,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="176"/>
+      <c r="A107" s="177"/>
       <c r="B107" s="22">
         <v>467</v>
       </c>
@@ -15368,7 +15368,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="176"/>
+      <c r="A108" s="177"/>
       <c r="B108" s="22">
         <v>468</v>
       </c>
@@ -15388,7 +15388,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="176"/>
+      <c r="A109" s="177"/>
       <c r="B109" s="22">
         <v>469</v>
       </c>
@@ -15408,7 +15408,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="176"/>
+      <c r="A110" s="177"/>
       <c r="B110" s="22">
         <v>470</v>
       </c>
@@ -15424,7 +15424,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="176"/>
+      <c r="A111" s="177"/>
       <c r="B111" s="22">
         <v>471</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="176"/>
+      <c r="A112" s="177"/>
       <c r="B112" s="22">
         <v>472</v>
       </c>
@@ -15456,7 +15456,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="176"/>
+      <c r="A113" s="177"/>
       <c r="B113" s="22">
         <v>473</v>
       </c>
@@ -15472,7 +15472,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="176"/>
+      <c r="A114" s="177"/>
       <c r="B114" s="140">
         <v>473</v>
       </c>
@@ -15490,7 +15490,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="176"/>
+      <c r="A115" s="177"/>
       <c r="B115" s="10">
         <v>474</v>
       </c>
@@ -15500,7 +15500,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="176"/>
+      <c r="A116" s="177"/>
       <c r="B116" s="140">
         <v>475</v>
       </c>
@@ -15514,7 +15514,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="176"/>
+      <c r="A117" s="177"/>
       <c r="B117" s="169">
         <v>476</v>
       </c>
@@ -15530,7 +15530,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="177"/>
+      <c r="A118" s="178"/>
       <c r="B118" s="122"/>
       <c r="C118" s="116"/>
       <c r="D118" s="116"/>
@@ -15539,7 +15539,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="175" t="s">
+      <c r="A119" s="176" t="s">
         <v>186</v>
       </c>
       <c r="B119" s="163">
@@ -15563,7 +15563,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="176"/>
+      <c r="A120" s="177"/>
       <c r="B120" s="116">
         <v>502</v>
       </c>
@@ -15585,7 +15585,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="176"/>
+      <c r="A121" s="177"/>
       <c r="B121" s="116">
         <v>503</v>
       </c>
@@ -15607,7 +15607,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="176"/>
+      <c r="A122" s="177"/>
       <c r="B122" s="116">
         <v>504</v>
       </c>
@@ -15629,7 +15629,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="176"/>
+      <c r="A123" s="177"/>
       <c r="B123" s="116">
         <v>505</v>
       </c>
@@ -15651,7 +15651,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="176"/>
+      <c r="A124" s="177"/>
       <c r="B124" s="163">
         <v>506</v>
       </c>
@@ -15673,7 +15673,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="176"/>
+      <c r="A125" s="177"/>
       <c r="B125" s="116">
         <v>507</v>
       </c>
@@ -15695,7 +15695,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="177"/>
+      <c r="A126" s="178"/>
       <c r="B126" s="116"/>
       <c r="C126" s="116"/>
       <c r="D126" s="116"/>
@@ -15705,7 +15705,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="175" t="s">
+      <c r="A127" s="176" t="s">
         <v>68</v>
       </c>
       <c r="B127" s="116">
@@ -15729,7 +15729,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="176"/>
+      <c r="A128" s="177"/>
       <c r="B128" s="116">
         <v>602</v>
       </c>
@@ -15751,7 +15751,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="176"/>
+      <c r="A129" s="177"/>
       <c r="B129" s="116">
         <v>603</v>
       </c>
@@ -15773,7 +15773,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="176"/>
+      <c r="A130" s="177"/>
       <c r="B130" s="116">
         <v>604</v>
       </c>
@@ -15795,7 +15795,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="176"/>
+      <c r="A131" s="177"/>
       <c r="B131" s="116">
         <v>605</v>
       </c>
@@ -15817,7 +15817,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="176"/>
+      <c r="A132" s="177"/>
       <c r="B132" s="116">
         <v>606</v>
       </c>
@@ -15839,7 +15839,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="176"/>
+      <c r="A133" s="177"/>
       <c r="B133" s="116">
         <v>607</v>
       </c>
@@ -15861,7 +15861,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="176"/>
+      <c r="A134" s="177"/>
       <c r="B134" s="116">
         <v>608</v>
       </c>
@@ -15883,7 +15883,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="176"/>
+      <c r="A135" s="177"/>
       <c r="B135" s="116">
         <v>609</v>
       </c>
@@ -15905,7 +15905,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="176"/>
+      <c r="A136" s="177"/>
       <c r="B136" s="116">
         <v>610</v>
       </c>
@@ -15927,7 +15927,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="177"/>
+      <c r="A137" s="178"/>
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
       <c r="D137" s="116"/>
@@ -15937,7 +15937,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="175" t="s">
+      <c r="A138" s="176" t="s">
         <v>631</v>
       </c>
       <c r="B138" s="22">
@@ -15961,7 +15961,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="176"/>
+      <c r="A139" s="177"/>
       <c r="B139" s="22">
         <v>702</v>
       </c>
@@ -15983,7 +15983,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="176"/>
+      <c r="A140" s="177"/>
       <c r="B140" s="22">
         <v>703</v>
       </c>
@@ -16005,7 +16005,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="176"/>
+      <c r="A141" s="177"/>
       <c r="B141" s="22">
         <v>704</v>
       </c>
@@ -16027,7 +16027,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="177"/>
+      <c r="A142" s="178"/>
       <c r="B142" s="22"/>
       <c r="C142" s="116"/>
       <c r="D142" s="116"/>
@@ -16037,7 +16037,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="178" t="s">
+      <c r="A143" s="179" t="s">
         <v>207</v>
       </c>
       <c r="B143" s="22">
@@ -16059,7 +16059,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="178"/>
+      <c r="A144" s="179"/>
       <c r="B144" s="22">
         <v>802</v>
       </c>
@@ -16079,7 +16079,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="178"/>
+      <c r="A145" s="179"/>
       <c r="B145" s="22">
         <v>803</v>
       </c>
@@ -16099,7 +16099,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="178"/>
+      <c r="A146" s="179"/>
       <c r="B146" s="22"/>
       <c r="C146" s="116"/>
       <c r="D146" s="116"/>
@@ -16169,7 +16169,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="109">
@@ -16195,7 +16195,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="180"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="109">
         <v>2</v>
       </c>
@@ -16219,7 +16219,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="180"/>
+      <c r="A4" s="181"/>
       <c r="B4" s="32">
         <v>3</v>
       </c>
@@ -16243,7 +16243,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="180"/>
+      <c r="A5" s="181"/>
       <c r="B5" s="109">
         <v>4</v>
       </c>
@@ -16267,7 +16267,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="180"/>
+      <c r="A6" s="181"/>
       <c r="B6" s="109">
         <v>5</v>
       </c>
@@ -16291,7 +16291,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="180"/>
+      <c r="A7" s="181"/>
       <c r="B7" s="109">
         <v>6</v>
       </c>
@@ -16315,7 +16315,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="180"/>
+      <c r="A8" s="181"/>
       <c r="B8" s="109">
         <v>7</v>
       </c>
@@ -16339,7 +16339,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="180"/>
+      <c r="A9" s="181"/>
       <c r="B9" s="109">
         <v>8</v>
       </c>
@@ -16363,7 +16363,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="180"/>
+      <c r="A10" s="181"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
@@ -16387,7 +16387,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="180"/>
+      <c r="A11" s="181"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -16411,7 +16411,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="180"/>
+      <c r="A12" s="181"/>
       <c r="B12" s="31">
         <v>11</v>
       </c>
@@ -16435,7 +16435,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="180"/>
+      <c r="A13" s="181"/>
       <c r="B13" s="108">
         <v>12</v>
       </c>
@@ -16459,7 +16459,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="181"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="104"/>
       <c r="C14" s="104">
         <v>2</v>
@@ -16473,7 +16473,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="176" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="29">
@@ -16499,7 +16499,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="176"/>
+      <c r="A16" s="177"/>
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -16523,7 +16523,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="176"/>
+      <c r="A17" s="177"/>
       <c r="B17" s="29">
         <v>15</v>
       </c>
@@ -16547,7 +16547,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="180" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="104">
@@ -16573,7 +16573,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="180"/>
+      <c r="A19" s="181"/>
       <c r="B19" s="104">
         <v>17</v>
       </c>
@@ -16595,7 +16595,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="180"/>
+      <c r="A20" s="181"/>
       <c r="B20" s="109">
         <v>18</v>
       </c>
@@ -16615,7 +16615,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="180"/>
+      <c r="A21" s="181"/>
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -16639,7 +16639,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="180"/>
+      <c r="A22" s="181"/>
       <c r="B22" s="22">
         <v>20</v>
       </c>
@@ -16663,7 +16663,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="180"/>
+      <c r="A23" s="181"/>
       <c r="B23" s="109">
         <v>21</v>
       </c>
@@ -16687,7 +16687,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="180"/>
+      <c r="A24" s="181"/>
       <c r="B24" s="109">
         <v>22</v>
       </c>
@@ -16711,7 +16711,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="180"/>
+      <c r="A25" s="181"/>
       <c r="B25" s="109">
         <v>23</v>
       </c>
@@ -16735,7 +16735,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="180"/>
+      <c r="A26" s="181"/>
       <c r="B26" s="109">
         <v>24</v>
       </c>
@@ -16759,7 +16759,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="180"/>
+      <c r="A27" s="181"/>
       <c r="B27" s="22">
         <v>25</v>
       </c>
@@ -16783,7 +16783,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="180"/>
+      <c r="A28" s="181"/>
       <c r="B28" s="22">
         <v>26</v>
       </c>
@@ -16807,7 +16807,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="180"/>
+      <c r="A29" s="181"/>
       <c r="B29" s="22">
         <v>27</v>
       </c>
@@ -16831,7 +16831,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="180"/>
+      <c r="A30" s="181"/>
       <c r="B30" s="22">
         <v>28</v>
       </c>
@@ -16855,7 +16855,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="180"/>
+      <c r="A31" s="181"/>
       <c r="B31" s="109">
         <v>29</v>
       </c>
@@ -16879,7 +16879,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="180"/>
+      <c r="A32" s="181"/>
       <c r="B32" s="109">
         <v>30</v>
       </c>
@@ -16903,7 +16903,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="180"/>
+      <c r="A33" s="181"/>
       <c r="B33" s="109">
         <v>31</v>
       </c>
@@ -16927,7 +16927,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="180"/>
+      <c r="A34" s="181"/>
       <c r="B34" s="109">
         <v>32</v>
       </c>
@@ -16951,7 +16951,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="180"/>
+      <c r="A35" s="181"/>
       <c r="B35" s="109">
         <v>33</v>
       </c>
@@ -16975,7 +16975,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="180"/>
+      <c r="A36" s="181"/>
       <c r="B36" s="109">
         <v>34</v>
       </c>
@@ -16999,7 +16999,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="180"/>
+      <c r="A37" s="181"/>
       <c r="B37" s="109">
         <v>35</v>
       </c>
@@ -17023,7 +17023,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="180"/>
+      <c r="A38" s="181"/>
       <c r="B38" s="109">
         <v>36</v>
       </c>
@@ -17047,7 +17047,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="180"/>
+      <c r="A39" s="181"/>
       <c r="B39" s="109">
         <v>37</v>
       </c>
@@ -17071,7 +17071,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="180"/>
+      <c r="A40" s="181"/>
       <c r="B40" s="109">
         <v>38</v>
       </c>
@@ -17095,7 +17095,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="180"/>
+      <c r="A41" s="181"/>
       <c r="B41" s="108">
         <v>39</v>
       </c>
@@ -17119,7 +17119,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="180"/>
+      <c r="A42" s="181"/>
       <c r="B42" s="109">
         <v>40</v>
       </c>
@@ -17143,7 +17143,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="180"/>
+      <c r="A43" s="181"/>
       <c r="B43" s="109">
         <v>41</v>
       </c>
@@ -17167,7 +17167,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="180"/>
+      <c r="A44" s="181"/>
       <c r="B44" s="108">
         <v>42</v>
       </c>
@@ -17191,7 +17191,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="180"/>
+      <c r="A45" s="181"/>
       <c r="B45" s="109">
         <v>43</v>
       </c>
@@ -17215,7 +17215,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="180"/>
+      <c r="A46" s="181"/>
       <c r="B46" s="108">
         <v>44</v>
       </c>
@@ -17239,7 +17239,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="180"/>
+      <c r="A47" s="181"/>
       <c r="B47" s="108">
         <v>45</v>
       </c>
@@ -17263,7 +17263,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="180"/>
+      <c r="A48" s="181"/>
       <c r="B48" s="32">
         <v>46</v>
       </c>
@@ -17287,7 +17287,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="180"/>
+      <c r="A49" s="181"/>
       <c r="B49" s="32">
         <v>47</v>
       </c>
@@ -17311,7 +17311,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="180"/>
+      <c r="A50" s="181"/>
       <c r="B50" s="32">
         <v>49</v>
       </c>
@@ -17335,7 +17335,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="180"/>
+      <c r="A51" s="181"/>
       <c r="B51" s="32">
         <v>50</v>
       </c>
@@ -17359,7 +17359,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="180"/>
+      <c r="A52" s="181"/>
       <c r="B52" s="108">
         <v>51</v>
       </c>
@@ -17383,7 +17383,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="180"/>
+      <c r="A53" s="181"/>
       <c r="B53" s="108">
         <v>52</v>
       </c>
@@ -17407,7 +17407,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="180"/>
+      <c r="A54" s="181"/>
       <c r="B54" s="108">
         <v>53</v>
       </c>
@@ -17431,7 +17431,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="180"/>
+      <c r="A55" s="181"/>
       <c r="B55" s="32">
         <v>54</v>
       </c>
@@ -17455,7 +17455,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="180"/>
+      <c r="A56" s="181"/>
       <c r="B56" s="34">
         <v>55</v>
       </c>
@@ -17479,7 +17479,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="180"/>
+      <c r="A57" s="181"/>
       <c r="B57" s="34">
         <v>56</v>
       </c>
@@ -17503,7 +17503,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="180"/>
+      <c r="A58" s="181"/>
       <c r="B58" s="49">
         <v>57</v>
       </c>
@@ -17527,7 +17527,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="180"/>
+      <c r="A59" s="181"/>
       <c r="B59" s="49">
         <v>58</v>
       </c>
@@ -17551,7 +17551,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="180"/>
+      <c r="A60" s="181"/>
       <c r="B60" s="22">
         <v>59</v>
       </c>
@@ -17575,7 +17575,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="180"/>
+      <c r="A61" s="181"/>
       <c r="B61" s="49">
         <v>60</v>
       </c>
@@ -17597,7 +17597,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="180"/>
+      <c r="A62" s="181"/>
       <c r="B62" s="49">
         <v>61</v>
       </c>
@@ -17619,7 +17619,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="180"/>
+      <c r="A63" s="181"/>
       <c r="B63" s="49">
         <v>62</v>
       </c>
@@ -17643,7 +17643,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="180"/>
+      <c r="A64" s="181"/>
       <c r="B64" s="34">
         <v>63</v>
       </c>
@@ -17667,7 +17667,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="180"/>
+      <c r="A65" s="181"/>
       <c r="B65" s="34">
         <v>64</v>
       </c>
@@ -17691,7 +17691,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="180"/>
+      <c r="A66" s="181"/>
       <c r="B66" s="103">
         <v>201</v>
       </c>
@@ -17713,7 +17713,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="180"/>
+      <c r="A67" s="181"/>
       <c r="B67" s="90"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17727,7 +17727,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="180"/>
+      <c r="A68" s="181"/>
       <c r="B68" s="90"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17739,7 +17739,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="180"/>
+      <c r="A69" s="181"/>
       <c r="B69" s="90"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17751,7 +17751,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="181"/>
+      <c r="A70" s="182"/>
       <c r="B70" s="90"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17763,7 +17763,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="179" t="s">
+      <c r="A71" s="180" t="s">
         <v>186</v>
       </c>
       <c r="B71" s="34">
@@ -17789,7 +17789,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="180"/>
+      <c r="A72" s="181"/>
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -17813,7 +17813,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="180"/>
+      <c r="A73" s="181"/>
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -17837,7 +17837,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="180"/>
+      <c r="A74" s="181"/>
       <c r="B74" s="39">
         <v>70</v>
       </c>
@@ -17861,7 +17861,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="180"/>
+      <c r="A75" s="181"/>
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -17885,7 +17885,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="180"/>
+      <c r="A76" s="181"/>
       <c r="B76" s="39">
         <v>72</v>
       </c>
@@ -17909,7 +17909,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="181"/>
+      <c r="A77" s="182"/>
       <c r="B77" s="39">
         <v>73</v>
       </c>
@@ -17921,7 +17921,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="179" t="s">
+      <c r="A78" s="180" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="39">
@@ -17947,7 +17947,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="180"/>
+      <c r="A79" s="181"/>
       <c r="B79" s="39">
         <v>75</v>
       </c>
@@ -17971,7 +17971,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="180"/>
+      <c r="A80" s="181"/>
       <c r="B80" s="39">
         <v>76</v>
       </c>
@@ -17995,7 +17995,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="180"/>
+      <c r="A81" s="181"/>
       <c r="B81" s="39">
         <v>77</v>
       </c>
@@ -18019,7 +18019,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="180"/>
+      <c r="A82" s="181"/>
       <c r="B82" s="39">
         <v>78</v>
       </c>
@@ -18043,7 +18043,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="180"/>
+      <c r="A83" s="181"/>
       <c r="B83" s="49">
         <v>79</v>
       </c>
@@ -18067,7 +18067,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="180"/>
+      <c r="A84" s="181"/>
       <c r="B84" s="49">
         <v>80</v>
       </c>
@@ -18091,7 +18091,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="181"/>
+      <c r="A85" s="182"/>
       <c r="B85" s="49">
         <v>81</v>
       </c>
@@ -18115,7 +18115,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="179" t="s">
+      <c r="A86" s="180" t="s">
         <v>205</v>
       </c>
       <c r="B86" s="76">
@@ -18141,7 +18141,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="180"/>
+      <c r="A87" s="181"/>
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -18161,7 +18161,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="180"/>
+      <c r="A88" s="181"/>
       <c r="B88" s="134">
         <v>84</v>
       </c>
@@ -18181,7 +18181,7 @@
       <c r="H88" s="137"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="180"/>
+      <c r="A89" s="181"/>
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -18201,7 +18201,7 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="180"/>
+      <c r="A90" s="181"/>
       <c r="B90" s="42">
         <v>86</v>
       </c>
@@ -18221,7 +18221,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="180"/>
+      <c r="A91" s="181"/>
       <c r="B91" s="42">
         <v>87</v>
       </c>
@@ -18241,7 +18241,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="180"/>
+      <c r="A92" s="181"/>
       <c r="B92" s="42">
         <v>88</v>
       </c>
@@ -18261,7 +18261,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="180"/>
+      <c r="A93" s="181"/>
       <c r="B93" s="42">
         <v>89</v>
       </c>
@@ -18281,7 +18281,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="180"/>
+      <c r="A94" s="181"/>
       <c r="B94" s="42">
         <v>90</v>
       </c>
@@ -18301,7 +18301,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="180"/>
+      <c r="A95" s="181"/>
       <c r="B95" s="42">
         <v>91</v>
       </c>
@@ -18321,7 +18321,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="180"/>
+      <c r="A96" s="181"/>
       <c r="B96" s="42">
         <v>92</v>
       </c>
@@ -18341,7 +18341,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="180"/>
+      <c r="A97" s="181"/>
       <c r="B97" s="42">
         <v>93</v>
       </c>
@@ -18361,7 +18361,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="180"/>
+      <c r="A98" s="181"/>
       <c r="B98" s="42">
         <v>94</v>
       </c>
@@ -18381,7 +18381,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="180"/>
+      <c r="A99" s="181"/>
       <c r="B99" s="42">
         <v>95</v>
       </c>
@@ -18401,7 +18401,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="180"/>
+      <c r="A100" s="181"/>
       <c r="B100" s="42">
         <v>96</v>
       </c>
@@ -18421,7 +18421,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="180"/>
+      <c r="A101" s="181"/>
       <c r="B101" s="42">
         <v>97</v>
       </c>
@@ -18441,7 +18441,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="180"/>
+      <c r="A102" s="181"/>
       <c r="B102" s="42">
         <v>98</v>
       </c>
@@ -18461,7 +18461,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="180"/>
+      <c r="A103" s="181"/>
       <c r="B103" s="42">
         <v>99</v>
       </c>
@@ -18481,7 +18481,7 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="181"/>
+      <c r="A104" s="182"/>
       <c r="B104" s="39"/>
       <c r="C104" s="31"/>
       <c r="D104" s="16"/>
@@ -18491,7 +18491,7 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="179" t="s">
+      <c r="A105" s="180" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="39">
@@ -18517,7 +18517,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="180"/>
+      <c r="A106" s="181"/>
       <c r="B106" s="42">
         <v>101</v>
       </c>
@@ -18541,7 +18541,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="180"/>
+      <c r="A107" s="181"/>
       <c r="B107" s="42">
         <v>102</v>
       </c>
@@ -18565,7 +18565,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="180"/>
+      <c r="A108" s="181"/>
       <c r="B108" s="42">
         <v>103</v>
       </c>
@@ -18589,7 +18589,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="179" t="s">
+      <c r="A109" s="180" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="42">
@@ -18615,7 +18615,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="180"/>
+      <c r="A110" s="181"/>
       <c r="B110" s="42">
         <v>105</v>
       </c>
@@ -18639,7 +18639,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="177"/>
+      <c r="A111" s="178"/>
       <c r="B111" s="42">
         <v>106</v>
       </c>
@@ -18663,7 +18663,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="182" t="s">
+      <c r="A112" s="183" t="s">
         <v>72</v>
       </c>
       <c r="B112" s="42">
@@ -18689,7 +18689,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="182"/>
+      <c r="A113" s="183"/>
       <c r="B113" s="42">
         <v>108</v>
       </c>
@@ -18713,7 +18713,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="182"/>
+      <c r="A114" s="183"/>
       <c r="B114" s="42">
         <v>109</v>
       </c>
@@ -18737,7 +18737,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="182"/>
+      <c r="A115" s="183"/>
       <c r="B115" s="8">
         <v>110</v>
       </c>
@@ -18795,8 +18795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179:H179"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G210" sqref="G210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19105,13 +19105,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="198" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199"/>
-      <c r="F17" s="199"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19381,13 +19381,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="199" t="s">
+      <c r="B34" s="198" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19408,10 +19408,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="192" t="s">
+      <c r="G35" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="192"/>
+      <c r="H35" s="200"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19430,8 +19430,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -19450,8 +19450,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="188"/>
-      <c r="H37" s="188"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -19470,8 +19470,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="188"/>
-      <c r="H38" s="188"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -19490,8 +19490,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="200"/>
-      <c r="H39" s="200"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19510,8 +19510,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19642,8 +19642,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="188"/>
-      <c r="H46" s="188"/>
+      <c r="G46" s="189"/>
+      <c r="H46" s="189"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -19664,8 +19664,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="188"/>
-      <c r="H47" s="188"/>
+      <c r="G47" s="189"/>
+      <c r="H47" s="189"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -19686,10 +19686,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="188" t="s">
+      <c r="G48" s="189" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="188"/>
+      <c r="H48" s="189"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -19708,8 +19708,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
+      <c r="G49" s="197"/>
+      <c r="H49" s="197"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19728,8 +19728,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
+      <c r="G50" s="197"/>
+      <c r="H50" s="197"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19750,8 +19750,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19772,8 +19772,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
+      <c r="G52" s="197"/>
+      <c r="H52" s="197"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19794,8 +19794,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19816,8 +19816,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
+      <c r="G54" s="197"/>
+      <c r="H54" s="197"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19838,8 +19838,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
+      <c r="G55" s="197"/>
+      <c r="H55" s="197"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19858,8 +19858,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
+      <c r="G56" s="197"/>
+      <c r="H56" s="197"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19878,8 +19878,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="183"/>
-      <c r="H57" s="183"/>
+      <c r="G57" s="197"/>
+      <c r="H57" s="197"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19898,8 +19898,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="183"/>
-      <c r="H58" s="183"/>
+      <c r="G58" s="197"/>
+      <c r="H58" s="197"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19920,8 +19920,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
+      <c r="G59" s="197"/>
+      <c r="H59" s="197"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20032,13 +20032,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="199" t="s">
+      <c r="B70" s="198" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="199"/>
-      <c r="D70" s="199"/>
-      <c r="E70" s="199"/>
-      <c r="F70" s="199"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="198"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20059,10 +20059,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="206" t="s">
+      <c r="G71" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="206"/>
+      <c r="H71" s="205"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20083,10 +20083,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="205" t="s">
+      <c r="G72" s="194" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="188"/>
+      <c r="H72" s="189"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -20107,10 +20107,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="188" t="s">
+      <c r="G73" s="189" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="188"/>
+      <c r="H73" s="189"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -20131,8 +20131,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="188"/>
-      <c r="H74" s="188"/>
+      <c r="G74" s="189"/>
+      <c r="H74" s="189"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -20153,10 +20153,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="189" t="s">
+      <c r="G75" s="195" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="190"/>
+      <c r="H75" s="196"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -20165,7 +20165,7 @@
       <c r="B76" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="175" t="s">
+      <c r="C76" s="176" t="s">
         <v>761</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -20177,8 +20177,8 @@
       <c r="F76" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="188"/>
-      <c r="H76" s="188"/>
+      <c r="G76" s="189"/>
+      <c r="H76" s="189"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -20187,7 +20187,7 @@
       <c r="B77" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="C77" s="176"/>
+      <c r="C77" s="177"/>
       <c r="D77" s="1" t="s">
         <v>712</v>
       </c>
@@ -20197,8 +20197,8 @@
       <c r="F77" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="188"/>
-      <c r="H77" s="188"/>
+      <c r="G77" s="189"/>
+      <c r="H77" s="189"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -20207,7 +20207,7 @@
       <c r="B78" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C78" s="176"/>
+      <c r="C78" s="177"/>
       <c r="D78" s="1" t="s">
         <v>729</v>
       </c>
@@ -20217,8 +20217,8 @@
       <c r="F78" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="189"/>
-      <c r="H78" s="190"/>
+      <c r="G78" s="195"/>
+      <c r="H78" s="196"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -20227,7 +20227,7 @@
       <c r="B79" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C79" s="176"/>
+      <c r="C79" s="177"/>
       <c r="D79" s="1" t="s">
         <v>716</v>
       </c>
@@ -20237,8 +20237,8 @@
       <c r="F79" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="188"/>
-      <c r="H79" s="188"/>
+      <c r="G79" s="189"/>
+      <c r="H79" s="189"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -20247,7 +20247,7 @@
       <c r="B80" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C80" s="176"/>
+      <c r="C80" s="177"/>
       <c r="D80" s="1" t="s">
         <v>719</v>
       </c>
@@ -20257,8 +20257,8 @@
       <c r="F80" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="188"/>
-      <c r="H80" s="188"/>
+      <c r="G80" s="189"/>
+      <c r="H80" s="189"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -20267,7 +20267,7 @@
       <c r="B81" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="176"/>
+      <c r="C81" s="177"/>
       <c r="D81" s="1" t="s">
         <v>720</v>
       </c>
@@ -20277,8 +20277,8 @@
       <c r="F81" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="188"/>
-      <c r="H81" s="188"/>
+      <c r="G81" s="189"/>
+      <c r="H81" s="189"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -20287,7 +20287,7 @@
       <c r="B82" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="C82" s="176"/>
+      <c r="C82" s="177"/>
       <c r="D82" s="1" t="s">
         <v>722</v>
       </c>
@@ -20297,8 +20297,8 @@
       <c r="F82" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="188"/>
-      <c r="H82" s="188"/>
+      <c r="G82" s="189"/>
+      <c r="H82" s="189"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -20307,7 +20307,7 @@
       <c r="B83" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="C83" s="176"/>
+      <c r="C83" s="177"/>
       <c r="D83" s="1" t="s">
         <v>724</v>
       </c>
@@ -20317,8 +20317,8 @@
       <c r="F83" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="188"/>
-      <c r="H83" s="188"/>
+      <c r="G83" s="189"/>
+      <c r="H83" s="189"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -20327,7 +20327,7 @@
       <c r="B84" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="C84" s="176"/>
+      <c r="C84" s="177"/>
       <c r="D84" s="1" t="s">
         <v>727</v>
       </c>
@@ -20337,8 +20337,8 @@
       <c r="F84" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="188"/>
-      <c r="H84" s="188"/>
+      <c r="G84" s="189"/>
+      <c r="H84" s="189"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -20347,7 +20347,7 @@
       <c r="B85" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="176"/>
+      <c r="C85" s="177"/>
       <c r="D85" s="1" t="s">
         <v>734</v>
       </c>
@@ -20357,8 +20357,8 @@
       <c r="F85" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="188"/>
-      <c r="H85" s="188"/>
+      <c r="G85" s="189"/>
+      <c r="H85" s="189"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -20367,7 +20367,7 @@
       <c r="B86" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C86" s="176"/>
+      <c r="C86" s="177"/>
       <c r="D86" s="1" t="s">
         <v>735</v>
       </c>
@@ -20377,8 +20377,8 @@
       <c r="F86" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="188"/>
-      <c r="H86" s="188"/>
+      <c r="G86" s="189"/>
+      <c r="H86" s="189"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -20387,7 +20387,7 @@
       <c r="B87" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C87" s="176"/>
+      <c r="C87" s="177"/>
       <c r="D87" s="1" t="s">
         <v>736</v>
       </c>
@@ -20397,8 +20397,8 @@
       <c r="F87" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="188"/>
-      <c r="H87" s="188"/>
+      <c r="G87" s="189"/>
+      <c r="H87" s="189"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -20407,7 +20407,7 @@
       <c r="B88" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C88" s="176"/>
+      <c r="C88" s="177"/>
       <c r="D88" s="1" t="s">
         <v>737</v>
       </c>
@@ -20417,8 +20417,8 @@
       <c r="F88" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="188"/>
-      <c r="H88" s="188"/>
+      <c r="G88" s="189"/>
+      <c r="H88" s="189"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -20427,7 +20427,7 @@
       <c r="B89" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C89" s="176"/>
+      <c r="C89" s="177"/>
       <c r="D89" s="1" t="s">
         <v>733</v>
       </c>
@@ -20437,8 +20437,8 @@
       <c r="F89" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="188"/>
-      <c r="H89" s="188"/>
+      <c r="G89" s="189"/>
+      <c r="H89" s="189"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -20447,7 +20447,7 @@
       <c r="B90" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C90" s="176"/>
+      <c r="C90" s="177"/>
       <c r="D90" s="4" t="s">
         <v>739</v>
       </c>
@@ -20457,8 +20457,8 @@
       <c r="F90" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="188"/>
-      <c r="H90" s="188"/>
+      <c r="G90" s="189"/>
+      <c r="H90" s="189"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -20467,7 +20467,7 @@
       <c r="B91" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C91" s="176"/>
+      <c r="C91" s="177"/>
       <c r="D91" s="4" t="s">
         <v>739</v>
       </c>
@@ -20477,8 +20477,8 @@
       <c r="F91" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="188"/>
-      <c r="H91" s="188"/>
+      <c r="G91" s="189"/>
+      <c r="H91" s="189"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -20487,7 +20487,7 @@
       <c r="B92" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C92" s="176"/>
+      <c r="C92" s="177"/>
       <c r="D92" s="4" t="s">
         <v>739</v>
       </c>
@@ -20497,8 +20497,8 @@
       <c r="F92" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="188"/>
-      <c r="H92" s="188"/>
+      <c r="G92" s="189"/>
+      <c r="H92" s="189"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -20507,7 +20507,7 @@
       <c r="B93" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C93" s="177"/>
+      <c r="C93" s="178"/>
       <c r="D93" s="4" t="s">
         <v>739</v>
       </c>
@@ -20517,8 +20517,8 @@
       <c r="F93" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="188"/>
-      <c r="H93" s="188"/>
+      <c r="G93" s="189"/>
+      <c r="H93" s="189"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -20621,8 +20621,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="183"/>
-      <c r="H98" s="183"/>
+      <c r="G98" s="197"/>
+      <c r="H98" s="197"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20643,10 +20643,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="188" t="s">
+      <c r="G99" s="189" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="188"/>
+      <c r="H99" s="189"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -20667,10 +20667,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="188" t="s">
+      <c r="G100" s="189" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="188"/>
+      <c r="H100" s="189"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -20691,10 +20691,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="188" t="s">
+      <c r="G101" s="189" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="188"/>
+      <c r="H101" s="189"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -20713,8 +20713,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="188"/>
-      <c r="H102" s="188"/>
+      <c r="G102" s="189"/>
+      <c r="H102" s="189"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -20733,8 +20733,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="188"/>
-      <c r="H103" s="188"/>
+      <c r="G103" s="189"/>
+      <c r="H103" s="189"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -20743,7 +20743,7 @@
       <c r="B104" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C104" s="178" t="s">
+      <c r="C104" s="179" t="s">
         <v>516</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -20755,8 +20755,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="188"/>
-      <c r="H104" s="188"/>
+      <c r="G104" s="189"/>
+      <c r="H104" s="189"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -20765,7 +20765,7 @@
       <c r="B105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="178"/>
+      <c r="C105" s="179"/>
       <c r="D105" s="20" t="s">
         <v>766</v>
       </c>
@@ -20775,8 +20775,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="188"/>
-      <c r="H105" s="188"/>
+      <c r="G105" s="189"/>
+      <c r="H105" s="189"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -20785,7 +20785,7 @@
       <c r="B106" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="178"/>
+      <c r="C106" s="179"/>
       <c r="D106" s="20" t="s">
         <v>767</v>
       </c>
@@ -20795,8 +20795,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="188"/>
-      <c r="H106" s="188"/>
+      <c r="G106" s="189"/>
+      <c r="H106" s="189"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -20805,7 +20805,7 @@
       <c r="B107" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="178"/>
+      <c r="C107" s="179"/>
       <c r="D107" s="20" t="s">
         <v>768</v>
       </c>
@@ -20815,8 +20815,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="188"/>
-      <c r="H107" s="188"/>
+      <c r="G107" s="189"/>
+      <c r="H107" s="189"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -20837,17 +20837,17 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="188"/>
-      <c r="H108" s="188"/>
+      <c r="G108" s="189"/>
+      <c r="H108" s="189"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
         <v>38</v>
       </c>
-      <c r="B109" s="178" t="s">
+      <c r="B109" s="179" t="s">
         <v>786</v>
       </c>
-      <c r="C109" s="178" t="s">
+      <c r="C109" s="179" t="s">
         <v>787</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -20859,17 +20859,17 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="193" t="s">
+      <c r="G109" s="207" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="194"/>
+      <c r="H109" s="208"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
         <v>39</v>
       </c>
-      <c r="B110" s="178"/>
-      <c r="C110" s="178"/>
+      <c r="B110" s="179"/>
+      <c r="C110" s="179"/>
       <c r="D110" s="33" t="s">
         <v>774</v>
       </c>
@@ -20879,15 +20879,15 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="195"/>
-      <c r="H110" s="196"/>
+      <c r="G110" s="209"/>
+      <c r="H110" s="210"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
         <v>40</v>
       </c>
-      <c r="B111" s="178"/>
-      <c r="C111" s="178"/>
+      <c r="B111" s="179"/>
+      <c r="C111" s="179"/>
       <c r="D111" s="33" t="s">
         <v>775</v>
       </c>
@@ -20897,15 +20897,15 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="195"/>
-      <c r="H111" s="196"/>
+      <c r="G111" s="209"/>
+      <c r="H111" s="210"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
         <v>41</v>
       </c>
-      <c r="B112" s="178"/>
-      <c r="C112" s="178"/>
+      <c r="B112" s="179"/>
+      <c r="C112" s="179"/>
       <c r="D112" s="33" t="s">
         <v>776</v>
       </c>
@@ -20915,15 +20915,15 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="195"/>
-      <c r="H112" s="196"/>
+      <c r="G112" s="209"/>
+      <c r="H112" s="210"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
         <v>42</v>
       </c>
-      <c r="B113" s="178"/>
-      <c r="C113" s="178"/>
+      <c r="B113" s="179"/>
+      <c r="C113" s="179"/>
       <c r="D113" s="33" t="s">
         <v>784</v>
       </c>
@@ -20933,15 +20933,15 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="195"/>
-      <c r="H113" s="196"/>
+      <c r="G113" s="209"/>
+      <c r="H113" s="210"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
         <v>43</v>
       </c>
-      <c r="B114" s="178"/>
-      <c r="C114" s="178"/>
+      <c r="B114" s="179"/>
+      <c r="C114" s="179"/>
       <c r="D114" s="33" t="s">
         <v>777</v>
       </c>
@@ -20951,15 +20951,15 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="195"/>
-      <c r="H114" s="196"/>
+      <c r="G114" s="209"/>
+      <c r="H114" s="210"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
         <v>44</v>
       </c>
-      <c r="B115" s="178"/>
-      <c r="C115" s="178"/>
+      <c r="B115" s="179"/>
+      <c r="C115" s="179"/>
       <c r="D115" s="33" t="s">
         <v>778</v>
       </c>
@@ -20969,15 +20969,15 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="195"/>
-      <c r="H115" s="196"/>
+      <c r="G115" s="209"/>
+      <c r="H115" s="210"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
         <v>45</v>
       </c>
-      <c r="B116" s="178"/>
-      <c r="C116" s="178"/>
+      <c r="B116" s="179"/>
+      <c r="C116" s="179"/>
       <c r="D116" s="33" t="s">
         <v>779</v>
       </c>
@@ -20987,15 +20987,15 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="195"/>
-      <c r="H116" s="196"/>
+      <c r="G116" s="209"/>
+      <c r="H116" s="210"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
         <v>46</v>
       </c>
-      <c r="B117" s="178"/>
-      <c r="C117" s="178"/>
+      <c r="B117" s="179"/>
+      <c r="C117" s="179"/>
       <c r="D117" s="33" t="s">
         <v>780</v>
       </c>
@@ -21005,15 +21005,15 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="195"/>
-      <c r="H117" s="196"/>
+      <c r="G117" s="209"/>
+      <c r="H117" s="210"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
         <v>47</v>
       </c>
-      <c r="B118" s="178"/>
-      <c r="C118" s="178"/>
+      <c r="B118" s="179"/>
+      <c r="C118" s="179"/>
       <c r="D118" s="33" t="s">
         <v>781</v>
       </c>
@@ -21023,15 +21023,15 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="195"/>
-      <c r="H118" s="196"/>
+      <c r="G118" s="209"/>
+      <c r="H118" s="210"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
         <v>48</v>
       </c>
-      <c r="B119" s="178"/>
-      <c r="C119" s="178"/>
+      <c r="B119" s="179"/>
+      <c r="C119" s="179"/>
       <c r="D119" s="33" t="s">
         <v>782</v>
       </c>
@@ -21041,15 +21041,15 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="195"/>
-      <c r="H119" s="196"/>
+      <c r="G119" s="209"/>
+      <c r="H119" s="210"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
         <v>49</v>
       </c>
-      <c r="B120" s="178"/>
-      <c r="C120" s="178"/>
+      <c r="B120" s="179"/>
+      <c r="C120" s="179"/>
       <c r="D120" s="33" t="s">
         <v>783</v>
       </c>
@@ -21059,15 +21059,15 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="195"/>
-      <c r="H120" s="196"/>
+      <c r="G120" s="209"/>
+      <c r="H120" s="210"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
         <v>50</v>
       </c>
-      <c r="B121" s="178"/>
-      <c r="C121" s="178"/>
+      <c r="B121" s="179"/>
+      <c r="C121" s="179"/>
       <c r="D121" s="33" t="s">
         <v>785</v>
       </c>
@@ -21077,8 +21077,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="197"/>
-      <c r="H121" s="198"/>
+      <c r="G121" s="211"/>
+      <c r="H121" s="212"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21214,13 +21214,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="199" t="s">
+      <c r="B135" s="198" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="199"/>
-      <c r="D135" s="199"/>
-      <c r="E135" s="199"/>
-      <c r="F135" s="199"/>
+      <c r="C135" s="198"/>
+      <c r="D135" s="198"/>
+      <c r="E135" s="198"/>
+      <c r="F135" s="198"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21241,10 +21241,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="192" t="s">
+      <c r="G136" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="192"/>
+      <c r="H136" s="200"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -21260,7 +21260,7 @@
       <c r="E137" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F137" s="214" t="s">
+      <c r="F137" s="175" t="s">
         <v>893</v>
       </c>
       <c r="G137" s="184"/>
@@ -21285,10 +21285,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="205" t="s">
+      <c r="G138" s="194" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="188"/>
+      <c r="H138" s="189"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -21309,8 +21309,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="188"/>
-      <c r="H139" s="188"/>
+      <c r="G139" s="189"/>
+      <c r="H139" s="189"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -21319,7 +21319,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="186" t="s">
+      <c r="C140" s="213" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="162" t="s">
@@ -21331,8 +21331,8 @@
       <c r="F140" s="159" t="s">
         <v>883</v>
       </c>
-      <c r="G140" s="188"/>
-      <c r="H140" s="188"/>
+      <c r="G140" s="189"/>
+      <c r="H140" s="189"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -21341,7 +21341,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="187"/>
+      <c r="C141" s="214"/>
       <c r="D141" s="162" t="s">
         <v>797</v>
       </c>
@@ -21351,8 +21351,8 @@
       <c r="F141" s="159" t="s">
         <v>883</v>
       </c>
-      <c r="G141" s="188"/>
-      <c r="H141" s="188"/>
+      <c r="G141" s="189"/>
+      <c r="H141" s="189"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -21361,7 +21361,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="186" t="s">
+      <c r="C142" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21373,8 +21373,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="188"/>
-      <c r="H142" s="188"/>
+      <c r="G142" s="189"/>
+      <c r="H142" s="189"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -21383,7 +21383,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="187"/>
+      <c r="C143" s="214"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21393,8 +21393,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="188"/>
-      <c r="H143" s="188"/>
+      <c r="G143" s="189"/>
+      <c r="H143" s="189"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -21403,7 +21403,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="186" t="s">
+      <c r="C144" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21425,7 +21425,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="187"/>
+      <c r="C145" s="214"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -21435,8 +21435,8 @@
       <c r="F145" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="G145" s="188"/>
-      <c r="H145" s="188"/>
+      <c r="G145" s="189"/>
+      <c r="H145" s="189"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -21445,7 +21445,7 @@
       <c r="B146" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C146" s="175" t="s">
+      <c r="C146" s="176" t="s">
         <v>634</v>
       </c>
       <c r="D146" s="36" t="s">
@@ -21457,8 +21457,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="188"/>
-      <c r="H146" s="188"/>
+      <c r="G146" s="189"/>
+      <c r="H146" s="189"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -21467,7 +21467,7 @@
       <c r="B147" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="176"/>
+      <c r="C147" s="177"/>
       <c r="D147" s="36" t="s">
         <v>809</v>
       </c>
@@ -21477,8 +21477,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="188"/>
-      <c r="H147" s="188"/>
+      <c r="G147" s="189"/>
+      <c r="H147" s="189"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -21487,7 +21487,7 @@
       <c r="B148" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="C148" s="177"/>
+      <c r="C148" s="178"/>
       <c r="D148" s="158" t="s">
         <v>810</v>
       </c>
@@ -21497,8 +21497,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="188"/>
-      <c r="H148" s="188"/>
+      <c r="G148" s="189"/>
+      <c r="H148" s="189"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -21519,10 +21519,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="188" t="s">
+      <c r="G149" s="189" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="188"/>
+      <c r="H149" s="189"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -21543,10 +21543,10 @@
       <c r="F150" s="159" t="s">
         <v>883</v>
       </c>
-      <c r="G150" s="188" t="s">
+      <c r="G150" s="189" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="188"/>
+      <c r="H150" s="189"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -21567,10 +21567,10 @@
       <c r="F151" s="159" t="s">
         <v>180</v>
       </c>
-      <c r="G151" s="188" t="s">
+      <c r="G151" s="189" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="188"/>
+      <c r="H151" s="189"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -21579,7 +21579,7 @@
       <c r="B152" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C152" s="175" t="s">
+      <c r="C152" s="176" t="s">
         <v>575</v>
       </c>
       <c r="D152" s="20" t="s">
@@ -21591,8 +21591,8 @@
       <c r="F152" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="188"/>
-      <c r="H152" s="188"/>
+      <c r="G152" s="189"/>
+      <c r="H152" s="189"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -21601,7 +21601,7 @@
       <c r="B153" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C153" s="176"/>
+      <c r="C153" s="177"/>
       <c r="D153" s="20" t="s">
         <v>818</v>
       </c>
@@ -21611,8 +21611,8 @@
       <c r="F153" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="188"/>
-      <c r="H153" s="188"/>
+      <c r="G153" s="189"/>
+      <c r="H153" s="189"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -21621,7 +21621,7 @@
       <c r="B154" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C154" s="176"/>
+      <c r="C154" s="177"/>
       <c r="D154" s="20" t="s">
         <v>819</v>
       </c>
@@ -21631,8 +21631,8 @@
       <c r="F154" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="188"/>
-      <c r="H154" s="188"/>
+      <c r="G154" s="189"/>
+      <c r="H154" s="189"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -21641,7 +21641,7 @@
       <c r="B155" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C155" s="176"/>
+      <c r="C155" s="177"/>
       <c r="D155" s="20" t="s">
         <v>820</v>
       </c>
@@ -21651,8 +21651,8 @@
       <c r="F155" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="188"/>
-      <c r="H155" s="188"/>
+      <c r="G155" s="189"/>
+      <c r="H155" s="189"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -21661,7 +21661,7 @@
       <c r="B156" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C156" s="176"/>
+      <c r="C156" s="177"/>
       <c r="D156" s="20" t="s">
         <v>821</v>
       </c>
@@ -21671,8 +21671,8 @@
       <c r="F156" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="188"/>
-      <c r="H156" s="188"/>
+      <c r="G156" s="189"/>
+      <c r="H156" s="189"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -21681,7 +21681,7 @@
       <c r="B157" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C157" s="176"/>
+      <c r="C157" s="177"/>
       <c r="D157" s="20" t="s">
         <v>822</v>
       </c>
@@ -21691,8 +21691,8 @@
       <c r="F157" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="188"/>
-      <c r="H157" s="188"/>
+      <c r="G157" s="189"/>
+      <c r="H157" s="189"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -21701,7 +21701,7 @@
       <c r="B158" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C158" s="176"/>
+      <c r="C158" s="177"/>
       <c r="D158" s="20" t="s">
         <v>823</v>
       </c>
@@ -21711,8 +21711,8 @@
       <c r="F158" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="188"/>
-      <c r="H158" s="188"/>
+      <c r="G158" s="189"/>
+      <c r="H158" s="189"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -21721,7 +21721,7 @@
       <c r="B159" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C159" s="176"/>
+      <c r="C159" s="177"/>
       <c r="D159" s="20" t="s">
         <v>824</v>
       </c>
@@ -21731,8 +21731,8 @@
       <c r="F159" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="188"/>
-      <c r="H159" s="188"/>
+      <c r="G159" s="189"/>
+      <c r="H159" s="189"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -21741,7 +21741,7 @@
       <c r="B160" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C160" s="176"/>
+      <c r="C160" s="177"/>
       <c r="D160" s="20" t="s">
         <v>825</v>
       </c>
@@ -21751,8 +21751,8 @@
       <c r="F160" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="188"/>
-      <c r="H160" s="188"/>
+      <c r="G160" s="189"/>
+      <c r="H160" s="189"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -21761,7 +21761,7 @@
       <c r="B161" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C161" s="176"/>
+      <c r="C161" s="177"/>
       <c r="D161" s="20" t="s">
         <v>826</v>
       </c>
@@ -21771,8 +21771,8 @@
       <c r="F161" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="188"/>
-      <c r="H161" s="188"/>
+      <c r="G161" s="189"/>
+      <c r="H161" s="189"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -21781,7 +21781,7 @@
       <c r="B162" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C162" s="176"/>
+      <c r="C162" s="177"/>
       <c r="D162" s="20" t="s">
         <v>827</v>
       </c>
@@ -21791,8 +21791,8 @@
       <c r="F162" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="188"/>
-      <c r="H162" s="188"/>
+      <c r="G162" s="189"/>
+      <c r="H162" s="189"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -21801,7 +21801,7 @@
       <c r="B163" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C163" s="176"/>
+      <c r="C163" s="177"/>
       <c r="D163" s="20" t="s">
         <v>828</v>
       </c>
@@ -21811,8 +21811,8 @@
       <c r="F163" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="188"/>
-      <c r="H163" s="188"/>
+      <c r="G163" s="189"/>
+      <c r="H163" s="189"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -21821,7 +21821,7 @@
       <c r="B164" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C164" s="176"/>
+      <c r="C164" s="177"/>
       <c r="D164" s="20" t="s">
         <v>829</v>
       </c>
@@ -21831,8 +21831,8 @@
       <c r="F164" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="188"/>
-      <c r="H164" s="188"/>
+      <c r="G164" s="189"/>
+      <c r="H164" s="189"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -21841,7 +21841,7 @@
       <c r="B165" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C165" s="176"/>
+      <c r="C165" s="177"/>
       <c r="D165" s="20" t="s">
         <v>830</v>
       </c>
@@ -21851,8 +21851,8 @@
       <c r="F165" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="188"/>
-      <c r="H165" s="188"/>
+      <c r="G165" s="189"/>
+      <c r="H165" s="189"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -21861,7 +21861,7 @@
       <c r="B166" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C166" s="176"/>
+      <c r="C166" s="177"/>
       <c r="D166" s="20" t="s">
         <v>831</v>
       </c>
@@ -21871,8 +21871,8 @@
       <c r="F166" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="188"/>
-      <c r="H166" s="188"/>
+      <c r="G166" s="189"/>
+      <c r="H166" s="189"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -21881,7 +21881,7 @@
       <c r="B167" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C167" s="176"/>
+      <c r="C167" s="177"/>
       <c r="D167" s="20" t="s">
         <v>832</v>
       </c>
@@ -21891,8 +21891,8 @@
       <c r="F167" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="188"/>
-      <c r="H167" s="188"/>
+      <c r="G167" s="189"/>
+      <c r="H167" s="189"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -21901,7 +21901,7 @@
       <c r="B168" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C168" s="176"/>
+      <c r="C168" s="177"/>
       <c r="D168" s="20" t="s">
         <v>833</v>
       </c>
@@ -21911,8 +21911,8 @@
       <c r="F168" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="188"/>
-      <c r="H168" s="188"/>
+      <c r="G168" s="189"/>
+      <c r="H168" s="189"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -21921,7 +21921,7 @@
       <c r="B169" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C169" s="176"/>
+      <c r="C169" s="177"/>
       <c r="D169" s="20" t="s">
         <v>834</v>
       </c>
@@ -21931,8 +21931,8 @@
       <c r="F169" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="188"/>
-      <c r="H169" s="188"/>
+      <c r="G169" s="189"/>
+      <c r="H169" s="189"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -21941,7 +21941,7 @@
       <c r="B170" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C170" s="176"/>
+      <c r="C170" s="177"/>
       <c r="D170" s="20" t="s">
         <v>835</v>
       </c>
@@ -21951,8 +21951,8 @@
       <c r="F170" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="188"/>
-      <c r="H170" s="188"/>
+      <c r="G170" s="189"/>
+      <c r="H170" s="189"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -21961,7 +21961,7 @@
       <c r="B171" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C171" s="176"/>
+      <c r="C171" s="177"/>
       <c r="D171" s="20" t="s">
         <v>836</v>
       </c>
@@ -21971,8 +21971,8 @@
       <c r="F171" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="188"/>
-      <c r="H171" s="188"/>
+      <c r="G171" s="189"/>
+      <c r="H171" s="189"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -21981,7 +21981,7 @@
       <c r="B172" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C172" s="176"/>
+      <c r="C172" s="177"/>
       <c r="D172" s="20" t="s">
         <v>837</v>
       </c>
@@ -21991,8 +21991,8 @@
       <c r="F172" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="188"/>
-      <c r="H172" s="188"/>
+      <c r="G172" s="189"/>
+      <c r="H172" s="189"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -22001,7 +22001,7 @@
       <c r="B173" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C173" s="176"/>
+      <c r="C173" s="177"/>
       <c r="D173" s="20" t="s">
         <v>838</v>
       </c>
@@ -22011,8 +22011,8 @@
       <c r="F173" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="188"/>
-      <c r="H173" s="188"/>
+      <c r="G173" s="189"/>
+      <c r="H173" s="189"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -22021,7 +22021,7 @@
       <c r="B174" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C174" s="176"/>
+      <c r="C174" s="177"/>
       <c r="D174" s="20" t="s">
         <v>839</v>
       </c>
@@ -22031,8 +22031,8 @@
       <c r="F174" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="188"/>
-      <c r="H174" s="188"/>
+      <c r="G174" s="189"/>
+      <c r="H174" s="189"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -22041,7 +22041,7 @@
       <c r="B175" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C175" s="177"/>
+      <c r="C175" s="178"/>
       <c r="D175" s="20" t="s">
         <v>840</v>
       </c>
@@ -22051,8 +22051,8 @@
       <c r="F175" s="171" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="188"/>
-      <c r="H175" s="188"/>
+      <c r="G175" s="189"/>
+      <c r="H175" s="189"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="164">
@@ -22061,7 +22061,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="207" t="s">
+      <c r="C176" s="186" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22070,13 +22070,13 @@
       <c r="E176" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F176" s="214" t="s">
+      <c r="F176" s="175" t="s">
         <v>894</v>
       </c>
-      <c r="G176" s="215" t="s">
+      <c r="G176" s="190" t="s">
         <v>895</v>
       </c>
-      <c r="H176" s="216"/>
+      <c r="H176" s="191"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="164">
@@ -22085,18 +22085,18 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="208"/>
+      <c r="C177" s="187"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F177" s="214" t="s">
+      <c r="F177" s="175" t="s">
         <v>883</v>
       </c>
-      <c r="G177" s="217"/>
-      <c r="H177" s="218"/>
+      <c r="G177" s="192"/>
+      <c r="H177" s="193"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="164">
@@ -22105,7 +22105,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="207" t="s">
+      <c r="C178" s="186" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22117,8 +22117,8 @@
       <c r="F178" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="188"/>
-      <c r="H178" s="188"/>
+      <c r="G178" s="189"/>
+      <c r="H178" s="189"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="164">
@@ -22127,7 +22127,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="208"/>
+      <c r="C179" s="187"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -22137,8 +22137,8 @@
       <c r="F179" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="188"/>
-      <c r="H179" s="188"/>
+      <c r="G179" s="189"/>
+      <c r="H179" s="189"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="164">
@@ -22147,7 +22147,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="207" t="s">
+      <c r="C180" s="186" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22159,8 +22159,8 @@
       <c r="F180" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="188"/>
-      <c r="H180" s="188"/>
+      <c r="G180" s="189"/>
+      <c r="H180" s="189"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="164">
@@ -22169,7 +22169,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="209"/>
+      <c r="C181" s="188"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -22179,8 +22179,8 @@
       <c r="F181" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="188"/>
-      <c r="H181" s="188"/>
+      <c r="G181" s="189"/>
+      <c r="H181" s="189"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="164">
@@ -22189,7 +22189,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="209"/>
+      <c r="C182" s="188"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -22199,8 +22199,8 @@
       <c r="F182" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="188"/>
-      <c r="H182" s="188"/>
+      <c r="G182" s="189"/>
+      <c r="H182" s="189"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="164">
@@ -22209,7 +22209,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="209"/>
+      <c r="C183" s="188"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -22219,8 +22219,8 @@
       <c r="F183" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G183" s="188"/>
-      <c r="H183" s="188"/>
+      <c r="G183" s="189"/>
+      <c r="H183" s="189"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="164">
@@ -22229,7 +22229,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="209"/>
+      <c r="C184" s="188"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -22239,8 +22239,8 @@
       <c r="F184" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="188"/>
-      <c r="H184" s="188"/>
+      <c r="G184" s="189"/>
+      <c r="H184" s="189"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="164">
@@ -22249,7 +22249,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="209"/>
+      <c r="C185" s="188"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -22259,8 +22259,8 @@
       <c r="F185" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="188"/>
-      <c r="H185" s="188"/>
+      <c r="G185" s="189"/>
+      <c r="H185" s="189"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="164">
@@ -22269,7 +22269,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="209"/>
+      <c r="C186" s="188"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -22279,8 +22279,8 @@
       <c r="F186" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="188"/>
-      <c r="H186" s="188"/>
+      <c r="G186" s="189"/>
+      <c r="H186" s="189"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="164">
@@ -22289,7 +22289,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="209"/>
+      <c r="C187" s="188"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -22299,8 +22299,8 @@
       <c r="F187" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="188"/>
-      <c r="H187" s="188"/>
+      <c r="G187" s="189"/>
+      <c r="H187" s="189"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="164">
@@ -22309,7 +22309,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="209"/>
+      <c r="C188" s="188"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -22319,8 +22319,8 @@
       <c r="F188" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G188" s="188"/>
-      <c r="H188" s="188"/>
+      <c r="G188" s="189"/>
+      <c r="H188" s="189"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="164">
@@ -22329,7 +22329,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="209"/>
+      <c r="C189" s="188"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -22339,8 +22339,8 @@
       <c r="F189" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="188"/>
-      <c r="H189" s="188"/>
+      <c r="G189" s="189"/>
+      <c r="H189" s="189"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="164">
@@ -22349,7 +22349,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="209"/>
+      <c r="C190" s="188"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -22359,8 +22359,8 @@
       <c r="F190" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="188"/>
-      <c r="H190" s="188"/>
+      <c r="G190" s="189"/>
+      <c r="H190" s="189"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="164">
@@ -22369,7 +22369,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="209"/>
+      <c r="C191" s="188"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -22379,8 +22379,8 @@
       <c r="F191" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="188"/>
-      <c r="H191" s="188"/>
+      <c r="G191" s="189"/>
+      <c r="H191" s="189"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="164">
@@ -22389,7 +22389,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="209"/>
+      <c r="C192" s="188"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -22399,8 +22399,8 @@
       <c r="F192" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="188"/>
-      <c r="H192" s="188"/>
+      <c r="G192" s="189"/>
+      <c r="H192" s="189"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="164">
@@ -22409,7 +22409,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="209"/>
+      <c r="C193" s="188"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -22419,8 +22419,8 @@
       <c r="F193" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="188"/>
-      <c r="H193" s="188"/>
+      <c r="G193" s="189"/>
+      <c r="H193" s="189"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="164">
@@ -22429,7 +22429,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="209"/>
+      <c r="C194" s="188"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -22439,8 +22439,8 @@
       <c r="F194" s="165" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="188"/>
-      <c r="H194" s="188"/>
+      <c r="G194" s="189"/>
+      <c r="H194" s="189"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="164">
@@ -22449,7 +22449,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="209"/>
+      <c r="C195" s="188"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -22459,8 +22459,8 @@
       <c r="F195" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="188"/>
-      <c r="H195" s="188"/>
+      <c r="G195" s="189"/>
+      <c r="H195" s="189"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="164">
@@ -22469,7 +22469,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="209"/>
+      <c r="C196" s="188"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -22479,8 +22479,8 @@
       <c r="F196" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="188"/>
-      <c r="H196" s="188"/>
+      <c r="G196" s="189"/>
+      <c r="H196" s="189"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="164">
@@ -22489,7 +22489,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="209"/>
+      <c r="C197" s="188"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -22499,8 +22499,8 @@
       <c r="F197" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="188"/>
-      <c r="H197" s="188"/>
+      <c r="G197" s="189"/>
+      <c r="H197" s="189"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="164">
@@ -22509,7 +22509,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="209"/>
+      <c r="C198" s="188"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -22519,8 +22519,8 @@
       <c r="F198" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G198" s="188"/>
-      <c r="H198" s="188"/>
+      <c r="G198" s="189"/>
+      <c r="H198" s="189"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="164">
@@ -22529,7 +22529,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="209"/>
+      <c r="C199" s="188"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -22539,8 +22539,8 @@
       <c r="F199" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G199" s="188"/>
-      <c r="H199" s="188"/>
+      <c r="G199" s="189"/>
+      <c r="H199" s="189"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="164">
@@ -22549,7 +22549,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="209"/>
+      <c r="C200" s="188"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -22559,8 +22559,8 @@
       <c r="F200" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="188"/>
-      <c r="H200" s="188"/>
+      <c r="G200" s="189"/>
+      <c r="H200" s="189"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="164">
@@ -22569,7 +22569,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="209"/>
+      <c r="C201" s="188"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -22579,8 +22579,8 @@
       <c r="F201" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="188"/>
-      <c r="H201" s="188"/>
+      <c r="G201" s="189"/>
+      <c r="H201" s="189"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="164">
@@ -22589,7 +22589,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="209"/>
+      <c r="C202" s="188"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -22599,8 +22599,8 @@
       <c r="F202" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="188"/>
-      <c r="H202" s="188"/>
+      <c r="G202" s="189"/>
+      <c r="H202" s="189"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="164">
@@ -22609,7 +22609,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="208"/>
+      <c r="C203" s="187"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -22619,8 +22619,8 @@
       <c r="F203" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="188"/>
-      <c r="H203" s="188"/>
+      <c r="G203" s="189"/>
+      <c r="H203" s="189"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="164">
@@ -22641,8 +22641,8 @@
       <c r="F204" s="165" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="188"/>
-      <c r="H204" s="188"/>
+      <c r="G204" s="189"/>
+      <c r="H204" s="189"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="164">
@@ -22661,10 +22661,10 @@
       <c r="F205" s="168" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="188" t="s">
+      <c r="G205" s="189" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="188"/>
+      <c r="H205" s="189"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="169">
@@ -22729,8 +22729,8 @@
       <c r="F208" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="G208" s="183"/>
-      <c r="H208" s="183"/>
+      <c r="G208" s="197"/>
+      <c r="H208" s="197"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22953,48 +22953,180 @@
       <c r="H223" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="191" t="s">
+      <c r="A227" s="206" t="s">
         <v>528</v>
       </c>
-      <c r="B227" s="191"/>
-      <c r="C227" s="191"/>
-      <c r="D227" s="191"/>
+      <c r="B227" s="206"/>
+      <c r="C227" s="206"/>
+      <c r="D227" s="206"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="105">
         <v>1</v>
       </c>
-      <c r="B228" s="188" t="s">
+      <c r="B228" s="189" t="s">
         <v>560</v>
       </c>
-      <c r="C228" s="188"/>
-      <c r="D228" s="188"/>
+      <c r="C228" s="189"/>
+      <c r="D228" s="189"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="105">
         <v>2</v>
       </c>
-      <c r="B229" s="188" t="s">
+      <c r="B229" s="189" t="s">
         <v>568</v>
       </c>
-      <c r="C229" s="188"/>
-      <c r="D229" s="188"/>
+      <c r="C229" s="189"/>
+      <c r="D229" s="189"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="147">
         <v>2.1</v>
       </c>
-      <c r="B230" s="188" t="s">
+      <c r="B230" s="189" t="s">
         <v>704</v>
       </c>
-      <c r="C230" s="188"/>
-      <c r="D230" s="188"/>
+      <c r="C230" s="189"/>
+      <c r="D230" s="189"/>
     </row>
   </sheetData>
   <autoFilter ref="A136:H206" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="156">
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
     <mergeCell ref="G144:H144"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="C176:C177"/>
@@ -23019,138 +23151,6 @@
     <mergeCell ref="G195:H195"/>
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -23413,37 +23413,37 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="210">
+      <c r="A4" s="215">
         <v>3</v>
       </c>
-      <c r="B4" s="211" t="s">
+      <c r="B4" s="216" t="s">
         <v>461</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="212" t="s">
+      <c r="D4" s="217" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="211" t="s">
+      <c r="E4" s="216" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="213" t="s">
+      <c r="F4" s="218" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="210"/>
+      <c r="G4" s="215"/>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="210"/>
-      <c r="B5" s="211"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="216"/>
       <c r="C5" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="210"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="218"/>
+      <c r="G5" s="215"/>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{858AC81D-8AD2-4958-A119-AAF677940B96}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0DE48B5-68BA-4ABA-983E-8C83D7285542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="Gross Margin" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sprints!$A$136:$H$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sprints!$A$136:$H$208</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Story'!$A$1:$H$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -3683,6 +3683,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3690,31 +3693,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3722,35 +3707,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3770,11 +3731,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18793,10 +18793,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G210" sqref="G210"/>
+    <sheetView tabSelected="1" topLeftCell="C112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19105,13 +19106,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="200" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19381,13 +19382,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="198" t="s">
+      <c r="B34" s="200" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19408,10 +19409,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="200" t="s">
+      <c r="G35" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="200"/>
+      <c r="H35" s="193"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19490,8 +19491,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
+      <c r="G39" s="201"/>
+      <c r="H39" s="201"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19510,8 +19511,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="199"/>
-      <c r="H40" s="199"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19530,10 +19531,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="201" t="s">
+      <c r="G41" s="202" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="202"/>
+      <c r="H41" s="203"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -19552,10 +19553,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="201" t="s">
+      <c r="G42" s="202" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="202"/>
+      <c r="H42" s="203"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -19574,10 +19575,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="201" t="s">
+      <c r="G43" s="202" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="202"/>
+      <c r="H43" s="203"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -19596,8 +19597,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="203"/>
-      <c r="H44" s="204"/>
+      <c r="G44" s="204"/>
+      <c r="H44" s="205"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -19618,10 +19619,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="201" t="s">
+      <c r="G45" s="202" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="202"/>
+      <c r="H45" s="203"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -19708,8 +19709,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="197"/>
-      <c r="H49" s="197"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="184"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19728,8 +19729,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="197"/>
-      <c r="H50" s="197"/>
+      <c r="G50" s="184"/>
+      <c r="H50" s="184"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19750,8 +19751,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="184"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19772,8 +19773,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
+      <c r="G52" s="184"/>
+      <c r="H52" s="184"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19794,8 +19795,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="184"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19816,8 +19817,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19838,8 +19839,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="197"/>
-      <c r="H55" s="197"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="184"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19858,8 +19859,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="197"/>
-      <c r="H56" s="197"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19878,8 +19879,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="197"/>
-      <c r="H57" s="197"/>
+      <c r="G57" s="184"/>
+      <c r="H57" s="184"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19898,8 +19899,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="197"/>
-      <c r="H58" s="197"/>
+      <c r="G58" s="184"/>
+      <c r="H58" s="184"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19920,8 +19921,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="184"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20032,13 +20033,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="198" t="s">
+      <c r="B70" s="200" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="198"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="198"/>
-      <c r="F70" s="198"/>
+      <c r="C70" s="200"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="200"/>
+      <c r="F70" s="200"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20059,10 +20060,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="205" t="s">
+      <c r="G71" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="205"/>
+      <c r="H71" s="207"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20083,7 +20084,7 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="194" t="s">
+      <c r="G72" s="206" t="s">
         <v>728</v>
       </c>
       <c r="H72" s="189"/>
@@ -20153,10 +20154,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="195" t="s">
+      <c r="G75" s="190" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="196"/>
+      <c r="H75" s="191"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -20217,8 +20218,8 @@
       <c r="F78" s="165" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="195"/>
-      <c r="H78" s="196"/>
+      <c r="G78" s="190"/>
+      <c r="H78" s="191"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -20537,8 +20538,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="184"/>
-      <c r="H94" s="185"/>
+      <c r="G94" s="185"/>
+      <c r="H94" s="186"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -20557,8 +20558,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="184"/>
-      <c r="H95" s="185"/>
+      <c r="G95" s="185"/>
+      <c r="H95" s="186"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -20577,8 +20578,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="184"/>
-      <c r="H96" s="185"/>
+      <c r="G96" s="185"/>
+      <c r="H96" s="186"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -20599,8 +20600,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="184"/>
-      <c r="H97" s="185"/>
+      <c r="G97" s="185"/>
+      <c r="H97" s="186"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -20621,8 +20622,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
+      <c r="G98" s="184"/>
+      <c r="H98" s="184"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20859,10 +20860,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="207" t="s">
+      <c r="G109" s="194" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="208"/>
+      <c r="H109" s="195"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -20879,8 +20880,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="209"/>
-      <c r="H110" s="210"/>
+      <c r="G110" s="196"/>
+      <c r="H110" s="197"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -20897,8 +20898,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="209"/>
-      <c r="H111" s="210"/>
+      <c r="G111" s="196"/>
+      <c r="H111" s="197"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -20915,8 +20916,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="209"/>
-      <c r="H112" s="210"/>
+      <c r="G112" s="196"/>
+      <c r="H112" s="197"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -20933,8 +20934,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="209"/>
-      <c r="H113" s="210"/>
+      <c r="G113" s="196"/>
+      <c r="H113" s="197"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -20951,8 +20952,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="209"/>
-      <c r="H114" s="210"/>
+      <c r="G114" s="196"/>
+      <c r="H114" s="197"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -20969,8 +20970,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="209"/>
-      <c r="H115" s="210"/>
+      <c r="G115" s="196"/>
+      <c r="H115" s="197"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -20987,8 +20988,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="209"/>
-      <c r="H116" s="210"/>
+      <c r="G116" s="196"/>
+      <c r="H116" s="197"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -21005,8 +21006,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="209"/>
-      <c r="H117" s="210"/>
+      <c r="G117" s="196"/>
+      <c r="H117" s="197"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -21023,8 +21024,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="209"/>
-      <c r="H118" s="210"/>
+      <c r="G118" s="196"/>
+      <c r="H118" s="197"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -21041,8 +21042,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="209"/>
-      <c r="H119" s="210"/>
+      <c r="G119" s="196"/>
+      <c r="H119" s="197"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -21059,8 +21060,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="209"/>
-      <c r="H120" s="210"/>
+      <c r="G120" s="196"/>
+      <c r="H120" s="197"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -21077,8 +21078,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="211"/>
-      <c r="H121" s="212"/>
+      <c r="G121" s="198"/>
+      <c r="H121" s="199"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21214,13 +21215,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="198" t="s">
+      <c r="B135" s="200" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="198"/>
-      <c r="D135" s="198"/>
-      <c r="E135" s="198"/>
-      <c r="F135" s="198"/>
+      <c r="C135" s="200"/>
+      <c r="D135" s="200"/>
+      <c r="E135" s="200"/>
+      <c r="F135" s="200"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21241,12 +21242,12 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="200" t="s">
+      <c r="G136" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="200"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="193"/>
+    </row>
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
         <v>1</v>
       </c>
@@ -21263,10 +21264,10 @@
       <c r="F137" s="175" t="s">
         <v>893</v>
       </c>
-      <c r="G137" s="184"/>
-      <c r="H137" s="185"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G137" s="185"/>
+      <c r="H137" s="186"/>
+    </row>
+    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
         <v>2</v>
       </c>
@@ -21285,7 +21286,7 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="194" t="s">
+      <c r="G138" s="206" t="s">
         <v>845</v>
       </c>
       <c r="H138" s="189"/>
@@ -21312,14 +21313,14 @@
       <c r="G139" s="189"/>
       <c r="H139" s="189"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
         <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="213" t="s">
+      <c r="C140" s="187" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="162" t="s">
@@ -21334,14 +21335,14 @@
       <c r="G140" s="189"/>
       <c r="H140" s="189"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="214"/>
+      <c r="C141" s="188"/>
       <c r="D141" s="162" t="s">
         <v>797</v>
       </c>
@@ -21354,14 +21355,14 @@
       <c r="G141" s="189"/>
       <c r="H141" s="189"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="213" t="s">
+      <c r="C142" s="187" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21376,14 +21377,14 @@
       <c r="G142" s="189"/>
       <c r="H142" s="189"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
         <v>7</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="214"/>
+      <c r="C143" s="188"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21396,14 +21397,14 @@
       <c r="G143" s="189"/>
       <c r="H143" s="189"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
         <v>8</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="213" t="s">
+      <c r="C144" s="187" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21415,17 +21416,17 @@
       <c r="F144" s="160" t="s">
         <v>180</v>
       </c>
-      <c r="G144" s="184"/>
-      <c r="H144" s="185"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G144" s="185"/>
+      <c r="H144" s="186"/>
+    </row>
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
         <v>9</v>
       </c>
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="214"/>
+      <c r="C145" s="188"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -21500,7 +21501,7 @@
       <c r="G148" s="189"/>
       <c r="H148" s="189"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
         <v>13</v>
       </c>
@@ -21524,7 +21525,7 @@
       </c>
       <c r="H149" s="189"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
         <v>14</v>
       </c>
@@ -21548,7 +21549,7 @@
       </c>
       <c r="H150" s="189"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
         <v>15</v>
       </c>
@@ -22054,14 +22055,14 @@
       <c r="G175" s="189"/>
       <c r="H175" s="189"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="164">
         <v>40</v>
       </c>
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="186" t="s">
+      <c r="C176" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22073,19 +22074,19 @@
       <c r="F176" s="175" t="s">
         <v>894</v>
       </c>
-      <c r="G176" s="190" t="s">
+      <c r="G176" s="211" t="s">
         <v>895</v>
       </c>
-      <c r="H176" s="191"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H176" s="212"/>
+    </row>
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="164">
         <v>41</v>
       </c>
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="187"/>
+      <c r="C177" s="209"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -22095,17 +22096,17 @@
       <c r="F177" s="175" t="s">
         <v>883</v>
       </c>
-      <c r="G177" s="192"/>
-      <c r="H177" s="193"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G177" s="213"/>
+      <c r="H177" s="214"/>
+    </row>
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="164">
         <v>42</v>
       </c>
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="186" t="s">
+      <c r="C178" s="208" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22120,14 +22121,14 @@
       <c r="G178" s="189"/>
       <c r="H178" s="189"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="164">
         <v>43</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="187"/>
+      <c r="C179" s="209"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -22140,14 +22141,14 @@
       <c r="G179" s="189"/>
       <c r="H179" s="189"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="164">
         <v>44</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="186" t="s">
+      <c r="C180" s="208" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22162,14 +22163,14 @@
       <c r="G180" s="189"/>
       <c r="H180" s="189"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="164">
         <v>45</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="188"/>
+      <c r="C181" s="210"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -22182,14 +22183,14 @@
       <c r="G181" s="189"/>
       <c r="H181" s="189"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="164">
         <v>46</v>
       </c>
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="188"/>
+      <c r="C182" s="210"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -22202,14 +22203,14 @@
       <c r="G182" s="189"/>
       <c r="H182" s="189"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="164">
         <v>47</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="188"/>
+      <c r="C183" s="210"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -22217,19 +22218,19 @@
         <v>493</v>
       </c>
       <c r="F183" s="165" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="G183" s="189"/>
       <c r="H183" s="189"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="164">
         <v>48</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="188"/>
+      <c r="C184" s="210"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -22242,14 +22243,14 @@
       <c r="G184" s="189"/>
       <c r="H184" s="189"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="164">
         <v>49</v>
       </c>
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="188"/>
+      <c r="C185" s="210"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -22262,14 +22263,14 @@
       <c r="G185" s="189"/>
       <c r="H185" s="189"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="164">
         <v>50</v>
       </c>
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="188"/>
+      <c r="C186" s="210"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -22282,14 +22283,14 @@
       <c r="G186" s="189"/>
       <c r="H186" s="189"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="164">
         <v>51</v>
       </c>
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="188"/>
+      <c r="C187" s="210"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -22302,14 +22303,14 @@
       <c r="G187" s="189"/>
       <c r="H187" s="189"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="164">
         <v>52</v>
       </c>
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="188"/>
+      <c r="C188" s="210"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -22317,19 +22318,19 @@
         <v>493</v>
       </c>
       <c r="F188" s="165" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="G188" s="189"/>
       <c r="H188" s="189"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="164">
         <v>53</v>
       </c>
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="188"/>
+      <c r="C189" s="210"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -22342,14 +22343,14 @@
       <c r="G189" s="189"/>
       <c r="H189" s="189"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="164">
         <v>54</v>
       </c>
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="188"/>
+      <c r="C190" s="210"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -22362,14 +22363,14 @@
       <c r="G190" s="189"/>
       <c r="H190" s="189"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="164">
         <v>55</v>
       </c>
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="188"/>
+      <c r="C191" s="210"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -22382,14 +22383,14 @@
       <c r="G191" s="189"/>
       <c r="H191" s="189"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="164">
         <v>56</v>
       </c>
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="188"/>
+      <c r="C192" s="210"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -22402,14 +22403,14 @@
       <c r="G192" s="189"/>
       <c r="H192" s="189"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="164">
         <v>57</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="188"/>
+      <c r="C193" s="210"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -22422,14 +22423,14 @@
       <c r="G193" s="189"/>
       <c r="H193" s="189"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="164">
         <v>58</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="188"/>
+      <c r="C194" s="210"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -22442,14 +22443,14 @@
       <c r="G194" s="189"/>
       <c r="H194" s="189"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="164">
         <v>59</v>
       </c>
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="188"/>
+      <c r="C195" s="210"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -22462,14 +22463,14 @@
       <c r="G195" s="189"/>
       <c r="H195" s="189"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="164">
         <v>60</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="188"/>
+      <c r="C196" s="210"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -22482,14 +22483,14 @@
       <c r="G196" s="189"/>
       <c r="H196" s="189"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="164">
         <v>61</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="188"/>
+      <c r="C197" s="210"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -22502,14 +22503,14 @@
       <c r="G197" s="189"/>
       <c r="H197" s="189"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="164">
         <v>62</v>
       </c>
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="188"/>
+      <c r="C198" s="210"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -22517,19 +22518,19 @@
         <v>493</v>
       </c>
       <c r="F198" s="165" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="G198" s="189"/>
       <c r="H198" s="189"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="164">
         <v>63</v>
       </c>
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="188"/>
+      <c r="C199" s="210"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -22537,19 +22538,19 @@
         <v>493</v>
       </c>
       <c r="F199" s="165" t="s">
-        <v>180</v>
+        <v>501</v>
       </c>
       <c r="G199" s="189"/>
       <c r="H199" s="189"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="164">
         <v>64</v>
       </c>
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="188"/>
+      <c r="C200" s="210"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -22562,14 +22563,14 @@
       <c r="G200" s="189"/>
       <c r="H200" s="189"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="164">
         <v>65</v>
       </c>
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="188"/>
+      <c r="C201" s="210"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -22582,14 +22583,14 @@
       <c r="G201" s="189"/>
       <c r="H201" s="189"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="164">
         <v>66</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="188"/>
+      <c r="C202" s="210"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -22602,14 +22603,14 @@
       <c r="G202" s="189"/>
       <c r="H202" s="189"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="164">
         <v>67</v>
       </c>
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="187"/>
+      <c r="C203" s="209"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -22644,7 +22645,7 @@
       <c r="G204" s="189"/>
       <c r="H204" s="189"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="164">
         <v>69</v>
       </c>
@@ -22666,7 +22667,7 @@
       </c>
       <c r="H205" s="189"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="169">
         <v>70</v>
       </c>
@@ -22685,8 +22686,8 @@
       <c r="F206" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="184"/>
-      <c r="H206" s="185"/>
+      <c r="G206" s="185"/>
+      <c r="H206" s="186"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="172">
@@ -22707,10 +22708,10 @@
       <c r="F207" s="174" t="s">
         <v>180</v>
       </c>
-      <c r="G207" s="184"/>
-      <c r="H207" s="185"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G207" s="185"/>
+      <c r="H207" s="186"/>
+    </row>
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
         <v>72</v>
       </c>
@@ -22727,10 +22728,10 @@
         <v>632</v>
       </c>
       <c r="F208" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G208" s="197"/>
-      <c r="H208" s="197"/>
+        <v>501</v>
+      </c>
+      <c r="G208" s="184"/>
+      <c r="H208" s="184"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22953,12 +22954,12 @@
       <c r="H223" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="206" t="s">
+      <c r="A227" s="192" t="s">
         <v>528</v>
       </c>
-      <c r="B227" s="206"/>
-      <c r="C227" s="206"/>
-      <c r="D227" s="206"/>
+      <c r="B227" s="192"/>
+      <c r="C227" s="192"/>
+      <c r="D227" s="192"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="105">
@@ -22991,10 +22992,147 @@
       <c r="D230" s="189"/>
     </row>
   </sheetData>
-  <autoFilter ref="A136:H206" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
+  <autoFilter ref="A136:H208" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Chun zhao"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="156">
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
     <mergeCell ref="G208:H208"/>
     <mergeCell ref="G206:H206"/>
     <mergeCell ref="C146:C148"/>
@@ -23019,138 +23157,6 @@
     <mergeCell ref="G184:H184"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A0DE48B5-68BA-4ABA-983E-8C83D7285542}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45D59F0E-17AC-4124-99D0-3C6FE21077D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3611,9 +3611,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3659,6 +3656,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3683,9 +3683,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3693,13 +3690,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3707,11 +3722,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3731,50 +3770,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13877,7 +13877,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="177"/>
-      <c r="B44" s="166">
+      <c r="B44" s="165">
         <v>404</v>
       </c>
       <c r="C44" s="122">
@@ -13901,7 +13901,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="177"/>
-      <c r="B45" s="166">
+      <c r="B45" s="165">
         <v>405</v>
       </c>
       <c r="C45" s="122">
@@ -13997,7 +13997,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="177"/>
-      <c r="B49" s="166">
+      <c r="B49" s="165">
         <v>409</v>
       </c>
       <c r="C49" s="116">
@@ -14045,7 +14045,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="177"/>
-      <c r="B51" s="167">
+      <c r="B51" s="166">
         <v>411</v>
       </c>
       <c r="C51" s="116">
@@ -14255,7 +14255,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="177"/>
-      <c r="B60" s="161">
+      <c r="B60" s="160">
         <v>420</v>
       </c>
       <c r="C60" s="122">
@@ -14279,7 +14279,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="177"/>
-      <c r="B61" s="161">
+      <c r="B61" s="160">
         <v>421</v>
       </c>
       <c r="C61" s="122">
@@ -14303,7 +14303,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="177"/>
-      <c r="B62" s="161">
+      <c r="B62" s="160">
         <v>422</v>
       </c>
       <c r="C62" s="122">
@@ -14327,7 +14327,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="177"/>
-      <c r="B63" s="161">
+      <c r="B63" s="160">
         <v>423</v>
       </c>
       <c r="C63" s="122">
@@ -14351,7 +14351,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="177"/>
-      <c r="B64" s="161">
+      <c r="B64" s="160">
         <v>424</v>
       </c>
       <c r="C64" s="122">
@@ -14375,7 +14375,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="177"/>
-      <c r="B65" s="161">
+      <c r="B65" s="160">
         <v>425</v>
       </c>
       <c r="C65" s="122">
@@ -14399,7 +14399,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="177"/>
-      <c r="B66" s="161">
+      <c r="B66" s="160">
         <v>426</v>
       </c>
       <c r="C66" s="122">
@@ -14423,7 +14423,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="177"/>
-      <c r="B67" s="161">
+      <c r="B67" s="160">
         <v>427</v>
       </c>
       <c r="C67" s="122">
@@ -14447,7 +14447,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="177"/>
-      <c r="B68" s="161">
+      <c r="B68" s="160">
         <v>428</v>
       </c>
       <c r="C68" s="122">
@@ -14471,7 +14471,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="177"/>
-      <c r="B69" s="161">
+      <c r="B69" s="160">
         <v>429</v>
       </c>
       <c r="C69" s="122">
@@ -14495,7 +14495,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="177"/>
-      <c r="B70" s="161">
+      <c r="B70" s="160">
         <v>430</v>
       </c>
       <c r="C70" s="122">
@@ -14519,7 +14519,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="177"/>
-      <c r="B71" s="161">
+      <c r="B71" s="160">
         <v>431</v>
       </c>
       <c r="C71" s="122">
@@ -14543,7 +14543,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="177"/>
-      <c r="B72" s="161">
+      <c r="B72" s="160">
         <v>432</v>
       </c>
       <c r="C72" s="122">
@@ -14567,7 +14567,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="177"/>
-      <c r="B73" s="161">
+      <c r="B73" s="160">
         <v>433</v>
       </c>
       <c r="C73" s="122">
@@ -14591,7 +14591,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="177"/>
-      <c r="B74" s="161">
+      <c r="B74" s="160">
         <v>434</v>
       </c>
       <c r="C74" s="122">
@@ -14615,7 +14615,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="177"/>
-      <c r="B75" s="161">
+      <c r="B75" s="160">
         <v>435</v>
       </c>
       <c r="C75" s="122">
@@ -14639,7 +14639,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="177"/>
-      <c r="B76" s="161">
+      <c r="B76" s="160">
         <v>436</v>
       </c>
       <c r="C76" s="122">
@@ -14663,7 +14663,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="177"/>
-      <c r="B77" s="161">
+      <c r="B77" s="160">
         <v>437</v>
       </c>
       <c r="C77" s="122">
@@ -14687,7 +14687,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="177"/>
-      <c r="B78" s="161">
+      <c r="B78" s="160">
         <v>438</v>
       </c>
       <c r="C78" s="122">
@@ -14711,7 +14711,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="177"/>
-      <c r="B79" s="161">
+      <c r="B79" s="160">
         <v>439</v>
       </c>
       <c r="C79" s="122">
@@ -14735,7 +14735,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="177"/>
-      <c r="B80" s="161">
+      <c r="B80" s="160">
         <v>440</v>
       </c>
       <c r="C80" s="122">
@@ -14759,7 +14759,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="177"/>
-      <c r="B81" s="161">
+      <c r="B81" s="160">
         <v>441</v>
       </c>
       <c r="C81" s="122">
@@ -14783,7 +14783,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="177"/>
-      <c r="B82" s="161">
+      <c r="B82" s="160">
         <v>442</v>
       </c>
       <c r="C82" s="122">
@@ -14807,7 +14807,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="177"/>
-      <c r="B83" s="161">
+      <c r="B83" s="160">
         <v>443</v>
       </c>
       <c r="C83" s="122">
@@ -14831,7 +14831,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="177"/>
-      <c r="B84" s="161">
+      <c r="B84" s="160">
         <v>444</v>
       </c>
       <c r="C84" s="122">
@@ -14855,7 +14855,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="177"/>
-      <c r="B85" s="161">
+      <c r="B85" s="160">
         <v>445</v>
       </c>
       <c r="C85" s="122">
@@ -14879,7 +14879,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="177"/>
-      <c r="B86" s="161">
+      <c r="B86" s="160">
         <v>446</v>
       </c>
       <c r="C86" s="122">
@@ -14903,7 +14903,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="177"/>
-      <c r="B87" s="161">
+      <c r="B87" s="160">
         <v>447</v>
       </c>
       <c r="C87" s="122">
@@ -14927,7 +14927,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="177"/>
-      <c r="B88" s="161">
+      <c r="B88" s="160">
         <v>448</v>
       </c>
       <c r="C88" s="122">
@@ -14997,7 +14997,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="177"/>
-      <c r="B91" s="161">
+      <c r="B91" s="160">
         <v>451</v>
       </c>
       <c r="C91" s="122">
@@ -15515,11 +15515,11 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="177"/>
-      <c r="B117" s="169">
+      <c r="B117" s="168">
         <v>476</v>
       </c>
-      <c r="C117" s="169"/>
-      <c r="D117" s="169"/>
+      <c r="C117" s="168"/>
+      <c r="D117" s="168"/>
       <c r="E117" s="20" t="s">
         <v>110</v>
       </c>
@@ -15542,7 +15542,7 @@
       <c r="A119" s="176" t="s">
         <v>186</v>
       </c>
-      <c r="B119" s="163">
+      <c r="B119" s="162">
         <v>501</v>
       </c>
       <c r="C119" s="116">
@@ -15652,7 +15652,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="177"/>
-      <c r="B124" s="163">
+      <c r="B124" s="162">
         <v>506</v>
       </c>
       <c r="C124" s="116">
@@ -18793,11 +18793,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152:C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19106,13 +19105,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="200" t="s">
+      <c r="B17" s="198" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="198"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19382,13 +19381,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="198" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="198"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19409,10 +19408,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="193" t="s">
+      <c r="G35" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="193"/>
+      <c r="H35" s="200"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19491,8 +19490,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="201"/>
-      <c r="H39" s="201"/>
+      <c r="G39" s="199"/>
+      <c r="H39" s="199"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19511,8 +19510,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="201"/>
-      <c r="H40" s="201"/>
+      <c r="G40" s="199"/>
+      <c r="H40" s="199"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19531,10 +19530,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="202" t="s">
+      <c r="G41" s="201" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="203"/>
+      <c r="H41" s="202"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -19553,10 +19552,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="202" t="s">
+      <c r="G42" s="201" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="203"/>
+      <c r="H42" s="202"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -19575,10 +19574,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="202" t="s">
+      <c r="G43" s="201" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="203"/>
+      <c r="H43" s="202"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -19597,8 +19596,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="204"/>
-      <c r="H44" s="205"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="204"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -19619,10 +19618,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="202" t="s">
+      <c r="G45" s="201" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="203"/>
+      <c r="H45" s="202"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -19709,8 +19708,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
+      <c r="G49" s="197"/>
+      <c r="H49" s="197"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19729,8 +19728,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="184"/>
-      <c r="H50" s="184"/>
+      <c r="G50" s="197"/>
+      <c r="H50" s="197"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19751,8 +19750,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="184"/>
-      <c r="H51" s="184"/>
+      <c r="G51" s="197"/>
+      <c r="H51" s="197"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19773,8 +19772,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="184"/>
-      <c r="H52" s="184"/>
+      <c r="G52" s="197"/>
+      <c r="H52" s="197"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19795,8 +19794,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="184"/>
-      <c r="H53" s="184"/>
+      <c r="G53" s="197"/>
+      <c r="H53" s="197"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19817,8 +19816,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
+      <c r="G54" s="197"/>
+      <c r="H54" s="197"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19839,8 +19838,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="184"/>
-      <c r="H55" s="184"/>
+      <c r="G55" s="197"/>
+      <c r="H55" s="197"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19859,8 +19858,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="184"/>
-      <c r="H56" s="184"/>
+      <c r="G56" s="197"/>
+      <c r="H56" s="197"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19879,8 +19878,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="184"/>
-      <c r="H57" s="184"/>
+      <c r="G57" s="197"/>
+      <c r="H57" s="197"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19899,8 +19898,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
+      <c r="G58" s="197"/>
+      <c r="H58" s="197"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19921,8 +19920,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="184"/>
-      <c r="H59" s="184"/>
+      <c r="G59" s="197"/>
+      <c r="H59" s="197"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20033,13 +20032,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="200" t="s">
+      <c r="B70" s="198" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="200"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
+      <c r="F70" s="198"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20060,10 +20059,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="207" t="s">
+      <c r="G71" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="207"/>
+      <c r="H71" s="205"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20084,7 +20083,7 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="206" t="s">
+      <c r="G72" s="194" t="s">
         <v>728</v>
       </c>
       <c r="H72" s="189"/>
@@ -20154,10 +20153,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="190" t="s">
+      <c r="G75" s="195" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="191"/>
+      <c r="H75" s="196"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -20175,7 +20174,7 @@
       <c r="E76" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F76" s="165" t="s">
+      <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G76" s="189"/>
@@ -20195,7 +20194,7 @@
       <c r="E77" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F77" s="165" t="s">
+      <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G77" s="189"/>
@@ -20215,11 +20214,11 @@
       <c r="E78" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F78" s="165" t="s">
+      <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="190"/>
-      <c r="H78" s="191"/>
+      <c r="G78" s="195"/>
+      <c r="H78" s="196"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -20235,7 +20234,7 @@
       <c r="E79" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F79" s="165" t="s">
+      <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G79" s="189"/>
@@ -20255,7 +20254,7 @@
       <c r="E80" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F80" s="165" t="s">
+      <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G80" s="189"/>
@@ -20275,7 +20274,7 @@
       <c r="E81" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F81" s="165" t="s">
+      <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G81" s="189"/>
@@ -20295,7 +20294,7 @@
       <c r="E82" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F82" s="165" t="s">
+      <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G82" s="189"/>
@@ -20315,7 +20314,7 @@
       <c r="E83" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F83" s="165" t="s">
+      <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G83" s="189"/>
@@ -20335,7 +20334,7 @@
       <c r="E84" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F84" s="165" t="s">
+      <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G84" s="189"/>
@@ -20355,7 +20354,7 @@
       <c r="E85" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F85" s="165" t="s">
+      <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G85" s="189"/>
@@ -20375,7 +20374,7 @@
       <c r="E86" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F86" s="165" t="s">
+      <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G86" s="189"/>
@@ -20395,7 +20394,7 @@
       <c r="E87" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F87" s="165" t="s">
+      <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G87" s="189"/>
@@ -20415,7 +20414,7 @@
       <c r="E88" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F88" s="165" t="s">
+      <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G88" s="189"/>
@@ -20435,7 +20434,7 @@
       <c r="E89" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F89" s="165" t="s">
+      <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G89" s="189"/>
@@ -20455,7 +20454,7 @@
       <c r="E90" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F90" s="165" t="s">
+      <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G90" s="189"/>
@@ -20475,7 +20474,7 @@
       <c r="E91" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F91" s="165" t="s">
+      <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G91" s="189"/>
@@ -20495,7 +20494,7 @@
       <c r="E92" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F92" s="165" t="s">
+      <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G92" s="189"/>
@@ -20515,7 +20514,7 @@
       <c r="E93" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F93" s="165" t="s">
+      <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G93" s="189"/>
@@ -20538,8 +20537,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="185"/>
-      <c r="H94" s="186"/>
+      <c r="G94" s="184"/>
+      <c r="H94" s="185"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -20558,8 +20557,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="185"/>
-      <c r="H95" s="186"/>
+      <c r="G95" s="184"/>
+      <c r="H95" s="185"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -20578,8 +20577,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="185"/>
-      <c r="H96" s="186"/>
+      <c r="G96" s="184"/>
+      <c r="H96" s="185"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -20600,8 +20599,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="185"/>
-      <c r="H97" s="186"/>
+      <c r="G97" s="184"/>
+      <c r="H97" s="185"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -20622,8 +20621,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="184"/>
-      <c r="H98" s="184"/>
+      <c r="G98" s="197"/>
+      <c r="H98" s="197"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20860,10 +20859,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="194" t="s">
+      <c r="G109" s="207" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="195"/>
+      <c r="H109" s="208"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -20880,8 +20879,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="196"/>
-      <c r="H110" s="197"/>
+      <c r="G110" s="209"/>
+      <c r="H110" s="210"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -20898,8 +20897,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="196"/>
-      <c r="H111" s="197"/>
+      <c r="G111" s="209"/>
+      <c r="H111" s="210"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -20916,8 +20915,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="196"/>
-      <c r="H112" s="197"/>
+      <c r="G112" s="209"/>
+      <c r="H112" s="210"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -20934,8 +20933,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="196"/>
-      <c r="H113" s="197"/>
+      <c r="G113" s="209"/>
+      <c r="H113" s="210"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -20952,8 +20951,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="196"/>
-      <c r="H114" s="197"/>
+      <c r="G114" s="209"/>
+      <c r="H114" s="210"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -20970,8 +20969,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="196"/>
-      <c r="H115" s="197"/>
+      <c r="G115" s="209"/>
+      <c r="H115" s="210"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -20988,8 +20987,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="196"/>
-      <c r="H116" s="197"/>
+      <c r="G116" s="209"/>
+      <c r="H116" s="210"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -21006,8 +21005,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="196"/>
-      <c r="H117" s="197"/>
+      <c r="G117" s="209"/>
+      <c r="H117" s="210"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -21024,8 +21023,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="196"/>
-      <c r="H118" s="197"/>
+      <c r="G118" s="209"/>
+      <c r="H118" s="210"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -21042,8 +21041,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="196"/>
-      <c r="H119" s="197"/>
+      <c r="G119" s="209"/>
+      <c r="H119" s="210"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -21060,8 +21059,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="196"/>
-      <c r="H120" s="197"/>
+      <c r="G120" s="209"/>
+      <c r="H120" s="210"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -21078,8 +21077,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="198"/>
-      <c r="H121" s="199"/>
+      <c r="G121" s="211"/>
+      <c r="H121" s="212"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21215,13 +21214,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="200" t="s">
+      <c r="B135" s="198" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="200"/>
-      <c r="D135" s="200"/>
-      <c r="E135" s="200"/>
-      <c r="F135" s="200"/>
+      <c r="C135" s="198"/>
+      <c r="D135" s="198"/>
+      <c r="E135" s="198"/>
+      <c r="F135" s="198"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21242,12 +21241,12 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="193" t="s">
+      <c r="G136" s="200" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="193"/>
-    </row>
-    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H136" s="200"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
         <v>1</v>
       </c>
@@ -21261,13 +21260,13 @@
       <c r="E137" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="F137" s="175" t="s">
+      <c r="F137" s="174" t="s">
         <v>893</v>
       </c>
-      <c r="G137" s="185"/>
-      <c r="H137" s="186"/>
-    </row>
-    <row r="138" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="184"/>
+      <c r="H137" s="185"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
         <v>2</v>
       </c>
@@ -21286,7 +21285,7 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="206" t="s">
+      <c r="G138" s="194" t="s">
         <v>845</v>
       </c>
       <c r="H138" s="189"/>
@@ -21313,17 +21312,17 @@
       <c r="G139" s="189"/>
       <c r="H139" s="189"/>
     </row>
-    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
         <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="187" t="s">
+      <c r="C140" s="213" t="s">
         <v>881</v>
       </c>
-      <c r="D140" s="162" t="s">
+      <c r="D140" s="161" t="s">
         <v>796</v>
       </c>
       <c r="E140" s="1" t="s">
@@ -21335,15 +21334,15 @@
       <c r="G140" s="189"/>
       <c r="H140" s="189"/>
     </row>
-    <row r="141" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
         <v>5</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="188"/>
-      <c r="D141" s="162" t="s">
+      <c r="C141" s="214"/>
+      <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
       <c r="E141" s="1" t="s">
@@ -21355,14 +21354,14 @@
       <c r="G141" s="189"/>
       <c r="H141" s="189"/>
     </row>
-    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
         <v>6</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="187" t="s">
+      <c r="C142" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21377,14 +21376,14 @@
       <c r="G142" s="189"/>
       <c r="H142" s="189"/>
     </row>
-    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
         <v>7</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="188"/>
+      <c r="C143" s="214"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21397,14 +21396,14 @@
       <c r="G143" s="189"/>
       <c r="H143" s="189"/>
     </row>
-    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
         <v>8</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="187" t="s">
+      <c r="C144" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21413,28 +21412,28 @@
       <c r="E144" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F144" s="160" t="s">
-        <v>180</v>
-      </c>
-      <c r="G144" s="185"/>
-      <c r="H144" s="186"/>
-    </row>
-    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="175" t="s">
+        <v>559</v>
+      </c>
+      <c r="G144" s="184"/>
+      <c r="H144" s="185"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
         <v>9</v>
       </c>
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="188"/>
+      <c r="C145" s="214"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="F145" s="159" t="s">
-        <v>180</v>
+      <c r="F145" s="175" t="s">
+        <v>559</v>
       </c>
       <c r="G145" s="189"/>
       <c r="H145" s="189"/>
@@ -21501,7 +21500,7 @@
       <c r="G148" s="189"/>
       <c r="H148" s="189"/>
     </row>
-    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
         <v>13</v>
       </c>
@@ -21525,7 +21524,7 @@
       </c>
       <c r="H149" s="189"/>
     </row>
-    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
         <v>14</v>
       </c>
@@ -21541,15 +21540,15 @@
       <c r="E150" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F150" s="159" t="s">
-        <v>883</v>
+      <c r="F150" s="175" t="s">
+        <v>559</v>
       </c>
       <c r="G150" s="189" t="s">
         <v>887</v>
       </c>
       <c r="H150" s="189"/>
     </row>
-    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
         <v>15</v>
       </c>
@@ -21565,8 +21564,8 @@
       <c r="E151" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F151" s="159" t="s">
-        <v>180</v>
+      <c r="F151" s="175" t="s">
+        <v>559</v>
       </c>
       <c r="G151" s="189" t="s">
         <v>887</v>
@@ -21589,7 +21588,7 @@
       <c r="E152" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F152" s="171" t="s">
+      <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G152" s="189"/>
@@ -21609,7 +21608,7 @@
       <c r="E153" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F153" s="171" t="s">
+      <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G153" s="189"/>
@@ -21629,7 +21628,7 @@
       <c r="E154" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F154" s="171" t="s">
+      <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G154" s="189"/>
@@ -21649,7 +21648,7 @@
       <c r="E155" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F155" s="171" t="s">
+      <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G155" s="189"/>
@@ -21669,7 +21668,7 @@
       <c r="E156" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F156" s="171" t="s">
+      <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G156" s="189"/>
@@ -21689,7 +21688,7 @@
       <c r="E157" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F157" s="171" t="s">
+      <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G157" s="189"/>
@@ -21709,7 +21708,7 @@
       <c r="E158" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F158" s="171" t="s">
+      <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G158" s="189"/>
@@ -21729,7 +21728,7 @@
       <c r="E159" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F159" s="171" t="s">
+      <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G159" s="189"/>
@@ -21749,7 +21748,7 @@
       <c r="E160" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F160" s="171" t="s">
+      <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G160" s="189"/>
@@ -21769,7 +21768,7 @@
       <c r="E161" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F161" s="171" t="s">
+      <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G161" s="189"/>
@@ -21789,7 +21788,7 @@
       <c r="E162" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F162" s="171" t="s">
+      <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G162" s="189"/>
@@ -21809,7 +21808,7 @@
       <c r="E163" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F163" s="171" t="s">
+      <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G163" s="189"/>
@@ -21829,7 +21828,7 @@
       <c r="E164" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F164" s="171" t="s">
+      <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G164" s="189"/>
@@ -21849,7 +21848,7 @@
       <c r="E165" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F165" s="171" t="s">
+      <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G165" s="189"/>
@@ -21869,7 +21868,7 @@
       <c r="E166" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F166" s="171" t="s">
+      <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G166" s="189"/>
@@ -21889,7 +21888,7 @@
       <c r="E167" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F167" s="171" t="s">
+      <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G167" s="189"/>
@@ -21909,7 +21908,7 @@
       <c r="E168" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F168" s="171" t="s">
+      <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G168" s="189"/>
@@ -21929,7 +21928,7 @@
       <c r="E169" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F169" s="171" t="s">
+      <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G169" s="189"/>
@@ -21949,7 +21948,7 @@
       <c r="E170" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F170" s="171" t="s">
+      <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G170" s="189"/>
@@ -21969,7 +21968,7 @@
       <c r="E171" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F171" s="171" t="s">
+      <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G171" s="189"/>
@@ -21989,7 +21988,7 @@
       <c r="E172" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F172" s="171" t="s">
+      <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G172" s="189"/>
@@ -22009,7 +22008,7 @@
       <c r="E173" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F173" s="171" t="s">
+      <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G173" s="189"/>
@@ -22029,7 +22028,7 @@
       <c r="E174" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F174" s="171" t="s">
+      <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G174" s="189"/>
@@ -22049,20 +22048,20 @@
       <c r="E175" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F175" s="171" t="s">
+      <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
       <c r="G175" s="189"/>
       <c r="H175" s="189"/>
     </row>
-    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="164">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="163">
         <v>40</v>
       </c>
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="208" t="s">
+      <c r="C176" s="186" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22071,42 +22070,42 @@
       <c r="E176" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F176" s="175" t="s">
+      <c r="F176" s="174" t="s">
         <v>894</v>
       </c>
-      <c r="G176" s="211" t="s">
+      <c r="G176" s="190" t="s">
         <v>895</v>
       </c>
-      <c r="H176" s="212"/>
-    </row>
-    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="164">
+      <c r="H176" s="191"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="163">
         <v>41</v>
       </c>
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="209"/>
+      <c r="C177" s="187"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
       <c r="E177" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F177" s="175" t="s">
+      <c r="F177" s="174" t="s">
         <v>883</v>
       </c>
-      <c r="G177" s="213"/>
-      <c r="H177" s="214"/>
-    </row>
-    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="164">
+      <c r="G177" s="192"/>
+      <c r="H177" s="193"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="163">
         <v>42</v>
       </c>
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="208" t="s">
+      <c r="C178" s="186" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22115,40 +22114,40 @@
       <c r="E178" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F178" s="165" t="s">
+      <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G178" s="189"/>
       <c r="H178" s="189"/>
     </row>
-    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="164">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="163">
         <v>43</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="209"/>
+      <c r="C179" s="187"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
       <c r="E179" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F179" s="165" t="s">
+      <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G179" s="189"/>
       <c r="H179" s="189"/>
     </row>
-    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="164">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="163">
         <v>44</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="208" t="s">
+      <c r="C180" s="186" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22157,474 +22156,474 @@
       <c r="E180" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F180" s="165" t="s">
+      <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G180" s="189"/>
       <c r="H180" s="189"/>
     </row>
-    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="164">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="163">
         <v>45</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="210"/>
+      <c r="C181" s="188"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F181" s="165" t="s">
+      <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G181" s="189"/>
       <c r="H181" s="189"/>
     </row>
-    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="164">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="163">
         <v>46</v>
       </c>
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="210"/>
+      <c r="C182" s="188"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F182" s="165" t="s">
+      <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G182" s="189"/>
       <c r="H182" s="189"/>
     </row>
-    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="164">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="163">
         <v>47</v>
       </c>
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="210"/>
+      <c r="C183" s="188"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F183" s="165" t="s">
+      <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G183" s="189"/>
       <c r="H183" s="189"/>
     </row>
-    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="164">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="163">
         <v>48</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="210"/>
+      <c r="C184" s="188"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F184" s="165" t="s">
+      <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G184" s="189"/>
       <c r="H184" s="189"/>
     </row>
-    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="164">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="163">
         <v>49</v>
       </c>
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="210"/>
+      <c r="C185" s="188"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F185" s="165" t="s">
+      <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G185" s="189"/>
       <c r="H185" s="189"/>
     </row>
-    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="164">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="163">
         <v>50</v>
       </c>
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="210"/>
+      <c r="C186" s="188"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F186" s="165" t="s">
+      <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G186" s="189"/>
       <c r="H186" s="189"/>
     </row>
-    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="164">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="163">
         <v>51</v>
       </c>
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="210"/>
+      <c r="C187" s="188"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F187" s="165" t="s">
+      <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G187" s="189"/>
       <c r="H187" s="189"/>
     </row>
-    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="164">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="163">
         <v>52</v>
       </c>
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="210"/>
+      <c r="C188" s="188"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F188" s="165" t="s">
+      <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G188" s="189"/>
       <c r="H188" s="189"/>
     </row>
-    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="164">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="163">
         <v>53</v>
       </c>
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="210"/>
+      <c r="C189" s="188"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F189" s="165" t="s">
+      <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G189" s="189"/>
       <c r="H189" s="189"/>
     </row>
-    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="164">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="163">
         <v>54</v>
       </c>
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="210"/>
+      <c r="C190" s="188"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F190" s="165" t="s">
+      <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G190" s="189"/>
       <c r="H190" s="189"/>
     </row>
-    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="164">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="163">
         <v>55</v>
       </c>
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="210"/>
+      <c r="C191" s="188"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F191" s="165" t="s">
+      <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G191" s="189"/>
       <c r="H191" s="189"/>
     </row>
-    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="164">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="163">
         <v>56</v>
       </c>
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="210"/>
+      <c r="C192" s="188"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F192" s="165" t="s">
+      <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G192" s="189"/>
       <c r="H192" s="189"/>
     </row>
-    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="164">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="163">
         <v>57</v>
       </c>
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="210"/>
+      <c r="C193" s="188"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F193" s="165" t="s">
+      <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G193" s="189"/>
       <c r="H193" s="189"/>
     </row>
-    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="164">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="163">
         <v>58</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="210"/>
+      <c r="C194" s="188"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F194" s="165" t="s">
+      <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
       <c r="G194" s="189"/>
       <c r="H194" s="189"/>
     </row>
-    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="164">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="163">
         <v>59</v>
       </c>
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="210"/>
+      <c r="C195" s="188"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F195" s="165" t="s">
+      <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G195" s="189"/>
       <c r="H195" s="189"/>
     </row>
-    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="164">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="163">
         <v>60</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="210"/>
+      <c r="C196" s="188"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F196" s="165" t="s">
+      <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G196" s="189"/>
       <c r="H196" s="189"/>
     </row>
-    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="164">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="163">
         <v>61</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="210"/>
+      <c r="C197" s="188"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F197" s="165" t="s">
+      <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G197" s="189"/>
       <c r="H197" s="189"/>
     </row>
-    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="164">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="163">
         <v>62</v>
       </c>
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="210"/>
+      <c r="C198" s="188"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F198" s="165" t="s">
+      <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G198" s="189"/>
       <c r="H198" s="189"/>
     </row>
-    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="164">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="163">
         <v>63</v>
       </c>
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="210"/>
+      <c r="C199" s="188"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F199" s="165" t="s">
+      <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
       <c r="G199" s="189"/>
       <c r="H199" s="189"/>
     </row>
-    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="164">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="163">
         <v>64</v>
       </c>
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="210"/>
+      <c r="C200" s="188"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
       <c r="E200" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F200" s="165" t="s">
+      <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G200" s="189"/>
       <c r="H200" s="189"/>
     </row>
-    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="164">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="163">
         <v>65</v>
       </c>
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="210"/>
+      <c r="C201" s="188"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
       <c r="E201" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F201" s="165" t="s">
+      <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G201" s="189"/>
       <c r="H201" s="189"/>
     </row>
-    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="164">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="163">
         <v>66</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="210"/>
+      <c r="C202" s="188"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
       <c r="E202" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F202" s="165" t="s">
+      <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G202" s="189"/>
       <c r="H202" s="189"/>
     </row>
-    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="164">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="163">
         <v>67</v>
       </c>
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="209"/>
+      <c r="C203" s="187"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
       <c r="E203" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F203" s="165" t="s">
+      <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G203" s="189"/>
       <c r="H203" s="189"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="164">
+      <c r="A204" s="163">
         <v>68</v>
       </c>
       <c r="B204" s="20" t="s">
@@ -22639,14 +22638,14 @@
       <c r="E204" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="F204" s="165" t="s">
+      <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
       <c r="G204" s="189"/>
       <c r="H204" s="189"/>
     </row>
-    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="164">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="163">
         <v>69</v>
       </c>
       <c r="B205" s="20" t="s">
@@ -22659,7 +22658,7 @@
       <c r="E205" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F205" s="168" t="s">
+      <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
       <c r="G205" s="189" t="s">
@@ -22667,8 +22666,8 @@
       </c>
       <c r="H205" s="189"/>
     </row>
-    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="169">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="168">
         <v>70</v>
       </c>
       <c r="B206" s="20" t="s">
@@ -22683,14 +22682,14 @@
       <c r="E206" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F206" s="170" t="s">
+      <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="185"/>
-      <c r="H206" s="186"/>
+      <c r="G206" s="184"/>
+      <c r="H206" s="185"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="172">
+      <c r="A207" s="171">
         <v>71</v>
       </c>
       <c r="B207" s="20" t="s">
@@ -22699,19 +22698,19 @@
       <c r="C207" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D207" s="173" t="s">
+      <c r="D207" s="172" t="s">
         <v>889</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="F207" s="174" t="s">
-        <v>180</v>
-      </c>
-      <c r="G207" s="185"/>
-      <c r="H207" s="186"/>
-    </row>
-    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="173" t="s">
+        <v>883</v>
+      </c>
+      <c r="G207" s="184"/>
+      <c r="H207" s="185"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
         <v>72</v>
       </c>
@@ -22730,8 +22729,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="184"/>
-      <c r="H208" s="184"/>
+      <c r="G208" s="197"/>
+      <c r="H208" s="197"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22954,12 +22953,12 @@
       <c r="H223" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="192" t="s">
+      <c r="A227" s="206" t="s">
         <v>528</v>
       </c>
-      <c r="B227" s="192"/>
-      <c r="C227" s="192"/>
-      <c r="D227" s="192"/>
+      <c r="B227" s="206"/>
+      <c r="C227" s="206"/>
+      <c r="D227" s="206"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="105">
@@ -22993,74 +22992,80 @@
     </row>
   </sheetData>
   <autoFilter ref="A136:H208" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Chun zhao"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="156">
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
     <mergeCell ref="B17:F17"/>
     <mergeCell ref="B70:F70"/>
     <mergeCell ref="B135:F135"/>
@@ -23085,78 +23090,67 @@
     <mergeCell ref="G71:H71"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
     <mergeCell ref="G193:H193"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{45D59F0E-17AC-4124-99D0-3C6FE21077D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35934640-786E-44D3-821F-70E7E0BB06CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="904">
   <si>
     <t>Category</t>
   </si>
@@ -2739,9 +2739,6 @@
     <t>Bootstrap-table plugin, DB View</t>
   </si>
   <si>
-    <t>Code review</t>
-  </si>
-  <si>
     <t>code review and refactor</t>
   </si>
   <si>
@@ -2757,10 +2754,37 @@
     <t>Done(3 days)</t>
   </si>
   <si>
-    <t>Open(5 days needed)</t>
-  </si>
-  <si>
     <t>Will finished it in future 2 days</t>
+  </si>
+  <si>
+    <t>Code refact</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Goal: place and push order to sap</t>
+  </si>
+  <si>
+    <t>interrupte request to steigenberger for authorization. These will be implemented when have time</t>
+  </si>
+  <si>
+    <t>(6days need)</t>
+  </si>
+  <si>
+    <t>get date from sap</t>
+  </si>
+  <si>
+    <t>6 days</t>
+  </si>
+  <si>
+    <t>get date from db for order</t>
+  </si>
+  <si>
+    <t>10 days</t>
+  </si>
+  <si>
+    <t>push order to sap</t>
   </si>
 </sst>
 </file>
@@ -3176,7 +3200,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3662,6 +3686,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3683,6 +3722,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3690,31 +3735,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3722,35 +3746,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3770,11 +3770,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3788,6 +3827,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12974,7 +13038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
@@ -13016,7 +13080,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="181" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="116">
@@ -13042,7 +13106,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="177"/>
+      <c r="A3" s="182"/>
       <c r="B3" s="116">
         <v>102</v>
       </c>
@@ -13066,7 +13130,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="177"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="116">
         <v>103</v>
       </c>
@@ -13090,7 +13154,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="177"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="116">
         <v>104</v>
       </c>
@@ -13114,7 +13178,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="177"/>
+      <c r="A6" s="182"/>
       <c r="B6" s="116">
         <v>105</v>
       </c>
@@ -13138,7 +13202,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="177"/>
+      <c r="A7" s="182"/>
       <c r="B7" s="148">
         <v>106</v>
       </c>
@@ -13160,7 +13224,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="177"/>
+      <c r="A8" s="182"/>
       <c r="B8" s="116">
         <v>107</v>
       </c>
@@ -13180,7 +13244,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="177"/>
+      <c r="A9" s="182"/>
       <c r="B9" s="116">
         <v>108</v>
       </c>
@@ -13200,7 +13264,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="177"/>
+      <c r="A10" s="182"/>
       <c r="B10" s="116">
         <v>109</v>
       </c>
@@ -13220,7 +13284,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="178"/>
+      <c r="A11" s="183"/>
       <c r="B11" s="22">
         <v>110</v>
       </c>
@@ -13238,7 +13302,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="181" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="116">
@@ -13260,7 +13324,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="177"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="116">
         <v>202</v>
       </c>
@@ -13280,7 +13344,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="177"/>
+      <c r="A14" s="182"/>
       <c r="B14" s="116">
         <v>203</v>
       </c>
@@ -13300,7 +13364,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="178"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -13310,7 +13374,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="176" t="s">
+      <c r="A16" s="181" t="s">
         <v>604</v>
       </c>
       <c r="B16" s="116">
@@ -13332,7 +13396,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="116">
         <v>302</v>
       </c>
@@ -13352,7 +13416,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="177"/>
+      <c r="A18" s="182"/>
       <c r="B18" s="116">
         <v>303</v>
       </c>
@@ -13372,7 +13436,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="177"/>
+      <c r="A19" s="182"/>
       <c r="B19" s="116">
         <v>304</v>
       </c>
@@ -13392,7 +13456,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="177"/>
+      <c r="A20" s="182"/>
       <c r="B20" s="116">
         <v>305</v>
       </c>
@@ -13412,7 +13476,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="177"/>
+      <c r="A21" s="182"/>
       <c r="B21" s="122">
         <v>306</v>
       </c>
@@ -13436,7 +13500,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="177"/>
+      <c r="A22" s="182"/>
       <c r="B22" s="122">
         <v>307</v>
       </c>
@@ -13456,7 +13520,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="177"/>
+      <c r="A23" s="182"/>
       <c r="B23" s="122">
         <v>308</v>
       </c>
@@ -13472,7 +13536,7 @@
       <c r="H23" s="132"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="177"/>
+      <c r="A24" s="182"/>
       <c r="B24" s="122">
         <v>309</v>
       </c>
@@ -13492,7 +13556,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="177"/>
+      <c r="A25" s="182"/>
       <c r="B25" s="122">
         <v>310</v>
       </c>
@@ -13512,7 +13576,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="177"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="122">
         <v>311</v>
       </c>
@@ -13532,7 +13596,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="177"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="122">
         <v>312</v>
       </c>
@@ -13552,7 +13616,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="177"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="122">
         <v>313</v>
       </c>
@@ -13572,7 +13636,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="177"/>
+      <c r="A29" s="182"/>
       <c r="B29" s="122">
         <v>314</v>
       </c>
@@ -13592,7 +13656,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="177"/>
+      <c r="A30" s="182"/>
       <c r="B30" s="122">
         <v>315</v>
       </c>
@@ -13612,7 +13676,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="177"/>
+      <c r="A31" s="182"/>
       <c r="B31" s="122">
         <v>316</v>
       </c>
@@ -13632,7 +13696,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="177"/>
+      <c r="A32" s="182"/>
       <c r="B32" s="122">
         <v>317</v>
       </c>
@@ -13652,7 +13716,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="177"/>
+      <c r="A33" s="182"/>
       <c r="B33" s="122">
         <v>318</v>
       </c>
@@ -13672,7 +13736,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="177"/>
+      <c r="A34" s="182"/>
       <c r="B34" s="122">
         <v>319</v>
       </c>
@@ -13692,7 +13756,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="177"/>
+      <c r="A35" s="182"/>
       <c r="B35" s="122">
         <v>320</v>
       </c>
@@ -13712,7 +13776,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="177"/>
+      <c r="A36" s="182"/>
       <c r="B36" s="122">
         <v>321</v>
       </c>
@@ -13732,7 +13796,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="177"/>
+      <c r="A37" s="182"/>
       <c r="B37" s="122">
         <v>322</v>
       </c>
@@ -13752,7 +13816,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="177"/>
+      <c r="A38" s="182"/>
       <c r="B38" s="122">
         <v>323</v>
       </c>
@@ -13772,7 +13836,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="177"/>
+      <c r="A39" s="182"/>
       <c r="B39" s="122">
         <v>324</v>
       </c>
@@ -13792,7 +13856,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="178"/>
+      <c r="A40" s="183"/>
       <c r="B40" s="122"/>
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
@@ -13802,7 +13866,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="181" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="22">
@@ -13828,7 +13892,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="177"/>
+      <c r="A42" s="182"/>
       <c r="B42" s="22">
         <v>402</v>
       </c>
@@ -13852,7 +13916,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="177"/>
+      <c r="A43" s="182"/>
       <c r="B43" s="22">
         <v>403</v>
       </c>
@@ -13876,7 +13940,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="177"/>
+      <c r="A44" s="182"/>
       <c r="B44" s="165">
         <v>404</v>
       </c>
@@ -13900,7 +13964,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="177"/>
+      <c r="A45" s="182"/>
       <c r="B45" s="165">
         <v>405</v>
       </c>
@@ -13924,7 +13988,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="177"/>
+      <c r="A46" s="182"/>
       <c r="B46" s="22">
         <v>406</v>
       </c>
@@ -13948,7 +14012,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="177"/>
+      <c r="A47" s="182"/>
       <c r="B47" s="22">
         <v>407</v>
       </c>
@@ -13972,7 +14036,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="177"/>
+      <c r="A48" s="182"/>
       <c r="B48" s="22">
         <v>408</v>
       </c>
@@ -13996,7 +14060,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="177"/>
+      <c r="A49" s="182"/>
       <c r="B49" s="165">
         <v>409</v>
       </c>
@@ -14020,7 +14084,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="177"/>
+      <c r="A50" s="182"/>
       <c r="B50" s="22">
         <v>410</v>
       </c>
@@ -14044,7 +14108,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="177"/>
+      <c r="A51" s="182"/>
       <c r="B51" s="166">
         <v>411</v>
       </c>
@@ -14068,7 +14132,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="177"/>
+      <c r="A52" s="182"/>
       <c r="B52" s="22">
         <v>412</v>
       </c>
@@ -14092,7 +14156,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="177"/>
+      <c r="A53" s="182"/>
       <c r="B53" s="22">
         <v>413</v>
       </c>
@@ -14116,7 +14180,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="177"/>
+      <c r="A54" s="182"/>
       <c r="B54" s="122">
         <v>414</v>
       </c>
@@ -14140,7 +14204,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="177"/>
+      <c r="A55" s="182"/>
       <c r="B55" s="122">
         <v>415</v>
       </c>
@@ -14164,7 +14228,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="177"/>
+      <c r="A56" s="182"/>
       <c r="B56" s="122">
         <v>416</v>
       </c>
@@ -14188,7 +14252,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="177"/>
+      <c r="A57" s="182"/>
       <c r="B57" s="122">
         <v>417</v>
       </c>
@@ -14212,7 +14276,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="177"/>
+      <c r="A58" s="182"/>
       <c r="B58" s="122">
         <v>418</v>
       </c>
@@ -14236,7 +14300,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="177"/>
+      <c r="A59" s="182"/>
       <c r="B59" s="122">
         <v>419</v>
       </c>
@@ -14254,7 +14318,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="177"/>
+      <c r="A60" s="182"/>
       <c r="B60" s="160">
         <v>420</v>
       </c>
@@ -14278,7 +14342,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="177"/>
+      <c r="A61" s="182"/>
       <c r="B61" s="160">
         <v>421</v>
       </c>
@@ -14302,7 +14366,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="177"/>
+      <c r="A62" s="182"/>
       <c r="B62" s="160">
         <v>422</v>
       </c>
@@ -14326,7 +14390,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="177"/>
+      <c r="A63" s="182"/>
       <c r="B63" s="160">
         <v>423</v>
       </c>
@@ -14350,7 +14414,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="177"/>
+      <c r="A64" s="182"/>
       <c r="B64" s="160">
         <v>424</v>
       </c>
@@ -14374,7 +14438,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="177"/>
+      <c r="A65" s="182"/>
       <c r="B65" s="160">
         <v>425</v>
       </c>
@@ -14398,7 +14462,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="177"/>
+      <c r="A66" s="182"/>
       <c r="B66" s="160">
         <v>426</v>
       </c>
@@ -14422,7 +14486,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="177"/>
+      <c r="A67" s="182"/>
       <c r="B67" s="160">
         <v>427</v>
       </c>
@@ -14446,7 +14510,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="177"/>
+      <c r="A68" s="182"/>
       <c r="B68" s="160">
         <v>428</v>
       </c>
@@ -14470,7 +14534,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="177"/>
+      <c r="A69" s="182"/>
       <c r="B69" s="160">
         <v>429</v>
       </c>
@@ -14494,7 +14558,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="177"/>
+      <c r="A70" s="182"/>
       <c r="B70" s="160">
         <v>430</v>
       </c>
@@ -14518,7 +14582,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="177"/>
+      <c r="A71" s="182"/>
       <c r="B71" s="160">
         <v>431</v>
       </c>
@@ -14542,7 +14606,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="177"/>
+      <c r="A72" s="182"/>
       <c r="B72" s="160">
         <v>432</v>
       </c>
@@ -14566,7 +14630,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="177"/>
+      <c r="A73" s="182"/>
       <c r="B73" s="160">
         <v>433</v>
       </c>
@@ -14590,7 +14654,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="177"/>
+      <c r="A74" s="182"/>
       <c r="B74" s="160">
         <v>434</v>
       </c>
@@ -14614,7 +14678,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="177"/>
+      <c r="A75" s="182"/>
       <c r="B75" s="160">
         <v>435</v>
       </c>
@@ -14638,7 +14702,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="177"/>
+      <c r="A76" s="182"/>
       <c r="B76" s="160">
         <v>436</v>
       </c>
@@ -14662,7 +14726,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="177"/>
+      <c r="A77" s="182"/>
       <c r="B77" s="160">
         <v>437</v>
       </c>
@@ -14686,7 +14750,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="177"/>
+      <c r="A78" s="182"/>
       <c r="B78" s="160">
         <v>438</v>
       </c>
@@ -14710,7 +14774,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="177"/>
+      <c r="A79" s="182"/>
       <c r="B79" s="160">
         <v>439</v>
       </c>
@@ -14734,7 +14798,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="177"/>
+      <c r="A80" s="182"/>
       <c r="B80" s="160">
         <v>440</v>
       </c>
@@ -14758,7 +14822,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="177"/>
+      <c r="A81" s="182"/>
       <c r="B81" s="160">
         <v>441</v>
       </c>
@@ -14782,7 +14846,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="177"/>
+      <c r="A82" s="182"/>
       <c r="B82" s="160">
         <v>442</v>
       </c>
@@ -14806,7 +14870,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="177"/>
+      <c r="A83" s="182"/>
       <c r="B83" s="160">
         <v>443</v>
       </c>
@@ -14830,7 +14894,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="177"/>
+      <c r="A84" s="182"/>
       <c r="B84" s="160">
         <v>444</v>
       </c>
@@ -14854,7 +14918,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="177"/>
+      <c r="A85" s="182"/>
       <c r="B85" s="160">
         <v>445</v>
       </c>
@@ -14878,7 +14942,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="177"/>
+      <c r="A86" s="182"/>
       <c r="B86" s="160">
         <v>446</v>
       </c>
@@ -14902,7 +14966,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="177"/>
+      <c r="A87" s="182"/>
       <c r="B87" s="160">
         <v>447</v>
       </c>
@@ -14926,7 +14990,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="177"/>
+      <c r="A88" s="182"/>
       <c r="B88" s="160">
         <v>448</v>
       </c>
@@ -14950,7 +15014,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="177"/>
+      <c r="A89" s="182"/>
       <c r="B89" s="122">
         <v>449</v>
       </c>
@@ -14974,7 +15038,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="177"/>
+      <c r="A90" s="182"/>
       <c r="B90" s="122">
         <v>450</v>
       </c>
@@ -14996,7 +15060,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="177"/>
+      <c r="A91" s="182"/>
       <c r="B91" s="160">
         <v>451</v>
       </c>
@@ -15018,7 +15082,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="177"/>
+      <c r="A92" s="182"/>
       <c r="B92" s="122">
         <v>452</v>
       </c>
@@ -15042,7 +15106,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="177"/>
+      <c r="A93" s="182"/>
       <c r="B93" s="122">
         <v>453</v>
       </c>
@@ -15066,7 +15130,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="177"/>
+      <c r="A94" s="182"/>
       <c r="B94" s="122">
         <v>454</v>
       </c>
@@ -15090,7 +15154,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="177"/>
+      <c r="A95" s="182"/>
       <c r="B95" s="122">
         <v>455</v>
       </c>
@@ -15112,7 +15176,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="177"/>
+      <c r="A96" s="182"/>
       <c r="B96" s="122">
         <v>456</v>
       </c>
@@ -15136,7 +15200,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="177"/>
+      <c r="A97" s="182"/>
       <c r="B97" s="122">
         <v>457</v>
       </c>
@@ -15158,7 +15222,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="177"/>
+      <c r="A98" s="182"/>
       <c r="B98" s="122">
         <v>458</v>
       </c>
@@ -15180,7 +15244,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="177"/>
+      <c r="A99" s="182"/>
       <c r="B99" s="122">
         <v>459</v>
       </c>
@@ -15202,7 +15266,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="177"/>
+      <c r="A100" s="182"/>
       <c r="B100" s="122">
         <v>460</v>
       </c>
@@ -15224,7 +15288,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="177"/>
+      <c r="A101" s="182"/>
       <c r="B101" s="122">
         <v>461</v>
       </c>
@@ -15246,7 +15310,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="177"/>
+      <c r="A102" s="182"/>
       <c r="B102" s="122">
         <v>462</v>
       </c>
@@ -15266,7 +15330,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="177"/>
+      <c r="A103" s="182"/>
       <c r="B103" s="122">
         <v>463</v>
       </c>
@@ -15286,7 +15350,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="177"/>
+      <c r="A104" s="182"/>
       <c r="B104" s="122">
         <v>464</v>
       </c>
@@ -15308,7 +15372,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="177"/>
+      <c r="A105" s="182"/>
       <c r="B105" s="22">
         <v>465</v>
       </c>
@@ -15328,7 +15392,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="177"/>
+      <c r="A106" s="182"/>
       <c r="B106" s="22">
         <v>466</v>
       </c>
@@ -15348,7 +15412,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="177"/>
+      <c r="A107" s="182"/>
       <c r="B107" s="22">
         <v>467</v>
       </c>
@@ -15368,7 +15432,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="177"/>
+      <c r="A108" s="182"/>
       <c r="B108" s="22">
         <v>468</v>
       </c>
@@ -15388,7 +15452,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="177"/>
+      <c r="A109" s="182"/>
       <c r="B109" s="22">
         <v>469</v>
       </c>
@@ -15408,7 +15472,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="177"/>
+      <c r="A110" s="182"/>
       <c r="B110" s="22">
         <v>470</v>
       </c>
@@ -15424,7 +15488,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="177"/>
+      <c r="A111" s="182"/>
       <c r="B111" s="22">
         <v>471</v>
       </c>
@@ -15440,7 +15504,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="177"/>
+      <c r="A112" s="182"/>
       <c r="B112" s="22">
         <v>472</v>
       </c>
@@ -15456,7 +15520,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="177"/>
+      <c r="A113" s="182"/>
       <c r="B113" s="22">
         <v>473</v>
       </c>
@@ -15472,7 +15536,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="177"/>
+      <c r="A114" s="182"/>
       <c r="B114" s="140">
         <v>473</v>
       </c>
@@ -15490,7 +15554,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="177"/>
+      <c r="A115" s="182"/>
       <c r="B115" s="10">
         <v>474</v>
       </c>
@@ -15500,7 +15564,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="177"/>
+      <c r="A116" s="182"/>
       <c r="B116" s="140">
         <v>475</v>
       </c>
@@ -15514,7 +15578,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="177"/>
+      <c r="A117" s="182"/>
       <c r="B117" s="168">
         <v>476</v>
       </c>
@@ -15530,7 +15594,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="178"/>
+      <c r="A118" s="183"/>
       <c r="B118" s="122"/>
       <c r="C118" s="116"/>
       <c r="D118" s="116"/>
@@ -15539,7 +15603,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="176" t="s">
+      <c r="A119" s="181" t="s">
         <v>186</v>
       </c>
       <c r="B119" s="162">
@@ -15563,7 +15627,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="177"/>
+      <c r="A120" s="182"/>
       <c r="B120" s="116">
         <v>502</v>
       </c>
@@ -15585,7 +15649,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="177"/>
+      <c r="A121" s="182"/>
       <c r="B121" s="116">
         <v>503</v>
       </c>
@@ -15607,7 +15671,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="177"/>
+      <c r="A122" s="182"/>
       <c r="B122" s="116">
         <v>504</v>
       </c>
@@ -15629,7 +15693,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="177"/>
+      <c r="A123" s="182"/>
       <c r="B123" s="116">
         <v>505</v>
       </c>
@@ -15651,7 +15715,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="177"/>
+      <c r="A124" s="182"/>
       <c r="B124" s="162">
         <v>506</v>
       </c>
@@ -15673,7 +15737,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="177"/>
+      <c r="A125" s="182"/>
       <c r="B125" s="116">
         <v>507</v>
       </c>
@@ -15695,7 +15759,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="178"/>
+      <c r="A126" s="183"/>
       <c r="B126" s="116"/>
       <c r="C126" s="116"/>
       <c r="D126" s="116"/>
@@ -15705,7 +15769,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="176" t="s">
+      <c r="A127" s="181" t="s">
         <v>68</v>
       </c>
       <c r="B127" s="116">
@@ -15729,7 +15793,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="177"/>
+      <c r="A128" s="182"/>
       <c r="B128" s="116">
         <v>602</v>
       </c>
@@ -15751,7 +15815,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="177"/>
+      <c r="A129" s="182"/>
       <c r="B129" s="116">
         <v>603</v>
       </c>
@@ -15773,7 +15837,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="177"/>
+      <c r="A130" s="182"/>
       <c r="B130" s="116">
         <v>604</v>
       </c>
@@ -15795,7 +15859,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="177"/>
+      <c r="A131" s="182"/>
       <c r="B131" s="116">
         <v>605</v>
       </c>
@@ -15817,7 +15881,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="177"/>
+      <c r="A132" s="182"/>
       <c r="B132" s="116">
         <v>606</v>
       </c>
@@ -15839,7 +15903,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="177"/>
+      <c r="A133" s="182"/>
       <c r="B133" s="116">
         <v>607</v>
       </c>
@@ -15861,7 +15925,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="177"/>
+      <c r="A134" s="182"/>
       <c r="B134" s="116">
         <v>608</v>
       </c>
@@ -15883,7 +15947,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="177"/>
+      <c r="A135" s="182"/>
       <c r="B135" s="116">
         <v>609</v>
       </c>
@@ -15905,7 +15969,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="177"/>
+      <c r="A136" s="182"/>
       <c r="B136" s="116">
         <v>610</v>
       </c>
@@ -15927,7 +15991,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="178"/>
+      <c r="A137" s="183"/>
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
       <c r="D137" s="116"/>
@@ -15937,7 +16001,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="176" t="s">
+      <c r="A138" s="181" t="s">
         <v>631</v>
       </c>
       <c r="B138" s="22">
@@ -15961,7 +16025,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="177"/>
+      <c r="A139" s="182"/>
       <c r="B139" s="22">
         <v>702</v>
       </c>
@@ -15983,7 +16047,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="177"/>
+      <c r="A140" s="182"/>
       <c r="B140" s="22">
         <v>703</v>
       </c>
@@ -16005,7 +16069,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="177"/>
+      <c r="A141" s="182"/>
       <c r="B141" s="22">
         <v>704</v>
       </c>
@@ -16027,7 +16091,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="178"/>
+      <c r="A142" s="183"/>
       <c r="B142" s="22"/>
       <c r="C142" s="116"/>
       <c r="D142" s="116"/>
@@ -16037,7 +16101,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="179" t="s">
+      <c r="A143" s="184" t="s">
         <v>207</v>
       </c>
       <c r="B143" s="22">
@@ -16059,7 +16123,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="179"/>
+      <c r="A144" s="184"/>
       <c r="B144" s="22">
         <v>802</v>
       </c>
@@ -16079,7 +16143,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="179"/>
+      <c r="A145" s="184"/>
       <c r="B145" s="22">
         <v>803</v>
       </c>
@@ -16099,7 +16163,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="179"/>
+      <c r="A146" s="184"/>
       <c r="B146" s="22"/>
       <c r="C146" s="116"/>
       <c r="D146" s="116"/>
@@ -16169,7 +16233,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="185" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="109">
@@ -16195,7 +16259,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="181"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="109">
         <v>2</v>
       </c>
@@ -16219,7 +16283,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="181"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="32">
         <v>3</v>
       </c>
@@ -16243,7 +16307,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="181"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="109">
         <v>4</v>
       </c>
@@ -16267,7 +16331,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="181"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="109">
         <v>5</v>
       </c>
@@ -16291,7 +16355,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="181"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="109">
         <v>6</v>
       </c>
@@ -16315,7 +16379,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="181"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="109">
         <v>7</v>
       </c>
@@ -16339,7 +16403,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="181"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="109">
         <v>8</v>
       </c>
@@ -16363,7 +16427,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="181"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
@@ -16387,7 +16451,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="181"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -16411,7 +16475,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="181"/>
+      <c r="A12" s="186"/>
       <c r="B12" s="31">
         <v>11</v>
       </c>
@@ -16435,7 +16499,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="181"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="108">
         <v>12</v>
       </c>
@@ -16459,7 +16523,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
+      <c r="A14" s="187"/>
       <c r="B14" s="104"/>
       <c r="C14" s="104">
         <v>2</v>
@@ -16473,7 +16537,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="181" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="29">
@@ -16499,7 +16563,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="177"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -16523,7 +16587,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="177"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="29">
         <v>15</v>
       </c>
@@ -16547,7 +16611,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="180" t="s">
+      <c r="A18" s="185" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="104">
@@ -16573,7 +16637,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="181"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="104">
         <v>17</v>
       </c>
@@ -16595,7 +16659,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="181"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="109">
         <v>18</v>
       </c>
@@ -16615,7 +16679,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="181"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -16639,7 +16703,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="181"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="22">
         <v>20</v>
       </c>
@@ -16663,7 +16727,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="109">
         <v>21</v>
       </c>
@@ -16687,7 +16751,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="181"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="109">
         <v>22</v>
       </c>
@@ -16711,7 +16775,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="181"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="109">
         <v>23</v>
       </c>
@@ -16735,7 +16799,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="181"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="109">
         <v>24</v>
       </c>
@@ -16759,7 +16823,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="181"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="22">
         <v>25</v>
       </c>
@@ -16783,7 +16847,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="181"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="22">
         <v>26</v>
       </c>
@@ -16807,7 +16871,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="181"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="22">
         <v>27</v>
       </c>
@@ -16831,7 +16895,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="181"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="22">
         <v>28</v>
       </c>
@@ -16855,7 +16919,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="181"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="109">
         <v>29</v>
       </c>
@@ -16879,7 +16943,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="181"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="109">
         <v>30</v>
       </c>
@@ -16903,7 +16967,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="181"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="109">
         <v>31</v>
       </c>
@@ -16927,7 +16991,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="181"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="109">
         <v>32</v>
       </c>
@@ -16951,7 +17015,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="109">
         <v>33</v>
       </c>
@@ -16975,7 +17039,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="181"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="109">
         <v>34</v>
       </c>
@@ -16999,7 +17063,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="181"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="109">
         <v>35</v>
       </c>
@@ -17023,7 +17087,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="181"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="109">
         <v>36</v>
       </c>
@@ -17047,7 +17111,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="181"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="109">
         <v>37</v>
       </c>
@@ -17071,7 +17135,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="181"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="109">
         <v>38</v>
       </c>
@@ -17095,7 +17159,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="181"/>
+      <c r="A41" s="186"/>
       <c r="B41" s="108">
         <v>39</v>
       </c>
@@ -17119,7 +17183,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="181"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="109">
         <v>40</v>
       </c>
@@ -17143,7 +17207,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="181"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="109">
         <v>41</v>
       </c>
@@ -17167,7 +17231,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="181"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="108">
         <v>42</v>
       </c>
@@ -17191,7 +17255,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="181"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="109">
         <v>43</v>
       </c>
@@ -17215,7 +17279,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="181"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="108">
         <v>44</v>
       </c>
@@ -17239,7 +17303,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="181"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="108">
         <v>45</v>
       </c>
@@ -17263,7 +17327,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="181"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="32">
         <v>46</v>
       </c>
@@ -17287,7 +17351,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="181"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="32">
         <v>47</v>
       </c>
@@ -17311,7 +17375,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="181"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="32">
         <v>49</v>
       </c>
@@ -17335,7 +17399,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="181"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="32">
         <v>50</v>
       </c>
@@ -17359,7 +17423,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="181"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="108">
         <v>51</v>
       </c>
@@ -17383,7 +17447,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="181"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="108">
         <v>52</v>
       </c>
@@ -17407,7 +17471,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="181"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="108">
         <v>53</v>
       </c>
@@ -17431,7 +17495,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="181"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="32">
         <v>54</v>
       </c>
@@ -17455,7 +17519,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="181"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="34">
         <v>55</v>
       </c>
@@ -17479,7 +17543,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="181"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="34">
         <v>56</v>
       </c>
@@ -17503,7 +17567,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="181"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="49">
         <v>57</v>
       </c>
@@ -17527,7 +17591,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="181"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="49">
         <v>58</v>
       </c>
@@ -17551,7 +17615,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="181"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="22">
         <v>59</v>
       </c>
@@ -17575,7 +17639,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="181"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="49">
         <v>60</v>
       </c>
@@ -17597,7 +17661,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="181"/>
+      <c r="A62" s="186"/>
       <c r="B62" s="49">
         <v>61</v>
       </c>
@@ -17619,7 +17683,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="181"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="49">
         <v>62</v>
       </c>
@@ -17643,7 +17707,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="181"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="34">
         <v>63</v>
       </c>
@@ -17667,7 +17731,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="181"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="34">
         <v>64</v>
       </c>
@@ -17691,7 +17755,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="181"/>
+      <c r="A66" s="186"/>
       <c r="B66" s="103">
         <v>201</v>
       </c>
@@ -17713,7 +17777,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="181"/>
+      <c r="A67" s="186"/>
       <c r="B67" s="90"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17727,7 +17791,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="181"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="90"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17739,7 +17803,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="181"/>
+      <c r="A69" s="186"/>
       <c r="B69" s="90"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17751,7 +17815,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="182"/>
+      <c r="A70" s="187"/>
       <c r="B70" s="90"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17763,7 +17827,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="180" t="s">
+      <c r="A71" s="185" t="s">
         <v>186</v>
       </c>
       <c r="B71" s="34">
@@ -17789,7 +17853,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="181"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -17813,7 +17877,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="181"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -17837,7 +17901,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="181"/>
+      <c r="A74" s="186"/>
       <c r="B74" s="39">
         <v>70</v>
       </c>
@@ -17861,7 +17925,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="181"/>
+      <c r="A75" s="186"/>
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -17885,7 +17949,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="181"/>
+      <c r="A76" s="186"/>
       <c r="B76" s="39">
         <v>72</v>
       </c>
@@ -17909,7 +17973,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="182"/>
+      <c r="A77" s="187"/>
       <c r="B77" s="39">
         <v>73</v>
       </c>
@@ -17921,7 +17985,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="180" t="s">
+      <c r="A78" s="185" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="39">
@@ -17947,7 +18011,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="181"/>
+      <c r="A79" s="186"/>
       <c r="B79" s="39">
         <v>75</v>
       </c>
@@ -17971,7 +18035,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="181"/>
+      <c r="A80" s="186"/>
       <c r="B80" s="39">
         <v>76</v>
       </c>
@@ -17995,7 +18059,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="181"/>
+      <c r="A81" s="186"/>
       <c r="B81" s="39">
         <v>77</v>
       </c>
@@ -18019,7 +18083,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="181"/>
+      <c r="A82" s="186"/>
       <c r="B82" s="39">
         <v>78</v>
       </c>
@@ -18043,7 +18107,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="181"/>
+      <c r="A83" s="186"/>
       <c r="B83" s="49">
         <v>79</v>
       </c>
@@ -18067,7 +18131,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="181"/>
+      <c r="A84" s="186"/>
       <c r="B84" s="49">
         <v>80</v>
       </c>
@@ -18091,7 +18155,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="182"/>
+      <c r="A85" s="187"/>
       <c r="B85" s="49">
         <v>81</v>
       </c>
@@ -18115,7 +18179,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="180" t="s">
+      <c r="A86" s="185" t="s">
         <v>205</v>
       </c>
       <c r="B86" s="76">
@@ -18141,7 +18205,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="181"/>
+      <c r="A87" s="186"/>
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -18161,7 +18225,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="181"/>
+      <c r="A88" s="186"/>
       <c r="B88" s="134">
         <v>84</v>
       </c>
@@ -18181,7 +18245,7 @@
       <c r="H88" s="137"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="181"/>
+      <c r="A89" s="186"/>
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -18201,7 +18265,7 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="181"/>
+      <c r="A90" s="186"/>
       <c r="B90" s="42">
         <v>86</v>
       </c>
@@ -18221,7 +18285,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="181"/>
+      <c r="A91" s="186"/>
       <c r="B91" s="42">
         <v>87</v>
       </c>
@@ -18241,7 +18305,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="181"/>
+      <c r="A92" s="186"/>
       <c r="B92" s="42">
         <v>88</v>
       </c>
@@ -18261,7 +18325,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="181"/>
+      <c r="A93" s="186"/>
       <c r="B93" s="42">
         <v>89</v>
       </c>
@@ -18281,7 +18345,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="181"/>
+      <c r="A94" s="186"/>
       <c r="B94" s="42">
         <v>90</v>
       </c>
@@ -18301,7 +18365,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="181"/>
+      <c r="A95" s="186"/>
       <c r="B95" s="42">
         <v>91</v>
       </c>
@@ -18321,7 +18385,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="181"/>
+      <c r="A96" s="186"/>
       <c r="B96" s="42">
         <v>92</v>
       </c>
@@ -18341,7 +18405,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="181"/>
+      <c r="A97" s="186"/>
       <c r="B97" s="42">
         <v>93</v>
       </c>
@@ -18361,7 +18425,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="181"/>
+      <c r="A98" s="186"/>
       <c r="B98" s="42">
         <v>94</v>
       </c>
@@ -18381,7 +18445,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="181"/>
+      <c r="A99" s="186"/>
       <c r="B99" s="42">
         <v>95</v>
       </c>
@@ -18401,7 +18465,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="181"/>
+      <c r="A100" s="186"/>
       <c r="B100" s="42">
         <v>96</v>
       </c>
@@ -18421,7 +18485,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="181"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="42">
         <v>97</v>
       </c>
@@ -18441,7 +18505,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="181"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="42">
         <v>98</v>
       </c>
@@ -18461,7 +18525,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="181"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="42">
         <v>99</v>
       </c>
@@ -18481,7 +18545,7 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="182"/>
+      <c r="A104" s="187"/>
       <c r="B104" s="39"/>
       <c r="C104" s="31"/>
       <c r="D104" s="16"/>
@@ -18491,7 +18555,7 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="180" t="s">
+      <c r="A105" s="185" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="39">
@@ -18517,7 +18581,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="181"/>
+      <c r="A106" s="186"/>
       <c r="B106" s="42">
         <v>101</v>
       </c>
@@ -18541,7 +18605,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="181"/>
+      <c r="A107" s="186"/>
       <c r="B107" s="42">
         <v>102</v>
       </c>
@@ -18565,7 +18629,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="181"/>
+      <c r="A108" s="186"/>
       <c r="B108" s="42">
         <v>103</v>
       </c>
@@ -18589,7 +18653,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="180" t="s">
+      <c r="A109" s="185" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="42">
@@ -18615,7 +18679,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="181"/>
+      <c r="A110" s="186"/>
       <c r="B110" s="42">
         <v>105</v>
       </c>
@@ -18639,7 +18703,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="178"/>
+      <c r="A111" s="183"/>
       <c r="B111" s="42">
         <v>106</v>
       </c>
@@ -18663,7 +18727,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="183" t="s">
+      <c r="A112" s="188" t="s">
         <v>72</v>
       </c>
       <c r="B112" s="42">
@@ -18689,7 +18753,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="183"/>
+      <c r="A113" s="188"/>
       <c r="B113" s="42">
         <v>108</v>
       </c>
@@ -18713,7 +18777,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="183"/>
+      <c r="A114" s="188"/>
       <c r="B114" s="42">
         <v>109</v>
       </c>
@@ -18737,7 +18801,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="183"/>
+      <c r="A115" s="188"/>
       <c r="B115" s="8">
         <v>110</v>
       </c>
@@ -18793,10 +18857,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152:C175"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G238" sqref="G238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19105,13 +19169,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="198" t="s">
+      <c r="B17" s="205" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="198"/>
-      <c r="F17" s="198"/>
+      <c r="C17" s="205"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19381,13 +19445,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="198" t="s">
+      <c r="B34" s="205" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="198"/>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198"/>
-      <c r="F34" s="198"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19408,10 +19472,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="200" t="s">
+      <c r="G35" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="200"/>
+      <c r="H35" s="198"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19490,8 +19554,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="199"/>
-      <c r="H39" s="199"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="206"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19510,8 +19574,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="199"/>
-      <c r="H40" s="199"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="206"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19530,10 +19594,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="201" t="s">
+      <c r="G41" s="207" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="202"/>
+      <c r="H41" s="208"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -19552,10 +19616,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="201" t="s">
+      <c r="G42" s="207" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="202"/>
+      <c r="H42" s="208"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -19574,10 +19638,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="201" t="s">
+      <c r="G43" s="207" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="202"/>
+      <c r="H43" s="208"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -19596,8 +19660,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="203"/>
-      <c r="H44" s="204"/>
+      <c r="G44" s="209"/>
+      <c r="H44" s="210"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -19618,10 +19682,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="201" t="s">
+      <c r="G45" s="207" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="202"/>
+      <c r="H45" s="208"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -19708,8 +19772,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="197"/>
-      <c r="H49" s="197"/>
+      <c r="G49" s="190"/>
+      <c r="H49" s="190"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19728,8 +19792,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="197"/>
-      <c r="H50" s="197"/>
+      <c r="G50" s="190"/>
+      <c r="H50" s="190"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19750,8 +19814,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="197"/>
-      <c r="H51" s="197"/>
+      <c r="G51" s="190"/>
+      <c r="H51" s="190"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19772,8 +19836,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="197"/>
-      <c r="H52" s="197"/>
+      <c r="G52" s="190"/>
+      <c r="H52" s="190"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19794,8 +19858,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="197"/>
-      <c r="H53" s="197"/>
+      <c r="G53" s="190"/>
+      <c r="H53" s="190"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19816,8 +19880,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="197"/>
-      <c r="H54" s="197"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="190"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19838,8 +19902,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="197"/>
-      <c r="H55" s="197"/>
+      <c r="G55" s="190"/>
+      <c r="H55" s="190"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19858,8 +19922,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="197"/>
-      <c r="H56" s="197"/>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19878,8 +19942,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="197"/>
-      <c r="H57" s="197"/>
+      <c r="G57" s="190"/>
+      <c r="H57" s="190"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19898,8 +19962,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="197"/>
-      <c r="H58" s="197"/>
+      <c r="G58" s="190"/>
+      <c r="H58" s="190"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19920,8 +19984,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="197"/>
-      <c r="H59" s="197"/>
+      <c r="G59" s="190"/>
+      <c r="H59" s="190"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20032,13 +20096,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="198" t="s">
+      <c r="B70" s="205" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="198"/>
-      <c r="D70" s="198"/>
-      <c r="E70" s="198"/>
-      <c r="F70" s="198"/>
+      <c r="C70" s="205"/>
+      <c r="D70" s="205"/>
+      <c r="E70" s="205"/>
+      <c r="F70" s="205"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20059,10 +20123,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="205" t="s">
+      <c r="G71" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="205"/>
+      <c r="H71" s="212"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20083,7 +20147,7 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="194" t="s">
+      <c r="G72" s="211" t="s">
         <v>728</v>
       </c>
       <c r="H72" s="189"/>
@@ -20165,7 +20229,7 @@
       <c r="B76" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="176" t="s">
+      <c r="C76" s="181" t="s">
         <v>761</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -20187,7 +20251,7 @@
       <c r="B77" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="C77" s="177"/>
+      <c r="C77" s="182"/>
       <c r="D77" s="1" t="s">
         <v>712</v>
       </c>
@@ -20207,7 +20271,7 @@
       <c r="B78" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C78" s="177"/>
+      <c r="C78" s="182"/>
       <c r="D78" s="1" t="s">
         <v>729</v>
       </c>
@@ -20227,7 +20291,7 @@
       <c r="B79" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C79" s="177"/>
+      <c r="C79" s="182"/>
       <c r="D79" s="1" t="s">
         <v>716</v>
       </c>
@@ -20247,7 +20311,7 @@
       <c r="B80" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C80" s="177"/>
+      <c r="C80" s="182"/>
       <c r="D80" s="1" t="s">
         <v>719</v>
       </c>
@@ -20267,7 +20331,7 @@
       <c r="B81" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="177"/>
+      <c r="C81" s="182"/>
       <c r="D81" s="1" t="s">
         <v>720</v>
       </c>
@@ -20287,7 +20351,7 @@
       <c r="B82" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="C82" s="177"/>
+      <c r="C82" s="182"/>
       <c r="D82" s="1" t="s">
         <v>722</v>
       </c>
@@ -20307,7 +20371,7 @@
       <c r="B83" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="C83" s="177"/>
+      <c r="C83" s="182"/>
       <c r="D83" s="1" t="s">
         <v>724</v>
       </c>
@@ -20327,7 +20391,7 @@
       <c r="B84" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="C84" s="177"/>
+      <c r="C84" s="182"/>
       <c r="D84" s="1" t="s">
         <v>727</v>
       </c>
@@ -20347,7 +20411,7 @@
       <c r="B85" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="177"/>
+      <c r="C85" s="182"/>
       <c r="D85" s="1" t="s">
         <v>734</v>
       </c>
@@ -20367,7 +20431,7 @@
       <c r="B86" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C86" s="177"/>
+      <c r="C86" s="182"/>
       <c r="D86" s="1" t="s">
         <v>735</v>
       </c>
@@ -20387,7 +20451,7 @@
       <c r="B87" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C87" s="177"/>
+      <c r="C87" s="182"/>
       <c r="D87" s="1" t="s">
         <v>736</v>
       </c>
@@ -20407,7 +20471,7 @@
       <c r="B88" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C88" s="177"/>
+      <c r="C88" s="182"/>
       <c r="D88" s="1" t="s">
         <v>737</v>
       </c>
@@ -20427,7 +20491,7 @@
       <c r="B89" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C89" s="177"/>
+      <c r="C89" s="182"/>
       <c r="D89" s="1" t="s">
         <v>733</v>
       </c>
@@ -20447,7 +20511,7 @@
       <c r="B90" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C90" s="177"/>
+      <c r="C90" s="182"/>
       <c r="D90" s="4" t="s">
         <v>739</v>
       </c>
@@ -20467,7 +20531,7 @@
       <c r="B91" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C91" s="177"/>
+      <c r="C91" s="182"/>
       <c r="D91" s="4" t="s">
         <v>739</v>
       </c>
@@ -20487,7 +20551,7 @@
       <c r="B92" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C92" s="177"/>
+      <c r="C92" s="182"/>
       <c r="D92" s="4" t="s">
         <v>739</v>
       </c>
@@ -20507,7 +20571,7 @@
       <c r="B93" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C93" s="178"/>
+      <c r="C93" s="183"/>
       <c r="D93" s="4" t="s">
         <v>739</v>
       </c>
@@ -20537,8 +20601,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="184"/>
-      <c r="H94" s="185"/>
+      <c r="G94" s="191"/>
+      <c r="H94" s="192"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -20557,8 +20621,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="184"/>
-      <c r="H95" s="185"/>
+      <c r="G95" s="191"/>
+      <c r="H95" s="192"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -20577,8 +20641,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="184"/>
-      <c r="H96" s="185"/>
+      <c r="G96" s="191"/>
+      <c r="H96" s="192"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -20599,8 +20663,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="184"/>
-      <c r="H97" s="185"/>
+      <c r="G97" s="191"/>
+      <c r="H97" s="192"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -20621,8 +20685,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
+      <c r="G98" s="190"/>
+      <c r="H98" s="190"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20743,7 +20807,7 @@
       <c r="B104" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C104" s="179" t="s">
+      <c r="C104" s="184" t="s">
         <v>516</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -20765,7 +20829,7 @@
       <c r="B105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="179"/>
+      <c r="C105" s="184"/>
       <c r="D105" s="20" t="s">
         <v>766</v>
       </c>
@@ -20785,7 +20849,7 @@
       <c r="B106" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="179"/>
+      <c r="C106" s="184"/>
       <c r="D106" s="20" t="s">
         <v>767</v>
       </c>
@@ -20805,7 +20869,7 @@
       <c r="B107" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="179"/>
+      <c r="C107" s="184"/>
       <c r="D107" s="20" t="s">
         <v>768</v>
       </c>
@@ -20844,10 +20908,10 @@
       <c r="A109" s="110">
         <v>38</v>
       </c>
-      <c r="B109" s="179" t="s">
+      <c r="B109" s="184" t="s">
         <v>786</v>
       </c>
-      <c r="C109" s="179" t="s">
+      <c r="C109" s="184" t="s">
         <v>787</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -20859,17 +20923,17 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="207" t="s">
+      <c r="G109" s="199" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="208"/>
+      <c r="H109" s="200"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
         <v>39</v>
       </c>
-      <c r="B110" s="179"/>
-      <c r="C110" s="179"/>
+      <c r="B110" s="184"/>
+      <c r="C110" s="184"/>
       <c r="D110" s="33" t="s">
         <v>774</v>
       </c>
@@ -20879,15 +20943,15 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="209"/>
-      <c r="H110" s="210"/>
+      <c r="G110" s="201"/>
+      <c r="H110" s="202"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
         <v>40</v>
       </c>
-      <c r="B111" s="179"/>
-      <c r="C111" s="179"/>
+      <c r="B111" s="184"/>
+      <c r="C111" s="184"/>
       <c r="D111" s="33" t="s">
         <v>775</v>
       </c>
@@ -20897,15 +20961,15 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="209"/>
-      <c r="H111" s="210"/>
+      <c r="G111" s="201"/>
+      <c r="H111" s="202"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
         <v>41</v>
       </c>
-      <c r="B112" s="179"/>
-      <c r="C112" s="179"/>
+      <c r="B112" s="184"/>
+      <c r="C112" s="184"/>
       <c r="D112" s="33" t="s">
         <v>776</v>
       </c>
@@ -20915,15 +20979,15 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="209"/>
-      <c r="H112" s="210"/>
+      <c r="G112" s="201"/>
+      <c r="H112" s="202"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
         <v>42</v>
       </c>
-      <c r="B113" s="179"/>
-      <c r="C113" s="179"/>
+      <c r="B113" s="184"/>
+      <c r="C113" s="184"/>
       <c r="D113" s="33" t="s">
         <v>784</v>
       </c>
@@ -20933,15 +20997,15 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="209"/>
-      <c r="H113" s="210"/>
+      <c r="G113" s="201"/>
+      <c r="H113" s="202"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
         <v>43</v>
       </c>
-      <c r="B114" s="179"/>
-      <c r="C114" s="179"/>
+      <c r="B114" s="184"/>
+      <c r="C114" s="184"/>
       <c r="D114" s="33" t="s">
         <v>777</v>
       </c>
@@ -20951,15 +21015,15 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="209"/>
-      <c r="H114" s="210"/>
+      <c r="G114" s="201"/>
+      <c r="H114" s="202"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
         <v>44</v>
       </c>
-      <c r="B115" s="179"/>
-      <c r="C115" s="179"/>
+      <c r="B115" s="184"/>
+      <c r="C115" s="184"/>
       <c r="D115" s="33" t="s">
         <v>778</v>
       </c>
@@ -20969,15 +21033,15 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="209"/>
-      <c r="H115" s="210"/>
+      <c r="G115" s="201"/>
+      <c r="H115" s="202"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
         <v>45</v>
       </c>
-      <c r="B116" s="179"/>
-      <c r="C116" s="179"/>
+      <c r="B116" s="184"/>
+      <c r="C116" s="184"/>
       <c r="D116" s="33" t="s">
         <v>779</v>
       </c>
@@ -20987,15 +21051,15 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="209"/>
-      <c r="H116" s="210"/>
+      <c r="G116" s="201"/>
+      <c r="H116" s="202"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
         <v>46</v>
       </c>
-      <c r="B117" s="179"/>
-      <c r="C117" s="179"/>
+      <c r="B117" s="184"/>
+      <c r="C117" s="184"/>
       <c r="D117" s="33" t="s">
         <v>780</v>
       </c>
@@ -21005,15 +21069,15 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="209"/>
-      <c r="H117" s="210"/>
+      <c r="G117" s="201"/>
+      <c r="H117" s="202"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
         <v>47</v>
       </c>
-      <c r="B118" s="179"/>
-      <c r="C118" s="179"/>
+      <c r="B118" s="184"/>
+      <c r="C118" s="184"/>
       <c r="D118" s="33" t="s">
         <v>781</v>
       </c>
@@ -21023,15 +21087,15 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="209"/>
-      <c r="H118" s="210"/>
+      <c r="G118" s="201"/>
+      <c r="H118" s="202"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
         <v>48</v>
       </c>
-      <c r="B119" s="179"/>
-      <c r="C119" s="179"/>
+      <c r="B119" s="184"/>
+      <c r="C119" s="184"/>
       <c r="D119" s="33" t="s">
         <v>782</v>
       </c>
@@ -21041,15 +21105,15 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="209"/>
-      <c r="H119" s="210"/>
+      <c r="G119" s="201"/>
+      <c r="H119" s="202"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
         <v>49</v>
       </c>
-      <c r="B120" s="179"/>
-      <c r="C120" s="179"/>
+      <c r="B120" s="184"/>
+      <c r="C120" s="184"/>
       <c r="D120" s="33" t="s">
         <v>783</v>
       </c>
@@ -21059,15 +21123,15 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="209"/>
-      <c r="H120" s="210"/>
+      <c r="G120" s="201"/>
+      <c r="H120" s="202"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
         <v>50</v>
       </c>
-      <c r="B121" s="179"/>
-      <c r="C121" s="179"/>
+      <c r="B121" s="184"/>
+      <c r="C121" s="184"/>
       <c r="D121" s="33" t="s">
         <v>785</v>
       </c>
@@ -21077,8 +21141,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="211"/>
-      <c r="H121" s="212"/>
+      <c r="G121" s="203"/>
+      <c r="H121" s="204"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21214,13 +21278,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="198" t="s">
+      <c r="B135" s="205" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="198"/>
-      <c r="D135" s="198"/>
-      <c r="E135" s="198"/>
-      <c r="F135" s="198"/>
+      <c r="C135" s="205"/>
+      <c r="D135" s="205"/>
+      <c r="E135" s="205"/>
+      <c r="F135" s="205"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21241,10 +21305,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="200" t="s">
+      <c r="G136" s="198" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="200"/>
+      <c r="H136" s="198"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -21261,10 +21325,10 @@
         <v>493</v>
       </c>
       <c r="F137" s="174" t="s">
-        <v>893</v>
-      </c>
-      <c r="G137" s="184"/>
-      <c r="H137" s="185"/>
+        <v>892</v>
+      </c>
+      <c r="G137" s="191"/>
+      <c r="H137" s="192"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -21285,7 +21349,7 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="194" t="s">
+      <c r="G138" s="211" t="s">
         <v>845</v>
       </c>
       <c r="H138" s="189"/>
@@ -21319,7 +21383,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="213" t="s">
+      <c r="C140" s="193" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -21328,11 +21392,13 @@
       <c r="E140" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F140" s="159" t="s">
-        <v>883</v>
-      </c>
-      <c r="G140" s="189"/>
-      <c r="H140" s="189"/>
+      <c r="F140" s="179" t="s">
+        <v>559</v>
+      </c>
+      <c r="G140" s="224" t="s">
+        <v>898</v>
+      </c>
+      <c r="H140" s="225"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -21341,18 +21407,18 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="214"/>
+      <c r="C141" s="194"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="F141" s="159" t="s">
-        <v>883</v>
-      </c>
-      <c r="G141" s="189"/>
-      <c r="H141" s="189"/>
+      <c r="F141" s="179" t="s">
+        <v>559</v>
+      </c>
+      <c r="G141" s="226"/>
+      <c r="H141" s="227"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -21361,7 +21427,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="213" t="s">
+      <c r="C142" s="193" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21383,7 +21449,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="214"/>
+      <c r="C143" s="194"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21403,7 +21469,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="213" t="s">
+      <c r="C144" s="193" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21415,8 +21481,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="184"/>
-      <c r="H144" s="185"/>
+      <c r="G144" s="191"/>
+      <c r="H144" s="192"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -21425,7 +21491,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="214"/>
+      <c r="C145" s="194"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -21445,7 +21511,7 @@
       <c r="B146" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C146" s="176" t="s">
+      <c r="C146" s="181" t="s">
         <v>634</v>
       </c>
       <c r="D146" s="36" t="s">
@@ -21467,7 +21533,7 @@
       <c r="B147" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="177"/>
+      <c r="C147" s="182"/>
       <c r="D147" s="36" t="s">
         <v>809</v>
       </c>
@@ -21487,7 +21553,7 @@
       <c r="B148" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="C148" s="178"/>
+      <c r="C148" s="183"/>
       <c r="D148" s="158" t="s">
         <v>810</v>
       </c>
@@ -21579,7 +21645,7 @@
       <c r="B152" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C152" s="176" t="s">
+      <c r="C152" s="181" t="s">
         <v>575</v>
       </c>
       <c r="D152" s="20" t="s">
@@ -21601,7 +21667,7 @@
       <c r="B153" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C153" s="177"/>
+      <c r="C153" s="182"/>
       <c r="D153" s="20" t="s">
         <v>818</v>
       </c>
@@ -21621,7 +21687,7 @@
       <c r="B154" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C154" s="177"/>
+      <c r="C154" s="182"/>
       <c r="D154" s="20" t="s">
         <v>819</v>
       </c>
@@ -21641,7 +21707,7 @@
       <c r="B155" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C155" s="177"/>
+      <c r="C155" s="182"/>
       <c r="D155" s="20" t="s">
         <v>820</v>
       </c>
@@ -21661,7 +21727,7 @@
       <c r="B156" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C156" s="177"/>
+      <c r="C156" s="182"/>
       <c r="D156" s="20" t="s">
         <v>821</v>
       </c>
@@ -21681,7 +21747,7 @@
       <c r="B157" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C157" s="177"/>
+      <c r="C157" s="182"/>
       <c r="D157" s="20" t="s">
         <v>822</v>
       </c>
@@ -21701,7 +21767,7 @@
       <c r="B158" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C158" s="177"/>
+      <c r="C158" s="182"/>
       <c r="D158" s="20" t="s">
         <v>823</v>
       </c>
@@ -21721,7 +21787,7 @@
       <c r="B159" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C159" s="177"/>
+      <c r="C159" s="182"/>
       <c r="D159" s="20" t="s">
         <v>824</v>
       </c>
@@ -21741,7 +21807,7 @@
       <c r="B160" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C160" s="177"/>
+      <c r="C160" s="182"/>
       <c r="D160" s="20" t="s">
         <v>825</v>
       </c>
@@ -21761,7 +21827,7 @@
       <c r="B161" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C161" s="177"/>
+      <c r="C161" s="182"/>
       <c r="D161" s="20" t="s">
         <v>826</v>
       </c>
@@ -21781,7 +21847,7 @@
       <c r="B162" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C162" s="177"/>
+      <c r="C162" s="182"/>
       <c r="D162" s="20" t="s">
         <v>827</v>
       </c>
@@ -21801,7 +21867,7 @@
       <c r="B163" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C163" s="177"/>
+      <c r="C163" s="182"/>
       <c r="D163" s="20" t="s">
         <v>828</v>
       </c>
@@ -21821,7 +21887,7 @@
       <c r="B164" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C164" s="177"/>
+      <c r="C164" s="182"/>
       <c r="D164" s="20" t="s">
         <v>829</v>
       </c>
@@ -21841,7 +21907,7 @@
       <c r="B165" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C165" s="177"/>
+      <c r="C165" s="182"/>
       <c r="D165" s="20" t="s">
         <v>830</v>
       </c>
@@ -21861,7 +21927,7 @@
       <c r="B166" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C166" s="177"/>
+      <c r="C166" s="182"/>
       <c r="D166" s="20" t="s">
         <v>831</v>
       </c>
@@ -21881,7 +21947,7 @@
       <c r="B167" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C167" s="177"/>
+      <c r="C167" s="182"/>
       <c r="D167" s="20" t="s">
         <v>832</v>
       </c>
@@ -21901,7 +21967,7 @@
       <c r="B168" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C168" s="177"/>
+      <c r="C168" s="182"/>
       <c r="D168" s="20" t="s">
         <v>833</v>
       </c>
@@ -21921,7 +21987,7 @@
       <c r="B169" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C169" s="177"/>
+      <c r="C169" s="182"/>
       <c r="D169" s="20" t="s">
         <v>834</v>
       </c>
@@ -21941,7 +22007,7 @@
       <c r="B170" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C170" s="177"/>
+      <c r="C170" s="182"/>
       <c r="D170" s="20" t="s">
         <v>835</v>
       </c>
@@ -21961,7 +22027,7 @@
       <c r="B171" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C171" s="177"/>
+      <c r="C171" s="182"/>
       <c r="D171" s="20" t="s">
         <v>836</v>
       </c>
@@ -21981,7 +22047,7 @@
       <c r="B172" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C172" s="177"/>
+      <c r="C172" s="182"/>
       <c r="D172" s="20" t="s">
         <v>837</v>
       </c>
@@ -22001,7 +22067,7 @@
       <c r="B173" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C173" s="177"/>
+      <c r="C173" s="182"/>
       <c r="D173" s="20" t="s">
         <v>838</v>
       </c>
@@ -22021,7 +22087,7 @@
       <c r="B174" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C174" s="177"/>
+      <c r="C174" s="182"/>
       <c r="D174" s="20" t="s">
         <v>839</v>
       </c>
@@ -22041,7 +22107,7 @@
       <c r="B175" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C175" s="178"/>
+      <c r="C175" s="183"/>
       <c r="D175" s="20" t="s">
         <v>840</v>
       </c>
@@ -22061,7 +22127,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="186" t="s">
+      <c r="C176" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22071,12 +22137,12 @@
         <v>493</v>
       </c>
       <c r="F176" s="174" t="s">
-        <v>894</v>
-      </c>
-      <c r="G176" s="190" t="s">
-        <v>895</v>
-      </c>
-      <c r="H176" s="191"/>
+        <v>501</v>
+      </c>
+      <c r="G176" s="216" t="s">
+        <v>893</v>
+      </c>
+      <c r="H176" s="217"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -22085,7 +22151,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="187"/>
+      <c r="C177" s="214"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -22093,10 +22159,10 @@
         <v>493</v>
       </c>
       <c r="F177" s="174" t="s">
-        <v>883</v>
-      </c>
-      <c r="G177" s="192"/>
-      <c r="H177" s="193"/>
+        <v>501</v>
+      </c>
+      <c r="G177" s="218"/>
+      <c r="H177" s="219"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -22105,7 +22171,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="186" t="s">
+      <c r="C178" s="213" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22127,7 +22193,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="187"/>
+      <c r="C179" s="214"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -22147,7 +22213,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="186" t="s">
+      <c r="C180" s="213" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22169,7 +22235,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="188"/>
+      <c r="C181" s="215"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -22189,7 +22255,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="188"/>
+      <c r="C182" s="215"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -22209,7 +22275,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="188"/>
+      <c r="C183" s="215"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -22229,7 +22295,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="188"/>
+      <c r="C184" s="215"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -22249,7 +22315,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="188"/>
+      <c r="C185" s="215"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -22269,7 +22335,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="188"/>
+      <c r="C186" s="215"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -22289,7 +22355,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="188"/>
+      <c r="C187" s="215"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -22309,7 +22375,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="188"/>
+      <c r="C188" s="215"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -22329,7 +22395,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="188"/>
+      <c r="C189" s="215"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -22349,7 +22415,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="188"/>
+      <c r="C190" s="215"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -22369,7 +22435,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="188"/>
+      <c r="C191" s="215"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -22389,7 +22455,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="188"/>
+      <c r="C192" s="215"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -22409,7 +22475,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="188"/>
+      <c r="C193" s="215"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -22429,7 +22495,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="188"/>
+      <c r="C194" s="215"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -22449,7 +22515,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="188"/>
+      <c r="C195" s="215"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -22469,7 +22535,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="188"/>
+      <c r="C196" s="215"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -22489,7 +22555,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="188"/>
+      <c r="C197" s="215"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -22509,7 +22575,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="188"/>
+      <c r="C198" s="215"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -22529,7 +22595,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="188"/>
+      <c r="C199" s="215"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -22549,7 +22615,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="188"/>
+      <c r="C200" s="215"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -22569,7 +22635,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="188"/>
+      <c r="C201" s="215"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -22589,7 +22655,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="188"/>
+      <c r="C202" s="215"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -22609,7 +22675,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="187"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -22685,21 +22751,21 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="184"/>
-      <c r="H206" s="185"/>
+      <c r="G206" s="191"/>
+      <c r="H206" s="192"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
         <v>71</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>516</v>
       </c>
       <c r="D207" s="172" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>758</v>
@@ -22707,21 +22773,21 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="184"/>
-      <c r="H207" s="185"/>
+      <c r="G207" s="191"/>
+      <c r="H207" s="192"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
         <v>72</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E208" s="4" t="s">
         <v>632</v>
@@ -22729,8 +22795,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="197"/>
-      <c r="H208" s="197"/>
+      <c r="G208" s="190"/>
+      <c r="H208" s="190"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22803,198 +22869,1146 @@
       <c r="F215" s="77"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="97"/>
-      <c r="B216" s="77"/>
-      <c r="C216" s="97"/>
-      <c r="D216" s="77"/>
-      <c r="E216" s="77"/>
-      <c r="F216" s="77"/>
+      <c r="A216" t="s">
+        <v>895</v>
+      </c>
+      <c r="B216" s="205" t="s">
+        <v>896</v>
+      </c>
+      <c r="C216" s="205"/>
+      <c r="D216" s="205"/>
+      <c r="E216" s="205"/>
+      <c r="F216" s="205"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="92" t="s">
+        <v>282</v>
+      </c>
+      <c r="B217" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="C217" s="91" t="s">
+        <v>177</v>
+      </c>
+      <c r="D217" s="91" t="s">
+        <v>546</v>
+      </c>
+      <c r="E217" s="91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F217" s="91" t="s">
+        <v>169</v>
+      </c>
+      <c r="G217" s="198" t="s">
+        <v>167</v>
+      </c>
+      <c r="H217" s="198"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="91"/>
-      <c r="B218" s="91" t="s">
+      <c r="A218" s="110">
+        <v>1</v>
+      </c>
+      <c r="B218" s="33" t="s">
+        <v>791</v>
+      </c>
+      <c r="C218" s="177"/>
+      <c r="D218" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="E218" s="1"/>
+      <c r="F218" s="179" t="s">
+        <v>842</v>
+      </c>
+      <c r="G218" s="211" t="s">
+        <v>897</v>
+      </c>
+      <c r="H218" s="189"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="110">
+        <v>2</v>
+      </c>
+      <c r="B219" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C219" s="181" t="s">
+        <v>516</v>
+      </c>
+      <c r="D219" s="20" t="s">
+        <v>844</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F219" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G219" s="211"/>
+      <c r="H219" s="189"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="110">
+        <v>3</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>806</v>
+      </c>
+      <c r="C220" s="183"/>
+      <c r="D220" s="178" t="s">
+        <v>805</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F220" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G220" s="189"/>
+      <c r="H220" s="189"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="110">
+        <v>4</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C221" s="181" t="s">
+        <v>516</v>
+      </c>
+      <c r="D221" s="161" t="s">
+        <v>796</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F221" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G221" s="189"/>
+      <c r="H221" s="189"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="110">
+        <v>5</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C222" s="183"/>
+      <c r="D222" s="161" t="s">
+        <v>797</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F222" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G222" s="189"/>
+      <c r="H222" s="189"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="110">
+        <v>6</v>
+      </c>
+      <c r="B223" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="C223" s="177" t="s">
+        <v>634</v>
+      </c>
+      <c r="D223" s="178" t="s">
+        <v>813</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F223" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G223" s="189"/>
+      <c r="H223" s="189"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="177">
+        <v>7</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="C224" s="177" t="s">
+        <v>634</v>
+      </c>
+      <c r="D224" s="178" t="s">
+        <v>814</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F224" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G224" s="1"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A225" s="177">
+        <v>8</v>
+      </c>
+      <c r="B225" s="20" t="s">
+        <v>815</v>
+      </c>
+      <c r="C225" s="177" t="s">
+        <v>634</v>
+      </c>
+      <c r="D225" s="178" t="s">
+        <v>816</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F225" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G225" s="1"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A226" s="177">
+        <v>9</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>852</v>
+      </c>
+      <c r="C226" s="181" t="s">
+        <v>634</v>
+      </c>
+      <c r="D226" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F226" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G226" s="1"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A227" s="177">
+        <v>10</v>
+      </c>
+      <c r="B227" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="C227" s="183"/>
+      <c r="D227" s="20" t="s">
+        <v>851</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F227" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G227" s="1"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A228" s="177">
+        <v>11</v>
+      </c>
+      <c r="B228" s="20" t="s">
+        <v>769</v>
+      </c>
+      <c r="C228" s="177" t="s">
+        <v>759</v>
+      </c>
+      <c r="D228" s="9" t="s">
+        <v>878</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F228" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G228" s="1"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A229" s="177">
+        <v>12</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>786</v>
+      </c>
+      <c r="C229" s="177"/>
+      <c r="D229" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F229" s="179" t="s">
+        <v>842</v>
+      </c>
+      <c r="G229" s="1"/>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A230" s="177">
+        <v>13</v>
+      </c>
+      <c r="B230" s="20" t="s">
+        <v>894</v>
+      </c>
+      <c r="C230" s="177" t="s">
+        <v>516</v>
+      </c>
+      <c r="D230" s="178" t="s">
+        <v>888</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F230" s="179" t="s">
+        <v>883</v>
+      </c>
+      <c r="G230" s="1"/>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A231" s="177">
+        <v>14</v>
+      </c>
+      <c r="B231" s="228" t="s">
+        <v>899</v>
+      </c>
+      <c r="C231" s="181" t="s">
+        <v>900</v>
+      </c>
+      <c r="D231" s="33" t="s">
+        <v>773</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F231" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G231" s="1"/>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A232" s="177">
+        <v>15</v>
+      </c>
+      <c r="B232" s="229"/>
+      <c r="C232" s="182"/>
+      <c r="D232" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F232" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G232" s="1"/>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A233" s="177">
+        <v>16</v>
+      </c>
+      <c r="B233" s="229"/>
+      <c r="C233" s="182"/>
+      <c r="D233" s="33" t="s">
+        <v>775</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F233" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G233" s="1"/>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A234" s="177">
+        <v>17</v>
+      </c>
+      <c r="B234" s="229"/>
+      <c r="C234" s="182"/>
+      <c r="D234" s="33" t="s">
+        <v>776</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F234" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G234" s="1"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A235" s="177">
+        <v>18</v>
+      </c>
+      <c r="B235" s="229"/>
+      <c r="C235" s="182"/>
+      <c r="D235" s="33" t="s">
+        <v>784</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F235" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G235" s="1"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A236" s="177">
+        <v>19</v>
+      </c>
+      <c r="B236" s="229"/>
+      <c r="C236" s="182"/>
+      <c r="D236" s="33" t="s">
+        <v>777</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F236" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G236" s="1"/>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A237" s="177">
+        <v>20</v>
+      </c>
+      <c r="B237" s="229"/>
+      <c r="C237" s="182"/>
+      <c r="D237" s="33" t="s">
+        <v>778</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F237" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G237" s="1"/>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A238" s="177">
+        <v>21</v>
+      </c>
+      <c r="B238" s="229"/>
+      <c r="C238" s="182"/>
+      <c r="D238" s="33" t="s">
+        <v>779</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F238" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G238" s="1"/>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A239" s="177">
+        <v>22</v>
+      </c>
+      <c r="B239" s="229"/>
+      <c r="C239" s="182"/>
+      <c r="D239" s="33" t="s">
+        <v>780</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F239" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G239" s="1"/>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A240" s="176">
+        <v>23</v>
+      </c>
+      <c r="B240" s="229"/>
+      <c r="C240" s="182"/>
+      <c r="D240" s="231" t="s">
+        <v>785</v>
+      </c>
+      <c r="E240" s="232" t="s">
+        <v>758</v>
+      </c>
+      <c r="F240" s="180" t="s">
+        <v>180</v>
+      </c>
+      <c r="G240" s="1"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="177">
+        <v>24</v>
+      </c>
+      <c r="B241" s="228" t="s">
+        <v>901</v>
+      </c>
+      <c r="C241" s="181" t="s">
+        <v>761</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F241" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G241" s="1"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="176">
+        <v>25</v>
+      </c>
+      <c r="B242" s="229"/>
+      <c r="C242" s="182"/>
+      <c r="D242" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F242" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G242" s="1"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="177">
+        <v>26</v>
+      </c>
+      <c r="B243" s="229"/>
+      <c r="C243" s="182"/>
+      <c r="D243" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F243" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G243" s="1"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="176">
+        <v>27</v>
+      </c>
+      <c r="B244" s="229"/>
+      <c r="C244" s="182"/>
+      <c r="D244" s="9" t="s">
+        <v>860</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F244" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G244" s="1"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="177">
+        <v>28</v>
+      </c>
+      <c r="B245" s="229"/>
+      <c r="C245" s="182"/>
+      <c r="D245" s="9" t="s">
+        <v>874</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F245" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G245" s="1"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="176">
+        <v>29</v>
+      </c>
+      <c r="B246" s="229"/>
+      <c r="C246" s="182"/>
+      <c r="D246" s="9" t="s">
+        <v>876</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F246" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G246" s="1"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="177">
+        <v>30</v>
+      </c>
+      <c r="B247" s="230"/>
+      <c r="C247" s="183"/>
+      <c r="D247" s="9" t="s">
+        <v>877</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F247" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G247" s="1"/>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="176">
+        <v>31</v>
+      </c>
+      <c r="B248" s="228" t="s">
+        <v>903</v>
+      </c>
+      <c r="C248" s="181" t="s">
+        <v>902</v>
+      </c>
+      <c r="D248" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F248" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G248" s="1"/>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="177">
+        <v>32</v>
+      </c>
+      <c r="B249" s="229"/>
+      <c r="C249" s="182"/>
+      <c r="D249" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F249" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G249" s="1"/>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="176">
+        <v>33</v>
+      </c>
+      <c r="B250" s="229"/>
+      <c r="C250" s="182"/>
+      <c r="D250" s="9" t="s">
+        <v>864</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F250" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G250" s="1"/>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="177">
+        <v>34</v>
+      </c>
+      <c r="B251" s="229"/>
+      <c r="C251" s="182"/>
+      <c r="D251" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F251" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G251" s="1"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="176">
+        <v>35</v>
+      </c>
+      <c r="B252" s="229"/>
+      <c r="C252" s="182"/>
+      <c r="D252" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F252" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G252" s="1"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="177">
+        <v>36</v>
+      </c>
+      <c r="B253" s="229"/>
+      <c r="C253" s="182"/>
+      <c r="D253" s="9" t="s">
+        <v>867</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F253" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G253" s="1"/>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="176">
+        <v>37</v>
+      </c>
+      <c r="B254" s="229"/>
+      <c r="C254" s="182"/>
+      <c r="D254" s="9" t="s">
+        <v>868</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F254" s="179" t="s">
+        <v>883</v>
+      </c>
+      <c r="G254" s="1"/>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="177">
+        <v>38</v>
+      </c>
+      <c r="B255" s="229"/>
+      <c r="C255" s="182"/>
+      <c r="D255" s="9" t="s">
+        <v>869</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F255" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G255" s="1"/>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="176">
+        <v>39</v>
+      </c>
+      <c r="B256" s="229"/>
+      <c r="C256" s="182"/>
+      <c r="D256" s="9" t="s">
+        <v>870</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F256" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G256" s="1"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="177">
+        <v>40</v>
+      </c>
+      <c r="B257" s="230"/>
+      <c r="C257" s="183"/>
+      <c r="D257" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F257" s="179" t="s">
+        <v>180</v>
+      </c>
+      <c r="G257" s="1"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="97"/>
+      <c r="B258" s="77"/>
+      <c r="C258" s="97"/>
+      <c r="D258" s="77"/>
+      <c r="E258" s="77"/>
+      <c r="F258" s="77"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="97"/>
+      <c r="B259" s="77"/>
+      <c r="C259" s="97"/>
+      <c r="D259" s="77"/>
+      <c r="E259" s="77"/>
+      <c r="F259" s="77"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="97"/>
+      <c r="B260" s="77"/>
+      <c r="C260" s="97"/>
+      <c r="D260" s="77"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="77"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" s="97"/>
+      <c r="B261" s="77"/>
+      <c r="C261" s="97"/>
+      <c r="D261" s="77"/>
+      <c r="E261" s="77"/>
+      <c r="F261" s="77"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" s="91"/>
+      <c r="B263" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="C218" s="94" t="s">
+      <c r="C263" s="94" t="s">
         <v>513</v>
       </c>
-      <c r="D218" s="91" t="s">
+      <c r="D263" s="91" t="s">
         <v>167</v>
       </c>
-      <c r="E218" s="91" t="s">
+      <c r="E263" s="91" t="s">
         <v>494</v>
       </c>
-      <c r="F218" s="91" t="s">
+      <c r="F263" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G218" s="99" t="s">
+      <c r="G263" s="99" t="s">
         <v>514</v>
       </c>
-      <c r="H218" s="106" t="s">
+      <c r="H263" s="106" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="90">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" s="90">
         <v>1</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B264" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C219" s="93">
+      <c r="C264" s="93">
         <v>43671</v>
       </c>
-      <c r="D219" s="1"/>
-      <c r="E219" s="1" t="s">
+      <c r="D264" s="1"/>
+      <c r="E264" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F264" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="G219" s="1"/>
-      <c r="H219" s="1" t="s">
+      <c r="G264" s="1"/>
+      <c r="H264" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="90">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" s="90">
         <v>2</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B265" s="11" t="s">
         <v>497</v>
       </c>
-      <c r="C220" s="93">
+      <c r="C265" s="93">
         <v>43671</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D265" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E265" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F265" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="G220" s="1"/>
-      <c r="H220" s="1"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="95">
+      <c r="G265" s="1"/>
+      <c r="H265" s="1"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" s="95">
         <v>3</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C221" s="93">
+      <c r="C266" s="93">
         <v>43671</v>
       </c>
-      <c r="D221" s="1"/>
-      <c r="E221" s="1" t="s">
+      <c r="D266" s="1"/>
+      <c r="E266" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F266" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="G221" s="98">
+      <c r="G266" s="98">
         <v>43693</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="H266" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="95">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" s="95">
         <v>4</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C222" s="93">
+      <c r="C267" s="93">
         <v>43678</v>
       </c>
-      <c r="D222" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E222" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F267" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G222" s="98">
+      <c r="G267" s="98">
         <v>43686</v>
       </c>
-      <c r="H222" s="4" t="s">
+      <c r="H267" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="95">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="95">
         <v>5</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="C223" s="93">
+      <c r="C268" s="93">
         <v>43678</v>
       </c>
-      <c r="D223" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="E223" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="G223" s="98">
+      <c r="G268" s="98">
         <v>43689</v>
       </c>
-      <c r="H223" s="1"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A227" s="206" t="s">
+      <c r="H268" s="1"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="197" t="s">
         <v>528</v>
       </c>
-      <c r="B227" s="206"/>
-      <c r="C227" s="206"/>
-      <c r="D227" s="206"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A228" s="105">
+      <c r="B272" s="197"/>
+      <c r="C272" s="197"/>
+      <c r="D272" s="197"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B228" s="189" t="s">
+      <c r="B273" s="189" t="s">
         <v>560</v>
       </c>
-      <c r="C228" s="189"/>
-      <c r="D228" s="189"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A229" s="105">
+      <c r="C273" s="189"/>
+      <c r="D273" s="189"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B229" s="189" t="s">
+      <c r="B274" s="189" t="s">
         <v>568</v>
       </c>
-      <c r="C229" s="189"/>
-      <c r="D229" s="189"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A230" s="147">
+      <c r="C274" s="189"/>
+      <c r="D274" s="189"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B230" s="189" t="s">
+      <c r="B275" s="189" t="s">
         <v>704</v>
       </c>
-      <c r="C230" s="189"/>
-      <c r="D230" s="189"/>
+      <c r="C275" s="189"/>
+      <c r="D275" s="189"/>
     </row>
   </sheetData>
   <autoFilter ref="A136:H208" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
-  <mergeCells count="156">
+  <mergeCells count="172">
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G191:H191"/>
@@ -23019,138 +24033,6 @@
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="G181:H181"/>
     <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G193:H193"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -23413,37 +24295,37 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="215">
+      <c r="A4" s="220">
         <v>3</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="221" t="s">
         <v>461</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="217" t="s">
+      <c r="D4" s="222" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="216" t="s">
+      <c r="E4" s="221" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="218" t="s">
+      <c r="F4" s="223" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="215"/>
+      <c r="G4" s="220"/>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
+      <c r="A5" s="220"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="217"/>
-      <c r="E5" s="216"/>
-      <c r="F5" s="218"/>
-      <c r="G5" s="215"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="220"/>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{35934640-786E-44D3-821F-70E7E0BB06CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{883FF2F7-9897-46F0-94BB-EAA634BD1F3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="Gross Margin" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sprints!$A$136:$H$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sprints!$A$217:$H$257</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Story'!$A$1:$H$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="906">
   <si>
     <t>Category</t>
   </si>
@@ -2785,6 +2785,12 @@
   </si>
   <si>
     <t>push order to sap</t>
+  </si>
+  <si>
+    <t>Li Song</t>
+  </si>
+  <si>
+    <t>2day</t>
   </si>
 </sst>
 </file>
@@ -3698,6 +3704,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3722,76 +3732,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3815,6 +3780,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3827,31 +3858,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -13080,7 +13086,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="183" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="116">
@@ -13106,7 +13112,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="182"/>
+      <c r="A3" s="184"/>
       <c r="B3" s="116">
         <v>102</v>
       </c>
@@ -13130,7 +13136,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="182"/>
+      <c r="A4" s="184"/>
       <c r="B4" s="116">
         <v>103</v>
       </c>
@@ -13154,7 +13160,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="182"/>
+      <c r="A5" s="184"/>
       <c r="B5" s="116">
         <v>104</v>
       </c>
@@ -13178,7 +13184,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="182"/>
+      <c r="A6" s="184"/>
       <c r="B6" s="116">
         <v>105</v>
       </c>
@@ -13202,7 +13208,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="182"/>
+      <c r="A7" s="184"/>
       <c r="B7" s="148">
         <v>106</v>
       </c>
@@ -13224,7 +13230,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="184"/>
       <c r="B8" s="116">
         <v>107</v>
       </c>
@@ -13244,7 +13250,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="182"/>
+      <c r="A9" s="184"/>
       <c r="B9" s="116">
         <v>108</v>
       </c>
@@ -13264,7 +13270,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="182"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="116">
         <v>109</v>
       </c>
@@ -13284,7 +13290,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="183"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="22">
         <v>110</v>
       </c>
@@ -13302,7 +13308,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="183" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="116">
@@ -13324,7 +13330,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="182"/>
+      <c r="A13" s="184"/>
       <c r="B13" s="116">
         <v>202</v>
       </c>
@@ -13344,7 +13350,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="182"/>
+      <c r="A14" s="184"/>
       <c r="B14" s="116">
         <v>203</v>
       </c>
@@ -13364,7 +13370,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="183"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -13374,7 +13380,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="181" t="s">
+      <c r="A16" s="183" t="s">
         <v>604</v>
       </c>
       <c r="B16" s="116">
@@ -13396,7 +13402,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="116">
         <v>302</v>
       </c>
@@ -13416,7 +13422,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="182"/>
+      <c r="A18" s="184"/>
       <c r="B18" s="116">
         <v>303</v>
       </c>
@@ -13436,7 +13442,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="182"/>
+      <c r="A19" s="184"/>
       <c r="B19" s="116">
         <v>304</v>
       </c>
@@ -13456,7 +13462,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="182"/>
+      <c r="A20" s="184"/>
       <c r="B20" s="116">
         <v>305</v>
       </c>
@@ -13476,7 +13482,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="182"/>
+      <c r="A21" s="184"/>
       <c r="B21" s="122">
         <v>306</v>
       </c>
@@ -13500,7 +13506,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="182"/>
+      <c r="A22" s="184"/>
       <c r="B22" s="122">
         <v>307</v>
       </c>
@@ -13520,7 +13526,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="182"/>
+      <c r="A23" s="184"/>
       <c r="B23" s="122">
         <v>308</v>
       </c>
@@ -13536,7 +13542,7 @@
       <c r="H23" s="132"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="182"/>
+      <c r="A24" s="184"/>
       <c r="B24" s="122">
         <v>309</v>
       </c>
@@ -13556,7 +13562,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="122">
         <v>310</v>
       </c>
@@ -13576,7 +13582,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="182"/>
+      <c r="A26" s="184"/>
       <c r="B26" s="122">
         <v>311</v>
       </c>
@@ -13596,7 +13602,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="182"/>
+      <c r="A27" s="184"/>
       <c r="B27" s="122">
         <v>312</v>
       </c>
@@ -13616,7 +13622,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="182"/>
+      <c r="A28" s="184"/>
       <c r="B28" s="122">
         <v>313</v>
       </c>
@@ -13636,7 +13642,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="182"/>
+      <c r="A29" s="184"/>
       <c r="B29" s="122">
         <v>314</v>
       </c>
@@ -13656,7 +13662,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
+      <c r="A30" s="184"/>
       <c r="B30" s="122">
         <v>315</v>
       </c>
@@ -13676,7 +13682,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="182"/>
+      <c r="A31" s="184"/>
       <c r="B31" s="122">
         <v>316</v>
       </c>
@@ -13696,7 +13702,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="182"/>
+      <c r="A32" s="184"/>
       <c r="B32" s="122">
         <v>317</v>
       </c>
@@ -13716,7 +13722,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
+      <c r="A33" s="184"/>
       <c r="B33" s="122">
         <v>318</v>
       </c>
@@ -13736,7 +13742,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="182"/>
+      <c r="A34" s="184"/>
       <c r="B34" s="122">
         <v>319</v>
       </c>
@@ -13756,7 +13762,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="182"/>
+      <c r="A35" s="184"/>
       <c r="B35" s="122">
         <v>320</v>
       </c>
@@ -13776,7 +13782,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="182"/>
+      <c r="A36" s="184"/>
       <c r="B36" s="122">
         <v>321</v>
       </c>
@@ -13796,7 +13802,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="182"/>
+      <c r="A37" s="184"/>
       <c r="B37" s="122">
         <v>322</v>
       </c>
@@ -13816,7 +13822,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="182"/>
+      <c r="A38" s="184"/>
       <c r="B38" s="122">
         <v>323</v>
       </c>
@@ -13836,7 +13842,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="182"/>
+      <c r="A39" s="184"/>
       <c r="B39" s="122">
         <v>324</v>
       </c>
@@ -13856,7 +13862,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="183"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="122"/>
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
@@ -13866,7 +13872,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="181" t="s">
+      <c r="A41" s="183" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="22">
@@ -13892,7 +13898,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="182"/>
+      <c r="A42" s="184"/>
       <c r="B42" s="22">
         <v>402</v>
       </c>
@@ -13916,7 +13922,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="182"/>
+      <c r="A43" s="184"/>
       <c r="B43" s="22">
         <v>403</v>
       </c>
@@ -13940,7 +13946,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="182"/>
+      <c r="A44" s="184"/>
       <c r="B44" s="165">
         <v>404</v>
       </c>
@@ -13964,7 +13970,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="182"/>
+      <c r="A45" s="184"/>
       <c r="B45" s="165">
         <v>405</v>
       </c>
@@ -13988,7 +13994,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="182"/>
+      <c r="A46" s="184"/>
       <c r="B46" s="22">
         <v>406</v>
       </c>
@@ -14012,7 +14018,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="182"/>
+      <c r="A47" s="184"/>
       <c r="B47" s="22">
         <v>407</v>
       </c>
@@ -14036,7 +14042,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="182"/>
+      <c r="A48" s="184"/>
       <c r="B48" s="22">
         <v>408</v>
       </c>
@@ -14060,7 +14066,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="182"/>
+      <c r="A49" s="184"/>
       <c r="B49" s="165">
         <v>409</v>
       </c>
@@ -14084,7 +14090,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="182"/>
+      <c r="A50" s="184"/>
       <c r="B50" s="22">
         <v>410</v>
       </c>
@@ -14108,7 +14114,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="182"/>
+      <c r="A51" s="184"/>
       <c r="B51" s="166">
         <v>411</v>
       </c>
@@ -14132,7 +14138,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="182"/>
+      <c r="A52" s="184"/>
       <c r="B52" s="22">
         <v>412</v>
       </c>
@@ -14156,7 +14162,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="182"/>
+      <c r="A53" s="184"/>
       <c r="B53" s="22">
         <v>413</v>
       </c>
@@ -14180,7 +14186,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="182"/>
+      <c r="A54" s="184"/>
       <c r="B54" s="122">
         <v>414</v>
       </c>
@@ -14204,7 +14210,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="182"/>
+      <c r="A55" s="184"/>
       <c r="B55" s="122">
         <v>415</v>
       </c>
@@ -14228,7 +14234,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="182"/>
+      <c r="A56" s="184"/>
       <c r="B56" s="122">
         <v>416</v>
       </c>
@@ -14252,7 +14258,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="182"/>
+      <c r="A57" s="184"/>
       <c r="B57" s="122">
         <v>417</v>
       </c>
@@ -14276,7 +14282,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="182"/>
+      <c r="A58" s="184"/>
       <c r="B58" s="122">
         <v>418</v>
       </c>
@@ -14300,7 +14306,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="182"/>
+      <c r="A59" s="184"/>
       <c r="B59" s="122">
         <v>419</v>
       </c>
@@ -14318,7 +14324,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="182"/>
+      <c r="A60" s="184"/>
       <c r="B60" s="160">
         <v>420</v>
       </c>
@@ -14342,7 +14348,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="182"/>
+      <c r="A61" s="184"/>
       <c r="B61" s="160">
         <v>421</v>
       </c>
@@ -14366,7 +14372,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="182"/>
+      <c r="A62" s="184"/>
       <c r="B62" s="160">
         <v>422</v>
       </c>
@@ -14390,7 +14396,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="182"/>
+      <c r="A63" s="184"/>
       <c r="B63" s="160">
         <v>423</v>
       </c>
@@ -14414,7 +14420,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="182"/>
+      <c r="A64" s="184"/>
       <c r="B64" s="160">
         <v>424</v>
       </c>
@@ -14438,7 +14444,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="182"/>
+      <c r="A65" s="184"/>
       <c r="B65" s="160">
         <v>425</v>
       </c>
@@ -14462,7 +14468,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="182"/>
+      <c r="A66" s="184"/>
       <c r="B66" s="160">
         <v>426</v>
       </c>
@@ -14486,7 +14492,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="182"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="160">
         <v>427</v>
       </c>
@@ -14510,7 +14516,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="182"/>
+      <c r="A68" s="184"/>
       <c r="B68" s="160">
         <v>428</v>
       </c>
@@ -14534,7 +14540,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="182"/>
+      <c r="A69" s="184"/>
       <c r="B69" s="160">
         <v>429</v>
       </c>
@@ -14558,7 +14564,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="182"/>
+      <c r="A70" s="184"/>
       <c r="B70" s="160">
         <v>430</v>
       </c>
@@ -14582,7 +14588,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="182"/>
+      <c r="A71" s="184"/>
       <c r="B71" s="160">
         <v>431</v>
       </c>
@@ -14606,7 +14612,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="182"/>
+      <c r="A72" s="184"/>
       <c r="B72" s="160">
         <v>432</v>
       </c>
@@ -14630,7 +14636,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="182"/>
+      <c r="A73" s="184"/>
       <c r="B73" s="160">
         <v>433</v>
       </c>
@@ -14654,7 +14660,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="182"/>
+      <c r="A74" s="184"/>
       <c r="B74" s="160">
         <v>434</v>
       </c>
@@ -14678,7 +14684,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="182"/>
+      <c r="A75" s="184"/>
       <c r="B75" s="160">
         <v>435</v>
       </c>
@@ -14702,7 +14708,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="182"/>
+      <c r="A76" s="184"/>
       <c r="B76" s="160">
         <v>436</v>
       </c>
@@ -14726,7 +14732,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="182"/>
+      <c r="A77" s="184"/>
       <c r="B77" s="160">
         <v>437</v>
       </c>
@@ -14750,7 +14756,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="182"/>
+      <c r="A78" s="184"/>
       <c r="B78" s="160">
         <v>438</v>
       </c>
@@ -14774,7 +14780,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="182"/>
+      <c r="A79" s="184"/>
       <c r="B79" s="160">
         <v>439</v>
       </c>
@@ -14798,7 +14804,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="182"/>
+      <c r="A80" s="184"/>
       <c r="B80" s="160">
         <v>440</v>
       </c>
@@ -14822,7 +14828,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="182"/>
+      <c r="A81" s="184"/>
       <c r="B81" s="160">
         <v>441</v>
       </c>
@@ -14846,7 +14852,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="182"/>
+      <c r="A82" s="184"/>
       <c r="B82" s="160">
         <v>442</v>
       </c>
@@ -14870,7 +14876,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="182"/>
+      <c r="A83" s="184"/>
       <c r="B83" s="160">
         <v>443</v>
       </c>
@@ -14894,7 +14900,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="182"/>
+      <c r="A84" s="184"/>
       <c r="B84" s="160">
         <v>444</v>
       </c>
@@ -14918,7 +14924,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="182"/>
+      <c r="A85" s="184"/>
       <c r="B85" s="160">
         <v>445</v>
       </c>
@@ -14942,7 +14948,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="182"/>
+      <c r="A86" s="184"/>
       <c r="B86" s="160">
         <v>446</v>
       </c>
@@ -14966,7 +14972,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="182"/>
+      <c r="A87" s="184"/>
       <c r="B87" s="160">
         <v>447</v>
       </c>
@@ -14990,7 +14996,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="182"/>
+      <c r="A88" s="184"/>
       <c r="B88" s="160">
         <v>448</v>
       </c>
@@ -15014,7 +15020,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="182"/>
+      <c r="A89" s="184"/>
       <c r="B89" s="122">
         <v>449</v>
       </c>
@@ -15038,7 +15044,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="182"/>
+      <c r="A90" s="184"/>
       <c r="B90" s="122">
         <v>450</v>
       </c>
@@ -15060,7 +15066,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="182"/>
+      <c r="A91" s="184"/>
       <c r="B91" s="160">
         <v>451</v>
       </c>
@@ -15082,7 +15088,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="182"/>
+      <c r="A92" s="184"/>
       <c r="B92" s="122">
         <v>452</v>
       </c>
@@ -15106,7 +15112,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="182"/>
+      <c r="A93" s="184"/>
       <c r="B93" s="122">
         <v>453</v>
       </c>
@@ -15130,7 +15136,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="182"/>
+      <c r="A94" s="184"/>
       <c r="B94" s="122">
         <v>454</v>
       </c>
@@ -15154,7 +15160,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="182"/>
+      <c r="A95" s="184"/>
       <c r="B95" s="122">
         <v>455</v>
       </c>
@@ -15176,7 +15182,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="182"/>
+      <c r="A96" s="184"/>
       <c r="B96" s="122">
         <v>456</v>
       </c>
@@ -15200,7 +15206,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="182"/>
+      <c r="A97" s="184"/>
       <c r="B97" s="122">
         <v>457</v>
       </c>
@@ -15222,7 +15228,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="182"/>
+      <c r="A98" s="184"/>
       <c r="B98" s="122">
         <v>458</v>
       </c>
@@ -15244,7 +15250,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="182"/>
+      <c r="A99" s="184"/>
       <c r="B99" s="122">
         <v>459</v>
       </c>
@@ -15266,7 +15272,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="182"/>
+      <c r="A100" s="184"/>
       <c r="B100" s="122">
         <v>460</v>
       </c>
@@ -15288,7 +15294,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="182"/>
+      <c r="A101" s="184"/>
       <c r="B101" s="122">
         <v>461</v>
       </c>
@@ -15310,7 +15316,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="182"/>
+      <c r="A102" s="184"/>
       <c r="B102" s="122">
         <v>462</v>
       </c>
@@ -15330,7 +15336,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="182"/>
+      <c r="A103" s="184"/>
       <c r="B103" s="122">
         <v>463</v>
       </c>
@@ -15350,7 +15356,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="182"/>
+      <c r="A104" s="184"/>
       <c r="B104" s="122">
         <v>464</v>
       </c>
@@ -15372,7 +15378,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="182"/>
+      <c r="A105" s="184"/>
       <c r="B105" s="22">
         <v>465</v>
       </c>
@@ -15392,7 +15398,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="182"/>
+      <c r="A106" s="184"/>
       <c r="B106" s="22">
         <v>466</v>
       </c>
@@ -15412,7 +15418,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="182"/>
+      <c r="A107" s="184"/>
       <c r="B107" s="22">
         <v>467</v>
       </c>
@@ -15432,7 +15438,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="182"/>
+      <c r="A108" s="184"/>
       <c r="B108" s="22">
         <v>468</v>
       </c>
@@ -15452,7 +15458,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="182"/>
+      <c r="A109" s="184"/>
       <c r="B109" s="22">
         <v>469</v>
       </c>
@@ -15472,7 +15478,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="182"/>
+      <c r="A110" s="184"/>
       <c r="B110" s="22">
         <v>470</v>
       </c>
@@ -15488,7 +15494,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="182"/>
+      <c r="A111" s="184"/>
       <c r="B111" s="22">
         <v>471</v>
       </c>
@@ -15504,7 +15510,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="182"/>
+      <c r="A112" s="184"/>
       <c r="B112" s="22">
         <v>472</v>
       </c>
@@ -15520,7 +15526,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="182"/>
+      <c r="A113" s="184"/>
       <c r="B113" s="22">
         <v>473</v>
       </c>
@@ -15536,7 +15542,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="182"/>
+      <c r="A114" s="184"/>
       <c r="B114" s="140">
         <v>473</v>
       </c>
@@ -15554,7 +15560,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="182"/>
+      <c r="A115" s="184"/>
       <c r="B115" s="10">
         <v>474</v>
       </c>
@@ -15564,7 +15570,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="182"/>
+      <c r="A116" s="184"/>
       <c r="B116" s="140">
         <v>475</v>
       </c>
@@ -15578,7 +15584,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="182"/>
+      <c r="A117" s="184"/>
       <c r="B117" s="168">
         <v>476</v>
       </c>
@@ -15594,7 +15600,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="183"/>
+      <c r="A118" s="185"/>
       <c r="B118" s="122"/>
       <c r="C118" s="116"/>
       <c r="D118" s="116"/>
@@ -15603,7 +15609,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="181" t="s">
+      <c r="A119" s="183" t="s">
         <v>186</v>
       </c>
       <c r="B119" s="162">
@@ -15627,7 +15633,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="182"/>
+      <c r="A120" s="184"/>
       <c r="B120" s="116">
         <v>502</v>
       </c>
@@ -15649,7 +15655,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="182"/>
+      <c r="A121" s="184"/>
       <c r="B121" s="116">
         <v>503</v>
       </c>
@@ -15671,7 +15677,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="182"/>
+      <c r="A122" s="184"/>
       <c r="B122" s="116">
         <v>504</v>
       </c>
@@ -15693,7 +15699,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="182"/>
+      <c r="A123" s="184"/>
       <c r="B123" s="116">
         <v>505</v>
       </c>
@@ -15715,7 +15721,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="182"/>
+      <c r="A124" s="184"/>
       <c r="B124" s="162">
         <v>506</v>
       </c>
@@ -15737,7 +15743,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="182"/>
+      <c r="A125" s="184"/>
       <c r="B125" s="116">
         <v>507</v>
       </c>
@@ -15759,7 +15765,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="183"/>
+      <c r="A126" s="185"/>
       <c r="B126" s="116"/>
       <c r="C126" s="116"/>
       <c r="D126" s="116"/>
@@ -15769,7 +15775,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="181" t="s">
+      <c r="A127" s="183" t="s">
         <v>68</v>
       </c>
       <c r="B127" s="116">
@@ -15793,7 +15799,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="182"/>
+      <c r="A128" s="184"/>
       <c r="B128" s="116">
         <v>602</v>
       </c>
@@ -15815,7 +15821,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="182"/>
+      <c r="A129" s="184"/>
       <c r="B129" s="116">
         <v>603</v>
       </c>
@@ -15837,7 +15843,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="182"/>
+      <c r="A130" s="184"/>
       <c r="B130" s="116">
         <v>604</v>
       </c>
@@ -15859,7 +15865,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="182"/>
+      <c r="A131" s="184"/>
       <c r="B131" s="116">
         <v>605</v>
       </c>
@@ -15881,7 +15887,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="182"/>
+      <c r="A132" s="184"/>
       <c r="B132" s="116">
         <v>606</v>
       </c>
@@ -15903,7 +15909,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="182"/>
+      <c r="A133" s="184"/>
       <c r="B133" s="116">
         <v>607</v>
       </c>
@@ -15925,7 +15931,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="182"/>
+      <c r="A134" s="184"/>
       <c r="B134" s="116">
         <v>608</v>
       </c>
@@ -15947,7 +15953,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="182"/>
+      <c r="A135" s="184"/>
       <c r="B135" s="116">
         <v>609</v>
       </c>
@@ -15969,7 +15975,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="182"/>
+      <c r="A136" s="184"/>
       <c r="B136" s="116">
         <v>610</v>
       </c>
@@ -15991,7 +15997,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="183"/>
+      <c r="A137" s="185"/>
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
       <c r="D137" s="116"/>
@@ -16001,7 +16007,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="181" t="s">
+      <c r="A138" s="183" t="s">
         <v>631</v>
       </c>
       <c r="B138" s="22">
@@ -16025,7 +16031,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="182"/>
+      <c r="A139" s="184"/>
       <c r="B139" s="22">
         <v>702</v>
       </c>
@@ -16047,7 +16053,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="182"/>
+      <c r="A140" s="184"/>
       <c r="B140" s="22">
         <v>703</v>
       </c>
@@ -16069,7 +16075,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="182"/>
+      <c r="A141" s="184"/>
       <c r="B141" s="22">
         <v>704</v>
       </c>
@@ -16091,7 +16097,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="183"/>
+      <c r="A142" s="185"/>
       <c r="B142" s="22"/>
       <c r="C142" s="116"/>
       <c r="D142" s="116"/>
@@ -16101,7 +16107,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="184" t="s">
+      <c r="A143" s="186" t="s">
         <v>207</v>
       </c>
       <c r="B143" s="22">
@@ -16123,7 +16129,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="184"/>
+      <c r="A144" s="186"/>
       <c r="B144" s="22">
         <v>802</v>
       </c>
@@ -16143,7 +16149,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="184"/>
+      <c r="A145" s="186"/>
       <c r="B145" s="22">
         <v>803</v>
       </c>
@@ -16163,7 +16169,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="184"/>
+      <c r="A146" s="186"/>
       <c r="B146" s="22"/>
       <c r="C146" s="116"/>
       <c r="D146" s="116"/>
@@ -16233,7 +16239,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="185" t="s">
+      <c r="A2" s="187" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="109">
@@ -16259,7 +16265,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="186"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="109">
         <v>2</v>
       </c>
@@ -16283,7 +16289,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="186"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="32">
         <v>3</v>
       </c>
@@ -16307,7 +16313,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="186"/>
+      <c r="A5" s="188"/>
       <c r="B5" s="109">
         <v>4</v>
       </c>
@@ -16331,7 +16337,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="186"/>
+      <c r="A6" s="188"/>
       <c r="B6" s="109">
         <v>5</v>
       </c>
@@ -16355,7 +16361,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="186"/>
+      <c r="A7" s="188"/>
       <c r="B7" s="109">
         <v>6</v>
       </c>
@@ -16379,7 +16385,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="186"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="109">
         <v>7</v>
       </c>
@@ -16403,7 +16409,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="186"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="109">
         <v>8</v>
       </c>
@@ -16427,7 +16433,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="186"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
@@ -16451,7 +16457,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="186"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -16475,7 +16481,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="186"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="31">
         <v>11</v>
       </c>
@@ -16499,7 +16505,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="186"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="108">
         <v>12</v>
       </c>
@@ -16523,7 +16529,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
+      <c r="A14" s="189"/>
       <c r="B14" s="104"/>
       <c r="C14" s="104">
         <v>2</v>
@@ -16537,7 +16543,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="183" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="29">
@@ -16563,7 +16569,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="182"/>
+      <c r="A16" s="184"/>
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -16587,7 +16593,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="182"/>
+      <c r="A17" s="184"/>
       <c r="B17" s="29">
         <v>15</v>
       </c>
@@ -16611,7 +16617,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="185" t="s">
+      <c r="A18" s="187" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="104">
@@ -16637,7 +16643,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="186"/>
+      <c r="A19" s="188"/>
       <c r="B19" s="104">
         <v>17</v>
       </c>
@@ -16659,7 +16665,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="186"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="109">
         <v>18</v>
       </c>
@@ -16679,7 +16685,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="186"/>
+      <c r="A21" s="188"/>
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -16703,7 +16709,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
+      <c r="A22" s="188"/>
       <c r="B22" s="22">
         <v>20</v>
       </c>
@@ -16727,7 +16733,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="186"/>
+      <c r="A23" s="188"/>
       <c r="B23" s="109">
         <v>21</v>
       </c>
@@ -16751,7 +16757,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="186"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="109">
         <v>22</v>
       </c>
@@ -16775,7 +16781,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="186"/>
+      <c r="A25" s="188"/>
       <c r="B25" s="109">
         <v>23</v>
       </c>
@@ -16799,7 +16805,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="186"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="109">
         <v>24</v>
       </c>
@@ -16823,7 +16829,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="186"/>
+      <c r="A27" s="188"/>
       <c r="B27" s="22">
         <v>25</v>
       </c>
@@ -16847,7 +16853,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="186"/>
+      <c r="A28" s="188"/>
       <c r="B28" s="22">
         <v>26</v>
       </c>
@@ -16871,7 +16877,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="186"/>
+      <c r="A29" s="188"/>
       <c r="B29" s="22">
         <v>27</v>
       </c>
@@ -16895,7 +16901,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="186"/>
+      <c r="A30" s="188"/>
       <c r="B30" s="22">
         <v>28</v>
       </c>
@@ -16919,7 +16925,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="186"/>
+      <c r="A31" s="188"/>
       <c r="B31" s="109">
         <v>29</v>
       </c>
@@ -16943,7 +16949,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="186"/>
+      <c r="A32" s="188"/>
       <c r="B32" s="109">
         <v>30</v>
       </c>
@@ -16967,7 +16973,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="186"/>
+      <c r="A33" s="188"/>
       <c r="B33" s="109">
         <v>31</v>
       </c>
@@ -16991,7 +16997,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="186"/>
+      <c r="A34" s="188"/>
       <c r="B34" s="109">
         <v>32</v>
       </c>
@@ -17015,7 +17021,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="186"/>
+      <c r="A35" s="188"/>
       <c r="B35" s="109">
         <v>33</v>
       </c>
@@ -17039,7 +17045,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="186"/>
+      <c r="A36" s="188"/>
       <c r="B36" s="109">
         <v>34</v>
       </c>
@@ -17063,7 +17069,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="186"/>
+      <c r="A37" s="188"/>
       <c r="B37" s="109">
         <v>35</v>
       </c>
@@ -17087,7 +17093,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="186"/>
+      <c r="A38" s="188"/>
       <c r="B38" s="109">
         <v>36</v>
       </c>
@@ -17111,7 +17117,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="186"/>
+      <c r="A39" s="188"/>
       <c r="B39" s="109">
         <v>37</v>
       </c>
@@ -17135,7 +17141,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="186"/>
+      <c r="A40" s="188"/>
       <c r="B40" s="109">
         <v>38</v>
       </c>
@@ -17159,7 +17165,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="186"/>
+      <c r="A41" s="188"/>
       <c r="B41" s="108">
         <v>39</v>
       </c>
@@ -17183,7 +17189,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="186"/>
+      <c r="A42" s="188"/>
       <c r="B42" s="109">
         <v>40</v>
       </c>
@@ -17207,7 +17213,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="186"/>
+      <c r="A43" s="188"/>
       <c r="B43" s="109">
         <v>41</v>
       </c>
@@ -17231,7 +17237,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="186"/>
+      <c r="A44" s="188"/>
       <c r="B44" s="108">
         <v>42</v>
       </c>
@@ -17255,7 +17261,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="186"/>
+      <c r="A45" s="188"/>
       <c r="B45" s="109">
         <v>43</v>
       </c>
@@ -17279,7 +17285,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="186"/>
+      <c r="A46" s="188"/>
       <c r="B46" s="108">
         <v>44</v>
       </c>
@@ -17303,7 +17309,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="186"/>
+      <c r="A47" s="188"/>
       <c r="B47" s="108">
         <v>45</v>
       </c>
@@ -17327,7 +17333,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="186"/>
+      <c r="A48" s="188"/>
       <c r="B48" s="32">
         <v>46</v>
       </c>
@@ -17351,7 +17357,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="186"/>
+      <c r="A49" s="188"/>
       <c r="B49" s="32">
         <v>47</v>
       </c>
@@ -17375,7 +17381,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="186"/>
+      <c r="A50" s="188"/>
       <c r="B50" s="32">
         <v>49</v>
       </c>
@@ -17399,7 +17405,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="186"/>
+      <c r="A51" s="188"/>
       <c r="B51" s="32">
         <v>50</v>
       </c>
@@ -17423,7 +17429,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="186"/>
+      <c r="A52" s="188"/>
       <c r="B52" s="108">
         <v>51</v>
       </c>
@@ -17447,7 +17453,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="186"/>
+      <c r="A53" s="188"/>
       <c r="B53" s="108">
         <v>52</v>
       </c>
@@ -17471,7 +17477,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="186"/>
+      <c r="A54" s="188"/>
       <c r="B54" s="108">
         <v>53</v>
       </c>
@@ -17495,7 +17501,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="186"/>
+      <c r="A55" s="188"/>
       <c r="B55" s="32">
         <v>54</v>
       </c>
@@ -17519,7 +17525,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="186"/>
+      <c r="A56" s="188"/>
       <c r="B56" s="34">
         <v>55</v>
       </c>
@@ -17543,7 +17549,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="186"/>
+      <c r="A57" s="188"/>
       <c r="B57" s="34">
         <v>56</v>
       </c>
@@ -17567,7 +17573,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="186"/>
+      <c r="A58" s="188"/>
       <c r="B58" s="49">
         <v>57</v>
       </c>
@@ -17591,7 +17597,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="186"/>
+      <c r="A59" s="188"/>
       <c r="B59" s="49">
         <v>58</v>
       </c>
@@ -17615,7 +17621,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="186"/>
+      <c r="A60" s="188"/>
       <c r="B60" s="22">
         <v>59</v>
       </c>
@@ -17639,7 +17645,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="186"/>
+      <c r="A61" s="188"/>
       <c r="B61" s="49">
         <v>60</v>
       </c>
@@ -17661,7 +17667,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="186"/>
+      <c r="A62" s="188"/>
       <c r="B62" s="49">
         <v>61</v>
       </c>
@@ -17683,7 +17689,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="186"/>
+      <c r="A63" s="188"/>
       <c r="B63" s="49">
         <v>62</v>
       </c>
@@ -17707,7 +17713,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="186"/>
+      <c r="A64" s="188"/>
       <c r="B64" s="34">
         <v>63</v>
       </c>
@@ -17731,7 +17737,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="186"/>
+      <c r="A65" s="188"/>
       <c r="B65" s="34">
         <v>64</v>
       </c>
@@ -17755,7 +17761,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="186"/>
+      <c r="A66" s="188"/>
       <c r="B66" s="103">
         <v>201</v>
       </c>
@@ -17777,7 +17783,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="186"/>
+      <c r="A67" s="188"/>
       <c r="B67" s="90"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17791,7 +17797,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="186"/>
+      <c r="A68" s="188"/>
       <c r="B68" s="90"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17803,7 +17809,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="186"/>
+      <c r="A69" s="188"/>
       <c r="B69" s="90"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17815,7 +17821,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="187"/>
+      <c r="A70" s="189"/>
       <c r="B70" s="90"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17827,7 +17833,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="185" t="s">
+      <c r="A71" s="187" t="s">
         <v>186</v>
       </c>
       <c r="B71" s="34">
@@ -17853,7 +17859,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="186"/>
+      <c r="A72" s="188"/>
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -17877,7 +17883,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="186"/>
+      <c r="A73" s="188"/>
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -17901,7 +17907,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="186"/>
+      <c r="A74" s="188"/>
       <c r="B74" s="39">
         <v>70</v>
       </c>
@@ -17925,7 +17931,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="186"/>
+      <c r="A75" s="188"/>
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -17949,7 +17955,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="186"/>
+      <c r="A76" s="188"/>
       <c r="B76" s="39">
         <v>72</v>
       </c>
@@ -17973,7 +17979,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="187"/>
+      <c r="A77" s="189"/>
       <c r="B77" s="39">
         <v>73</v>
       </c>
@@ -17985,7 +17991,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="185" t="s">
+      <c r="A78" s="187" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="39">
@@ -18011,7 +18017,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="186"/>
+      <c r="A79" s="188"/>
       <c r="B79" s="39">
         <v>75</v>
       </c>
@@ -18035,7 +18041,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="186"/>
+      <c r="A80" s="188"/>
       <c r="B80" s="39">
         <v>76</v>
       </c>
@@ -18059,7 +18065,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="186"/>
+      <c r="A81" s="188"/>
       <c r="B81" s="39">
         <v>77</v>
       </c>
@@ -18083,7 +18089,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="186"/>
+      <c r="A82" s="188"/>
       <c r="B82" s="39">
         <v>78</v>
       </c>
@@ -18107,7 +18113,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="186"/>
+      <c r="A83" s="188"/>
       <c r="B83" s="49">
         <v>79</v>
       </c>
@@ -18131,7 +18137,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="186"/>
+      <c r="A84" s="188"/>
       <c r="B84" s="49">
         <v>80</v>
       </c>
@@ -18155,7 +18161,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="187"/>
+      <c r="A85" s="189"/>
       <c r="B85" s="49">
         <v>81</v>
       </c>
@@ -18179,7 +18185,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="185" t="s">
+      <c r="A86" s="187" t="s">
         <v>205</v>
       </c>
       <c r="B86" s="76">
@@ -18205,7 +18211,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="186"/>
+      <c r="A87" s="188"/>
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -18225,7 +18231,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="186"/>
+      <c r="A88" s="188"/>
       <c r="B88" s="134">
         <v>84</v>
       </c>
@@ -18245,7 +18251,7 @@
       <c r="H88" s="137"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="186"/>
+      <c r="A89" s="188"/>
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -18265,7 +18271,7 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="186"/>
+      <c r="A90" s="188"/>
       <c r="B90" s="42">
         <v>86</v>
       </c>
@@ -18285,7 +18291,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="186"/>
+      <c r="A91" s="188"/>
       <c r="B91" s="42">
         <v>87</v>
       </c>
@@ -18305,7 +18311,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="186"/>
+      <c r="A92" s="188"/>
       <c r="B92" s="42">
         <v>88</v>
       </c>
@@ -18325,7 +18331,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="186"/>
+      <c r="A93" s="188"/>
       <c r="B93" s="42">
         <v>89</v>
       </c>
@@ -18345,7 +18351,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="186"/>
+      <c r="A94" s="188"/>
       <c r="B94" s="42">
         <v>90</v>
       </c>
@@ -18365,7 +18371,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="186"/>
+      <c r="A95" s="188"/>
       <c r="B95" s="42">
         <v>91</v>
       </c>
@@ -18385,7 +18391,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="186"/>
+      <c r="A96" s="188"/>
       <c r="B96" s="42">
         <v>92</v>
       </c>
@@ -18405,7 +18411,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="186"/>
+      <c r="A97" s="188"/>
       <c r="B97" s="42">
         <v>93</v>
       </c>
@@ -18425,7 +18431,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="186"/>
+      <c r="A98" s="188"/>
       <c r="B98" s="42">
         <v>94</v>
       </c>
@@ -18445,7 +18451,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="186"/>
+      <c r="A99" s="188"/>
       <c r="B99" s="42">
         <v>95</v>
       </c>
@@ -18465,7 +18471,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="186"/>
+      <c r="A100" s="188"/>
       <c r="B100" s="42">
         <v>96</v>
       </c>
@@ -18485,7 +18491,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="186"/>
+      <c r="A101" s="188"/>
       <c r="B101" s="42">
         <v>97</v>
       </c>
@@ -18505,7 +18511,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="186"/>
+      <c r="A102" s="188"/>
       <c r="B102" s="42">
         <v>98</v>
       </c>
@@ -18525,7 +18531,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="186"/>
+      <c r="A103" s="188"/>
       <c r="B103" s="42">
         <v>99</v>
       </c>
@@ -18545,7 +18551,7 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="187"/>
+      <c r="A104" s="189"/>
       <c r="B104" s="39"/>
       <c r="C104" s="31"/>
       <c r="D104" s="16"/>
@@ -18555,7 +18561,7 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="185" t="s">
+      <c r="A105" s="187" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="39">
@@ -18581,7 +18587,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="186"/>
+      <c r="A106" s="188"/>
       <c r="B106" s="42">
         <v>101</v>
       </c>
@@ -18605,7 +18611,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="186"/>
+      <c r="A107" s="188"/>
       <c r="B107" s="42">
         <v>102</v>
       </c>
@@ -18629,7 +18635,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="186"/>
+      <c r="A108" s="188"/>
       <c r="B108" s="42">
         <v>103</v>
       </c>
@@ -18653,7 +18659,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="185" t="s">
+      <c r="A109" s="187" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="42">
@@ -18679,7 +18685,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="186"/>
+      <c r="A110" s="188"/>
       <c r="B110" s="42">
         <v>105</v>
       </c>
@@ -18703,7 +18709,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="183"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="42">
         <v>106</v>
       </c>
@@ -18727,7 +18733,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="188" t="s">
+      <c r="A112" s="190" t="s">
         <v>72</v>
       </c>
       <c r="B112" s="42">
@@ -18753,7 +18759,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="188"/>
+      <c r="A113" s="190"/>
       <c r="B113" s="42">
         <v>108</v>
       </c>
@@ -18777,7 +18783,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="188"/>
+      <c r="A114" s="190"/>
       <c r="B114" s="42">
         <v>109</v>
       </c>
@@ -18801,7 +18807,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="188"/>
+      <c r="A115" s="190"/>
       <c r="B115" s="8">
         <v>110</v>
       </c>
@@ -18857,10 +18863,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G238" sqref="G238"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19169,13 +19176,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="205" t="s">
+      <c r="B17" s="191" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
+      <c r="C17" s="191"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19445,13 +19452,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="205" t="s">
+      <c r="B34" s="191" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19472,10 +19479,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="198" t="s">
+      <c r="G35" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="198"/>
+      <c r="H35" s="192"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19494,8 +19501,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
+      <c r="G36" s="196"/>
+      <c r="H36" s="196"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -19514,8 +19521,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
+      <c r="G37" s="196"/>
+      <c r="H37" s="196"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -19534,8 +19541,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="189"/>
-      <c r="H38" s="189"/>
+      <c r="G38" s="196"/>
+      <c r="H38" s="196"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -19554,8 +19561,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="206"/>
-      <c r="H39" s="206"/>
+      <c r="G39" s="214"/>
+      <c r="H39" s="214"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19574,8 +19581,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="206"/>
-      <c r="H40" s="206"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19594,10 +19601,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="207" t="s">
+      <c r="G41" s="215" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="208"/>
+      <c r="H41" s="216"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -19616,10 +19623,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="207" t="s">
+      <c r="G42" s="215" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="208"/>
+      <c r="H42" s="216"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -19638,10 +19645,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="207" t="s">
+      <c r="G43" s="215" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="208"/>
+      <c r="H43" s="216"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -19660,8 +19667,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="209"/>
-      <c r="H44" s="210"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="218"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -19682,10 +19689,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="207" t="s">
+      <c r="G45" s="215" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="208"/>
+      <c r="H45" s="216"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -19706,8 +19713,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="189"/>
-      <c r="H46" s="189"/>
+      <c r="G46" s="196"/>
+      <c r="H46" s="196"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -19728,8 +19735,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
+      <c r="G47" s="196"/>
+      <c r="H47" s="196"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -19750,10 +19757,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="189" t="s">
+      <c r="G48" s="196" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="189"/>
+      <c r="H48" s="196"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -19772,8 +19779,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="190"/>
-      <c r="H49" s="190"/>
+      <c r="G49" s="213"/>
+      <c r="H49" s="213"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19792,8 +19799,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="190"/>
-      <c r="H50" s="190"/>
+      <c r="G50" s="213"/>
+      <c r="H50" s="213"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19814,8 +19821,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="190"/>
-      <c r="H51" s="190"/>
+      <c r="G51" s="213"/>
+      <c r="H51" s="213"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19836,8 +19843,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="190"/>
-      <c r="H52" s="190"/>
+      <c r="G52" s="213"/>
+      <c r="H52" s="213"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19858,8 +19865,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="190"/>
-      <c r="H53" s="190"/>
+      <c r="G53" s="213"/>
+      <c r="H53" s="213"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19880,8 +19887,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="190"/>
-      <c r="H54" s="190"/>
+      <c r="G54" s="213"/>
+      <c r="H54" s="213"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19902,8 +19909,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="190"/>
-      <c r="H55" s="190"/>
+      <c r="G55" s="213"/>
+      <c r="H55" s="213"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19922,8 +19929,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190"/>
+      <c r="G56" s="213"/>
+      <c r="H56" s="213"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19942,8 +19949,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="190"/>
-      <c r="H57" s="190"/>
+      <c r="G57" s="213"/>
+      <c r="H57" s="213"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19962,8 +19969,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="190"/>
-      <c r="H58" s="190"/>
+      <c r="G58" s="213"/>
+      <c r="H58" s="213"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19984,8 +19991,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="190"/>
-      <c r="H59" s="190"/>
+      <c r="G59" s="213"/>
+      <c r="H59" s="213"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20096,13 +20103,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="205" t="s">
+      <c r="B70" s="191" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="205"/>
-      <c r="F70" s="205"/>
+      <c r="C70" s="191"/>
+      <c r="D70" s="191"/>
+      <c r="E70" s="191"/>
+      <c r="F70" s="191"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20123,10 +20130,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="212" t="s">
+      <c r="G71" s="219" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="212"/>
+      <c r="H71" s="219"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20147,10 +20154,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="211" t="s">
+      <c r="G72" s="197" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="189"/>
+      <c r="H72" s="196"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -20171,10 +20178,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="189" t="s">
+      <c r="G73" s="196" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="189"/>
+      <c r="H73" s="196"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -20195,8 +20202,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="189"/>
-      <c r="H74" s="189"/>
+      <c r="G74" s="196"/>
+      <c r="H74" s="196"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -20217,10 +20224,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="195" t="s">
+      <c r="G75" s="211" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="196"/>
+      <c r="H75" s="212"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -20229,7 +20236,7 @@
       <c r="B76" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="181" t="s">
+      <c r="C76" s="183" t="s">
         <v>761</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -20241,8 +20248,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="189"/>
-      <c r="H76" s="189"/>
+      <c r="G76" s="196"/>
+      <c r="H76" s="196"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -20251,7 +20258,7 @@
       <c r="B77" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="C77" s="182"/>
+      <c r="C77" s="184"/>
       <c r="D77" s="1" t="s">
         <v>712</v>
       </c>
@@ -20261,8 +20268,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="189"/>
-      <c r="H77" s="189"/>
+      <c r="G77" s="196"/>
+      <c r="H77" s="196"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -20271,7 +20278,7 @@
       <c r="B78" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C78" s="182"/>
+      <c r="C78" s="184"/>
       <c r="D78" s="1" t="s">
         <v>729</v>
       </c>
@@ -20281,8 +20288,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="195"/>
-      <c r="H78" s="196"/>
+      <c r="G78" s="211"/>
+      <c r="H78" s="212"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -20291,7 +20298,7 @@
       <c r="B79" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C79" s="182"/>
+      <c r="C79" s="184"/>
       <c r="D79" s="1" t="s">
         <v>716</v>
       </c>
@@ -20301,8 +20308,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="189"/>
-      <c r="H79" s="189"/>
+      <c r="G79" s="196"/>
+      <c r="H79" s="196"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -20311,7 +20318,7 @@
       <c r="B80" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C80" s="182"/>
+      <c r="C80" s="184"/>
       <c r="D80" s="1" t="s">
         <v>719</v>
       </c>
@@ -20321,8 +20328,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="189"/>
-      <c r="H80" s="189"/>
+      <c r="G80" s="196"/>
+      <c r="H80" s="196"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -20331,7 +20338,7 @@
       <c r="B81" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="182"/>
+      <c r="C81" s="184"/>
       <c r="D81" s="1" t="s">
         <v>720</v>
       </c>
@@ -20341,8 +20348,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="189"/>
-      <c r="H81" s="189"/>
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -20351,7 +20358,7 @@
       <c r="B82" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="C82" s="182"/>
+      <c r="C82" s="184"/>
       <c r="D82" s="1" t="s">
         <v>722</v>
       </c>
@@ -20361,8 +20368,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="189"/>
-      <c r="H82" s="189"/>
+      <c r="G82" s="196"/>
+      <c r="H82" s="196"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -20371,7 +20378,7 @@
       <c r="B83" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="C83" s="182"/>
+      <c r="C83" s="184"/>
       <c r="D83" s="1" t="s">
         <v>724</v>
       </c>
@@ -20381,8 +20388,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="189"/>
-      <c r="H83" s="189"/>
+      <c r="G83" s="196"/>
+      <c r="H83" s="196"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -20391,7 +20398,7 @@
       <c r="B84" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="C84" s="182"/>
+      <c r="C84" s="184"/>
       <c r="D84" s="1" t="s">
         <v>727</v>
       </c>
@@ -20401,8 +20408,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="189"/>
-      <c r="H84" s="189"/>
+      <c r="G84" s="196"/>
+      <c r="H84" s="196"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -20411,7 +20418,7 @@
       <c r="B85" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="182"/>
+      <c r="C85" s="184"/>
       <c r="D85" s="1" t="s">
         <v>734</v>
       </c>
@@ -20421,8 +20428,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="189"/>
-      <c r="H85" s="189"/>
+      <c r="G85" s="196"/>
+      <c r="H85" s="196"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -20431,7 +20438,7 @@
       <c r="B86" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C86" s="182"/>
+      <c r="C86" s="184"/>
       <c r="D86" s="1" t="s">
         <v>735</v>
       </c>
@@ -20441,8 +20448,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="189"/>
-      <c r="H86" s="189"/>
+      <c r="G86" s="196"/>
+      <c r="H86" s="196"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -20451,7 +20458,7 @@
       <c r="B87" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C87" s="182"/>
+      <c r="C87" s="184"/>
       <c r="D87" s="1" t="s">
         <v>736</v>
       </c>
@@ -20461,8 +20468,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="189"/>
-      <c r="H87" s="189"/>
+      <c r="G87" s="196"/>
+      <c r="H87" s="196"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -20471,7 +20478,7 @@
       <c r="B88" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C88" s="182"/>
+      <c r="C88" s="184"/>
       <c r="D88" s="1" t="s">
         <v>737</v>
       </c>
@@ -20481,8 +20488,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="189"/>
-      <c r="H88" s="189"/>
+      <c r="G88" s="196"/>
+      <c r="H88" s="196"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -20491,7 +20498,7 @@
       <c r="B89" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C89" s="182"/>
+      <c r="C89" s="184"/>
       <c r="D89" s="1" t="s">
         <v>733</v>
       </c>
@@ -20501,8 +20508,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="189"/>
-      <c r="H89" s="189"/>
+      <c r="G89" s="196"/>
+      <c r="H89" s="196"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -20511,7 +20518,7 @@
       <c r="B90" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C90" s="182"/>
+      <c r="C90" s="184"/>
       <c r="D90" s="4" t="s">
         <v>739</v>
       </c>
@@ -20521,8 +20528,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="189"/>
-      <c r="H90" s="189"/>
+      <c r="G90" s="196"/>
+      <c r="H90" s="196"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -20531,7 +20538,7 @@
       <c r="B91" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C91" s="182"/>
+      <c r="C91" s="184"/>
       <c r="D91" s="4" t="s">
         <v>739</v>
       </c>
@@ -20541,8 +20548,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="189"/>
-      <c r="H91" s="189"/>
+      <c r="G91" s="196"/>
+      <c r="H91" s="196"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -20551,7 +20558,7 @@
       <c r="B92" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C92" s="182"/>
+      <c r="C92" s="184"/>
       <c r="D92" s="4" t="s">
         <v>739</v>
       </c>
@@ -20561,8 +20568,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="189"/>
-      <c r="H92" s="189"/>
+      <c r="G92" s="196"/>
+      <c r="H92" s="196"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -20571,7 +20578,7 @@
       <c r="B93" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C93" s="183"/>
+      <c r="C93" s="185"/>
       <c r="D93" s="4" t="s">
         <v>739</v>
       </c>
@@ -20581,8 +20588,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="189"/>
-      <c r="H93" s="189"/>
+      <c r="G93" s="196"/>
+      <c r="H93" s="196"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -20601,8 +20608,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="191"/>
-      <c r="H94" s="192"/>
+      <c r="G94" s="198"/>
+      <c r="H94" s="199"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -20621,8 +20628,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="191"/>
-      <c r="H95" s="192"/>
+      <c r="G95" s="198"/>
+      <c r="H95" s="199"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -20641,8 +20648,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="191"/>
-      <c r="H96" s="192"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="199"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -20663,8 +20670,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="191"/>
-      <c r="H97" s="192"/>
+      <c r="G97" s="198"/>
+      <c r="H97" s="199"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -20685,8 +20692,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="190"/>
-      <c r="H98" s="190"/>
+      <c r="G98" s="213"/>
+      <c r="H98" s="213"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20707,10 +20714,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="189" t="s">
+      <c r="G99" s="196" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="189"/>
+      <c r="H99" s="196"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -20731,10 +20738,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="189" t="s">
+      <c r="G100" s="196" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="189"/>
+      <c r="H100" s="196"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -20755,10 +20762,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="189" t="s">
+      <c r="G101" s="196" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="189"/>
+      <c r="H101" s="196"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -20777,8 +20784,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="189"/>
-      <c r="H102" s="189"/>
+      <c r="G102" s="196"/>
+      <c r="H102" s="196"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -20797,8 +20804,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="189"/>
-      <c r="H103" s="189"/>
+      <c r="G103" s="196"/>
+      <c r="H103" s="196"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -20807,7 +20814,7 @@
       <c r="B104" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C104" s="184" t="s">
+      <c r="C104" s="186" t="s">
         <v>516</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -20819,8 +20826,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="189"/>
-      <c r="H104" s="189"/>
+      <c r="G104" s="196"/>
+      <c r="H104" s="196"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -20829,7 +20836,7 @@
       <c r="B105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="184"/>
+      <c r="C105" s="186"/>
       <c r="D105" s="20" t="s">
         <v>766</v>
       </c>
@@ -20839,8 +20846,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="189"/>
-      <c r="H105" s="189"/>
+      <c r="G105" s="196"/>
+      <c r="H105" s="196"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -20849,7 +20856,7 @@
       <c r="B106" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="184"/>
+      <c r="C106" s="186"/>
       <c r="D106" s="20" t="s">
         <v>767</v>
       </c>
@@ -20859,8 +20866,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="189"/>
-      <c r="H106" s="189"/>
+      <c r="G106" s="196"/>
+      <c r="H106" s="196"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -20869,7 +20876,7 @@
       <c r="B107" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="184"/>
+      <c r="C107" s="186"/>
       <c r="D107" s="20" t="s">
         <v>768</v>
       </c>
@@ -20879,8 +20886,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="189"/>
-      <c r="H107" s="189"/>
+      <c r="G107" s="196"/>
+      <c r="H107" s="196"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -20901,17 +20908,17 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="189"/>
-      <c r="H108" s="189"/>
+      <c r="G108" s="196"/>
+      <c r="H108" s="196"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
         <v>38</v>
       </c>
-      <c r="B109" s="184" t="s">
+      <c r="B109" s="186" t="s">
         <v>786</v>
       </c>
-      <c r="C109" s="184" t="s">
+      <c r="C109" s="186" t="s">
         <v>787</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -20923,17 +20930,17 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="199" t="s">
+      <c r="G109" s="221" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="200"/>
+      <c r="H109" s="222"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
         <v>39</v>
       </c>
-      <c r="B110" s="184"/>
-      <c r="C110" s="184"/>
+      <c r="B110" s="186"/>
+      <c r="C110" s="186"/>
       <c r="D110" s="33" t="s">
         <v>774</v>
       </c>
@@ -20943,15 +20950,15 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="201"/>
-      <c r="H110" s="202"/>
+      <c r="G110" s="223"/>
+      <c r="H110" s="224"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
         <v>40</v>
       </c>
-      <c r="B111" s="184"/>
-      <c r="C111" s="184"/>
+      <c r="B111" s="186"/>
+      <c r="C111" s="186"/>
       <c r="D111" s="33" t="s">
         <v>775</v>
       </c>
@@ -20961,15 +20968,15 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="201"/>
-      <c r="H111" s="202"/>
+      <c r="G111" s="223"/>
+      <c r="H111" s="224"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
         <v>41</v>
       </c>
-      <c r="B112" s="184"/>
-      <c r="C112" s="184"/>
+      <c r="B112" s="186"/>
+      <c r="C112" s="186"/>
       <c r="D112" s="33" t="s">
         <v>776</v>
       </c>
@@ -20979,15 +20986,15 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="201"/>
-      <c r="H112" s="202"/>
+      <c r="G112" s="223"/>
+      <c r="H112" s="224"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
         <v>42</v>
       </c>
-      <c r="B113" s="184"/>
-      <c r="C113" s="184"/>
+      <c r="B113" s="186"/>
+      <c r="C113" s="186"/>
       <c r="D113" s="33" t="s">
         <v>784</v>
       </c>
@@ -20997,15 +21004,15 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="201"/>
-      <c r="H113" s="202"/>
+      <c r="G113" s="223"/>
+      <c r="H113" s="224"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
         <v>43</v>
       </c>
-      <c r="B114" s="184"/>
-      <c r="C114" s="184"/>
+      <c r="B114" s="186"/>
+      <c r="C114" s="186"/>
       <c r="D114" s="33" t="s">
         <v>777</v>
       </c>
@@ -21015,15 +21022,15 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="201"/>
-      <c r="H114" s="202"/>
+      <c r="G114" s="223"/>
+      <c r="H114" s="224"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
         <v>44</v>
       </c>
-      <c r="B115" s="184"/>
-      <c r="C115" s="184"/>
+      <c r="B115" s="186"/>
+      <c r="C115" s="186"/>
       <c r="D115" s="33" t="s">
         <v>778</v>
       </c>
@@ -21033,15 +21040,15 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="201"/>
-      <c r="H115" s="202"/>
+      <c r="G115" s="223"/>
+      <c r="H115" s="224"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
         <v>45</v>
       </c>
-      <c r="B116" s="184"/>
-      <c r="C116" s="184"/>
+      <c r="B116" s="186"/>
+      <c r="C116" s="186"/>
       <c r="D116" s="33" t="s">
         <v>779</v>
       </c>
@@ -21051,15 +21058,15 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="201"/>
-      <c r="H116" s="202"/>
+      <c r="G116" s="223"/>
+      <c r="H116" s="224"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
         <v>46</v>
       </c>
-      <c r="B117" s="184"/>
-      <c r="C117" s="184"/>
+      <c r="B117" s="186"/>
+      <c r="C117" s="186"/>
       <c r="D117" s="33" t="s">
         <v>780</v>
       </c>
@@ -21069,15 +21076,15 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="201"/>
-      <c r="H117" s="202"/>
+      <c r="G117" s="223"/>
+      <c r="H117" s="224"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
         <v>47</v>
       </c>
-      <c r="B118" s="184"/>
-      <c r="C118" s="184"/>
+      <c r="B118" s="186"/>
+      <c r="C118" s="186"/>
       <c r="D118" s="33" t="s">
         <v>781</v>
       </c>
@@ -21087,15 +21094,15 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="201"/>
-      <c r="H118" s="202"/>
+      <c r="G118" s="223"/>
+      <c r="H118" s="224"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
         <v>48</v>
       </c>
-      <c r="B119" s="184"/>
-      <c r="C119" s="184"/>
+      <c r="B119" s="186"/>
+      <c r="C119" s="186"/>
       <c r="D119" s="33" t="s">
         <v>782</v>
       </c>
@@ -21105,15 +21112,15 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="201"/>
-      <c r="H119" s="202"/>
+      <c r="G119" s="223"/>
+      <c r="H119" s="224"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
         <v>49</v>
       </c>
-      <c r="B120" s="184"/>
-      <c r="C120" s="184"/>
+      <c r="B120" s="186"/>
+      <c r="C120" s="186"/>
       <c r="D120" s="33" t="s">
         <v>783</v>
       </c>
@@ -21123,15 +21130,15 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="201"/>
-      <c r="H120" s="202"/>
+      <c r="G120" s="223"/>
+      <c r="H120" s="224"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
         <v>50</v>
       </c>
-      <c r="B121" s="184"/>
-      <c r="C121" s="184"/>
+      <c r="B121" s="186"/>
+      <c r="C121" s="186"/>
       <c r="D121" s="33" t="s">
         <v>785</v>
       </c>
@@ -21141,8 +21148,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="203"/>
-      <c r="H121" s="204"/>
+      <c r="G121" s="225"/>
+      <c r="H121" s="226"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21278,13 +21285,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="205" t="s">
+      <c r="B135" s="191" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="205"/>
-      <c r="D135" s="205"/>
-      <c r="E135" s="205"/>
-      <c r="F135" s="205"/>
+      <c r="C135" s="191"/>
+      <c r="D135" s="191"/>
+      <c r="E135" s="191"/>
+      <c r="F135" s="191"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21305,10 +21312,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="198" t="s">
+      <c r="G136" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="198"/>
+      <c r="H136" s="192"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -21327,8 +21334,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="191"/>
-      <c r="H137" s="192"/>
+      <c r="G137" s="198"/>
+      <c r="H137" s="199"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -21349,10 +21356,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="211" t="s">
+      <c r="G138" s="197" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="189"/>
+      <c r="H138" s="196"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -21373,8 +21380,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="189"/>
-      <c r="H139" s="189"/>
+      <c r="G139" s="196"/>
+      <c r="H139" s="196"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -21383,7 +21390,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="193" t="s">
+      <c r="C140" s="227" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -21395,10 +21402,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="224" t="s">
+      <c r="G140" s="207" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="225"/>
+      <c r="H140" s="208"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -21407,7 +21414,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="194"/>
+      <c r="C141" s="228"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -21417,8 +21424,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="226"/>
-      <c r="H141" s="227"/>
+      <c r="G141" s="209"/>
+      <c r="H141" s="210"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -21427,7 +21434,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="193" t="s">
+      <c r="C142" s="227" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21439,8 +21446,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="189"/>
-      <c r="H142" s="189"/>
+      <c r="G142" s="196"/>
+      <c r="H142" s="196"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -21449,7 +21456,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="194"/>
+      <c r="C143" s="228"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21459,8 +21466,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="189"/>
-      <c r="H143" s="189"/>
+      <c r="G143" s="196"/>
+      <c r="H143" s="196"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -21469,7 +21476,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="193" t="s">
+      <c r="C144" s="227" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21481,8 +21488,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="191"/>
-      <c r="H144" s="192"/>
+      <c r="G144" s="198"/>
+      <c r="H144" s="199"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -21491,7 +21498,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="194"/>
+      <c r="C145" s="228"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -21501,8 +21508,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="189"/>
-      <c r="H145" s="189"/>
+      <c r="G145" s="196"/>
+      <c r="H145" s="196"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -21511,7 +21518,7 @@
       <c r="B146" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C146" s="181" t="s">
+      <c r="C146" s="183" t="s">
         <v>634</v>
       </c>
       <c r="D146" s="36" t="s">
@@ -21523,8 +21530,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="189"/>
-      <c r="H146" s="189"/>
+      <c r="G146" s="196"/>
+      <c r="H146" s="196"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -21533,7 +21540,7 @@
       <c r="B147" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="182"/>
+      <c r="C147" s="184"/>
       <c r="D147" s="36" t="s">
         <v>809</v>
       </c>
@@ -21543,8 +21550,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="189"/>
-      <c r="H147" s="189"/>
+      <c r="G147" s="196"/>
+      <c r="H147" s="196"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -21553,7 +21560,7 @@
       <c r="B148" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="C148" s="183"/>
+      <c r="C148" s="185"/>
       <c r="D148" s="158" t="s">
         <v>810</v>
       </c>
@@ -21563,8 +21570,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="189"/>
-      <c r="H148" s="189"/>
+      <c r="G148" s="196"/>
+      <c r="H148" s="196"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -21585,10 +21592,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="189" t="s">
+      <c r="G149" s="196" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="189"/>
+      <c r="H149" s="196"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -21609,10 +21616,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="189" t="s">
+      <c r="G150" s="196" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="189"/>
+      <c r="H150" s="196"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -21633,10 +21640,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="189" t="s">
+      <c r="G151" s="196" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="189"/>
+      <c r="H151" s="196"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -21645,7 +21652,7 @@
       <c r="B152" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C152" s="181" t="s">
+      <c r="C152" s="183" t="s">
         <v>575</v>
       </c>
       <c r="D152" s="20" t="s">
@@ -21657,8 +21664,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="189"/>
-      <c r="H152" s="189"/>
+      <c r="G152" s="196"/>
+      <c r="H152" s="196"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -21667,7 +21674,7 @@
       <c r="B153" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C153" s="182"/>
+      <c r="C153" s="184"/>
       <c r="D153" s="20" t="s">
         <v>818</v>
       </c>
@@ -21677,8 +21684,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="189"/>
-      <c r="H153" s="189"/>
+      <c r="G153" s="196"/>
+      <c r="H153" s="196"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -21687,7 +21694,7 @@
       <c r="B154" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C154" s="182"/>
+      <c r="C154" s="184"/>
       <c r="D154" s="20" t="s">
         <v>819</v>
       </c>
@@ -21697,8 +21704,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="189"/>
-      <c r="H154" s="189"/>
+      <c r="G154" s="196"/>
+      <c r="H154" s="196"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -21707,7 +21714,7 @@
       <c r="B155" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C155" s="182"/>
+      <c r="C155" s="184"/>
       <c r="D155" s="20" t="s">
         <v>820</v>
       </c>
@@ -21717,8 +21724,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="189"/>
-      <c r="H155" s="189"/>
+      <c r="G155" s="196"/>
+      <c r="H155" s="196"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -21727,7 +21734,7 @@
       <c r="B156" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C156" s="182"/>
+      <c r="C156" s="184"/>
       <c r="D156" s="20" t="s">
         <v>821</v>
       </c>
@@ -21737,8 +21744,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="189"/>
-      <c r="H156" s="189"/>
+      <c r="G156" s="196"/>
+      <c r="H156" s="196"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -21747,7 +21754,7 @@
       <c r="B157" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C157" s="182"/>
+      <c r="C157" s="184"/>
       <c r="D157" s="20" t="s">
         <v>822</v>
       </c>
@@ -21757,8 +21764,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="189"/>
-      <c r="H157" s="189"/>
+      <c r="G157" s="196"/>
+      <c r="H157" s="196"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -21767,7 +21774,7 @@
       <c r="B158" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C158" s="182"/>
+      <c r="C158" s="184"/>
       <c r="D158" s="20" t="s">
         <v>823</v>
       </c>
@@ -21777,8 +21784,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="189"/>
-      <c r="H158" s="189"/>
+      <c r="G158" s="196"/>
+      <c r="H158" s="196"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -21787,7 +21794,7 @@
       <c r="B159" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C159" s="182"/>
+      <c r="C159" s="184"/>
       <c r="D159" s="20" t="s">
         <v>824</v>
       </c>
@@ -21797,8 +21804,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="189"/>
-      <c r="H159" s="189"/>
+      <c r="G159" s="196"/>
+      <c r="H159" s="196"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -21807,7 +21814,7 @@
       <c r="B160" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C160" s="182"/>
+      <c r="C160" s="184"/>
       <c r="D160" s="20" t="s">
         <v>825</v>
       </c>
@@ -21817,8 +21824,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="189"/>
-      <c r="H160" s="189"/>
+      <c r="G160" s="196"/>
+      <c r="H160" s="196"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -21827,7 +21834,7 @@
       <c r="B161" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C161" s="182"/>
+      <c r="C161" s="184"/>
       <c r="D161" s="20" t="s">
         <v>826</v>
       </c>
@@ -21837,8 +21844,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="189"/>
-      <c r="H161" s="189"/>
+      <c r="G161" s="196"/>
+      <c r="H161" s="196"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -21847,7 +21854,7 @@
       <c r="B162" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C162" s="182"/>
+      <c r="C162" s="184"/>
       <c r="D162" s="20" t="s">
         <v>827</v>
       </c>
@@ -21857,8 +21864,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="189"/>
-      <c r="H162" s="189"/>
+      <c r="G162" s="196"/>
+      <c r="H162" s="196"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -21867,7 +21874,7 @@
       <c r="B163" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C163" s="182"/>
+      <c r="C163" s="184"/>
       <c r="D163" s="20" t="s">
         <v>828</v>
       </c>
@@ -21877,8 +21884,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="189"/>
-      <c r="H163" s="189"/>
+      <c r="G163" s="196"/>
+      <c r="H163" s="196"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -21887,7 +21894,7 @@
       <c r="B164" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C164" s="182"/>
+      <c r="C164" s="184"/>
       <c r="D164" s="20" t="s">
         <v>829</v>
       </c>
@@ -21897,8 +21904,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="189"/>
-      <c r="H164" s="189"/>
+      <c r="G164" s="196"/>
+      <c r="H164" s="196"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -21907,7 +21914,7 @@
       <c r="B165" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C165" s="182"/>
+      <c r="C165" s="184"/>
       <c r="D165" s="20" t="s">
         <v>830</v>
       </c>
@@ -21917,8 +21924,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="189"/>
-      <c r="H165" s="189"/>
+      <c r="G165" s="196"/>
+      <c r="H165" s="196"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -21927,7 +21934,7 @@
       <c r="B166" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C166" s="182"/>
+      <c r="C166" s="184"/>
       <c r="D166" s="20" t="s">
         <v>831</v>
       </c>
@@ -21937,8 +21944,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="189"/>
-      <c r="H166" s="189"/>
+      <c r="G166" s="196"/>
+      <c r="H166" s="196"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -21947,7 +21954,7 @@
       <c r="B167" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C167" s="182"/>
+      <c r="C167" s="184"/>
       <c r="D167" s="20" t="s">
         <v>832</v>
       </c>
@@ -21957,8 +21964,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="189"/>
-      <c r="H167" s="189"/>
+      <c r="G167" s="196"/>
+      <c r="H167" s="196"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -21967,7 +21974,7 @@
       <c r="B168" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C168" s="182"/>
+      <c r="C168" s="184"/>
       <c r="D168" s="20" t="s">
         <v>833</v>
       </c>
@@ -21977,8 +21984,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="189"/>
-      <c r="H168" s="189"/>
+      <c r="G168" s="196"/>
+      <c r="H168" s="196"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -21987,7 +21994,7 @@
       <c r="B169" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C169" s="182"/>
+      <c r="C169" s="184"/>
       <c r="D169" s="20" t="s">
         <v>834</v>
       </c>
@@ -21997,8 +22004,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="189"/>
-      <c r="H169" s="189"/>
+      <c r="G169" s="196"/>
+      <c r="H169" s="196"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -22007,7 +22014,7 @@
       <c r="B170" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C170" s="182"/>
+      <c r="C170" s="184"/>
       <c r="D170" s="20" t="s">
         <v>835</v>
       </c>
@@ -22017,8 +22024,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="189"/>
-      <c r="H170" s="189"/>
+      <c r="G170" s="196"/>
+      <c r="H170" s="196"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -22027,7 +22034,7 @@
       <c r="B171" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C171" s="182"/>
+      <c r="C171" s="184"/>
       <c r="D171" s="20" t="s">
         <v>836</v>
       </c>
@@ -22037,8 +22044,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="189"/>
-      <c r="H171" s="189"/>
+      <c r="G171" s="196"/>
+      <c r="H171" s="196"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -22047,7 +22054,7 @@
       <c r="B172" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C172" s="182"/>
+      <c r="C172" s="184"/>
       <c r="D172" s="20" t="s">
         <v>837</v>
       </c>
@@ -22057,8 +22064,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="189"/>
-      <c r="H172" s="189"/>
+      <c r="G172" s="196"/>
+      <c r="H172" s="196"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -22067,7 +22074,7 @@
       <c r="B173" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C173" s="182"/>
+      <c r="C173" s="184"/>
       <c r="D173" s="20" t="s">
         <v>838</v>
       </c>
@@ -22077,8 +22084,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="189"/>
-      <c r="H173" s="189"/>
+      <c r="G173" s="196"/>
+      <c r="H173" s="196"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -22087,7 +22094,7 @@
       <c r="B174" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C174" s="182"/>
+      <c r="C174" s="184"/>
       <c r="D174" s="20" t="s">
         <v>839</v>
       </c>
@@ -22097,8 +22104,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="189"/>
-      <c r="H174" s="189"/>
+      <c r="G174" s="196"/>
+      <c r="H174" s="196"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -22107,7 +22114,7 @@
       <c r="B175" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C175" s="183"/>
+      <c r="C175" s="185"/>
       <c r="D175" s="20" t="s">
         <v>840</v>
       </c>
@@ -22117,8 +22124,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="189"/>
-      <c r="H175" s="189"/>
+      <c r="G175" s="196"/>
+      <c r="H175" s="196"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -22127,7 +22134,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="213" t="s">
+      <c r="C176" s="200" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22139,10 +22146,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="216" t="s">
+      <c r="G176" s="203" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="217"/>
+      <c r="H176" s="204"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -22151,7 +22158,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="214"/>
+      <c r="C177" s="201"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -22161,8 +22168,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="218"/>
-      <c r="H177" s="219"/>
+      <c r="G177" s="205"/>
+      <c r="H177" s="206"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -22171,7 +22178,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="213" t="s">
+      <c r="C178" s="200" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22183,8 +22190,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="189"/>
-      <c r="H178" s="189"/>
+      <c r="G178" s="196"/>
+      <c r="H178" s="196"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -22193,7 +22200,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="214"/>
+      <c r="C179" s="201"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -22203,8 +22210,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="189"/>
-      <c r="H179" s="189"/>
+      <c r="G179" s="196"/>
+      <c r="H179" s="196"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -22213,7 +22220,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="213" t="s">
+      <c r="C180" s="200" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22225,8 +22232,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="189"/>
-      <c r="H180" s="189"/>
+      <c r="G180" s="196"/>
+      <c r="H180" s="196"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -22235,7 +22242,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="215"/>
+      <c r="C181" s="202"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -22245,8 +22252,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="189"/>
-      <c r="H181" s="189"/>
+      <c r="G181" s="196"/>
+      <c r="H181" s="196"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -22255,7 +22262,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="215"/>
+      <c r="C182" s="202"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -22265,8 +22272,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="189"/>
-      <c r="H182" s="189"/>
+      <c r="G182" s="196"/>
+      <c r="H182" s="196"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -22275,7 +22282,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="215"/>
+      <c r="C183" s="202"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -22285,8 +22292,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="189"/>
-      <c r="H183" s="189"/>
+      <c r="G183" s="196"/>
+      <c r="H183" s="196"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -22295,7 +22302,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="215"/>
+      <c r="C184" s="202"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -22305,8 +22312,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="189"/>
-      <c r="H184" s="189"/>
+      <c r="G184" s="196"/>
+      <c r="H184" s="196"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -22315,7 +22322,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="215"/>
+      <c r="C185" s="202"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -22325,8 +22332,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="189"/>
-      <c r="H185" s="189"/>
+      <c r="G185" s="196"/>
+      <c r="H185" s="196"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -22335,7 +22342,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="215"/>
+      <c r="C186" s="202"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -22345,8 +22352,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="189"/>
-      <c r="H186" s="189"/>
+      <c r="G186" s="196"/>
+      <c r="H186" s="196"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -22355,7 +22362,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="215"/>
+      <c r="C187" s="202"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -22365,8 +22372,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="189"/>
-      <c r="H187" s="189"/>
+      <c r="G187" s="196"/>
+      <c r="H187" s="196"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -22375,7 +22382,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="215"/>
+      <c r="C188" s="202"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -22385,8 +22392,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="189"/>
-      <c r="H188" s="189"/>
+      <c r="G188" s="196"/>
+      <c r="H188" s="196"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -22395,7 +22402,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="215"/>
+      <c r="C189" s="202"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -22405,8 +22412,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="189"/>
-      <c r="H189" s="189"/>
+      <c r="G189" s="196"/>
+      <c r="H189" s="196"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -22415,7 +22422,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="215"/>
+      <c r="C190" s="202"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -22425,8 +22432,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="189"/>
-      <c r="H190" s="189"/>
+      <c r="G190" s="196"/>
+      <c r="H190" s="196"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -22435,7 +22442,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="215"/>
+      <c r="C191" s="202"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -22445,8 +22452,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="189"/>
-      <c r="H191" s="189"/>
+      <c r="G191" s="196"/>
+      <c r="H191" s="196"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -22455,7 +22462,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="215"/>
+      <c r="C192" s="202"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -22465,8 +22472,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="189"/>
-      <c r="H192" s="189"/>
+      <c r="G192" s="196"/>
+      <c r="H192" s="196"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -22475,7 +22482,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="215"/>
+      <c r="C193" s="202"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -22485,8 +22492,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="189"/>
-      <c r="H193" s="189"/>
+      <c r="G193" s="196"/>
+      <c r="H193" s="196"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -22495,7 +22502,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="215"/>
+      <c r="C194" s="202"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -22505,8 +22512,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="189"/>
-      <c r="H194" s="189"/>
+      <c r="G194" s="196"/>
+      <c r="H194" s="196"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -22515,7 +22522,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="215"/>
+      <c r="C195" s="202"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -22525,8 +22532,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="189"/>
-      <c r="H195" s="189"/>
+      <c r="G195" s="196"/>
+      <c r="H195" s="196"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -22535,7 +22542,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="215"/>
+      <c r="C196" s="202"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -22545,8 +22552,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="189"/>
-      <c r="H196" s="189"/>
+      <c r="G196" s="196"/>
+      <c r="H196" s="196"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -22555,7 +22562,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="215"/>
+      <c r="C197" s="202"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -22565,8 +22572,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="189"/>
-      <c r="H197" s="189"/>
+      <c r="G197" s="196"/>
+      <c r="H197" s="196"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -22575,7 +22582,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="215"/>
+      <c r="C198" s="202"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -22585,8 +22592,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="189"/>
-      <c r="H198" s="189"/>
+      <c r="G198" s="196"/>
+      <c r="H198" s="196"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -22595,7 +22602,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="215"/>
+      <c r="C199" s="202"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -22605,8 +22612,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="189"/>
-      <c r="H199" s="189"/>
+      <c r="G199" s="196"/>
+      <c r="H199" s="196"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -22615,7 +22622,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="215"/>
+      <c r="C200" s="202"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -22625,8 +22632,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="189"/>
-      <c r="H200" s="189"/>
+      <c r="G200" s="196"/>
+      <c r="H200" s="196"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -22635,7 +22642,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="215"/>
+      <c r="C201" s="202"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -22645,8 +22652,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="189"/>
-      <c r="H201" s="189"/>
+      <c r="G201" s="196"/>
+      <c r="H201" s="196"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -22655,7 +22662,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="215"/>
+      <c r="C202" s="202"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -22665,8 +22672,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="189"/>
-      <c r="H202" s="189"/>
+      <c r="G202" s="196"/>
+      <c r="H202" s="196"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -22675,7 +22682,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="214"/>
+      <c r="C203" s="201"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -22685,8 +22692,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="189"/>
-      <c r="H203" s="189"/>
+      <c r="G203" s="196"/>
+      <c r="H203" s="196"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -22707,8 +22714,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="189"/>
-      <c r="H204" s="189"/>
+      <c r="G204" s="196"/>
+      <c r="H204" s="196"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -22727,10 +22734,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="189" t="s">
+      <c r="G205" s="196" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="189"/>
+      <c r="H205" s="196"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -22751,8 +22758,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="191"/>
-      <c r="H206" s="192"/>
+      <c r="G206" s="198"/>
+      <c r="H206" s="199"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -22773,8 +22780,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="191"/>
-      <c r="H207" s="192"/>
+      <c r="G207" s="198"/>
+      <c r="H207" s="199"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -22795,8 +22802,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="190"/>
-      <c r="H208" s="190"/>
+      <c r="G208" s="213"/>
+      <c r="H208" s="213"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22872,13 +22879,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="205" t="s">
+      <c r="B216" s="191" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="205"/>
-      <c r="D216" s="205"/>
-      <c r="E216" s="205"/>
-      <c r="F216" s="205"/>
+      <c r="C216" s="191"/>
+      <c r="D216" s="191"/>
+      <c r="E216" s="191"/>
+      <c r="F216" s="191"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -22899,12 +22906,12 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="198" t="s">
+      <c r="G217" s="192" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="198"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H217" s="192"/>
+    </row>
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
         <v>1</v>
       </c>
@@ -22919,19 +22926,19 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="211" t="s">
+      <c r="G218" s="197" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="189"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H218" s="196"/>
+    </row>
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
         <v>2</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C219" s="181" t="s">
+      <c r="C219" s="183" t="s">
         <v>516</v>
       </c>
       <c r="D219" s="20" t="s">
@@ -22943,17 +22950,17 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="211"/>
-      <c r="H219" s="189"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G219" s="197"/>
+      <c r="H219" s="196"/>
+    </row>
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
         <v>3</v>
       </c>
       <c r="B220" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C220" s="183"/>
+      <c r="C220" s="185"/>
       <c r="D220" s="178" t="s">
         <v>805</v>
       </c>
@@ -22963,17 +22970,17 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="189"/>
-      <c r="H220" s="189"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G220" s="196"/>
+      <c r="H220" s="196"/>
+    </row>
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
         <v>4</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C221" s="181" t="s">
+      <c r="C221" s="183" t="s">
         <v>516</v>
       </c>
       <c r="D221" s="161" t="s">
@@ -22985,17 +22992,17 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="189"/>
-      <c r="H221" s="189"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G221" s="196"/>
+      <c r="H221" s="196"/>
+    </row>
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C222" s="183"/>
+      <c r="C222" s="185"/>
       <c r="D222" s="161" t="s">
         <v>797</v>
       </c>
@@ -23005,10 +23012,10 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="189"/>
-      <c r="H222" s="189"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G222" s="196"/>
+      <c r="H222" s="196"/>
+    </row>
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
         <v>6</v>
       </c>
@@ -23021,16 +23028,14 @@
       <c r="D223" s="178" t="s">
         <v>813</v>
       </c>
-      <c r="E223" s="1" t="s">
-        <v>632</v>
-      </c>
+      <c r="E223" s="1"/>
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="189"/>
-      <c r="H223" s="189"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G223" s="196"/>
+      <c r="H223" s="196"/>
+    </row>
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
         <v>7</v>
       </c>
@@ -23043,15 +23048,13 @@
       <c r="D224" s="178" t="s">
         <v>814</v>
       </c>
-      <c r="E224" s="1" t="s">
-        <v>632</v>
-      </c>
+      <c r="E224" s="1"/>
       <c r="F224" s="179" t="s">
         <v>180</v>
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="177">
         <v>8</v>
       </c>
@@ -23064,9 +23067,7 @@
       <c r="D225" s="178" t="s">
         <v>816</v>
       </c>
-      <c r="E225" s="1" t="s">
-        <v>632</v>
-      </c>
+      <c r="E225" s="1"/>
       <c r="F225" s="179" t="s">
         <v>180</v>
       </c>
@@ -23079,14 +23080,14 @@
       <c r="B226" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C226" s="181" t="s">
-        <v>634</v>
+      <c r="C226" s="183" t="s">
+        <v>905</v>
       </c>
       <c r="D226" s="20" t="s">
         <v>850</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>493</v>
+        <v>904</v>
       </c>
       <c r="F226" s="179" t="s">
         <v>180</v>
@@ -23100,19 +23101,19 @@
       <c r="B227" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C227" s="183"/>
+      <c r="C227" s="185"/>
       <c r="D227" s="20" t="s">
         <v>851</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>493</v>
+        <v>904</v>
       </c>
       <c r="F227" s="179" t="s">
         <v>180</v>
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="177">
         <v>11</v>
       </c>
@@ -23144,15 +23145,13 @@
       <c r="D229" s="33" t="s">
         <v>781</v>
       </c>
-      <c r="E229" s="1" t="s">
-        <v>493</v>
-      </c>
+      <c r="E229" s="1"/>
       <c r="F229" s="179" t="s">
         <v>842</v>
       </c>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="177">
         <v>13</v>
       </c>
@@ -23173,14 +23172,14 @@
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="228" t="s">
+      <c r="B231" s="193" t="s">
         <v>899</v>
       </c>
-      <c r="C231" s="181" t="s">
+      <c r="C231" s="183" t="s">
         <v>900</v>
       </c>
       <c r="D231" s="33" t="s">
@@ -23194,12 +23193,12 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="229"/>
-      <c r="C232" s="182"/>
+      <c r="B232" s="194"/>
+      <c r="C232" s="184"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
       </c>
@@ -23211,12 +23210,12 @@
       </c>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="229"/>
-      <c r="C233" s="182"/>
+      <c r="B233" s="194"/>
+      <c r="C233" s="184"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
       </c>
@@ -23228,12 +23227,12 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="229"/>
-      <c r="C234" s="182"/>
+      <c r="B234" s="194"/>
+      <c r="C234" s="184"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
       </c>
@@ -23245,12 +23244,12 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="229"/>
-      <c r="C235" s="182"/>
+      <c r="B235" s="194"/>
+      <c r="C235" s="184"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
       </c>
@@ -23262,12 +23261,12 @@
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="229"/>
-      <c r="C236" s="182"/>
+      <c r="B236" s="194"/>
+      <c r="C236" s="184"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
       </c>
@@ -23279,12 +23278,12 @@
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="229"/>
-      <c r="C237" s="182"/>
+      <c r="B237" s="194"/>
+      <c r="C237" s="184"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
       </c>
@@ -23296,12 +23295,12 @@
       </c>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="229"/>
-      <c r="C238" s="182"/>
+      <c r="B238" s="194"/>
+      <c r="C238" s="184"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
       </c>
@@ -23313,12 +23312,12 @@
       </c>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="229"/>
-      <c r="C239" s="182"/>
+      <c r="B239" s="194"/>
+      <c r="C239" s="184"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
       </c>
@@ -23330,16 +23329,16 @@
       </c>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="229"/>
-      <c r="C240" s="182"/>
-      <c r="D240" s="231" t="s">
+      <c r="B240" s="194"/>
+      <c r="C240" s="184"/>
+      <c r="D240" s="181" t="s">
         <v>785</v>
       </c>
-      <c r="E240" s="232" t="s">
+      <c r="E240" s="182" t="s">
         <v>758</v>
       </c>
       <c r="F240" s="180" t="s">
@@ -23347,14 +23346,14 @@
       </c>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="228" t="s">
+      <c r="B241" s="193" t="s">
         <v>901</v>
       </c>
-      <c r="C241" s="181" t="s">
+      <c r="C241" s="183" t="s">
         <v>761</v>
       </c>
       <c r="D241" s="9" t="s">
@@ -23368,12 +23367,12 @@
       </c>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="229"/>
-      <c r="C242" s="182"/>
+      <c r="B242" s="194"/>
+      <c r="C242" s="184"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
       </c>
@@ -23385,12 +23384,12 @@
       </c>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="229"/>
-      <c r="C243" s="182"/>
+      <c r="B243" s="194"/>
+      <c r="C243" s="184"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
       </c>
@@ -23402,12 +23401,12 @@
       </c>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="229"/>
-      <c r="C244" s="182"/>
+      <c r="B244" s="194"/>
+      <c r="C244" s="184"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
       </c>
@@ -23419,12 +23418,12 @@
       </c>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="229"/>
-      <c r="C245" s="182"/>
+      <c r="B245" s="194"/>
+      <c r="C245" s="184"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
       </c>
@@ -23436,12 +23435,12 @@
       </c>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="229"/>
-      <c r="C246" s="182"/>
+      <c r="B246" s="194"/>
+      <c r="C246" s="184"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
       </c>
@@ -23453,12 +23452,12 @@
       </c>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="230"/>
-      <c r="C247" s="183"/>
+      <c r="B247" s="195"/>
+      <c r="C247" s="185"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
       </c>
@@ -23474,10 +23473,10 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="228" t="s">
+      <c r="B248" s="193" t="s">
         <v>903</v>
       </c>
-      <c r="C248" s="181" t="s">
+      <c r="C248" s="183" t="s">
         <v>902</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -23495,8 +23494,8 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="229"/>
-      <c r="C249" s="182"/>
+      <c r="B249" s="194"/>
+      <c r="C249" s="184"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
       </c>
@@ -23512,8 +23511,8 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="229"/>
-      <c r="C250" s="182"/>
+      <c r="B250" s="194"/>
+      <c r="C250" s="184"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
       </c>
@@ -23529,8 +23528,8 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="229"/>
-      <c r="C251" s="182"/>
+      <c r="B251" s="194"/>
+      <c r="C251" s="184"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
       </c>
@@ -23546,8 +23545,8 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="229"/>
-      <c r="C252" s="182"/>
+      <c r="B252" s="194"/>
+      <c r="C252" s="184"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
       </c>
@@ -23563,8 +23562,8 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="229"/>
-      <c r="C253" s="182"/>
+      <c r="B253" s="194"/>
+      <c r="C253" s="184"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
       </c>
@@ -23580,8 +23579,8 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="229"/>
-      <c r="C254" s="182"/>
+      <c r="B254" s="194"/>
+      <c r="C254" s="184"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
       </c>
@@ -23597,8 +23596,8 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="229"/>
-      <c r="C255" s="182"/>
+      <c r="B255" s="194"/>
+      <c r="C255" s="184"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
       </c>
@@ -23614,8 +23613,8 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="229"/>
-      <c r="C256" s="182"/>
+      <c r="B256" s="194"/>
+      <c r="C256" s="184"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
       </c>
@@ -23631,8 +23630,8 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="230"/>
-      <c r="C257" s="183"/>
+      <c r="B257" s="195"/>
+      <c r="C257" s="185"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
       </c>
@@ -23819,65 +23818,184 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="197" t="s">
+      <c r="A272" s="220" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="197"/>
-      <c r="C272" s="197"/>
-      <c r="D272" s="197"/>
+      <c r="B272" s="220"/>
+      <c r="C272" s="220"/>
+      <c r="D272" s="220"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="189" t="s">
+      <c r="B273" s="196" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="189"/>
-      <c r="D273" s="189"/>
+      <c r="C273" s="196"/>
+      <c r="D273" s="196"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="189" t="s">
+      <c r="B274" s="196" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="189"/>
-      <c r="D274" s="189"/>
+      <c r="C274" s="196"/>
+      <c r="D274" s="196"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="189" t="s">
+      <c r="B275" s="196" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="189"/>
-      <c r="D275" s="189"/>
+      <c r="C275" s="196"/>
+      <c r="D275" s="196"/>
     </row>
   </sheetData>
-  <autoFilter ref="A136:H208" xr:uid="{B2D14306-E546-44AD-B513-D3D752DFC72D}">
+  <autoFilter ref="A217:H257" xr:uid="{D7D30597-7982-4F4D-82CA-553A5BF656B8}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Wayne"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="C178:C179"/>
@@ -23902,137 +24020,23 @@
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -24295,37 +24299,37 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="220">
+      <c r="A4" s="229">
         <v>3</v>
       </c>
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="230" t="s">
         <v>461</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="222" t="s">
+      <c r="D4" s="231" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="221" t="s">
+      <c r="E4" s="230" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="223" t="s">
+      <c r="F4" s="232" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="220"/>
+      <c r="G4" s="229"/>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="220"/>
-      <c r="B5" s="221"/>
+      <c r="A5" s="229"/>
+      <c r="B5" s="230"/>
       <c r="C5" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="222"/>
-      <c r="E5" s="221"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="220"/>
+      <c r="D5" s="231"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="232"/>
+      <c r="G5" s="229"/>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{883FF2F7-9897-46F0-94BB-EAA634BD1F3F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6CC66A72-7A29-4220-AE9D-51B3D4594A21}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="Gross Margin" sheetId="7" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sprints!$A$217:$H$257</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sprints!$A$217:$H$258</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Story'!$A$1:$H$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="909">
   <si>
     <t>Category</t>
   </si>
@@ -2791,6 +2791,15 @@
   </si>
   <si>
     <t>2day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal order page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li Song </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loaded data in Deal order page </t>
   </si>
 </sst>
 </file>
@@ -3206,7 +3215,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3708,6 +3717,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3732,32 +3747,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3780,71 +3852,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13086,7 +13101,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="185" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="116">
@@ -13112,7 +13127,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="184"/>
+      <c r="A3" s="186"/>
       <c r="B3" s="116">
         <v>102</v>
       </c>
@@ -13136,7 +13151,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="184"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="116">
         <v>103</v>
       </c>
@@ -13160,7 +13175,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="184"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="116">
         <v>104</v>
       </c>
@@ -13184,7 +13199,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="184"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="116">
         <v>105</v>
       </c>
@@ -13208,7 +13223,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="184"/>
+      <c r="A7" s="186"/>
       <c r="B7" s="148">
         <v>106</v>
       </c>
@@ -13230,7 +13245,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="184"/>
+      <c r="A8" s="186"/>
       <c r="B8" s="116">
         <v>107</v>
       </c>
@@ -13250,7 +13265,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="184"/>
+      <c r="A9" s="186"/>
       <c r="B9" s="116">
         <v>108</v>
       </c>
@@ -13270,7 +13285,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="184"/>
+      <c r="A10" s="186"/>
       <c r="B10" s="116">
         <v>109</v>
       </c>
@@ -13290,7 +13305,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="185"/>
+      <c r="A11" s="187"/>
       <c r="B11" s="22">
         <v>110</v>
       </c>
@@ -13308,7 +13323,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="185" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="116">
@@ -13330,7 +13345,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="184"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="116">
         <v>202</v>
       </c>
@@ -13350,7 +13365,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="184"/>
+      <c r="A14" s="186"/>
       <c r="B14" s="116">
         <v>203</v>
       </c>
@@ -13370,7 +13385,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="185"/>
+      <c r="A15" s="187"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -13380,7 +13395,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="183" t="s">
+      <c r="A16" s="185" t="s">
         <v>604</v>
       </c>
       <c r="B16" s="116">
@@ -13402,7 +13417,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="116">
         <v>302</v>
       </c>
@@ -13422,7 +13437,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="184"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="116">
         <v>303</v>
       </c>
@@ -13442,7 +13457,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="184"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="116">
         <v>304</v>
       </c>
@@ -13462,7 +13477,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="184"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="116">
         <v>305</v>
       </c>
@@ -13482,7 +13497,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="184"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="122">
         <v>306</v>
       </c>
@@ -13506,7 +13521,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="184"/>
+      <c r="A22" s="186"/>
       <c r="B22" s="122">
         <v>307</v>
       </c>
@@ -13526,7 +13541,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="184"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="122">
         <v>308</v>
       </c>
@@ -13542,7 +13557,7 @@
       <c r="H23" s="132"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="184"/>
+      <c r="A24" s="186"/>
       <c r="B24" s="122">
         <v>309</v>
       </c>
@@ -13562,7 +13577,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="184"/>
+      <c r="A25" s="186"/>
       <c r="B25" s="122">
         <v>310</v>
       </c>
@@ -13582,7 +13597,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="184"/>
+      <c r="A26" s="186"/>
       <c r="B26" s="122">
         <v>311</v>
       </c>
@@ -13602,7 +13617,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="184"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="122">
         <v>312</v>
       </c>
@@ -13622,7 +13637,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="184"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="122">
         <v>313</v>
       </c>
@@ -13642,7 +13657,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
+      <c r="A29" s="186"/>
       <c r="B29" s="122">
         <v>314</v>
       </c>
@@ -13662,7 +13677,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="184"/>
+      <c r="A30" s="186"/>
       <c r="B30" s="122">
         <v>315</v>
       </c>
@@ -13682,7 +13697,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="184"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="122">
         <v>316</v>
       </c>
@@ -13702,7 +13717,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="184"/>
+      <c r="A32" s="186"/>
       <c r="B32" s="122">
         <v>317</v>
       </c>
@@ -13722,7 +13737,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="184"/>
+      <c r="A33" s="186"/>
       <c r="B33" s="122">
         <v>318</v>
       </c>
@@ -13742,7 +13757,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="184"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="122">
         <v>319</v>
       </c>
@@ -13762,7 +13777,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="184"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="122">
         <v>320</v>
       </c>
@@ -13782,7 +13797,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="184"/>
+      <c r="A36" s="186"/>
       <c r="B36" s="122">
         <v>321</v>
       </c>
@@ -13802,7 +13817,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="184"/>
+      <c r="A37" s="186"/>
       <c r="B37" s="122">
         <v>322</v>
       </c>
@@ -13822,7 +13837,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="184"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="122">
         <v>323</v>
       </c>
@@ -13842,7 +13857,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="184"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="122">
         <v>324</v>
       </c>
@@ -13862,7 +13877,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="185"/>
+      <c r="A40" s="187"/>
       <c r="B40" s="122"/>
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
@@ -13872,7 +13887,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="183" t="s">
+      <c r="A41" s="185" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="22">
@@ -13898,7 +13913,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="184"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="22">
         <v>402</v>
       </c>
@@ -13922,7 +13937,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="184"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="22">
         <v>403</v>
       </c>
@@ -13946,7 +13961,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="184"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="165">
         <v>404</v>
       </c>
@@ -13970,7 +13985,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="184"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="165">
         <v>405</v>
       </c>
@@ -13994,7 +14009,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="184"/>
+      <c r="A46" s="186"/>
       <c r="B46" s="22">
         <v>406</v>
       </c>
@@ -14018,7 +14033,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="184"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="22">
         <v>407</v>
       </c>
@@ -14042,7 +14057,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="184"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="22">
         <v>408</v>
       </c>
@@ -14066,7 +14081,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="184"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="165">
         <v>409</v>
       </c>
@@ -14090,7 +14105,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="184"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="22">
         <v>410</v>
       </c>
@@ -14114,7 +14129,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="184"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="166">
         <v>411</v>
       </c>
@@ -14138,7 +14153,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="184"/>
+      <c r="A52" s="186"/>
       <c r="B52" s="22">
         <v>412</v>
       </c>
@@ -14162,7 +14177,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="184"/>
+      <c r="A53" s="186"/>
       <c r="B53" s="22">
         <v>413</v>
       </c>
@@ -14186,7 +14201,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="184"/>
+      <c r="A54" s="186"/>
       <c r="B54" s="122">
         <v>414</v>
       </c>
@@ -14210,7 +14225,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="184"/>
+      <c r="A55" s="186"/>
       <c r="B55" s="122">
         <v>415</v>
       </c>
@@ -14234,7 +14249,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="184"/>
+      <c r="A56" s="186"/>
       <c r="B56" s="122">
         <v>416</v>
       </c>
@@ -14258,7 +14273,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="184"/>
+      <c r="A57" s="186"/>
       <c r="B57" s="122">
         <v>417</v>
       </c>
@@ -14282,7 +14297,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="184"/>
+      <c r="A58" s="186"/>
       <c r="B58" s="122">
         <v>418</v>
       </c>
@@ -14306,7 +14321,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="184"/>
+      <c r="A59" s="186"/>
       <c r="B59" s="122">
         <v>419</v>
       </c>
@@ -14324,7 +14339,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="184"/>
+      <c r="A60" s="186"/>
       <c r="B60" s="160">
         <v>420</v>
       </c>
@@ -14348,7 +14363,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="184"/>
+      <c r="A61" s="186"/>
       <c r="B61" s="160">
         <v>421</v>
       </c>
@@ -14372,7 +14387,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="184"/>
+      <c r="A62" s="186"/>
       <c r="B62" s="160">
         <v>422</v>
       </c>
@@ -14396,7 +14411,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="184"/>
+      <c r="A63" s="186"/>
       <c r="B63" s="160">
         <v>423</v>
       </c>
@@ -14420,7 +14435,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="184"/>
+      <c r="A64" s="186"/>
       <c r="B64" s="160">
         <v>424</v>
       </c>
@@ -14444,7 +14459,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="184"/>
+      <c r="A65" s="186"/>
       <c r="B65" s="160">
         <v>425</v>
       </c>
@@ -14468,7 +14483,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="184"/>
+      <c r="A66" s="186"/>
       <c r="B66" s="160">
         <v>426</v>
       </c>
@@ -14492,7 +14507,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="184"/>
+      <c r="A67" s="186"/>
       <c r="B67" s="160">
         <v>427</v>
       </c>
@@ -14516,7 +14531,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="184"/>
+      <c r="A68" s="186"/>
       <c r="B68" s="160">
         <v>428</v>
       </c>
@@ -14540,7 +14555,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="184"/>
+      <c r="A69" s="186"/>
       <c r="B69" s="160">
         <v>429</v>
       </c>
@@ -14564,7 +14579,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="184"/>
+      <c r="A70" s="186"/>
       <c r="B70" s="160">
         <v>430</v>
       </c>
@@ -14588,7 +14603,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="184"/>
+      <c r="A71" s="186"/>
       <c r="B71" s="160">
         <v>431</v>
       </c>
@@ -14612,7 +14627,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="184"/>
+      <c r="A72" s="186"/>
       <c r="B72" s="160">
         <v>432</v>
       </c>
@@ -14636,7 +14651,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="184"/>
+      <c r="A73" s="186"/>
       <c r="B73" s="160">
         <v>433</v>
       </c>
@@ -14660,7 +14675,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="184"/>
+      <c r="A74" s="186"/>
       <c r="B74" s="160">
         <v>434</v>
       </c>
@@ -14684,7 +14699,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="184"/>
+      <c r="A75" s="186"/>
       <c r="B75" s="160">
         <v>435</v>
       </c>
@@ -14708,7 +14723,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="184"/>
+      <c r="A76" s="186"/>
       <c r="B76" s="160">
         <v>436</v>
       </c>
@@ -14732,7 +14747,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="184"/>
+      <c r="A77" s="186"/>
       <c r="B77" s="160">
         <v>437</v>
       </c>
@@ -14756,7 +14771,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="184"/>
+      <c r="A78" s="186"/>
       <c r="B78" s="160">
         <v>438</v>
       </c>
@@ -14780,7 +14795,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="184"/>
+      <c r="A79" s="186"/>
       <c r="B79" s="160">
         <v>439</v>
       </c>
@@ -14804,7 +14819,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="184"/>
+      <c r="A80" s="186"/>
       <c r="B80" s="160">
         <v>440</v>
       </c>
@@ -14828,7 +14843,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="184"/>
+      <c r="A81" s="186"/>
       <c r="B81" s="160">
         <v>441</v>
       </c>
@@ -14852,7 +14867,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="184"/>
+      <c r="A82" s="186"/>
       <c r="B82" s="160">
         <v>442</v>
       </c>
@@ -14876,7 +14891,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="184"/>
+      <c r="A83" s="186"/>
       <c r="B83" s="160">
         <v>443</v>
       </c>
@@ -14900,7 +14915,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="184"/>
+      <c r="A84" s="186"/>
       <c r="B84" s="160">
         <v>444</v>
       </c>
@@ -14924,7 +14939,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="184"/>
+      <c r="A85" s="186"/>
       <c r="B85" s="160">
         <v>445</v>
       </c>
@@ -14948,7 +14963,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="184"/>
+      <c r="A86" s="186"/>
       <c r="B86" s="160">
         <v>446</v>
       </c>
@@ -14972,7 +14987,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="184"/>
+      <c r="A87" s="186"/>
       <c r="B87" s="160">
         <v>447</v>
       </c>
@@ -14996,7 +15011,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="184"/>
+      <c r="A88" s="186"/>
       <c r="B88" s="160">
         <v>448</v>
       </c>
@@ -15020,7 +15035,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="184"/>
+      <c r="A89" s="186"/>
       <c r="B89" s="122">
         <v>449</v>
       </c>
@@ -15044,7 +15059,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="184"/>
+      <c r="A90" s="186"/>
       <c r="B90" s="122">
         <v>450</v>
       </c>
@@ -15066,7 +15081,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="184"/>
+      <c r="A91" s="186"/>
       <c r="B91" s="160">
         <v>451</v>
       </c>
@@ -15088,7 +15103,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="184"/>
+      <c r="A92" s="186"/>
       <c r="B92" s="122">
         <v>452</v>
       </c>
@@ -15112,7 +15127,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="184"/>
+      <c r="A93" s="186"/>
       <c r="B93" s="122">
         <v>453</v>
       </c>
@@ -15136,7 +15151,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="184"/>
+      <c r="A94" s="186"/>
       <c r="B94" s="122">
         <v>454</v>
       </c>
@@ -15160,7 +15175,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="184"/>
+      <c r="A95" s="186"/>
       <c r="B95" s="122">
         <v>455</v>
       </c>
@@ -15182,7 +15197,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="184"/>
+      <c r="A96" s="186"/>
       <c r="B96" s="122">
         <v>456</v>
       </c>
@@ -15206,7 +15221,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="184"/>
+      <c r="A97" s="186"/>
       <c r="B97" s="122">
         <v>457</v>
       </c>
@@ -15228,7 +15243,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="184"/>
+      <c r="A98" s="186"/>
       <c r="B98" s="122">
         <v>458</v>
       </c>
@@ -15250,7 +15265,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="184"/>
+      <c r="A99" s="186"/>
       <c r="B99" s="122">
         <v>459</v>
       </c>
@@ -15272,7 +15287,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="184"/>
+      <c r="A100" s="186"/>
       <c r="B100" s="122">
         <v>460</v>
       </c>
@@ -15294,7 +15309,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="184"/>
+      <c r="A101" s="186"/>
       <c r="B101" s="122">
         <v>461</v>
       </c>
@@ -15316,7 +15331,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="184"/>
+      <c r="A102" s="186"/>
       <c r="B102" s="122">
         <v>462</v>
       </c>
@@ -15336,7 +15351,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="184"/>
+      <c r="A103" s="186"/>
       <c r="B103" s="122">
         <v>463</v>
       </c>
@@ -15356,7 +15371,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="184"/>
+      <c r="A104" s="186"/>
       <c r="B104" s="122">
         <v>464</v>
       </c>
@@ -15378,7 +15393,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="184"/>
+      <c r="A105" s="186"/>
       <c r="B105" s="22">
         <v>465</v>
       </c>
@@ -15398,7 +15413,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="184"/>
+      <c r="A106" s="186"/>
       <c r="B106" s="22">
         <v>466</v>
       </c>
@@ -15418,7 +15433,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="184"/>
+      <c r="A107" s="186"/>
       <c r="B107" s="22">
         <v>467</v>
       </c>
@@ -15438,7 +15453,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="184"/>
+      <c r="A108" s="186"/>
       <c r="B108" s="22">
         <v>468</v>
       </c>
@@ -15458,7 +15473,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="184"/>
+      <c r="A109" s="186"/>
       <c r="B109" s="22">
         <v>469</v>
       </c>
@@ -15478,7 +15493,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="184"/>
+      <c r="A110" s="186"/>
       <c r="B110" s="22">
         <v>470</v>
       </c>
@@ -15494,7 +15509,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="184"/>
+      <c r="A111" s="186"/>
       <c r="B111" s="22">
         <v>471</v>
       </c>
@@ -15510,7 +15525,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="184"/>
+      <c r="A112" s="186"/>
       <c r="B112" s="22">
         <v>472</v>
       </c>
@@ -15526,7 +15541,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="184"/>
+      <c r="A113" s="186"/>
       <c r="B113" s="22">
         <v>473</v>
       </c>
@@ -15542,7 +15557,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="184"/>
+      <c r="A114" s="186"/>
       <c r="B114" s="140">
         <v>473</v>
       </c>
@@ -15560,7 +15575,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="184"/>
+      <c r="A115" s="186"/>
       <c r="B115" s="10">
         <v>474</v>
       </c>
@@ -15570,7 +15585,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="184"/>
+      <c r="A116" s="186"/>
       <c r="B116" s="140">
         <v>475</v>
       </c>
@@ -15584,7 +15599,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="184"/>
+      <c r="A117" s="186"/>
       <c r="B117" s="168">
         <v>476</v>
       </c>
@@ -15600,7 +15615,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="185"/>
+      <c r="A118" s="187"/>
       <c r="B118" s="122"/>
       <c r="C118" s="116"/>
       <c r="D118" s="116"/>
@@ -15609,7 +15624,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="183" t="s">
+      <c r="A119" s="185" t="s">
         <v>186</v>
       </c>
       <c r="B119" s="162">
@@ -15633,7 +15648,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="184"/>
+      <c r="A120" s="186"/>
       <c r="B120" s="116">
         <v>502</v>
       </c>
@@ -15655,7 +15670,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="184"/>
+      <c r="A121" s="186"/>
       <c r="B121" s="116">
         <v>503</v>
       </c>
@@ -15677,7 +15692,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="184"/>
+      <c r="A122" s="186"/>
       <c r="B122" s="116">
         <v>504</v>
       </c>
@@ -15699,7 +15714,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="184"/>
+      <c r="A123" s="186"/>
       <c r="B123" s="116">
         <v>505</v>
       </c>
@@ -15721,7 +15736,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="184"/>
+      <c r="A124" s="186"/>
       <c r="B124" s="162">
         <v>506</v>
       </c>
@@ -15743,7 +15758,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="184"/>
+      <c r="A125" s="186"/>
       <c r="B125" s="116">
         <v>507</v>
       </c>
@@ -15765,7 +15780,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="185"/>
+      <c r="A126" s="187"/>
       <c r="B126" s="116"/>
       <c r="C126" s="116"/>
       <c r="D126" s="116"/>
@@ -15775,7 +15790,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="183" t="s">
+      <c r="A127" s="185" t="s">
         <v>68</v>
       </c>
       <c r="B127" s="116">
@@ -15799,7 +15814,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="184"/>
+      <c r="A128" s="186"/>
       <c r="B128" s="116">
         <v>602</v>
       </c>
@@ -15821,7 +15836,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="184"/>
+      <c r="A129" s="186"/>
       <c r="B129" s="116">
         <v>603</v>
       </c>
@@ -15843,7 +15858,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="184"/>
+      <c r="A130" s="186"/>
       <c r="B130" s="116">
         <v>604</v>
       </c>
@@ -15865,7 +15880,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="184"/>
+      <c r="A131" s="186"/>
       <c r="B131" s="116">
         <v>605</v>
       </c>
@@ -15887,7 +15902,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="184"/>
+      <c r="A132" s="186"/>
       <c r="B132" s="116">
         <v>606</v>
       </c>
@@ -15909,7 +15924,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="184"/>
+      <c r="A133" s="186"/>
       <c r="B133" s="116">
         <v>607</v>
       </c>
@@ -15931,7 +15946,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="184"/>
+      <c r="A134" s="186"/>
       <c r="B134" s="116">
         <v>608</v>
       </c>
@@ -15953,7 +15968,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="184"/>
+      <c r="A135" s="186"/>
       <c r="B135" s="116">
         <v>609</v>
       </c>
@@ -15975,7 +15990,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="184"/>
+      <c r="A136" s="186"/>
       <c r="B136" s="116">
         <v>610</v>
       </c>
@@ -15997,7 +16012,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="185"/>
+      <c r="A137" s="187"/>
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
       <c r="D137" s="116"/>
@@ -16007,7 +16022,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="183" t="s">
+      <c r="A138" s="185" t="s">
         <v>631</v>
       </c>
       <c r="B138" s="22">
@@ -16031,7 +16046,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="184"/>
+      <c r="A139" s="186"/>
       <c r="B139" s="22">
         <v>702</v>
       </c>
@@ -16053,7 +16068,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="184"/>
+      <c r="A140" s="186"/>
       <c r="B140" s="22">
         <v>703</v>
       </c>
@@ -16075,7 +16090,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="184"/>
+      <c r="A141" s="186"/>
       <c r="B141" s="22">
         <v>704</v>
       </c>
@@ -16097,7 +16112,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="185"/>
+      <c r="A142" s="187"/>
       <c r="B142" s="22"/>
       <c r="C142" s="116"/>
       <c r="D142" s="116"/>
@@ -16107,7 +16122,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="186" t="s">
+      <c r="A143" s="188" t="s">
         <v>207</v>
       </c>
       <c r="B143" s="22">
@@ -16129,7 +16144,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="186"/>
+      <c r="A144" s="188"/>
       <c r="B144" s="22">
         <v>802</v>
       </c>
@@ -16149,7 +16164,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="186"/>
+      <c r="A145" s="188"/>
       <c r="B145" s="22">
         <v>803</v>
       </c>
@@ -16169,7 +16184,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="186"/>
+      <c r="A146" s="188"/>
       <c r="B146" s="22"/>
       <c r="C146" s="116"/>
       <c r="D146" s="116"/>
@@ -16239,7 +16254,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="189" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="109">
@@ -16265,7 +16280,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="188"/>
+      <c r="A3" s="190"/>
       <c r="B3" s="109">
         <v>2</v>
       </c>
@@ -16289,7 +16304,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="188"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="32">
         <v>3</v>
       </c>
@@ -16313,7 +16328,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="188"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="109">
         <v>4</v>
       </c>
@@ -16337,7 +16352,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="188"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="109">
         <v>5</v>
       </c>
@@ -16361,7 +16376,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="188"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="109">
         <v>6</v>
       </c>
@@ -16385,7 +16400,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="188"/>
+      <c r="A8" s="190"/>
       <c r="B8" s="109">
         <v>7</v>
       </c>
@@ -16409,7 +16424,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="188"/>
+      <c r="A9" s="190"/>
       <c r="B9" s="109">
         <v>8</v>
       </c>
@@ -16433,7 +16448,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
+      <c r="A10" s="190"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
@@ -16457,7 +16472,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
+      <c r="A11" s="190"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -16481,7 +16496,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="188"/>
+      <c r="A12" s="190"/>
       <c r="B12" s="31">
         <v>11</v>
       </c>
@@ -16505,7 +16520,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="188"/>
+      <c r="A13" s="190"/>
       <c r="B13" s="108">
         <v>12</v>
       </c>
@@ -16529,7 +16544,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="189"/>
+      <c r="A14" s="191"/>
       <c r="B14" s="104"/>
       <c r="C14" s="104">
         <v>2</v>
@@ -16543,7 +16558,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="185" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="29">
@@ -16569,7 +16584,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="184"/>
+      <c r="A16" s="186"/>
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -16593,7 +16608,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="184"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="29">
         <v>15</v>
       </c>
@@ -16617,7 +16632,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="187" t="s">
+      <c r="A18" s="189" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="104">
@@ -16643,7 +16658,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="188"/>
+      <c r="A19" s="190"/>
       <c r="B19" s="104">
         <v>17</v>
       </c>
@@ -16665,7 +16680,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="188"/>
+      <c r="A20" s="190"/>
       <c r="B20" s="109">
         <v>18</v>
       </c>
@@ -16685,7 +16700,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="188"/>
+      <c r="A21" s="190"/>
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -16709,7 +16724,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
+      <c r="A22" s="190"/>
       <c r="B22" s="22">
         <v>20</v>
       </c>
@@ -16733,7 +16748,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="188"/>
+      <c r="A23" s="190"/>
       <c r="B23" s="109">
         <v>21</v>
       </c>
@@ -16757,7 +16772,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="188"/>
+      <c r="A24" s="190"/>
       <c r="B24" s="109">
         <v>22</v>
       </c>
@@ -16781,7 +16796,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
+      <c r="A25" s="190"/>
       <c r="B25" s="109">
         <v>23</v>
       </c>
@@ -16805,7 +16820,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="188"/>
+      <c r="A26" s="190"/>
       <c r="B26" s="109">
         <v>24</v>
       </c>
@@ -16829,7 +16844,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="188"/>
+      <c r="A27" s="190"/>
       <c r="B27" s="22">
         <v>25</v>
       </c>
@@ -16853,7 +16868,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="188"/>
+      <c r="A28" s="190"/>
       <c r="B28" s="22">
         <v>26</v>
       </c>
@@ -16877,7 +16892,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="188"/>
+      <c r="A29" s="190"/>
       <c r="B29" s="22">
         <v>27</v>
       </c>
@@ -16901,7 +16916,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="188"/>
+      <c r="A30" s="190"/>
       <c r="B30" s="22">
         <v>28</v>
       </c>
@@ -16925,7 +16940,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="188"/>
+      <c r="A31" s="190"/>
       <c r="B31" s="109">
         <v>29</v>
       </c>
@@ -16949,7 +16964,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="188"/>
+      <c r="A32" s="190"/>
       <c r="B32" s="109">
         <v>30</v>
       </c>
@@ -16973,7 +16988,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="188"/>
+      <c r="A33" s="190"/>
       <c r="B33" s="109">
         <v>31</v>
       </c>
@@ -16997,7 +17012,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="188"/>
+      <c r="A34" s="190"/>
       <c r="B34" s="109">
         <v>32</v>
       </c>
@@ -17021,7 +17036,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="188"/>
+      <c r="A35" s="190"/>
       <c r="B35" s="109">
         <v>33</v>
       </c>
@@ -17045,7 +17060,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="188"/>
+      <c r="A36" s="190"/>
       <c r="B36" s="109">
         <v>34</v>
       </c>
@@ -17069,7 +17084,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="188"/>
+      <c r="A37" s="190"/>
       <c r="B37" s="109">
         <v>35</v>
       </c>
@@ -17093,7 +17108,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="188"/>
+      <c r="A38" s="190"/>
       <c r="B38" s="109">
         <v>36</v>
       </c>
@@ -17117,7 +17132,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="188"/>
+      <c r="A39" s="190"/>
       <c r="B39" s="109">
         <v>37</v>
       </c>
@@ -17141,7 +17156,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
+      <c r="A40" s="190"/>
       <c r="B40" s="109">
         <v>38</v>
       </c>
@@ -17165,7 +17180,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="188"/>
+      <c r="A41" s="190"/>
       <c r="B41" s="108">
         <v>39</v>
       </c>
@@ -17189,7 +17204,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="188"/>
+      <c r="A42" s="190"/>
       <c r="B42" s="109">
         <v>40</v>
       </c>
@@ -17213,7 +17228,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="188"/>
+      <c r="A43" s="190"/>
       <c r="B43" s="109">
         <v>41</v>
       </c>
@@ -17237,7 +17252,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="188"/>
+      <c r="A44" s="190"/>
       <c r="B44" s="108">
         <v>42</v>
       </c>
@@ -17261,7 +17276,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="188"/>
+      <c r="A45" s="190"/>
       <c r="B45" s="109">
         <v>43</v>
       </c>
@@ -17285,7 +17300,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="188"/>
+      <c r="A46" s="190"/>
       <c r="B46" s="108">
         <v>44</v>
       </c>
@@ -17309,7 +17324,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="188"/>
+      <c r="A47" s="190"/>
       <c r="B47" s="108">
         <v>45</v>
       </c>
@@ -17333,7 +17348,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="188"/>
+      <c r="A48" s="190"/>
       <c r="B48" s="32">
         <v>46</v>
       </c>
@@ -17357,7 +17372,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="188"/>
+      <c r="A49" s="190"/>
       <c r="B49" s="32">
         <v>47</v>
       </c>
@@ -17381,7 +17396,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="188"/>
+      <c r="A50" s="190"/>
       <c r="B50" s="32">
         <v>49</v>
       </c>
@@ -17405,7 +17420,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="188"/>
+      <c r="A51" s="190"/>
       <c r="B51" s="32">
         <v>50</v>
       </c>
@@ -17429,7 +17444,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="188"/>
+      <c r="A52" s="190"/>
       <c r="B52" s="108">
         <v>51</v>
       </c>
@@ -17453,7 +17468,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="188"/>
+      <c r="A53" s="190"/>
       <c r="B53" s="108">
         <v>52</v>
       </c>
@@ -17477,7 +17492,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="188"/>
+      <c r="A54" s="190"/>
       <c r="B54" s="108">
         <v>53</v>
       </c>
@@ -17501,7 +17516,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="188"/>
+      <c r="A55" s="190"/>
       <c r="B55" s="32">
         <v>54</v>
       </c>
@@ -17525,7 +17540,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="188"/>
+      <c r="A56" s="190"/>
       <c r="B56" s="34">
         <v>55</v>
       </c>
@@ -17549,7 +17564,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="188"/>
+      <c r="A57" s="190"/>
       <c r="B57" s="34">
         <v>56</v>
       </c>
@@ -17573,7 +17588,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="188"/>
+      <c r="A58" s="190"/>
       <c r="B58" s="49">
         <v>57</v>
       </c>
@@ -17597,7 +17612,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="188"/>
+      <c r="A59" s="190"/>
       <c r="B59" s="49">
         <v>58</v>
       </c>
@@ -17621,7 +17636,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="188"/>
+      <c r="A60" s="190"/>
       <c r="B60" s="22">
         <v>59</v>
       </c>
@@ -17645,7 +17660,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="188"/>
+      <c r="A61" s="190"/>
       <c r="B61" s="49">
         <v>60</v>
       </c>
@@ -17667,7 +17682,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="188"/>
+      <c r="A62" s="190"/>
       <c r="B62" s="49">
         <v>61</v>
       </c>
@@ -17689,7 +17704,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="188"/>
+      <c r="A63" s="190"/>
       <c r="B63" s="49">
         <v>62</v>
       </c>
@@ -17713,7 +17728,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="188"/>
+      <c r="A64" s="190"/>
       <c r="B64" s="34">
         <v>63</v>
       </c>
@@ -17737,7 +17752,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="188"/>
+      <c r="A65" s="190"/>
       <c r="B65" s="34">
         <v>64</v>
       </c>
@@ -17761,7 +17776,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="188"/>
+      <c r="A66" s="190"/>
       <c r="B66" s="103">
         <v>201</v>
       </c>
@@ -17783,7 +17798,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="188"/>
+      <c r="A67" s="190"/>
       <c r="B67" s="90"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -17797,7 +17812,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="188"/>
+      <c r="A68" s="190"/>
       <c r="B68" s="90"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -17809,7 +17824,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="188"/>
+      <c r="A69" s="190"/>
       <c r="B69" s="90"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -17821,7 +17836,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="189"/>
+      <c r="A70" s="191"/>
       <c r="B70" s="90"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -17833,7 +17848,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="187" t="s">
+      <c r="A71" s="189" t="s">
         <v>186</v>
       </c>
       <c r="B71" s="34">
@@ -17859,7 +17874,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="188"/>
+      <c r="A72" s="190"/>
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -17883,7 +17898,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="188"/>
+      <c r="A73" s="190"/>
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -17907,7 +17922,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="188"/>
+      <c r="A74" s="190"/>
       <c r="B74" s="39">
         <v>70</v>
       </c>
@@ -17931,7 +17946,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="188"/>
+      <c r="A75" s="190"/>
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -17955,7 +17970,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="188"/>
+      <c r="A76" s="190"/>
       <c r="B76" s="39">
         <v>72</v>
       </c>
@@ -17979,7 +17994,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="189"/>
+      <c r="A77" s="191"/>
       <c r="B77" s="39">
         <v>73</v>
       </c>
@@ -17991,7 +18006,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="187" t="s">
+      <c r="A78" s="189" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="39">
@@ -18017,7 +18032,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="188"/>
+      <c r="A79" s="190"/>
       <c r="B79" s="39">
         <v>75</v>
       </c>
@@ -18041,7 +18056,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="188"/>
+      <c r="A80" s="190"/>
       <c r="B80" s="39">
         <v>76</v>
       </c>
@@ -18065,7 +18080,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="188"/>
+      <c r="A81" s="190"/>
       <c r="B81" s="39">
         <v>77</v>
       </c>
@@ -18089,7 +18104,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="188"/>
+      <c r="A82" s="190"/>
       <c r="B82" s="39">
         <v>78</v>
       </c>
@@ -18113,7 +18128,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="188"/>
+      <c r="A83" s="190"/>
       <c r="B83" s="49">
         <v>79</v>
       </c>
@@ -18137,7 +18152,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="188"/>
+      <c r="A84" s="190"/>
       <c r="B84" s="49">
         <v>80</v>
       </c>
@@ -18161,7 +18176,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="189"/>
+      <c r="A85" s="191"/>
       <c r="B85" s="49">
         <v>81</v>
       </c>
@@ -18185,7 +18200,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="187" t="s">
+      <c r="A86" s="189" t="s">
         <v>205</v>
       </c>
       <c r="B86" s="76">
@@ -18211,7 +18226,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="188"/>
+      <c r="A87" s="190"/>
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -18231,7 +18246,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="188"/>
+      <c r="A88" s="190"/>
       <c r="B88" s="134">
         <v>84</v>
       </c>
@@ -18251,7 +18266,7 @@
       <c r="H88" s="137"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="188"/>
+      <c r="A89" s="190"/>
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -18271,7 +18286,7 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="188"/>
+      <c r="A90" s="190"/>
       <c r="B90" s="42">
         <v>86</v>
       </c>
@@ -18291,7 +18306,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="188"/>
+      <c r="A91" s="190"/>
       <c r="B91" s="42">
         <v>87</v>
       </c>
@@ -18311,7 +18326,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="188"/>
+      <c r="A92" s="190"/>
       <c r="B92" s="42">
         <v>88</v>
       </c>
@@ -18331,7 +18346,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="188"/>
+      <c r="A93" s="190"/>
       <c r="B93" s="42">
         <v>89</v>
       </c>
@@ -18351,7 +18366,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="188"/>
+      <c r="A94" s="190"/>
       <c r="B94" s="42">
         <v>90</v>
       </c>
@@ -18371,7 +18386,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="188"/>
+      <c r="A95" s="190"/>
       <c r="B95" s="42">
         <v>91</v>
       </c>
@@ -18391,7 +18406,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="188"/>
+      <c r="A96" s="190"/>
       <c r="B96" s="42">
         <v>92</v>
       </c>
@@ -18411,7 +18426,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="188"/>
+      <c r="A97" s="190"/>
       <c r="B97" s="42">
         <v>93</v>
       </c>
@@ -18431,7 +18446,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="188"/>
+      <c r="A98" s="190"/>
       <c r="B98" s="42">
         <v>94</v>
       </c>
@@ -18451,7 +18466,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="188"/>
+      <c r="A99" s="190"/>
       <c r="B99" s="42">
         <v>95</v>
       </c>
@@ -18471,7 +18486,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="188"/>
+      <c r="A100" s="190"/>
       <c r="B100" s="42">
         <v>96</v>
       </c>
@@ -18491,7 +18506,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="188"/>
+      <c r="A101" s="190"/>
       <c r="B101" s="42">
         <v>97</v>
       </c>
@@ -18511,7 +18526,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="188"/>
+      <c r="A102" s="190"/>
       <c r="B102" s="42">
         <v>98</v>
       </c>
@@ -18531,7 +18546,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="188"/>
+      <c r="A103" s="190"/>
       <c r="B103" s="42">
         <v>99</v>
       </c>
@@ -18551,7 +18566,7 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="189"/>
+      <c r="A104" s="191"/>
       <c r="B104" s="39"/>
       <c r="C104" s="31"/>
       <c r="D104" s="16"/>
@@ -18561,7 +18576,7 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="187" t="s">
+      <c r="A105" s="189" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="39">
@@ -18587,7 +18602,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="188"/>
+      <c r="A106" s="190"/>
       <c r="B106" s="42">
         <v>101</v>
       </c>
@@ -18611,7 +18626,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="188"/>
+      <c r="A107" s="190"/>
       <c r="B107" s="42">
         <v>102</v>
       </c>
@@ -18635,7 +18650,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="188"/>
+      <c r="A108" s="190"/>
       <c r="B108" s="42">
         <v>103</v>
       </c>
@@ -18659,7 +18674,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="187" t="s">
+      <c r="A109" s="189" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="42">
@@ -18685,7 +18700,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="188"/>
+      <c r="A110" s="190"/>
       <c r="B110" s="42">
         <v>105</v>
       </c>
@@ -18709,7 +18724,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="185"/>
+      <c r="A111" s="187"/>
       <c r="B111" s="42">
         <v>106</v>
       </c>
@@ -18733,7 +18748,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="190" t="s">
+      <c r="A112" s="192" t="s">
         <v>72</v>
       </c>
       <c r="B112" s="42">
@@ -18759,7 +18774,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="190"/>
+      <c r="A113" s="192"/>
       <c r="B113" s="42">
         <v>108</v>
       </c>
@@ -18783,7 +18798,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="190"/>
+      <c r="A114" s="192"/>
       <c r="B114" s="42">
         <v>109</v>
       </c>
@@ -18807,7 +18822,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="190"/>
+      <c r="A115" s="192"/>
       <c r="B115" s="8">
         <v>110</v>
       </c>
@@ -18863,11 +18878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E229" sqref="E229"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248:B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19176,13 +19190,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="191" t="s">
+      <c r="B17" s="210" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="191"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
+      <c r="C17" s="210"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -19452,13 +19466,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="191" t="s">
+      <c r="B34" s="210" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="191"/>
-      <c r="F34" s="191"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -19479,10 +19493,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="192" t="s">
+      <c r="G35" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="192"/>
+      <c r="H35" s="203"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -19501,8 +19515,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -19521,8 +19535,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
+      <c r="G37" s="193"/>
+      <c r="H37" s="193"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -19541,8 +19555,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="196"/>
-      <c r="H38" s="196"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="193"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -19561,8 +19575,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="211"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -19581,8 +19595,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -19601,10 +19615,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="215" t="s">
+      <c r="G41" s="212" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="216"/>
+      <c r="H41" s="213"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -19623,10 +19637,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="215" t="s">
+      <c r="G42" s="212" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="216"/>
+      <c r="H42" s="213"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -19645,10 +19659,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="215" t="s">
+      <c r="G43" s="212" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="216"/>
+      <c r="H43" s="213"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -19667,8 +19681,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="217"/>
-      <c r="H44" s="218"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="215"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -19689,10 +19703,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="215" t="s">
+      <c r="G45" s="212" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="216"/>
+      <c r="H45" s="213"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -19713,8 +19727,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="196"/>
-      <c r="H46" s="196"/>
+      <c r="G46" s="193"/>
+      <c r="H46" s="193"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -19735,8 +19749,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="196"/>
-      <c r="H47" s="196"/>
+      <c r="G47" s="193"/>
+      <c r="H47" s="193"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -19757,10 +19771,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="196" t="s">
+      <c r="G48" s="193" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="196"/>
+      <c r="H48" s="193"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -19779,8 +19793,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="213"/>
-      <c r="H49" s="213"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -19799,8 +19813,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="213"/>
-      <c r="H50" s="213"/>
+      <c r="G50" s="194"/>
+      <c r="H50" s="194"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -19821,8 +19835,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="213"/>
-      <c r="H51" s="213"/>
+      <c r="G51" s="194"/>
+      <c r="H51" s="194"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -19843,8 +19857,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="213"/>
-      <c r="H52" s="213"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -19865,8 +19879,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="213"/>
-      <c r="H53" s="213"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -19887,8 +19901,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="213"/>
-      <c r="H54" s="213"/>
+      <c r="G54" s="194"/>
+      <c r="H54" s="194"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -19909,8 +19923,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="213"/>
-      <c r="H55" s="213"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -19929,8 +19943,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="213"/>
-      <c r="H56" s="213"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -19949,8 +19963,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="213"/>
-      <c r="H57" s="213"/>
+      <c r="G57" s="194"/>
+      <c r="H57" s="194"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -19969,8 +19983,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="213"/>
-      <c r="H58" s="213"/>
+      <c r="G58" s="194"/>
+      <c r="H58" s="194"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -19991,8 +20005,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="213"/>
-      <c r="H59" s="213"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -20103,13 +20117,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="191" t="s">
+      <c r="B70" s="210" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="191"/>
-      <c r="D70" s="191"/>
-      <c r="E70" s="191"/>
-      <c r="F70" s="191"/>
+      <c r="C70" s="210"/>
+      <c r="D70" s="210"/>
+      <c r="E70" s="210"/>
+      <c r="F70" s="210"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -20130,10 +20144,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="219" t="s">
+      <c r="G71" s="216" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="219"/>
+      <c r="H71" s="216"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -20154,10 +20168,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="197" t="s">
+      <c r="G72" s="201" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="196"/>
+      <c r="H72" s="193"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -20178,10 +20192,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="196" t="s">
+      <c r="G73" s="193" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="196"/>
+      <c r="H73" s="193"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -20202,8 +20216,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="196"/>
-      <c r="H74" s="196"/>
+      <c r="G74" s="193"/>
+      <c r="H74" s="193"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -20224,10 +20238,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="211" t="s">
+      <c r="G75" s="199" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="212"/>
+      <c r="H75" s="200"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -20236,7 +20250,7 @@
       <c r="B76" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="183" t="s">
+      <c r="C76" s="185" t="s">
         <v>761</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -20248,8 +20262,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="196"/>
-      <c r="H76" s="196"/>
+      <c r="G76" s="193"/>
+      <c r="H76" s="193"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -20258,7 +20272,7 @@
       <c r="B77" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="C77" s="184"/>
+      <c r="C77" s="186"/>
       <c r="D77" s="1" t="s">
         <v>712</v>
       </c>
@@ -20268,8 +20282,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="196"/>
-      <c r="H77" s="196"/>
+      <c r="G77" s="193"/>
+      <c r="H77" s="193"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -20278,7 +20292,7 @@
       <c r="B78" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C78" s="184"/>
+      <c r="C78" s="186"/>
       <c r="D78" s="1" t="s">
         <v>729</v>
       </c>
@@ -20288,8 +20302,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="211"/>
-      <c r="H78" s="212"/>
+      <c r="G78" s="199"/>
+      <c r="H78" s="200"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -20298,7 +20312,7 @@
       <c r="B79" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C79" s="184"/>
+      <c r="C79" s="186"/>
       <c r="D79" s="1" t="s">
         <v>716</v>
       </c>
@@ -20308,8 +20322,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="196"/>
-      <c r="H79" s="196"/>
+      <c r="G79" s="193"/>
+      <c r="H79" s="193"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -20318,7 +20332,7 @@
       <c r="B80" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C80" s="184"/>
+      <c r="C80" s="186"/>
       <c r="D80" s="1" t="s">
         <v>719</v>
       </c>
@@ -20328,8 +20342,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="196"/>
-      <c r="H80" s="196"/>
+      <c r="G80" s="193"/>
+      <c r="H80" s="193"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -20338,7 +20352,7 @@
       <c r="B81" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="184"/>
+      <c r="C81" s="186"/>
       <c r="D81" s="1" t="s">
         <v>720</v>
       </c>
@@ -20348,8 +20362,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="196"/>
-      <c r="H81" s="196"/>
+      <c r="G81" s="193"/>
+      <c r="H81" s="193"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -20358,7 +20372,7 @@
       <c r="B82" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="C82" s="184"/>
+      <c r="C82" s="186"/>
       <c r="D82" s="1" t="s">
         <v>722</v>
       </c>
@@ -20368,8 +20382,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="196"/>
-      <c r="H82" s="196"/>
+      <c r="G82" s="193"/>
+      <c r="H82" s="193"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -20378,7 +20392,7 @@
       <c r="B83" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="C83" s="184"/>
+      <c r="C83" s="186"/>
       <c r="D83" s="1" t="s">
         <v>724</v>
       </c>
@@ -20388,8 +20402,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="196"/>
-      <c r="H83" s="196"/>
+      <c r="G83" s="193"/>
+      <c r="H83" s="193"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -20398,7 +20412,7 @@
       <c r="B84" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="C84" s="184"/>
+      <c r="C84" s="186"/>
       <c r="D84" s="1" t="s">
         <v>727</v>
       </c>
@@ -20408,8 +20422,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="196"/>
-      <c r="H84" s="196"/>
+      <c r="G84" s="193"/>
+      <c r="H84" s="193"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -20418,7 +20432,7 @@
       <c r="B85" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="184"/>
+      <c r="C85" s="186"/>
       <c r="D85" s="1" t="s">
         <v>734</v>
       </c>
@@ -20428,8 +20442,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="196"/>
-      <c r="H85" s="196"/>
+      <c r="G85" s="193"/>
+      <c r="H85" s="193"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -20438,7 +20452,7 @@
       <c r="B86" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C86" s="184"/>
+      <c r="C86" s="186"/>
       <c r="D86" s="1" t="s">
         <v>735</v>
       </c>
@@ -20448,8 +20462,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="196"/>
-      <c r="H86" s="196"/>
+      <c r="G86" s="193"/>
+      <c r="H86" s="193"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -20458,7 +20472,7 @@
       <c r="B87" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C87" s="184"/>
+      <c r="C87" s="186"/>
       <c r="D87" s="1" t="s">
         <v>736</v>
       </c>
@@ -20468,8 +20482,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="196"/>
-      <c r="H87" s="196"/>
+      <c r="G87" s="193"/>
+      <c r="H87" s="193"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -20478,7 +20492,7 @@
       <c r="B88" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C88" s="184"/>
+      <c r="C88" s="186"/>
       <c r="D88" s="1" t="s">
         <v>737</v>
       </c>
@@ -20488,8 +20502,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="196"/>
-      <c r="H88" s="196"/>
+      <c r="G88" s="193"/>
+      <c r="H88" s="193"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -20498,7 +20512,7 @@
       <c r="B89" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C89" s="184"/>
+      <c r="C89" s="186"/>
       <c r="D89" s="1" t="s">
         <v>733</v>
       </c>
@@ -20508,8 +20522,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="196"/>
-      <c r="H89" s="196"/>
+      <c r="G89" s="193"/>
+      <c r="H89" s="193"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -20518,7 +20532,7 @@
       <c r="B90" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C90" s="184"/>
+      <c r="C90" s="186"/>
       <c r="D90" s="4" t="s">
         <v>739</v>
       </c>
@@ -20528,8 +20542,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="196"/>
-      <c r="H90" s="196"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -20538,7 +20552,7 @@
       <c r="B91" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C91" s="184"/>
+      <c r="C91" s="186"/>
       <c r="D91" s="4" t="s">
         <v>739</v>
       </c>
@@ -20548,8 +20562,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="196"/>
-      <c r="H91" s="196"/>
+      <c r="G91" s="193"/>
+      <c r="H91" s="193"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -20558,7 +20572,7 @@
       <c r="B92" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C92" s="184"/>
+      <c r="C92" s="186"/>
       <c r="D92" s="4" t="s">
         <v>739</v>
       </c>
@@ -20568,8 +20582,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="196"/>
-      <c r="H92" s="196"/>
+      <c r="G92" s="193"/>
+      <c r="H92" s="193"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -20578,7 +20592,7 @@
       <c r="B93" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C93" s="185"/>
+      <c r="C93" s="187"/>
       <c r="D93" s="4" t="s">
         <v>739</v>
       </c>
@@ -20588,8 +20602,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="196"/>
-      <c r="H93" s="196"/>
+      <c r="G93" s="193"/>
+      <c r="H93" s="193"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -20608,8 +20622,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="198"/>
-      <c r="H94" s="199"/>
+      <c r="G94" s="195"/>
+      <c r="H94" s="196"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -20628,8 +20642,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="198"/>
-      <c r="H95" s="199"/>
+      <c r="G95" s="195"/>
+      <c r="H95" s="196"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -20648,8 +20662,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="198"/>
-      <c r="H96" s="199"/>
+      <c r="G96" s="195"/>
+      <c r="H96" s="196"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -20670,8 +20684,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="198"/>
-      <c r="H97" s="199"/>
+      <c r="G97" s="195"/>
+      <c r="H97" s="196"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -20692,8 +20706,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="213"/>
-      <c r="H98" s="213"/>
+      <c r="G98" s="194"/>
+      <c r="H98" s="194"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -20714,10 +20728,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="196" t="s">
+      <c r="G99" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="196"/>
+      <c r="H99" s="193"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -20738,10 +20752,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="196" t="s">
+      <c r="G100" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="196"/>
+      <c r="H100" s="193"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -20762,10 +20776,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="196" t="s">
+      <c r="G101" s="193" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="196"/>
+      <c r="H101" s="193"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -20784,8 +20798,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="196"/>
-      <c r="H102" s="196"/>
+      <c r="G102" s="193"/>
+      <c r="H102" s="193"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -20804,8 +20818,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="196"/>
-      <c r="H103" s="196"/>
+      <c r="G103" s="193"/>
+      <c r="H103" s="193"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -20814,7 +20828,7 @@
       <c r="B104" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C104" s="186" t="s">
+      <c r="C104" s="188" t="s">
         <v>516</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -20826,8 +20840,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="196"/>
-      <c r="H104" s="196"/>
+      <c r="G104" s="193"/>
+      <c r="H104" s="193"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -20836,7 +20850,7 @@
       <c r="B105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="186"/>
+      <c r="C105" s="188"/>
       <c r="D105" s="20" t="s">
         <v>766</v>
       </c>
@@ -20846,8 +20860,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="196"/>
-      <c r="H105" s="196"/>
+      <c r="G105" s="193"/>
+      <c r="H105" s="193"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -20856,7 +20870,7 @@
       <c r="B106" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="186"/>
+      <c r="C106" s="188"/>
       <c r="D106" s="20" t="s">
         <v>767</v>
       </c>
@@ -20866,8 +20880,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="196"/>
-      <c r="H106" s="196"/>
+      <c r="G106" s="193"/>
+      <c r="H106" s="193"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -20876,7 +20890,7 @@
       <c r="B107" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="186"/>
+      <c r="C107" s="188"/>
       <c r="D107" s="20" t="s">
         <v>768</v>
       </c>
@@ -20886,8 +20900,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="196"/>
-      <c r="H107" s="196"/>
+      <c r="G107" s="193"/>
+      <c r="H107" s="193"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -20908,17 +20922,17 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="196"/>
-      <c r="H108" s="196"/>
+      <c r="G108" s="193"/>
+      <c r="H108" s="193"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
         <v>38</v>
       </c>
-      <c r="B109" s="186" t="s">
+      <c r="B109" s="188" t="s">
         <v>786</v>
       </c>
-      <c r="C109" s="186" t="s">
+      <c r="C109" s="188" t="s">
         <v>787</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -20930,17 +20944,17 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="221" t="s">
+      <c r="G109" s="204" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="222"/>
+      <c r="H109" s="205"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
         <v>39</v>
       </c>
-      <c r="B110" s="186"/>
-      <c r="C110" s="186"/>
+      <c r="B110" s="188"/>
+      <c r="C110" s="188"/>
       <c r="D110" s="33" t="s">
         <v>774</v>
       </c>
@@ -20950,15 +20964,15 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="223"/>
-      <c r="H110" s="224"/>
+      <c r="G110" s="206"/>
+      <c r="H110" s="207"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
         <v>40</v>
       </c>
-      <c r="B111" s="186"/>
-      <c r="C111" s="186"/>
+      <c r="B111" s="188"/>
+      <c r="C111" s="188"/>
       <c r="D111" s="33" t="s">
         <v>775</v>
       </c>
@@ -20968,15 +20982,15 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="223"/>
-      <c r="H111" s="224"/>
+      <c r="G111" s="206"/>
+      <c r="H111" s="207"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
         <v>41</v>
       </c>
-      <c r="B112" s="186"/>
-      <c r="C112" s="186"/>
+      <c r="B112" s="188"/>
+      <c r="C112" s="188"/>
       <c r="D112" s="33" t="s">
         <v>776</v>
       </c>
@@ -20986,15 +21000,15 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="223"/>
-      <c r="H112" s="224"/>
+      <c r="G112" s="206"/>
+      <c r="H112" s="207"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
         <v>42</v>
       </c>
-      <c r="B113" s="186"/>
-      <c r="C113" s="186"/>
+      <c r="B113" s="188"/>
+      <c r="C113" s="188"/>
       <c r="D113" s="33" t="s">
         <v>784</v>
       </c>
@@ -21004,15 +21018,15 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="223"/>
-      <c r="H113" s="224"/>
+      <c r="G113" s="206"/>
+      <c r="H113" s="207"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
         <v>43</v>
       </c>
-      <c r="B114" s="186"/>
-      <c r="C114" s="186"/>
+      <c r="B114" s="188"/>
+      <c r="C114" s="188"/>
       <c r="D114" s="33" t="s">
         <v>777</v>
       </c>
@@ -21022,15 +21036,15 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="223"/>
-      <c r="H114" s="224"/>
+      <c r="G114" s="206"/>
+      <c r="H114" s="207"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
         <v>44</v>
       </c>
-      <c r="B115" s="186"/>
-      <c r="C115" s="186"/>
+      <c r="B115" s="188"/>
+      <c r="C115" s="188"/>
       <c r="D115" s="33" t="s">
         <v>778</v>
       </c>
@@ -21040,15 +21054,15 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="223"/>
-      <c r="H115" s="224"/>
+      <c r="G115" s="206"/>
+      <c r="H115" s="207"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
         <v>45</v>
       </c>
-      <c r="B116" s="186"/>
-      <c r="C116" s="186"/>
+      <c r="B116" s="188"/>
+      <c r="C116" s="188"/>
       <c r="D116" s="33" t="s">
         <v>779</v>
       </c>
@@ -21058,15 +21072,15 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="223"/>
-      <c r="H116" s="224"/>
+      <c r="G116" s="206"/>
+      <c r="H116" s="207"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
         <v>46</v>
       </c>
-      <c r="B117" s="186"/>
-      <c r="C117" s="186"/>
+      <c r="B117" s="188"/>
+      <c r="C117" s="188"/>
       <c r="D117" s="33" t="s">
         <v>780</v>
       </c>
@@ -21076,15 +21090,15 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="223"/>
-      <c r="H117" s="224"/>
+      <c r="G117" s="206"/>
+      <c r="H117" s="207"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
         <v>47</v>
       </c>
-      <c r="B118" s="186"/>
-      <c r="C118" s="186"/>
+      <c r="B118" s="188"/>
+      <c r="C118" s="188"/>
       <c r="D118" s="33" t="s">
         <v>781</v>
       </c>
@@ -21094,15 +21108,15 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="223"/>
-      <c r="H118" s="224"/>
+      <c r="G118" s="206"/>
+      <c r="H118" s="207"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
         <v>48</v>
       </c>
-      <c r="B119" s="186"/>
-      <c r="C119" s="186"/>
+      <c r="B119" s="188"/>
+      <c r="C119" s="188"/>
       <c r="D119" s="33" t="s">
         <v>782</v>
       </c>
@@ -21112,15 +21126,15 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="223"/>
-      <c r="H119" s="224"/>
+      <c r="G119" s="206"/>
+      <c r="H119" s="207"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
         <v>49</v>
       </c>
-      <c r="B120" s="186"/>
-      <c r="C120" s="186"/>
+      <c r="B120" s="188"/>
+      <c r="C120" s="188"/>
       <c r="D120" s="33" t="s">
         <v>783</v>
       </c>
@@ -21130,15 +21144,15 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="223"/>
-      <c r="H120" s="224"/>
+      <c r="G120" s="206"/>
+      <c r="H120" s="207"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
         <v>50</v>
       </c>
-      <c r="B121" s="186"/>
-      <c r="C121" s="186"/>
+      <c r="B121" s="188"/>
+      <c r="C121" s="188"/>
       <c r="D121" s="33" t="s">
         <v>785</v>
       </c>
@@ -21148,8 +21162,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="225"/>
-      <c r="H121" s="226"/>
+      <c r="G121" s="208"/>
+      <c r="H121" s="209"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -21285,13 +21299,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="191" t="s">
+      <c r="B135" s="210" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="191"/>
-      <c r="D135" s="191"/>
-      <c r="E135" s="191"/>
-      <c r="F135" s="191"/>
+      <c r="C135" s="210"/>
+      <c r="D135" s="210"/>
+      <c r="E135" s="210"/>
+      <c r="F135" s="210"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -21312,10 +21326,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="192" t="s">
+      <c r="G136" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="192"/>
+      <c r="H136" s="203"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -21334,8 +21348,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="198"/>
-      <c r="H137" s="199"/>
+      <c r="G137" s="195"/>
+      <c r="H137" s="196"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -21356,10 +21370,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="197" t="s">
+      <c r="G138" s="201" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="196"/>
+      <c r="H138" s="193"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -21380,8 +21394,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="196"/>
-      <c r="H139" s="196"/>
+      <c r="G139" s="193"/>
+      <c r="H139" s="193"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -21390,7 +21404,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="227" t="s">
+      <c r="C140" s="197" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -21402,10 +21416,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="207" t="s">
+      <c r="G140" s="217" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="208"/>
+      <c r="H140" s="218"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -21414,7 +21428,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="228"/>
+      <c r="C141" s="198"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -21424,8 +21438,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="209"/>
-      <c r="H141" s="210"/>
+      <c r="G141" s="219"/>
+      <c r="H141" s="220"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -21434,7 +21448,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="227" t="s">
+      <c r="C142" s="197" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -21446,8 +21460,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="196"/>
-      <c r="H142" s="196"/>
+      <c r="G142" s="193"/>
+      <c r="H142" s="193"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -21456,7 +21470,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="228"/>
+      <c r="C143" s="198"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -21466,8 +21480,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="196"/>
-      <c r="H143" s="196"/>
+      <c r="G143" s="193"/>
+      <c r="H143" s="193"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -21476,7 +21490,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="227" t="s">
+      <c r="C144" s="197" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -21488,8 +21502,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="198"/>
-      <c r="H144" s="199"/>
+      <c r="G144" s="195"/>
+      <c r="H144" s="196"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -21498,7 +21512,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="228"/>
+      <c r="C145" s="198"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -21508,8 +21522,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="196"/>
-      <c r="H145" s="196"/>
+      <c r="G145" s="193"/>
+      <c r="H145" s="193"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -21518,7 +21532,7 @@
       <c r="B146" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C146" s="183" t="s">
+      <c r="C146" s="185" t="s">
         <v>634</v>
       </c>
       <c r="D146" s="36" t="s">
@@ -21530,8 +21544,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="196"/>
-      <c r="H146" s="196"/>
+      <c r="G146" s="193"/>
+      <c r="H146" s="193"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -21540,7 +21554,7 @@
       <c r="B147" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="184"/>
+      <c r="C147" s="186"/>
       <c r="D147" s="36" t="s">
         <v>809</v>
       </c>
@@ -21550,8 +21564,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="196"/>
-      <c r="H147" s="196"/>
+      <c r="G147" s="193"/>
+      <c r="H147" s="193"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -21560,7 +21574,7 @@
       <c r="B148" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="C148" s="185"/>
+      <c r="C148" s="187"/>
       <c r="D148" s="158" t="s">
         <v>810</v>
       </c>
@@ -21570,8 +21584,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="196"/>
-      <c r="H148" s="196"/>
+      <c r="G148" s="193"/>
+      <c r="H148" s="193"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -21592,10 +21606,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="196" t="s">
+      <c r="G149" s="193" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="196"/>
+      <c r="H149" s="193"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -21616,10 +21630,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="196" t="s">
+      <c r="G150" s="193" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="196"/>
+      <c r="H150" s="193"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -21640,10 +21654,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="196" t="s">
+      <c r="G151" s="193" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="196"/>
+      <c r="H151" s="193"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -21652,7 +21666,7 @@
       <c r="B152" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C152" s="183" t="s">
+      <c r="C152" s="185" t="s">
         <v>575</v>
       </c>
       <c r="D152" s="20" t="s">
@@ -21664,8 +21678,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="196"/>
-      <c r="H152" s="196"/>
+      <c r="G152" s="193"/>
+      <c r="H152" s="193"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -21674,7 +21688,7 @@
       <c r="B153" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C153" s="184"/>
+      <c r="C153" s="186"/>
       <c r="D153" s="20" t="s">
         <v>818</v>
       </c>
@@ -21684,8 +21698,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="196"/>
-      <c r="H153" s="196"/>
+      <c r="G153" s="193"/>
+      <c r="H153" s="193"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -21694,7 +21708,7 @@
       <c r="B154" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C154" s="184"/>
+      <c r="C154" s="186"/>
       <c r="D154" s="20" t="s">
         <v>819</v>
       </c>
@@ -21704,8 +21718,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="196"/>
-      <c r="H154" s="196"/>
+      <c r="G154" s="193"/>
+      <c r="H154" s="193"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -21714,7 +21728,7 @@
       <c r="B155" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C155" s="184"/>
+      <c r="C155" s="186"/>
       <c r="D155" s="20" t="s">
         <v>820</v>
       </c>
@@ -21724,8 +21738,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="196"/>
-      <c r="H155" s="196"/>
+      <c r="G155" s="193"/>
+      <c r="H155" s="193"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -21734,7 +21748,7 @@
       <c r="B156" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C156" s="184"/>
+      <c r="C156" s="186"/>
       <c r="D156" s="20" t="s">
         <v>821</v>
       </c>
@@ -21744,8 +21758,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="196"/>
-      <c r="H156" s="196"/>
+      <c r="G156" s="193"/>
+      <c r="H156" s="193"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -21754,7 +21768,7 @@
       <c r="B157" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C157" s="184"/>
+      <c r="C157" s="186"/>
       <c r="D157" s="20" t="s">
         <v>822</v>
       </c>
@@ -21764,8 +21778,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="196"/>
-      <c r="H157" s="196"/>
+      <c r="G157" s="193"/>
+      <c r="H157" s="193"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -21774,7 +21788,7 @@
       <c r="B158" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C158" s="184"/>
+      <c r="C158" s="186"/>
       <c r="D158" s="20" t="s">
         <v>823</v>
       </c>
@@ -21784,8 +21798,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="196"/>
-      <c r="H158" s="196"/>
+      <c r="G158" s="193"/>
+      <c r="H158" s="193"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -21794,7 +21808,7 @@
       <c r="B159" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C159" s="184"/>
+      <c r="C159" s="186"/>
       <c r="D159" s="20" t="s">
         <v>824</v>
       </c>
@@ -21804,8 +21818,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="196"/>
-      <c r="H159" s="196"/>
+      <c r="G159" s="193"/>
+      <c r="H159" s="193"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -21814,7 +21828,7 @@
       <c r="B160" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C160" s="184"/>
+      <c r="C160" s="186"/>
       <c r="D160" s="20" t="s">
         <v>825</v>
       </c>
@@ -21824,8 +21838,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="196"/>
-      <c r="H160" s="196"/>
+      <c r="G160" s="193"/>
+      <c r="H160" s="193"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -21834,7 +21848,7 @@
       <c r="B161" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C161" s="184"/>
+      <c r="C161" s="186"/>
       <c r="D161" s="20" t="s">
         <v>826</v>
       </c>
@@ -21844,8 +21858,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="196"/>
-      <c r="H161" s="196"/>
+      <c r="G161" s="193"/>
+      <c r="H161" s="193"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -21854,7 +21868,7 @@
       <c r="B162" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C162" s="184"/>
+      <c r="C162" s="186"/>
       <c r="D162" s="20" t="s">
         <v>827</v>
       </c>
@@ -21864,8 +21878,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="196"/>
-      <c r="H162" s="196"/>
+      <c r="G162" s="193"/>
+      <c r="H162" s="193"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -21874,7 +21888,7 @@
       <c r="B163" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C163" s="184"/>
+      <c r="C163" s="186"/>
       <c r="D163" s="20" t="s">
         <v>828</v>
       </c>
@@ -21884,8 +21898,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="196"/>
-      <c r="H163" s="196"/>
+      <c r="G163" s="193"/>
+      <c r="H163" s="193"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -21894,7 +21908,7 @@
       <c r="B164" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C164" s="184"/>
+      <c r="C164" s="186"/>
       <c r="D164" s="20" t="s">
         <v>829</v>
       </c>
@@ -21904,8 +21918,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="196"/>
-      <c r="H164" s="196"/>
+      <c r="G164" s="193"/>
+      <c r="H164" s="193"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -21914,7 +21928,7 @@
       <c r="B165" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C165" s="184"/>
+      <c r="C165" s="186"/>
       <c r="D165" s="20" t="s">
         <v>830</v>
       </c>
@@ -21924,8 +21938,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="196"/>
-      <c r="H165" s="196"/>
+      <c r="G165" s="193"/>
+      <c r="H165" s="193"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -21934,7 +21948,7 @@
       <c r="B166" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C166" s="184"/>
+      <c r="C166" s="186"/>
       <c r="D166" s="20" t="s">
         <v>831</v>
       </c>
@@ -21944,8 +21958,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="196"/>
-      <c r="H166" s="196"/>
+      <c r="G166" s="193"/>
+      <c r="H166" s="193"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -21954,7 +21968,7 @@
       <c r="B167" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C167" s="184"/>
+      <c r="C167" s="186"/>
       <c r="D167" s="20" t="s">
         <v>832</v>
       </c>
@@ -21964,8 +21978,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="196"/>
-      <c r="H167" s="196"/>
+      <c r="G167" s="193"/>
+      <c r="H167" s="193"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -21974,7 +21988,7 @@
       <c r="B168" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C168" s="184"/>
+      <c r="C168" s="186"/>
       <c r="D168" s="20" t="s">
         <v>833</v>
       </c>
@@ -21984,8 +21998,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="196"/>
-      <c r="H168" s="196"/>
+      <c r="G168" s="193"/>
+      <c r="H168" s="193"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -21994,7 +22008,7 @@
       <c r="B169" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C169" s="184"/>
+      <c r="C169" s="186"/>
       <c r="D169" s="20" t="s">
         <v>834</v>
       </c>
@@ -22004,8 +22018,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="196"/>
-      <c r="H169" s="196"/>
+      <c r="G169" s="193"/>
+      <c r="H169" s="193"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -22014,7 +22028,7 @@
       <c r="B170" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C170" s="184"/>
+      <c r="C170" s="186"/>
       <c r="D170" s="20" t="s">
         <v>835</v>
       </c>
@@ -22024,8 +22038,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="196"/>
-      <c r="H170" s="196"/>
+      <c r="G170" s="193"/>
+      <c r="H170" s="193"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -22034,7 +22048,7 @@
       <c r="B171" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C171" s="184"/>
+      <c r="C171" s="186"/>
       <c r="D171" s="20" t="s">
         <v>836</v>
       </c>
@@ -22044,8 +22058,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="196"/>
-      <c r="H171" s="196"/>
+      <c r="G171" s="193"/>
+      <c r="H171" s="193"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -22054,7 +22068,7 @@
       <c r="B172" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C172" s="184"/>
+      <c r="C172" s="186"/>
       <c r="D172" s="20" t="s">
         <v>837</v>
       </c>
@@ -22064,8 +22078,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="196"/>
-      <c r="H172" s="196"/>
+      <c r="G172" s="193"/>
+      <c r="H172" s="193"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -22074,7 +22088,7 @@
       <c r="B173" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C173" s="184"/>
+      <c r="C173" s="186"/>
       <c r="D173" s="20" t="s">
         <v>838</v>
       </c>
@@ -22084,8 +22098,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="196"/>
-      <c r="H173" s="196"/>
+      <c r="G173" s="193"/>
+      <c r="H173" s="193"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -22094,7 +22108,7 @@
       <c r="B174" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C174" s="184"/>
+      <c r="C174" s="186"/>
       <c r="D174" s="20" t="s">
         <v>839</v>
       </c>
@@ -22104,8 +22118,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="196"/>
-      <c r="H174" s="196"/>
+      <c r="G174" s="193"/>
+      <c r="H174" s="193"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -22114,7 +22128,7 @@
       <c r="B175" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C175" s="185"/>
+      <c r="C175" s="187"/>
       <c r="D175" s="20" t="s">
         <v>840</v>
       </c>
@@ -22124,8 +22138,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="196"/>
-      <c r="H175" s="196"/>
+      <c r="G175" s="193"/>
+      <c r="H175" s="193"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -22134,7 +22148,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="200" t="s">
+      <c r="C176" s="221" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -22146,10 +22160,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="203" t="s">
+      <c r="G176" s="224" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="204"/>
+      <c r="H176" s="225"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -22158,7 +22172,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="201"/>
+      <c r="C177" s="222"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -22168,8 +22182,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="205"/>
-      <c r="H177" s="206"/>
+      <c r="G177" s="226"/>
+      <c r="H177" s="227"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -22178,7 +22192,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="200" t="s">
+      <c r="C178" s="221" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -22190,8 +22204,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="196"/>
-      <c r="H178" s="196"/>
+      <c r="G178" s="193"/>
+      <c r="H178" s="193"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -22200,7 +22214,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="201"/>
+      <c r="C179" s="222"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -22210,8 +22224,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="196"/>
-      <c r="H179" s="196"/>
+      <c r="G179" s="193"/>
+      <c r="H179" s="193"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -22220,7 +22234,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="200" t="s">
+      <c r="C180" s="221" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -22232,8 +22246,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="196"/>
-      <c r="H180" s="196"/>
+      <c r="G180" s="193"/>
+      <c r="H180" s="193"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -22242,7 +22256,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="202"/>
+      <c r="C181" s="223"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -22252,8 +22266,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="196"/>
-      <c r="H181" s="196"/>
+      <c r="G181" s="193"/>
+      <c r="H181" s="193"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -22262,7 +22276,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="202"/>
+      <c r="C182" s="223"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -22272,8 +22286,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="196"/>
-      <c r="H182" s="196"/>
+      <c r="G182" s="193"/>
+      <c r="H182" s="193"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -22282,7 +22296,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="202"/>
+      <c r="C183" s="223"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -22292,8 +22306,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="196"/>
-      <c r="H183" s="196"/>
+      <c r="G183" s="193"/>
+      <c r="H183" s="193"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -22302,7 +22316,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="202"/>
+      <c r="C184" s="223"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -22312,8 +22326,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="196"/>
-      <c r="H184" s="196"/>
+      <c r="G184" s="193"/>
+      <c r="H184" s="193"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -22322,7 +22336,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="202"/>
+      <c r="C185" s="223"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -22332,8 +22346,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="196"/>
-      <c r="H185" s="196"/>
+      <c r="G185" s="193"/>
+      <c r="H185" s="193"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -22342,7 +22356,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="202"/>
+      <c r="C186" s="223"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -22352,8 +22366,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="196"/>
-      <c r="H186" s="196"/>
+      <c r="G186" s="193"/>
+      <c r="H186" s="193"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -22362,7 +22376,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="202"/>
+      <c r="C187" s="223"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -22372,8 +22386,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="196"/>
-      <c r="H187" s="196"/>
+      <c r="G187" s="193"/>
+      <c r="H187" s="193"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -22382,7 +22396,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="202"/>
+      <c r="C188" s="223"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -22392,8 +22406,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="196"/>
-      <c r="H188" s="196"/>
+      <c r="G188" s="193"/>
+      <c r="H188" s="193"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -22402,7 +22416,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="202"/>
+      <c r="C189" s="223"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -22412,8 +22426,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="196"/>
-      <c r="H189" s="196"/>
+      <c r="G189" s="193"/>
+      <c r="H189" s="193"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -22422,7 +22436,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="202"/>
+      <c r="C190" s="223"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -22432,8 +22446,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="196"/>
-      <c r="H190" s="196"/>
+      <c r="G190" s="193"/>
+      <c r="H190" s="193"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -22442,7 +22456,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="202"/>
+      <c r="C191" s="223"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -22452,8 +22466,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="196"/>
-      <c r="H191" s="196"/>
+      <c r="G191" s="193"/>
+      <c r="H191" s="193"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -22462,7 +22476,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="202"/>
+      <c r="C192" s="223"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -22472,8 +22486,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="196"/>
-      <c r="H192" s="196"/>
+      <c r="G192" s="193"/>
+      <c r="H192" s="193"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -22482,7 +22496,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="202"/>
+      <c r="C193" s="223"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -22492,8 +22506,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="196"/>
-      <c r="H193" s="196"/>
+      <c r="G193" s="193"/>
+      <c r="H193" s="193"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -22502,7 +22516,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="202"/>
+      <c r="C194" s="223"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -22512,8 +22526,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="196"/>
-      <c r="H194" s="196"/>
+      <c r="G194" s="193"/>
+      <c r="H194" s="193"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -22522,7 +22536,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="202"/>
+      <c r="C195" s="223"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -22532,8 +22546,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="196"/>
-      <c r="H195" s="196"/>
+      <c r="G195" s="193"/>
+      <c r="H195" s="193"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -22542,7 +22556,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="202"/>
+      <c r="C196" s="223"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -22552,8 +22566,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="196"/>
-      <c r="H196" s="196"/>
+      <c r="G196" s="193"/>
+      <c r="H196" s="193"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -22562,7 +22576,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="202"/>
+      <c r="C197" s="223"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -22572,8 +22586,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="196"/>
-      <c r="H197" s="196"/>
+      <c r="G197" s="193"/>
+      <c r="H197" s="193"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -22582,7 +22596,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="202"/>
+      <c r="C198" s="223"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -22592,8 +22606,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="196"/>
-      <c r="H198" s="196"/>
+      <c r="G198" s="193"/>
+      <c r="H198" s="193"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -22602,7 +22616,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="202"/>
+      <c r="C199" s="223"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -22612,8 +22626,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="196"/>
-      <c r="H199" s="196"/>
+      <c r="G199" s="193"/>
+      <c r="H199" s="193"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -22622,7 +22636,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="202"/>
+      <c r="C200" s="223"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -22632,8 +22646,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="196"/>
-      <c r="H200" s="196"/>
+      <c r="G200" s="193"/>
+      <c r="H200" s="193"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -22642,7 +22656,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="202"/>
+      <c r="C201" s="223"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -22652,8 +22666,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="196"/>
-      <c r="H201" s="196"/>
+      <c r="G201" s="193"/>
+      <c r="H201" s="193"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -22662,7 +22676,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="202"/>
+      <c r="C202" s="223"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -22672,8 +22686,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="196"/>
-      <c r="H202" s="196"/>
+      <c r="G202" s="193"/>
+      <c r="H202" s="193"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -22682,7 +22696,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="201"/>
+      <c r="C203" s="222"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -22692,8 +22706,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="196"/>
-      <c r="H203" s="196"/>
+      <c r="G203" s="193"/>
+      <c r="H203" s="193"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -22714,8 +22728,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="196"/>
-      <c r="H204" s="196"/>
+      <c r="G204" s="193"/>
+      <c r="H204" s="193"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -22734,10 +22748,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="196" t="s">
+      <c r="G205" s="193" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="196"/>
+      <c r="H205" s="193"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -22758,8 +22772,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="198"/>
-      <c r="H206" s="199"/>
+      <c r="G206" s="195"/>
+      <c r="H206" s="196"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -22780,8 +22794,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="198"/>
-      <c r="H207" s="199"/>
+      <c r="G207" s="195"/>
+      <c r="H207" s="196"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -22802,8 +22816,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="213"/>
-      <c r="H208" s="213"/>
+      <c r="G208" s="194"/>
+      <c r="H208" s="194"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -22879,13 +22893,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="191" t="s">
+      <c r="B216" s="210" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="191"/>
-      <c r="D216" s="191"/>
-      <c r="E216" s="191"/>
-      <c r="F216" s="191"/>
+      <c r="C216" s="210"/>
+      <c r="D216" s="210"/>
+      <c r="E216" s="210"/>
+      <c r="F216" s="210"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -22906,12 +22920,12 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="192" t="s">
+      <c r="G217" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="192"/>
-    </row>
-    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H217" s="203"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
         <v>1</v>
       </c>
@@ -22926,19 +22940,19 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="197" t="s">
+      <c r="G218" s="201" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="196"/>
-    </row>
-    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H218" s="193"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
         <v>2</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C219" s="183" t="s">
+      <c r="C219" s="185" t="s">
         <v>516</v>
       </c>
       <c r="D219" s="20" t="s">
@@ -22950,17 +22964,17 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="197"/>
-      <c r="H219" s="196"/>
-    </row>
-    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G219" s="201"/>
+      <c r="H219" s="193"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
         <v>3</v>
       </c>
       <c r="B220" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C220" s="185"/>
+      <c r="C220" s="187"/>
       <c r="D220" s="178" t="s">
         <v>805</v>
       </c>
@@ -22970,17 +22984,17 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="196"/>
-      <c r="H220" s="196"/>
-    </row>
-    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G220" s="193"/>
+      <c r="H220" s="193"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
         <v>4</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C221" s="183" t="s">
+      <c r="C221" s="185" t="s">
         <v>516</v>
       </c>
       <c r="D221" s="161" t="s">
@@ -22992,17 +23006,17 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="196"/>
-      <c r="H221" s="196"/>
-    </row>
-    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G221" s="193"/>
+      <c r="H221" s="193"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
         <v>5</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C222" s="185"/>
+      <c r="C222" s="187"/>
       <c r="D222" s="161" t="s">
         <v>797</v>
       </c>
@@ -23012,10 +23026,10 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="196"/>
-      <c r="H222" s="196"/>
-    </row>
-    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G222" s="193"/>
+      <c r="H222" s="193"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
         <v>6</v>
       </c>
@@ -23032,10 +23046,10 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="196"/>
-      <c r="H223" s="196"/>
-    </row>
-    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="G223" s="193"/>
+      <c r="H223" s="193"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
         <v>7</v>
       </c>
@@ -23054,7 +23068,7 @@
       </c>
       <c r="G224" s="1"/>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="177">
         <v>8</v>
       </c>
@@ -23080,7 +23094,7 @@
       <c r="B226" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C226" s="183" t="s">
+      <c r="C226" s="185" t="s">
         <v>905</v>
       </c>
       <c r="D226" s="20" t="s">
@@ -23101,7 +23115,7 @@
       <c r="B227" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C227" s="185"/>
+      <c r="C227" s="187"/>
       <c r="D227" s="20" t="s">
         <v>851</v>
       </c>
@@ -23113,7 +23127,7 @@
       </c>
       <c r="G227" s="1"/>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="177">
         <v>11</v>
       </c>
@@ -23151,7 +23165,7 @@
       </c>
       <c r="G229" s="1"/>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="177">
         <v>13</v>
       </c>
@@ -23168,18 +23182,18 @@
         <v>758</v>
       </c>
       <c r="F230" s="179" t="s">
-        <v>883</v>
+        <v>571</v>
       </c>
       <c r="G230" s="1"/>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="193" t="s">
+      <c r="B231" s="228" t="s">
         <v>899</v>
       </c>
-      <c r="C231" s="183" t="s">
+      <c r="C231" s="185" t="s">
         <v>900</v>
       </c>
       <c r="D231" s="33" t="s">
@@ -23193,12 +23207,12 @@
       </c>
       <c r="G231" s="1"/>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="194"/>
-      <c r="C232" s="184"/>
+      <c r="B232" s="229"/>
+      <c r="C232" s="186"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
       </c>
@@ -23210,12 +23224,12 @@
       </c>
       <c r="G232" s="1"/>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="194"/>
-      <c r="C233" s="184"/>
+      <c r="B233" s="229"/>
+      <c r="C233" s="186"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
       </c>
@@ -23227,12 +23241,12 @@
       </c>
       <c r="G233" s="1"/>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="194"/>
-      <c r="C234" s="184"/>
+      <c r="B234" s="229"/>
+      <c r="C234" s="186"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
       </c>
@@ -23244,12 +23258,12 @@
       </c>
       <c r="G234" s="1"/>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="194"/>
-      <c r="C235" s="184"/>
+      <c r="B235" s="229"/>
+      <c r="C235" s="186"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
       </c>
@@ -23261,12 +23275,12 @@
       </c>
       <c r="G235" s="1"/>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="194"/>
-      <c r="C236" s="184"/>
+      <c r="B236" s="229"/>
+      <c r="C236" s="186"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
       </c>
@@ -23274,16 +23288,16 @@
         <v>758</v>
       </c>
       <c r="F236" s="179" t="s">
-        <v>180</v>
+        <v>479</v>
       </c>
       <c r="G236" s="1"/>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="194"/>
-      <c r="C237" s="184"/>
+      <c r="B237" s="229"/>
+      <c r="C237" s="186"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
       </c>
@@ -23295,12 +23309,12 @@
       </c>
       <c r="G237" s="1"/>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="194"/>
-      <c r="C238" s="184"/>
+      <c r="B238" s="229"/>
+      <c r="C238" s="186"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
       </c>
@@ -23312,12 +23326,12 @@
       </c>
       <c r="G238" s="1"/>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="194"/>
-      <c r="C239" s="184"/>
+      <c r="B239" s="229"/>
+      <c r="C239" s="186"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
       </c>
@@ -23329,12 +23343,12 @@
       </c>
       <c r="G239" s="1"/>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="194"/>
-      <c r="C240" s="184"/>
+      <c r="B240" s="229"/>
+      <c r="C240" s="186"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
       </c>
@@ -23346,14 +23360,14 @@
       </c>
       <c r="G240" s="1"/>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="193" t="s">
+      <c r="B241" s="228" t="s">
         <v>901</v>
       </c>
-      <c r="C241" s="183" t="s">
+      <c r="C241" s="185" t="s">
         <v>761</v>
       </c>
       <c r="D241" s="9" t="s">
@@ -23367,12 +23381,12 @@
       </c>
       <c r="G241" s="1"/>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="194"/>
-      <c r="C242" s="184"/>
+      <c r="B242" s="229"/>
+      <c r="C242" s="186"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
       </c>
@@ -23384,12 +23398,12 @@
       </c>
       <c r="G242" s="1"/>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="194"/>
-      <c r="C243" s="184"/>
+      <c r="B243" s="229"/>
+      <c r="C243" s="186"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
       </c>
@@ -23401,12 +23415,12 @@
       </c>
       <c r="G243" s="1"/>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="194"/>
-      <c r="C244" s="184"/>
+      <c r="B244" s="229"/>
+      <c r="C244" s="186"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
       </c>
@@ -23418,12 +23432,12 @@
       </c>
       <c r="G244" s="1"/>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="194"/>
-      <c r="C245" s="184"/>
+      <c r="B245" s="229"/>
+      <c r="C245" s="186"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
       </c>
@@ -23435,12 +23449,12 @@
       </c>
       <c r="G245" s="1"/>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="194"/>
-      <c r="C246" s="184"/>
+      <c r="B246" s="229"/>
+      <c r="C246" s="186"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
       </c>
@@ -23452,12 +23466,12 @@
       </c>
       <c r="G246" s="1"/>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="195"/>
-      <c r="C247" s="185"/>
+      <c r="B247" s="230"/>
+      <c r="C247" s="187"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
       </c>
@@ -23473,10 +23487,10 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="193" t="s">
+      <c r="B248" s="228" t="s">
         <v>903</v>
       </c>
-      <c r="C248" s="183" t="s">
+      <c r="C248" s="185" t="s">
         <v>902</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -23494,8 +23508,8 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="194"/>
-      <c r="C249" s="184"/>
+      <c r="B249" s="229"/>
+      <c r="C249" s="186"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
       </c>
@@ -23511,8 +23525,8 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="194"/>
-      <c r="C250" s="184"/>
+      <c r="B250" s="229"/>
+      <c r="C250" s="186"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
       </c>
@@ -23528,8 +23542,8 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="194"/>
-      <c r="C251" s="184"/>
+      <c r="B251" s="229"/>
+      <c r="C251" s="186"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
       </c>
@@ -23545,8 +23559,8 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="194"/>
-      <c r="C252" s="184"/>
+      <c r="B252" s="229"/>
+      <c r="C252" s="186"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
       </c>
@@ -23562,8 +23576,8 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="194"/>
-      <c r="C253" s="184"/>
+      <c r="B253" s="229"/>
+      <c r="C253" s="186"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
       </c>
@@ -23579,8 +23593,8 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="194"/>
-      <c r="C254" s="184"/>
+      <c r="B254" s="229"/>
+      <c r="C254" s="186"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
       </c>
@@ -23596,8 +23610,8 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="194"/>
-      <c r="C255" s="184"/>
+      <c r="B255" s="229"/>
+      <c r="C255" s="186"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
       </c>
@@ -23613,8 +23627,8 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="194"/>
-      <c r="C256" s="184"/>
+      <c r="B256" s="229"/>
+      <c r="C256" s="186"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
       </c>
@@ -23630,8 +23644,8 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="195"/>
-      <c r="C257" s="185"/>
+      <c r="B257" s="230"/>
+      <c r="C257" s="187"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
       </c>
@@ -23644,20 +23658,41 @@
       <c r="G257" s="1"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A258" s="97"/>
-      <c r="B258" s="77"/>
-      <c r="C258" s="97"/>
-      <c r="D258" s="77"/>
-      <c r="E258" s="77"/>
-      <c r="F258" s="77"/>
+      <c r="A258" s="183">
+        <v>41</v>
+      </c>
+      <c r="B258" s="1"/>
+      <c r="C258" s="183" t="s">
+        <v>761</v>
+      </c>
+      <c r="D258" s="184" t="s">
+        <v>906</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="F258" s="40" t="s">
+        <v>883</v>
+      </c>
+      <c r="G258" s="1"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A259" s="97"/>
-      <c r="B259" s="77"/>
-      <c r="C259" s="97"/>
-      <c r="D259" s="77"/>
-      <c r="E259" s="77"/>
-      <c r="F259" s="77"/>
+      <c r="A259" s="183">
+        <v>42</v>
+      </c>
+      <c r="B259" s="1"/>
+      <c r="C259" s="183" t="s">
+        <v>182</v>
+      </c>
+      <c r="D259" s="184" t="s">
+        <v>908</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F259" s="40" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="97"/>
@@ -23818,53 +23853,196 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="220" t="s">
+      <c r="A272" s="202" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="220"/>
-      <c r="C272" s="220"/>
-      <c r="D272" s="220"/>
+      <c r="B272" s="202"/>
+      <c r="C272" s="202"/>
+      <c r="D272" s="202"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="196" t="s">
+      <c r="B273" s="193" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="196"/>
-      <c r="D273" s="196"/>
+      <c r="C273" s="193"/>
+      <c r="D273" s="193"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="196" t="s">
+      <c r="B274" s="193" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="196"/>
-      <c r="D274" s="196"/>
+      <c r="C274" s="193"/>
+      <c r="D274" s="193"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="196" t="s">
+      <c r="B275" s="193" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="196"/>
-      <c r="D275" s="196"/>
+      <c r="C275" s="193"/>
+      <c r="D275" s="193"/>
     </row>
   </sheetData>
-  <autoFilter ref="A217:H257" xr:uid="{D7D30597-7982-4F4D-82CA-553A5BF656B8}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Wayne"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A217:H258" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G191:H191"/>
@@ -23889,154 +24067,6 @@
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="G181:H181"/>
     <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -24299,37 +24329,37 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="229">
+      <c r="A4" s="231">
         <v>3</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="B4" s="232" t="s">
         <v>461</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="231" t="s">
+      <c r="D4" s="233" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="230" t="s">
+      <c r="E4" s="232" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="232" t="s">
+      <c r="F4" s="234" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="229"/>
+      <c r="G4" s="231"/>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="229"/>
-      <c r="B5" s="230"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="232"/>
       <c r="C5" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="231"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="232"/>
-      <c r="G5" s="229"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="234"/>
+      <c r="G5" s="231"/>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{348C11B5-1107-45F9-A13C-F6C762C1A37E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CAC78F8-19E6-4D44-9FDC-481553AD0A8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3767,6 +3767,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3791,89 +3809,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3896,14 +3857,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3917,24 +3935,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -12509,7 +12509,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2240280</xdr:colOff>
+      <xdr:colOff>2621280</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -12527,7 +12527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5082540" y="4953000"/>
-          <a:ext cx="2011680" cy="1249680"/>
+          <a:ext cx="2392680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13824,15 +13824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2369820</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4381500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>4945380</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13847,7 +13847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7223760" y="4968240"/>
+          <a:off x="7787640" y="4930140"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16156,37 +16156,37 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="232">
+      <c r="A4" s="242">
         <v>3</v>
       </c>
-      <c r="B4" s="233" t="s">
+      <c r="B4" s="243" t="s">
         <v>461</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>462</v>
       </c>
-      <c r="D4" s="234" t="s">
+      <c r="D4" s="244" t="s">
         <v>306</v>
       </c>
-      <c r="E4" s="233" t="s">
+      <c r="E4" s="243" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="235" t="s">
+      <c r="F4" s="245" t="s">
         <v>467</v>
       </c>
-      <c r="G4" s="232"/>
+      <c r="G4" s="242"/>
       <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="232"/>
-      <c r="B5" s="233"/>
+      <c r="A5" s="242"/>
+      <c r="B5" s="243"/>
       <c r="C5" s="85" t="s">
         <v>463</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="235"/>
-      <c r="G5" s="232"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -17422,7 +17422,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="196" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="116">
@@ -17448,7 +17448,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="187"/>
+      <c r="A3" s="197"/>
       <c r="B3" s="116">
         <v>102</v>
       </c>
@@ -17472,7 +17472,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="187"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="116">
         <v>103</v>
       </c>
@@ -17496,7 +17496,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="187"/>
+      <c r="A5" s="197"/>
       <c r="B5" s="116">
         <v>104</v>
       </c>
@@ -17520,7 +17520,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="187"/>
+      <c r="A6" s="197"/>
       <c r="B6" s="116">
         <v>105</v>
       </c>
@@ -17544,7 +17544,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="187"/>
+      <c r="A7" s="197"/>
       <c r="B7" s="148">
         <v>106</v>
       </c>
@@ -17566,7 +17566,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="187"/>
+      <c r="A8" s="197"/>
       <c r="B8" s="116">
         <v>107</v>
       </c>
@@ -17586,7 +17586,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="187"/>
+      <c r="A9" s="197"/>
       <c r="B9" s="116">
         <v>108</v>
       </c>
@@ -17606,7 +17606,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="187"/>
+      <c r="A10" s="197"/>
       <c r="B10" s="116">
         <v>109</v>
       </c>
@@ -17626,7 +17626,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="188"/>
+      <c r="A11" s="198"/>
       <c r="B11" s="22">
         <v>110</v>
       </c>
@@ -17644,7 +17644,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="196" t="s">
         <v>104</v>
       </c>
       <c r="B12" s="116">
@@ -17666,7 +17666,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="187"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="116">
         <v>202</v>
       </c>
@@ -17686,7 +17686,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="187"/>
+      <c r="A14" s="197"/>
       <c r="B14" s="116">
         <v>203</v>
       </c>
@@ -17706,7 +17706,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="188"/>
+      <c r="A15" s="198"/>
       <c r="B15" s="116"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -17716,7 +17716,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="196" t="s">
         <v>604</v>
       </c>
       <c r="B16" s="116">
@@ -17738,7 +17738,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="116">
         <v>302</v>
       </c>
@@ -17758,7 +17758,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="187"/>
+      <c r="A18" s="197"/>
       <c r="B18" s="116">
         <v>303</v>
       </c>
@@ -17778,7 +17778,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="187"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="116">
         <v>304</v>
       </c>
@@ -17798,7 +17798,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="187"/>
+      <c r="A20" s="197"/>
       <c r="B20" s="116">
         <v>305</v>
       </c>
@@ -17818,7 +17818,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="187"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="122">
         <v>306</v>
       </c>
@@ -17842,7 +17842,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="187"/>
+      <c r="A22" s="197"/>
       <c r="B22" s="122">
         <v>307</v>
       </c>
@@ -17862,7 +17862,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="1:8" s="133" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="187"/>
+      <c r="A23" s="197"/>
       <c r="B23" s="122">
         <v>308</v>
       </c>
@@ -17878,7 +17878,7 @@
       <c r="H23" s="132"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="187"/>
+      <c r="A24" s="197"/>
       <c r="B24" s="122">
         <v>309</v>
       </c>
@@ -17898,7 +17898,7 @@
       <c r="H24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="187"/>
+      <c r="A25" s="197"/>
       <c r="B25" s="122">
         <v>310</v>
       </c>
@@ -17918,7 +17918,7 @@
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="187"/>
+      <c r="A26" s="197"/>
       <c r="B26" s="122">
         <v>311</v>
       </c>
@@ -17938,7 +17938,7 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="187"/>
+      <c r="A27" s="197"/>
       <c r="B27" s="122">
         <v>312</v>
       </c>
@@ -17958,7 +17958,7 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="187"/>
+      <c r="A28" s="197"/>
       <c r="B28" s="122">
         <v>313</v>
       </c>
@@ -17978,7 +17978,7 @@
       <c r="H28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="187"/>
+      <c r="A29" s="197"/>
       <c r="B29" s="122">
         <v>314</v>
       </c>
@@ -17998,7 +17998,7 @@
       <c r="H29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="187"/>
+      <c r="A30" s="197"/>
       <c r="B30" s="122">
         <v>315</v>
       </c>
@@ -18018,7 +18018,7 @@
       <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="187"/>
+      <c r="A31" s="197"/>
       <c r="B31" s="122">
         <v>316</v>
       </c>
@@ -18038,7 +18038,7 @@
       <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="187"/>
+      <c r="A32" s="197"/>
       <c r="B32" s="122">
         <v>317</v>
       </c>
@@ -18058,7 +18058,7 @@
       <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="187"/>
+      <c r="A33" s="197"/>
       <c r="B33" s="122">
         <v>318</v>
       </c>
@@ -18078,7 +18078,7 @@
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="187"/>
+      <c r="A34" s="197"/>
       <c r="B34" s="122">
         <v>319</v>
       </c>
@@ -18098,7 +18098,7 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="187"/>
+      <c r="A35" s="197"/>
       <c r="B35" s="122">
         <v>320</v>
       </c>
@@ -18118,7 +18118,7 @@
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="187"/>
+      <c r="A36" s="197"/>
       <c r="B36" s="122">
         <v>321</v>
       </c>
@@ -18138,7 +18138,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="187"/>
+      <c r="A37" s="197"/>
       <c r="B37" s="122">
         <v>322</v>
       </c>
@@ -18158,7 +18158,7 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="187"/>
+      <c r="A38" s="197"/>
       <c r="B38" s="122">
         <v>323</v>
       </c>
@@ -18178,7 +18178,7 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="187"/>
+      <c r="A39" s="197"/>
       <c r="B39" s="122">
         <v>324</v>
       </c>
@@ -18198,7 +18198,7 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="188"/>
+      <c r="A40" s="198"/>
       <c r="B40" s="122"/>
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
@@ -18208,7 +18208,7 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="186" t="s">
+      <c r="A41" s="196" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="22">
@@ -18234,7 +18234,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="187"/>
+      <c r="A42" s="197"/>
       <c r="B42" s="22">
         <v>402</v>
       </c>
@@ -18258,7 +18258,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="187"/>
+      <c r="A43" s="197"/>
       <c r="B43" s="22">
         <v>403</v>
       </c>
@@ -18282,7 +18282,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="187"/>
+      <c r="A44" s="197"/>
       <c r="B44" s="165">
         <v>404</v>
       </c>
@@ -18306,7 +18306,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="187"/>
+      <c r="A45" s="197"/>
       <c r="B45" s="165">
         <v>405</v>
       </c>
@@ -18330,7 +18330,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="187"/>
+      <c r="A46" s="197"/>
       <c r="B46" s="22">
         <v>406</v>
       </c>
@@ -18354,7 +18354,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="187"/>
+      <c r="A47" s="197"/>
       <c r="B47" s="22">
         <v>407</v>
       </c>
@@ -18378,7 +18378,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="187"/>
+      <c r="A48" s="197"/>
       <c r="B48" s="22">
         <v>408</v>
       </c>
@@ -18402,7 +18402,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="187"/>
+      <c r="A49" s="197"/>
       <c r="B49" s="165">
         <v>409</v>
       </c>
@@ -18426,7 +18426,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="187"/>
+      <c r="A50" s="197"/>
       <c r="B50" s="22">
         <v>410</v>
       </c>
@@ -18450,7 +18450,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="187"/>
+      <c r="A51" s="197"/>
       <c r="B51" s="166">
         <v>411</v>
       </c>
@@ -18474,7 +18474,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="187"/>
+      <c r="A52" s="197"/>
       <c r="B52" s="22">
         <v>412</v>
       </c>
@@ -18498,7 +18498,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="187"/>
+      <c r="A53" s="197"/>
       <c r="B53" s="22">
         <v>413</v>
       </c>
@@ -18522,7 +18522,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="187"/>
+      <c r="A54" s="197"/>
       <c r="B54" s="122">
         <v>414</v>
       </c>
@@ -18546,7 +18546,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="187"/>
+      <c r="A55" s="197"/>
       <c r="B55" s="122">
         <v>415</v>
       </c>
@@ -18570,7 +18570,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="187"/>
+      <c r="A56" s="197"/>
       <c r="B56" s="122">
         <v>416</v>
       </c>
@@ -18594,7 +18594,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="187"/>
+      <c r="A57" s="197"/>
       <c r="B57" s="122">
         <v>417</v>
       </c>
@@ -18618,7 +18618,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="187"/>
+      <c r="A58" s="197"/>
       <c r="B58" s="122">
         <v>418</v>
       </c>
@@ -18642,7 +18642,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="187"/>
+      <c r="A59" s="197"/>
       <c r="B59" s="122">
         <v>419</v>
       </c>
@@ -18660,7 +18660,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="187"/>
+      <c r="A60" s="197"/>
       <c r="B60" s="160">
         <v>420</v>
       </c>
@@ -18684,7 +18684,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="187"/>
+      <c r="A61" s="197"/>
       <c r="B61" s="160">
         <v>421</v>
       </c>
@@ -18708,7 +18708,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="187"/>
+      <c r="A62" s="197"/>
       <c r="B62" s="160">
         <v>422</v>
       </c>
@@ -18732,7 +18732,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="187"/>
+      <c r="A63" s="197"/>
       <c r="B63" s="160">
         <v>423</v>
       </c>
@@ -18756,7 +18756,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="187"/>
+      <c r="A64" s="197"/>
       <c r="B64" s="160">
         <v>424</v>
       </c>
@@ -18780,7 +18780,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="187"/>
+      <c r="A65" s="197"/>
       <c r="B65" s="160">
         <v>425</v>
       </c>
@@ -18804,7 +18804,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="187"/>
+      <c r="A66" s="197"/>
       <c r="B66" s="160">
         <v>426</v>
       </c>
@@ -18828,7 +18828,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="187"/>
+      <c r="A67" s="197"/>
       <c r="B67" s="160">
         <v>427</v>
       </c>
@@ -18852,7 +18852,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="187"/>
+      <c r="A68" s="197"/>
       <c r="B68" s="160">
         <v>428</v>
       </c>
@@ -18876,7 +18876,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="187"/>
+      <c r="A69" s="197"/>
       <c r="B69" s="160">
         <v>429</v>
       </c>
@@ -18900,7 +18900,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="187"/>
+      <c r="A70" s="197"/>
       <c r="B70" s="160">
         <v>430</v>
       </c>
@@ -18924,7 +18924,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="187"/>
+      <c r="A71" s="197"/>
       <c r="B71" s="160">
         <v>431</v>
       </c>
@@ -18948,7 +18948,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="187"/>
+      <c r="A72" s="197"/>
       <c r="B72" s="160">
         <v>432</v>
       </c>
@@ -18972,7 +18972,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="187"/>
+      <c r="A73" s="197"/>
       <c r="B73" s="160">
         <v>433</v>
       </c>
@@ -18996,7 +18996,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="187"/>
+      <c r="A74" s="197"/>
       <c r="B74" s="160">
         <v>434</v>
       </c>
@@ -19020,7 +19020,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="187"/>
+      <c r="A75" s="197"/>
       <c r="B75" s="160">
         <v>435</v>
       </c>
@@ -19044,7 +19044,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="187"/>
+      <c r="A76" s="197"/>
       <c r="B76" s="160">
         <v>436</v>
       </c>
@@ -19068,7 +19068,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="187"/>
+      <c r="A77" s="197"/>
       <c r="B77" s="160">
         <v>437</v>
       </c>
@@ -19092,7 +19092,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="187"/>
+      <c r="A78" s="197"/>
       <c r="B78" s="160">
         <v>438</v>
       </c>
@@ -19116,7 +19116,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="187"/>
+      <c r="A79" s="197"/>
       <c r="B79" s="160">
         <v>439</v>
       </c>
@@ -19140,7 +19140,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="187"/>
+      <c r="A80" s="197"/>
       <c r="B80" s="160">
         <v>440</v>
       </c>
@@ -19164,7 +19164,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="187"/>
+      <c r="A81" s="197"/>
       <c r="B81" s="160">
         <v>441</v>
       </c>
@@ -19188,7 +19188,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="187"/>
+      <c r="A82" s="197"/>
       <c r="B82" s="160">
         <v>442</v>
       </c>
@@ -19212,7 +19212,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="187"/>
+      <c r="A83" s="197"/>
       <c r="B83" s="160">
         <v>443</v>
       </c>
@@ -19236,7 +19236,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="187"/>
+      <c r="A84" s="197"/>
       <c r="B84" s="160">
         <v>444</v>
       </c>
@@ -19260,7 +19260,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="187"/>
+      <c r="A85" s="197"/>
       <c r="B85" s="160">
         <v>445</v>
       </c>
@@ -19284,7 +19284,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="187"/>
+      <c r="A86" s="197"/>
       <c r="B86" s="160">
         <v>446</v>
       </c>
@@ -19308,7 +19308,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="187"/>
+      <c r="A87" s="197"/>
       <c r="B87" s="160">
         <v>447</v>
       </c>
@@ -19332,7 +19332,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="187"/>
+      <c r="A88" s="197"/>
       <c r="B88" s="160">
         <v>448</v>
       </c>
@@ -19356,7 +19356,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="187"/>
+      <c r="A89" s="197"/>
       <c r="B89" s="122">
         <v>449</v>
       </c>
@@ -19380,7 +19380,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="187"/>
+      <c r="A90" s="197"/>
       <c r="B90" s="122">
         <v>450</v>
       </c>
@@ -19402,7 +19402,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="187"/>
+      <c r="A91" s="197"/>
       <c r="B91" s="160">
         <v>451</v>
       </c>
@@ -19424,7 +19424,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="187"/>
+      <c r="A92" s="197"/>
       <c r="B92" s="122">
         <v>452</v>
       </c>
@@ -19448,7 +19448,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="187"/>
+      <c r="A93" s="197"/>
       <c r="B93" s="122">
         <v>453</v>
       </c>
@@ -19472,7 +19472,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="187"/>
+      <c r="A94" s="197"/>
       <c r="B94" s="122">
         <v>454</v>
       </c>
@@ -19496,7 +19496,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="187"/>
+      <c r="A95" s="197"/>
       <c r="B95" s="122">
         <v>455</v>
       </c>
@@ -19518,7 +19518,7 @@
       <c r="H95" s="1"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="187"/>
+      <c r="A96" s="197"/>
       <c r="B96" s="122">
         <v>456</v>
       </c>
@@ -19542,7 +19542,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="187"/>
+      <c r="A97" s="197"/>
       <c r="B97" s="122">
         <v>457</v>
       </c>
@@ -19564,7 +19564,7 @@
       <c r="H97" s="1"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="187"/>
+      <c r="A98" s="197"/>
       <c r="B98" s="122">
         <v>458</v>
       </c>
@@ -19586,7 +19586,7 @@
       <c r="H98" s="1"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="187"/>
+      <c r="A99" s="197"/>
       <c r="B99" s="122">
         <v>459</v>
       </c>
@@ -19608,7 +19608,7 @@
       <c r="H99" s="1"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="187"/>
+      <c r="A100" s="197"/>
       <c r="B100" s="122">
         <v>460</v>
       </c>
@@ -19630,7 +19630,7 @@
       <c r="H100" s="1"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="187"/>
+      <c r="A101" s="197"/>
       <c r="B101" s="122">
         <v>461</v>
       </c>
@@ -19652,7 +19652,7 @@
       <c r="H101" s="1"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="187"/>
+      <c r="A102" s="197"/>
       <c r="B102" s="122">
         <v>462</v>
       </c>
@@ -19672,7 +19672,7 @@
       <c r="H102" s="1"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="187"/>
+      <c r="A103" s="197"/>
       <c r="B103" s="122">
         <v>463</v>
       </c>
@@ -19692,7 +19692,7 @@
       <c r="H103" s="1"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="187"/>
+      <c r="A104" s="197"/>
       <c r="B104" s="122">
         <v>464</v>
       </c>
@@ -19714,7 +19714,7 @@
       <c r="H104" s="1"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="187"/>
+      <c r="A105" s="197"/>
       <c r="B105" s="22">
         <v>465</v>
       </c>
@@ -19734,7 +19734,7 @@
       <c r="H105" s="1"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="187"/>
+      <c r="A106" s="197"/>
       <c r="B106" s="22">
         <v>466</v>
       </c>
@@ -19754,7 +19754,7 @@
       <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="187"/>
+      <c r="A107" s="197"/>
       <c r="B107" s="22">
         <v>467</v>
       </c>
@@ -19774,7 +19774,7 @@
       <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="187"/>
+      <c r="A108" s="197"/>
       <c r="B108" s="22">
         <v>468</v>
       </c>
@@ -19794,7 +19794,7 @@
       <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="187"/>
+      <c r="A109" s="197"/>
       <c r="B109" s="22">
         <v>469</v>
       </c>
@@ -19814,7 +19814,7 @@
       <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="187"/>
+      <c r="A110" s="197"/>
       <c r="B110" s="22">
         <v>470</v>
       </c>
@@ -19830,7 +19830,7 @@
       <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="187"/>
+      <c r="A111" s="197"/>
       <c r="B111" s="22">
         <v>471</v>
       </c>
@@ -19846,7 +19846,7 @@
       <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="187"/>
+      <c r="A112" s="197"/>
       <c r="B112" s="22">
         <v>472</v>
       </c>
@@ -19862,7 +19862,7 @@
       <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="187"/>
+      <c r="A113" s="197"/>
       <c r="B113" s="22">
         <v>473</v>
       </c>
@@ -19878,7 +19878,7 @@
       <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="187"/>
+      <c r="A114" s="197"/>
       <c r="B114" s="140">
         <v>473</v>
       </c>
@@ -19896,7 +19896,7 @@
       <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="187"/>
+      <c r="A115" s="197"/>
       <c r="B115" s="10">
         <v>474</v>
       </c>
@@ -19906,7 +19906,7 @@
       <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" s="187"/>
+      <c r="A116" s="197"/>
       <c r="B116" s="140">
         <v>475</v>
       </c>
@@ -19920,7 +19920,7 @@
       <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="187"/>
+      <c r="A117" s="197"/>
       <c r="B117" s="168">
         <v>476</v>
       </c>
@@ -19936,7 +19936,7 @@
       <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="188"/>
+      <c r="A118" s="198"/>
       <c r="B118" s="122"/>
       <c r="C118" s="116"/>
       <c r="D118" s="116"/>
@@ -19945,7 +19945,7 @@
       <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="186" t="s">
+      <c r="A119" s="196" t="s">
         <v>186</v>
       </c>
       <c r="B119" s="162">
@@ -19969,7 +19969,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="187"/>
+      <c r="A120" s="197"/>
       <c r="B120" s="116">
         <v>502</v>
       </c>
@@ -19991,7 +19991,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="187"/>
+      <c r="A121" s="197"/>
       <c r="B121" s="116">
         <v>503</v>
       </c>
@@ -20013,7 +20013,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="187"/>
+      <c r="A122" s="197"/>
       <c r="B122" s="116">
         <v>504</v>
       </c>
@@ -20035,7 +20035,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="187"/>
+      <c r="A123" s="197"/>
       <c r="B123" s="116">
         <v>505</v>
       </c>
@@ -20057,7 +20057,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="187"/>
+      <c r="A124" s="197"/>
       <c r="B124" s="162">
         <v>506</v>
       </c>
@@ -20079,7 +20079,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="187"/>
+      <c r="A125" s="197"/>
       <c r="B125" s="116">
         <v>507</v>
       </c>
@@ -20101,7 +20101,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="188"/>
+      <c r="A126" s="198"/>
       <c r="B126" s="116"/>
       <c r="C126" s="116"/>
       <c r="D126" s="116"/>
@@ -20111,7 +20111,7 @@
       <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="186" t="s">
+      <c r="A127" s="196" t="s">
         <v>68</v>
       </c>
       <c r="B127" s="116">
@@ -20135,7 +20135,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="187"/>
+      <c r="A128" s="197"/>
       <c r="B128" s="116">
         <v>602</v>
       </c>
@@ -20157,7 +20157,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="187"/>
+      <c r="A129" s="197"/>
       <c r="B129" s="116">
         <v>603</v>
       </c>
@@ -20179,7 +20179,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="187"/>
+      <c r="A130" s="197"/>
       <c r="B130" s="116">
         <v>604</v>
       </c>
@@ -20201,7 +20201,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="187"/>
+      <c r="A131" s="197"/>
       <c r="B131" s="116">
         <v>605</v>
       </c>
@@ -20223,7 +20223,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="187"/>
+      <c r="A132" s="197"/>
       <c r="B132" s="116">
         <v>606</v>
       </c>
@@ -20245,7 +20245,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="187"/>
+      <c r="A133" s="197"/>
       <c r="B133" s="116">
         <v>607</v>
       </c>
@@ -20267,7 +20267,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="187"/>
+      <c r="A134" s="197"/>
       <c r="B134" s="116">
         <v>608</v>
       </c>
@@ -20289,7 +20289,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="187"/>
+      <c r="A135" s="197"/>
       <c r="B135" s="116">
         <v>609</v>
       </c>
@@ -20311,7 +20311,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="187"/>
+      <c r="A136" s="197"/>
       <c r="B136" s="116">
         <v>610</v>
       </c>
@@ -20333,7 +20333,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="188"/>
+      <c r="A137" s="198"/>
       <c r="B137" s="116"/>
       <c r="C137" s="116"/>
       <c r="D137" s="116"/>
@@ -20343,7 +20343,7 @@
       <c r="H137" s="1"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="186" t="s">
+      <c r="A138" s="196" t="s">
         <v>631</v>
       </c>
       <c r="B138" s="22">
@@ -20367,7 +20367,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="187"/>
+      <c r="A139" s="197"/>
       <c r="B139" s="22">
         <v>702</v>
       </c>
@@ -20389,7 +20389,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="187"/>
+      <c r="A140" s="197"/>
       <c r="B140" s="22">
         <v>703</v>
       </c>
@@ -20411,7 +20411,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="187"/>
+      <c r="A141" s="197"/>
       <c r="B141" s="22">
         <v>704</v>
       </c>
@@ -20433,7 +20433,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="188"/>
+      <c r="A142" s="198"/>
       <c r="B142" s="22"/>
       <c r="C142" s="116"/>
       <c r="D142" s="116"/>
@@ -20443,7 +20443,7 @@
       <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="189" t="s">
+      <c r="A143" s="199" t="s">
         <v>207</v>
       </c>
       <c r="B143" s="22">
@@ -20465,7 +20465,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="189"/>
+      <c r="A144" s="199"/>
       <c r="B144" s="22">
         <v>802</v>
       </c>
@@ -20485,7 +20485,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="189"/>
+      <c r="A145" s="199"/>
       <c r="B145" s="22">
         <v>803</v>
       </c>
@@ -20505,7 +20505,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="189"/>
+      <c r="A146" s="199"/>
       <c r="B146" s="22"/>
       <c r="C146" s="116"/>
       <c r="D146" s="116"/>
@@ -20575,7 +20575,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="200" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="109">
@@ -20601,7 +20601,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="191"/>
+      <c r="A3" s="201"/>
       <c r="B3" s="109">
         <v>2</v>
       </c>
@@ -20625,7 +20625,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="191"/>
+      <c r="A4" s="201"/>
       <c r="B4" s="32">
         <v>3</v>
       </c>
@@ -20649,7 +20649,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="191"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="109">
         <v>4</v>
       </c>
@@ -20673,7 +20673,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="191"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="109">
         <v>5</v>
       </c>
@@ -20697,7 +20697,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="191"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="109">
         <v>6</v>
       </c>
@@ -20721,7 +20721,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="191"/>
+      <c r="A8" s="201"/>
       <c r="B8" s="109">
         <v>7</v>
       </c>
@@ -20745,7 +20745,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="191"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="109">
         <v>8</v>
       </c>
@@ -20769,7 +20769,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="191"/>
+      <c r="A10" s="201"/>
       <c r="B10" s="31">
         <v>9</v>
       </c>
@@ -20793,7 +20793,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="191"/>
+      <c r="A11" s="201"/>
       <c r="B11" s="30">
         <v>10</v>
       </c>
@@ -20817,7 +20817,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="191"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="31">
         <v>11</v>
       </c>
@@ -20841,7 +20841,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="191"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="108">
         <v>12</v>
       </c>
@@ -20865,7 +20865,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="192"/>
+      <c r="A14" s="202"/>
       <c r="B14" s="104"/>
       <c r="C14" s="104">
         <v>2</v>
@@ -20879,7 +20879,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="196" t="s">
         <v>104</v>
       </c>
       <c r="B15" s="29">
@@ -20905,7 +20905,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="187"/>
+      <c r="A16" s="197"/>
       <c r="B16" s="31">
         <v>14</v>
       </c>
@@ -20929,7 +20929,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="187"/>
+      <c r="A17" s="197"/>
       <c r="B17" s="29">
         <v>15</v>
       </c>
@@ -20953,7 +20953,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="190" t="s">
+      <c r="A18" s="200" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="104">
@@ -20979,7 +20979,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="191"/>
+      <c r="A19" s="201"/>
       <c r="B19" s="104">
         <v>17</v>
       </c>
@@ -21001,7 +21001,7 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="191"/>
+      <c r="A20" s="201"/>
       <c r="B20" s="109">
         <v>18</v>
       </c>
@@ -21021,7 +21021,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="191"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="22">
         <v>19</v>
       </c>
@@ -21045,7 +21045,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="191"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="22">
         <v>20</v>
       </c>
@@ -21069,7 +21069,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="191"/>
+      <c r="A23" s="201"/>
       <c r="B23" s="109">
         <v>21</v>
       </c>
@@ -21093,7 +21093,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="191"/>
+      <c r="A24" s="201"/>
       <c r="B24" s="109">
         <v>22</v>
       </c>
@@ -21117,7 +21117,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="191"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="109">
         <v>23</v>
       </c>
@@ -21141,7 +21141,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="191"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="109">
         <v>24</v>
       </c>
@@ -21165,7 +21165,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="22">
         <v>25</v>
       </c>
@@ -21189,7 +21189,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="191"/>
+      <c r="A28" s="201"/>
       <c r="B28" s="22">
         <v>26</v>
       </c>
@@ -21213,7 +21213,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="191"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="22">
         <v>27</v>
       </c>
@@ -21237,7 +21237,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="191"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="22">
         <v>28</v>
       </c>
@@ -21261,7 +21261,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="191"/>
+      <c r="A31" s="201"/>
       <c r="B31" s="109">
         <v>29</v>
       </c>
@@ -21285,7 +21285,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="191"/>
+      <c r="A32" s="201"/>
       <c r="B32" s="109">
         <v>30</v>
       </c>
@@ -21309,7 +21309,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="191"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="109">
         <v>31</v>
       </c>
@@ -21333,7 +21333,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="191"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="109">
         <v>32</v>
       </c>
@@ -21357,7 +21357,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="191"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="109">
         <v>33</v>
       </c>
@@ -21381,7 +21381,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="191"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="109">
         <v>34</v>
       </c>
@@ -21405,7 +21405,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="191"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="109">
         <v>35</v>
       </c>
@@ -21429,7 +21429,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="191"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="109">
         <v>36</v>
       </c>
@@ -21453,7 +21453,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="191"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="109">
         <v>37</v>
       </c>
@@ -21477,7 +21477,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="191"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="109">
         <v>38</v>
       </c>
@@ -21501,7 +21501,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="191"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="108">
         <v>39</v>
       </c>
@@ -21525,7 +21525,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="191"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="109">
         <v>40</v>
       </c>
@@ -21549,7 +21549,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="191"/>
+      <c r="A43" s="201"/>
       <c r="B43" s="109">
         <v>41</v>
       </c>
@@ -21573,7 +21573,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="191"/>
+      <c r="A44" s="201"/>
       <c r="B44" s="108">
         <v>42</v>
       </c>
@@ -21597,7 +21597,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="191"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="109">
         <v>43</v>
       </c>
@@ -21621,7 +21621,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="191"/>
+      <c r="A46" s="201"/>
       <c r="B46" s="108">
         <v>44</v>
       </c>
@@ -21645,7 +21645,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="191"/>
+      <c r="A47" s="201"/>
       <c r="B47" s="108">
         <v>45</v>
       </c>
@@ -21669,7 +21669,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="191"/>
+      <c r="A48" s="201"/>
       <c r="B48" s="32">
         <v>46</v>
       </c>
@@ -21693,7 +21693,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="191"/>
+      <c r="A49" s="201"/>
       <c r="B49" s="32">
         <v>47</v>
       </c>
@@ -21717,7 +21717,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="191"/>
+      <c r="A50" s="201"/>
       <c r="B50" s="32">
         <v>49</v>
       </c>
@@ -21741,7 +21741,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="191"/>
+      <c r="A51" s="201"/>
       <c r="B51" s="32">
         <v>50</v>
       </c>
@@ -21765,7 +21765,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="191"/>
+      <c r="A52" s="201"/>
       <c r="B52" s="108">
         <v>51</v>
       </c>
@@ -21789,7 +21789,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="191"/>
+      <c r="A53" s="201"/>
       <c r="B53" s="108">
         <v>52</v>
       </c>
@@ -21813,7 +21813,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="191"/>
+      <c r="A54" s="201"/>
       <c r="B54" s="108">
         <v>53</v>
       </c>
@@ -21837,7 +21837,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="191"/>
+      <c r="A55" s="201"/>
       <c r="B55" s="32">
         <v>54</v>
       </c>
@@ -21861,7 +21861,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="191"/>
+      <c r="A56" s="201"/>
       <c r="B56" s="34">
         <v>55</v>
       </c>
@@ -21885,7 +21885,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="191"/>
+      <c r="A57" s="201"/>
       <c r="B57" s="34">
         <v>56</v>
       </c>
@@ -21909,7 +21909,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="191"/>
+      <c r="A58" s="201"/>
       <c r="B58" s="49">
         <v>57</v>
       </c>
@@ -21933,7 +21933,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="191"/>
+      <c r="A59" s="201"/>
       <c r="B59" s="49">
         <v>58</v>
       </c>
@@ -21957,7 +21957,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="191"/>
+      <c r="A60" s="201"/>
       <c r="B60" s="22">
         <v>59</v>
       </c>
@@ -21981,7 +21981,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="191"/>
+      <c r="A61" s="201"/>
       <c r="B61" s="49">
         <v>60</v>
       </c>
@@ -22003,7 +22003,7 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="191"/>
+      <c r="A62" s="201"/>
       <c r="B62" s="49">
         <v>61</v>
       </c>
@@ -22025,7 +22025,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="191"/>
+      <c r="A63" s="201"/>
       <c r="B63" s="49">
         <v>62</v>
       </c>
@@ -22049,7 +22049,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="191"/>
+      <c r="A64" s="201"/>
       <c r="B64" s="34">
         <v>63</v>
       </c>
@@ -22073,7 +22073,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="191"/>
+      <c r="A65" s="201"/>
       <c r="B65" s="34">
         <v>64</v>
       </c>
@@ -22097,7 +22097,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="191"/>
+      <c r="A66" s="201"/>
       <c r="B66" s="103">
         <v>201</v>
       </c>
@@ -22119,7 +22119,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="191"/>
+      <c r="A67" s="201"/>
       <c r="B67" s="90"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -22133,7 +22133,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="191"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="90"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
@@ -22145,7 +22145,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="191"/>
+      <c r="A69" s="201"/>
       <c r="B69" s="90"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
@@ -22157,7 +22157,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="192"/>
+      <c r="A70" s="202"/>
       <c r="B70" s="90"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
@@ -22169,7 +22169,7 @@
       <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="190" t="s">
+      <c r="A71" s="200" t="s">
         <v>186</v>
       </c>
       <c r="B71" s="34">
@@ -22195,7 +22195,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="191"/>
+      <c r="A72" s="201"/>
       <c r="B72" s="34">
         <v>68</v>
       </c>
@@ -22219,7 +22219,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="191"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="34">
         <v>69</v>
       </c>
@@ -22243,7 +22243,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="191"/>
+      <c r="A74" s="201"/>
       <c r="B74" s="39">
         <v>70</v>
       </c>
@@ -22267,7 +22267,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="191"/>
+      <c r="A75" s="201"/>
       <c r="B75" s="34">
         <v>71</v>
       </c>
@@ -22291,7 +22291,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="191"/>
+      <c r="A76" s="201"/>
       <c r="B76" s="39">
         <v>72</v>
       </c>
@@ -22315,7 +22315,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="192"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="39">
         <v>73</v>
       </c>
@@ -22327,7 +22327,7 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="190" t="s">
+      <c r="A78" s="200" t="s">
         <v>68</v>
       </c>
       <c r="B78" s="39">
@@ -22353,7 +22353,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="191"/>
+      <c r="A79" s="201"/>
       <c r="B79" s="39">
         <v>75</v>
       </c>
@@ -22377,7 +22377,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="191"/>
+      <c r="A80" s="201"/>
       <c r="B80" s="39">
         <v>76</v>
       </c>
@@ -22401,7 +22401,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="191"/>
+      <c r="A81" s="201"/>
       <c r="B81" s="39">
         <v>77</v>
       </c>
@@ -22425,7 +22425,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="191"/>
+      <c r="A82" s="201"/>
       <c r="B82" s="39">
         <v>78</v>
       </c>
@@ -22449,7 +22449,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" s="191"/>
+      <c r="A83" s="201"/>
       <c r="B83" s="49">
         <v>79</v>
       </c>
@@ -22473,7 +22473,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="191"/>
+      <c r="A84" s="201"/>
       <c r="B84" s="49">
         <v>80</v>
       </c>
@@ -22497,7 +22497,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="192"/>
+      <c r="A85" s="202"/>
       <c r="B85" s="49">
         <v>81</v>
       </c>
@@ -22521,7 +22521,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="190" t="s">
+      <c r="A86" s="200" t="s">
         <v>205</v>
       </c>
       <c r="B86" s="76">
@@ -22547,7 +22547,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="191"/>
+      <c r="A87" s="201"/>
       <c r="B87" s="39">
         <v>83</v>
       </c>
@@ -22567,7 +22567,7 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="191"/>
+      <c r="A88" s="201"/>
       <c r="B88" s="134">
         <v>84</v>
       </c>
@@ -22587,7 +22587,7 @@
       <c r="H88" s="137"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="191"/>
+      <c r="A89" s="201"/>
       <c r="B89" s="39">
         <v>85</v>
       </c>
@@ -22607,7 +22607,7 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="191"/>
+      <c r="A90" s="201"/>
       <c r="B90" s="42">
         <v>86</v>
       </c>
@@ -22627,7 +22627,7 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="191"/>
+      <c r="A91" s="201"/>
       <c r="B91" s="42">
         <v>87</v>
       </c>
@@ -22647,7 +22647,7 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="191"/>
+      <c r="A92" s="201"/>
       <c r="B92" s="42">
         <v>88</v>
       </c>
@@ -22667,7 +22667,7 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="191"/>
+      <c r="A93" s="201"/>
       <c r="B93" s="42">
         <v>89</v>
       </c>
@@ -22687,7 +22687,7 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="191"/>
+      <c r="A94" s="201"/>
       <c r="B94" s="42">
         <v>90</v>
       </c>
@@ -22707,7 +22707,7 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="191"/>
+      <c r="A95" s="201"/>
       <c r="B95" s="42">
         <v>91</v>
       </c>
@@ -22727,7 +22727,7 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="191"/>
+      <c r="A96" s="201"/>
       <c r="B96" s="42">
         <v>92</v>
       </c>
@@ -22747,7 +22747,7 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="191"/>
+      <c r="A97" s="201"/>
       <c r="B97" s="42">
         <v>93</v>
       </c>
@@ -22767,7 +22767,7 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="191"/>
+      <c r="A98" s="201"/>
       <c r="B98" s="42">
         <v>94</v>
       </c>
@@ -22787,7 +22787,7 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="191"/>
+      <c r="A99" s="201"/>
       <c r="B99" s="42">
         <v>95</v>
       </c>
@@ -22807,7 +22807,7 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="191"/>
+      <c r="A100" s="201"/>
       <c r="B100" s="42">
         <v>96</v>
       </c>
@@ -22827,7 +22827,7 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="191"/>
+      <c r="A101" s="201"/>
       <c r="B101" s="42">
         <v>97</v>
       </c>
@@ -22847,7 +22847,7 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="191"/>
+      <c r="A102" s="201"/>
       <c r="B102" s="42">
         <v>98</v>
       </c>
@@ -22867,7 +22867,7 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="191"/>
+      <c r="A103" s="201"/>
       <c r="B103" s="42">
         <v>99</v>
       </c>
@@ -22887,7 +22887,7 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="192"/>
+      <c r="A104" s="202"/>
       <c r="B104" s="39"/>
       <c r="C104" s="31"/>
       <c r="D104" s="16"/>
@@ -22897,7 +22897,7 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="190" t="s">
+      <c r="A105" s="200" t="s">
         <v>206</v>
       </c>
       <c r="B105" s="39">
@@ -22923,7 +22923,7 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="191"/>
+      <c r="A106" s="201"/>
       <c r="B106" s="42">
         <v>101</v>
       </c>
@@ -22947,7 +22947,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="191"/>
+      <c r="A107" s="201"/>
       <c r="B107" s="42">
         <v>102</v>
       </c>
@@ -22971,7 +22971,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="191"/>
+      <c r="A108" s="201"/>
       <c r="B108" s="42">
         <v>103</v>
       </c>
@@ -22995,7 +22995,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="190" t="s">
+      <c r="A109" s="200" t="s">
         <v>207</v>
       </c>
       <c r="B109" s="42">
@@ -23021,7 +23021,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="191"/>
+      <c r="A110" s="201"/>
       <c r="B110" s="42">
         <v>105</v>
       </c>
@@ -23045,7 +23045,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="188"/>
+      <c r="A111" s="198"/>
       <c r="B111" s="42">
         <v>106</v>
       </c>
@@ -23069,7 +23069,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="193" t="s">
+      <c r="A112" s="203" t="s">
         <v>72</v>
       </c>
       <c r="B112" s="42">
@@ -23095,7 +23095,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="193"/>
+      <c r="A113" s="203"/>
       <c r="B113" s="42">
         <v>108</v>
       </c>
@@ -23119,7 +23119,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="193"/>
+      <c r="A114" s="203"/>
       <c r="B114" s="42">
         <v>109</v>
       </c>
@@ -23143,7 +23143,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="193"/>
+      <c r="A115" s="203"/>
       <c r="B115" s="8">
         <v>110</v>
       </c>
@@ -23201,917 +23201,917 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C6AD1-5689-4250-A295-7F87DEA26DF9}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="70.77734375" style="241" customWidth="1"/>
-    <col min="2" max="2" width="86.33203125" style="242" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" style="241" customWidth="1"/>
-    <col min="4" max="4" width="112" style="241" customWidth="1"/>
+    <col min="1" max="1" width="70.77734375" style="191" customWidth="1"/>
+    <col min="2" max="2" width="86.33203125" style="192" customWidth="1"/>
+    <col min="3" max="3" width="77.77734375" style="191" customWidth="1"/>
+    <col min="4" max="4" width="112" style="191" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="240" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="236" t="s">
+    <row r="1" spans="1:4" s="190" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="186" t="s">
         <v>912</v>
       </c>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="187" t="s">
         <v>883</v>
       </c>
-      <c r="C1" s="238" t="s">
+      <c r="C1" s="188" t="s">
         <v>913</v>
       </c>
-      <c r="D1" s="239" t="s">
+      <c r="D1" s="189" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="243"/>
+      <c r="C2" s="193"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C3" s="243"/>
+      <c r="C3" s="193"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="243"/>
+      <c r="C4" s="193"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="243"/>
+      <c r="C5" s="193"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="243"/>
+      <c r="C6" s="193"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="243"/>
+      <c r="C7" s="193"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="243"/>
+      <c r="C8" s="193"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="243"/>
+      <c r="C9" s="193"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10" s="243"/>
+      <c r="C10" s="193"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="243"/>
+      <c r="C11" s="193"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="243"/>
+      <c r="C12" s="193"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="243"/>
+      <c r="C13" s="193"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="243"/>
+      <c r="C14" s="193"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="243"/>
+      <c r="C15" s="193"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="243"/>
+      <c r="C16" s="193"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="243"/>
+      <c r="C17" s="193"/>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="243"/>
+      <c r="C18" s="193"/>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="243"/>
+      <c r="C19" s="193"/>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="243"/>
+      <c r="C20" s="193"/>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="243"/>
+      <c r="C21" s="193"/>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="243"/>
+      <c r="C22" s="193"/>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" s="243"/>
+      <c r="C23" s="193"/>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" s="243"/>
+      <c r="C24" s="193"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="243"/>
+      <c r="C25" s="193"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="243"/>
+      <c r="C26" s="193"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="243"/>
+      <c r="C27" s="193"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="243"/>
+      <c r="C28" s="193"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="243"/>
+      <c r="C29" s="193"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="243"/>
+      <c r="C30" s="193"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" s="243"/>
+      <c r="C31" s="193"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C32" s="243"/>
+      <c r="C32" s="193"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="243"/>
+      <c r="C33" s="193"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C34" s="243"/>
+      <c r="C34" s="193"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="243"/>
+      <c r="C35" s="193"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="243"/>
+      <c r="C36" s="193"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="243"/>
+      <c r="C37" s="193"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="243"/>
+      <c r="C38" s="193"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="243"/>
+      <c r="C39" s="193"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="243"/>
+      <c r="C40" s="193"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="243"/>
+      <c r="C41" s="193"/>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C42" s="243"/>
+      <c r="C42" s="193"/>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C43" s="243"/>
+      <c r="C43" s="193"/>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C44" s="243"/>
+      <c r="C44" s="193"/>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C45" s="243"/>
+      <c r="C45" s="193"/>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C46" s="243"/>
+      <c r="C46" s="193"/>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C47" s="243"/>
+      <c r="C47" s="193"/>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C48" s="243"/>
+      <c r="C48" s="193"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C49" s="243"/>
+      <c r="C49" s="193"/>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C50" s="243"/>
+      <c r="C50" s="193"/>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="243"/>
+      <c r="C51" s="193"/>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C52" s="243"/>
+      <c r="C52" s="193"/>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="243"/>
+      <c r="C53" s="193"/>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="243"/>
+      <c r="C54" s="193"/>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="243"/>
+      <c r="C55" s="193"/>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="243"/>
+      <c r="C56" s="193"/>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C57" s="243"/>
+      <c r="C57" s="193"/>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C58" s="243"/>
+      <c r="C58" s="193"/>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C59" s="243"/>
+      <c r="C59" s="193"/>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C60" s="243"/>
+      <c r="C60" s="193"/>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C61" s="243"/>
+      <c r="C61" s="193"/>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C62" s="243"/>
+      <c r="C62" s="193"/>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C63" s="243"/>
+      <c r="C63" s="193"/>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C64" s="243"/>
+      <c r="C64" s="193"/>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C65" s="243"/>
+      <c r="C65" s="193"/>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C66" s="243"/>
+      <c r="C66" s="193"/>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C67" s="243"/>
+      <c r="C67" s="193"/>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C68" s="243"/>
+      <c r="C68" s="193"/>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C69" s="243"/>
+      <c r="C69" s="193"/>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C70" s="243"/>
+      <c r="C70" s="193"/>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C71" s="243"/>
+      <c r="C71" s="193"/>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C72" s="243"/>
+      <c r="C72" s="193"/>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C73" s="243"/>
+      <c r="C73" s="193"/>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C74" s="243"/>
+      <c r="C74" s="193"/>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C75" s="243"/>
+      <c r="C75" s="193"/>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C76" s="243"/>
+      <c r="C76" s="193"/>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C77" s="243"/>
+      <c r="C77" s="193"/>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C78" s="243"/>
+      <c r="C78" s="193"/>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C79" s="243"/>
+      <c r="C79" s="193"/>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C80" s="243"/>
+      <c r="C80" s="193"/>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C81" s="243"/>
+      <c r="C81" s="193"/>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C82" s="243"/>
+      <c r="C82" s="193"/>
     </row>
     <row r="83" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C83" s="243"/>
+      <c r="C83" s="193"/>
     </row>
     <row r="84" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C84" s="243"/>
+      <c r="C84" s="193"/>
     </row>
     <row r="85" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C85" s="243"/>
+      <c r="C85" s="193"/>
     </row>
     <row r="86" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C86" s="243"/>
+      <c r="C86" s="193"/>
     </row>
     <row r="87" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C87" s="243"/>
+      <c r="C87" s="193"/>
     </row>
     <row r="88" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C88" s="243"/>
+      <c r="C88" s="193"/>
     </row>
     <row r="89" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C89" s="243"/>
+      <c r="C89" s="193"/>
     </row>
     <row r="90" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C90" s="243"/>
+      <c r="C90" s="193"/>
     </row>
     <row r="91" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C91" s="243"/>
+      <c r="C91" s="193"/>
     </row>
     <row r="92" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C92" s="243"/>
+      <c r="C92" s="193"/>
     </row>
     <row r="93" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C93" s="243"/>
+      <c r="C93" s="193"/>
     </row>
     <row r="94" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C94" s="243"/>
+      <c r="C94" s="193"/>
     </row>
     <row r="95" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C95" s="243"/>
+      <c r="C95" s="193"/>
     </row>
     <row r="96" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C96" s="243"/>
+      <c r="C96" s="193"/>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C97" s="243"/>
+      <c r="C97" s="193"/>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C98" s="243"/>
+      <c r="C98" s="193"/>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C99" s="243"/>
+      <c r="C99" s="193"/>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C100" s="243"/>
+      <c r="C100" s="193"/>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C101" s="243"/>
+      <c r="C101" s="193"/>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C102" s="243"/>
+      <c r="C102" s="193"/>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C103" s="243"/>
+      <c r="C103" s="193"/>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C104" s="243"/>
+      <c r="C104" s="193"/>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C105" s="243"/>
+      <c r="C105" s="193"/>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C106" s="243"/>
+      <c r="C106" s="193"/>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="243"/>
+      <c r="C107" s="193"/>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="243"/>
+      <c r="C108" s="193"/>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C109" s="243"/>
+      <c r="C109" s="193"/>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C110" s="243"/>
+      <c r="C110" s="193"/>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C111" s="243"/>
+      <c r="C111" s="193"/>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C112" s="243"/>
+      <c r="C112" s="193"/>
     </row>
     <row r="113" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C113" s="243"/>
+      <c r="C113" s="193"/>
     </row>
     <row r="114" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C114" s="243"/>
+      <c r="C114" s="193"/>
     </row>
     <row r="115" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C115" s="243"/>
+      <c r="C115" s="193"/>
     </row>
     <row r="116" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C116" s="243"/>
+      <c r="C116" s="193"/>
     </row>
     <row r="117" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C117" s="243"/>
+      <c r="C117" s="193"/>
     </row>
     <row r="118" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C118" s="243"/>
+      <c r="C118" s="193"/>
     </row>
     <row r="119" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C119" s="243"/>
+      <c r="C119" s="193"/>
     </row>
     <row r="120" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C120" s="243"/>
+      <c r="C120" s="193"/>
     </row>
     <row r="121" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C121" s="243"/>
+      <c r="C121" s="193"/>
     </row>
     <row r="122" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C122" s="243"/>
+      <c r="C122" s="193"/>
     </row>
     <row r="123" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C123" s="243"/>
+      <c r="C123" s="193"/>
     </row>
     <row r="124" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C124" s="243"/>
+      <c r="C124" s="193"/>
     </row>
     <row r="125" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C125" s="243"/>
+      <c r="C125" s="193"/>
     </row>
     <row r="126" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C126" s="243"/>
+      <c r="C126" s="193"/>
     </row>
     <row r="127" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C127" s="243"/>
+      <c r="C127" s="193"/>
     </row>
     <row r="128" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C128" s="243"/>
+      <c r="C128" s="193"/>
     </row>
     <row r="129" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C129" s="243"/>
+      <c r="C129" s="193"/>
     </row>
     <row r="130" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C130" s="243"/>
+      <c r="C130" s="193"/>
     </row>
     <row r="131" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C131" s="243"/>
+      <c r="C131" s="193"/>
     </row>
     <row r="132" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C132" s="243"/>
+      <c r="C132" s="193"/>
     </row>
     <row r="133" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C133" s="243"/>
+      <c r="C133" s="193"/>
     </row>
     <row r="134" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C134" s="243"/>
+      <c r="C134" s="193"/>
     </row>
     <row r="135" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C135" s="243"/>
+      <c r="C135" s="193"/>
     </row>
     <row r="136" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C136" s="243"/>
+      <c r="C136" s="193"/>
     </row>
     <row r="137" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C137" s="243"/>
+      <c r="C137" s="193"/>
     </row>
     <row r="138" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C138" s="243"/>
+      <c r="C138" s="193"/>
     </row>
     <row r="139" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C139" s="243"/>
+      <c r="C139" s="193"/>
     </row>
     <row r="140" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C140" s="243"/>
+      <c r="C140" s="193"/>
     </row>
     <row r="141" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C141" s="243"/>
+      <c r="C141" s="193"/>
     </row>
     <row r="142" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C142" s="243"/>
+      <c r="C142" s="193"/>
     </row>
     <row r="143" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C143" s="243"/>
+      <c r="C143" s="193"/>
     </row>
     <row r="144" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C144" s="243"/>
+      <c r="C144" s="193"/>
     </row>
     <row r="145" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C145" s="243"/>
+      <c r="C145" s="193"/>
     </row>
     <row r="146" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C146" s="243"/>
+      <c r="C146" s="193"/>
     </row>
     <row r="147" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C147" s="243"/>
+      <c r="C147" s="193"/>
     </row>
     <row r="148" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C148" s="243"/>
+      <c r="C148" s="193"/>
     </row>
     <row r="149" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C149" s="243"/>
+      <c r="C149" s="193"/>
     </row>
     <row r="150" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C150" s="243"/>
+      <c r="C150" s="193"/>
     </row>
     <row r="151" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C151" s="243"/>
+      <c r="C151" s="193"/>
     </row>
     <row r="152" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C152" s="243"/>
+      <c r="C152" s="193"/>
     </row>
     <row r="153" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C153" s="243"/>
+      <c r="C153" s="193"/>
     </row>
     <row r="154" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C154" s="243"/>
+      <c r="C154" s="193"/>
     </row>
     <row r="155" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C155" s="243"/>
+      <c r="C155" s="193"/>
     </row>
     <row r="156" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C156" s="243"/>
+      <c r="C156" s="193"/>
     </row>
     <row r="157" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C157" s="243"/>
+      <c r="C157" s="193"/>
     </row>
     <row r="158" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C158" s="243"/>
+      <c r="C158" s="193"/>
     </row>
     <row r="159" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C159" s="243"/>
+      <c r="C159" s="193"/>
     </row>
     <row r="160" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C160" s="243"/>
+      <c r="C160" s="193"/>
     </row>
     <row r="161" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C161" s="243"/>
+      <c r="C161" s="193"/>
     </row>
     <row r="162" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C162" s="243"/>
+      <c r="C162" s="193"/>
     </row>
     <row r="163" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C163" s="243"/>
+      <c r="C163" s="193"/>
     </row>
     <row r="164" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C164" s="243"/>
+      <c r="C164" s="193"/>
     </row>
     <row r="165" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C165" s="243"/>
+      <c r="C165" s="193"/>
     </row>
     <row r="166" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C166" s="243"/>
+      <c r="C166" s="193"/>
     </row>
     <row r="167" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C167" s="243"/>
+      <c r="C167" s="193"/>
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C168" s="243"/>
+      <c r="C168" s="193"/>
     </row>
     <row r="169" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C169" s="243"/>
+      <c r="C169" s="193"/>
     </row>
     <row r="170" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C170" s="243"/>
+      <c r="C170" s="193"/>
     </row>
     <row r="171" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C171" s="243"/>
+      <c r="C171" s="193"/>
     </row>
     <row r="172" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C172" s="243"/>
+      <c r="C172" s="193"/>
     </row>
     <row r="173" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C173" s="243"/>
+      <c r="C173" s="193"/>
     </row>
     <row r="174" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C174" s="243"/>
+      <c r="C174" s="193"/>
     </row>
     <row r="175" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C175" s="243"/>
+      <c r="C175" s="193"/>
     </row>
     <row r="176" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C176" s="243"/>
+      <c r="C176" s="193"/>
     </row>
     <row r="177" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C177" s="243"/>
+      <c r="C177" s="193"/>
     </row>
     <row r="178" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C178" s="243"/>
+      <c r="C178" s="193"/>
     </row>
     <row r="179" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C179" s="243"/>
+      <c r="C179" s="193"/>
     </row>
     <row r="180" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C180" s="243"/>
+      <c r="C180" s="193"/>
     </row>
     <row r="181" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C181" s="243"/>
+      <c r="C181" s="193"/>
     </row>
     <row r="182" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C182" s="243"/>
+      <c r="C182" s="193"/>
     </row>
     <row r="183" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C183" s="243"/>
+      <c r="C183" s="193"/>
     </row>
     <row r="184" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C184" s="243"/>
+      <c r="C184" s="193"/>
     </row>
     <row r="185" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C185" s="243"/>
+      <c r="C185" s="193"/>
     </row>
     <row r="186" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C186" s="243"/>
+      <c r="C186" s="193"/>
     </row>
     <row r="187" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C187" s="243"/>
+      <c r="C187" s="193"/>
     </row>
     <row r="188" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C188" s="243"/>
+      <c r="C188" s="193"/>
     </row>
     <row r="189" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C189" s="243"/>
+      <c r="C189" s="193"/>
     </row>
     <row r="190" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C190" s="243"/>
+      <c r="C190" s="193"/>
     </row>
     <row r="191" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C191" s="243"/>
+      <c r="C191" s="193"/>
     </row>
     <row r="192" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C192" s="243"/>
+      <c r="C192" s="193"/>
     </row>
     <row r="193" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C193" s="243"/>
+      <c r="C193" s="193"/>
     </row>
     <row r="194" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C194" s="243"/>
+      <c r="C194" s="193"/>
     </row>
     <row r="195" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C195" s="243"/>
+      <c r="C195" s="193"/>
     </row>
     <row r="196" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C196" s="243"/>
+      <c r="C196" s="193"/>
     </row>
     <row r="197" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C197" s="243"/>
+      <c r="C197" s="193"/>
     </row>
     <row r="198" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C198" s="243"/>
+      <c r="C198" s="193"/>
     </row>
     <row r="199" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C199" s="243"/>
+      <c r="C199" s="193"/>
     </row>
     <row r="200" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C200" s="243"/>
+      <c r="C200" s="193"/>
     </row>
     <row r="201" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C201" s="243"/>
+      <c r="C201" s="193"/>
     </row>
     <row r="202" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C202" s="243"/>
+      <c r="C202" s="193"/>
     </row>
     <row r="203" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C203" s="243"/>
+      <c r="C203" s="193"/>
     </row>
     <row r="204" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C204" s="243"/>
+      <c r="C204" s="193"/>
     </row>
     <row r="205" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C205" s="243"/>
+      <c r="C205" s="193"/>
     </row>
     <row r="206" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C206" s="243"/>
+      <c r="C206" s="193"/>
     </row>
     <row r="207" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C207" s="243"/>
+      <c r="C207" s="193"/>
     </row>
     <row r="208" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C208" s="243"/>
+      <c r="C208" s="193"/>
     </row>
     <row r="209" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C209" s="243"/>
+      <c r="C209" s="193"/>
     </row>
     <row r="210" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C210" s="243"/>
+      <c r="C210" s="193"/>
     </row>
     <row r="211" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C211" s="243"/>
+      <c r="C211" s="193"/>
     </row>
     <row r="212" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C212" s="243"/>
+      <c r="C212" s="193"/>
     </row>
     <row r="213" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C213" s="243"/>
+      <c r="C213" s="193"/>
     </row>
     <row r="214" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C214" s="243"/>
+      <c r="C214" s="193"/>
     </row>
     <row r="215" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C215" s="243"/>
+      <c r="C215" s="193"/>
     </row>
     <row r="216" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C216" s="243"/>
+      <c r="C216" s="193"/>
     </row>
     <row r="217" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C217" s="243"/>
+      <c r="C217" s="193"/>
     </row>
     <row r="218" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C218" s="243"/>
+      <c r="C218" s="193"/>
     </row>
     <row r="219" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C219" s="243"/>
+      <c r="C219" s="193"/>
     </row>
     <row r="220" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C220" s="243"/>
+      <c r="C220" s="193"/>
     </row>
     <row r="221" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C221" s="243"/>
+      <c r="C221" s="193"/>
     </row>
     <row r="222" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C222" s="243"/>
+      <c r="C222" s="193"/>
     </row>
     <row r="223" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C223" s="243"/>
+      <c r="C223" s="193"/>
     </row>
     <row r="224" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C224" s="243"/>
+      <c r="C224" s="193"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C225" s="243"/>
+      <c r="C225" s="193"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C226" s="243"/>
+      <c r="C226" s="193"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C227" s="243"/>
+      <c r="C227" s="193"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C228" s="243"/>
+      <c r="C228" s="193"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C229" s="243"/>
+      <c r="C229" s="193"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C230" s="243"/>
+      <c r="C230" s="193"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C231" s="243"/>
+      <c r="C231" s="193"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C232" s="243"/>
+      <c r="C232" s="193"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C233" s="243"/>
+      <c r="C233" s="193"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C234" s="243"/>
+      <c r="C234" s="193"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C235" s="243"/>
+      <c r="C235" s="193"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C236" s="243"/>
+      <c r="C236" s="193"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C237" s="243"/>
+      <c r="C237" s="193"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C238" s="243"/>
+      <c r="C238" s="193"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C239" s="243"/>
+      <c r="C239" s="193"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C240" s="243"/>
+      <c r="C240" s="193"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C241" s="243"/>
+      <c r="C241" s="193"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C242" s="243"/>
+      <c r="C242" s="193"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C243" s="243"/>
+      <c r="C243" s="193"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C244" s="243"/>
+      <c r="C244" s="193"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C245" s="243"/>
+      <c r="C245" s="193"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C246" s="243"/>
+      <c r="C246" s="193"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C247" s="243"/>
+      <c r="C247" s="193"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C248" s="243"/>
+      <c r="C248" s="193"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C249" s="243"/>
+      <c r="C249" s="193"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C250" s="243"/>
+      <c r="C250" s="193"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C251" s="243"/>
+      <c r="C251" s="193"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C252" s="243"/>
+      <c r="C252" s="193"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C253" s="243"/>
+      <c r="C253" s="193"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C254" s="243"/>
+      <c r="C254" s="193"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C255" s="243"/>
+      <c r="C255" s="193"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C256" s="243"/>
+      <c r="C256" s="193"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C257" s="243"/>
+      <c r="C257" s="193"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C258" s="243"/>
+      <c r="C258" s="193"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C259" s="243"/>
+      <c r="C259" s="193"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C260" s="243"/>
+      <c r="C260" s="193"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C261" s="243"/>
+      <c r="C261" s="193"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C262" s="243"/>
+      <c r="C262" s="193"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C263" s="243"/>
+      <c r="C263" s="193"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C264" s="243"/>
+      <c r="C264" s="193"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C265" s="243"/>
+      <c r="C265" s="193"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C266" s="243"/>
+      <c r="C266" s="193"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C267" s="243"/>
+      <c r="C267" s="193"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C268" s="243"/>
+      <c r="C268" s="193"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C269" s="243"/>
+      <c r="C269" s="193"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C270" s="243"/>
+      <c r="C270" s="193"/>
     </row>
     <row r="271" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C271" s="243"/>
+      <c r="C271" s="193"/>
     </row>
     <row r="272" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C272" s="243"/>
+      <c r="C272" s="193"/>
     </row>
     <row r="273" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C273" s="243"/>
+      <c r="C273" s="193"/>
     </row>
     <row r="274" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C274" s="243"/>
+      <c r="C274" s="193"/>
     </row>
     <row r="275" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C275" s="243"/>
+      <c r="C275" s="193"/>
     </row>
     <row r="276" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C276" s="243"/>
+      <c r="C276" s="193"/>
     </row>
     <row r="277" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C277" s="243"/>
+      <c r="C277" s="193"/>
     </row>
     <row r="278" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C278" s="243"/>
+      <c r="C278" s="193"/>
     </row>
     <row r="279" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C279" s="243"/>
+      <c r="C279" s="193"/>
     </row>
     <row r="280" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C280" s="243"/>
+      <c r="C280" s="193"/>
     </row>
     <row r="281" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C281" s="243"/>
+      <c r="C281" s="193"/>
     </row>
     <row r="282" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C282" s="243"/>
+      <c r="C282" s="193"/>
     </row>
     <row r="283" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C283" s="243"/>
+      <c r="C283" s="193"/>
     </row>
     <row r="284" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C284" s="243"/>
+      <c r="C284" s="193"/>
     </row>
     <row r="285" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C285" s="243"/>
+      <c r="C285" s="193"/>
     </row>
     <row r="286" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C286" s="243"/>
+      <c r="C286" s="193"/>
     </row>
     <row r="287" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C287" s="243"/>
+      <c r="C287" s="193"/>
     </row>
     <row r="288" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C288" s="243"/>
+      <c r="C288" s="193"/>
     </row>
     <row r="289" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C289" s="243"/>
+      <c r="C289" s="193"/>
     </row>
     <row r="290" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C290" s="243"/>
+      <c r="C290" s="193"/>
     </row>
     <row r="291" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C291" s="243"/>
+      <c r="C291" s="193"/>
     </row>
     <row r="292" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C292" s="243"/>
+      <c r="C292" s="193"/>
     </row>
     <row r="293" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C293" s="243"/>
+      <c r="C293" s="193"/>
     </row>
     <row r="294" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C294" s="243"/>
+      <c r="C294" s="193"/>
     </row>
     <row r="295" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C295" s="244"/>
+      <c r="C295" s="194"/>
     </row>
     <row r="625" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D625" s="245"/>
+      <c r="D625" s="195"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24433,13 +24433,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="211" t="s">
+      <c r="B17" s="204" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="211"/>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -24709,13 +24709,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="211" t="s">
+      <c r="B34" s="204" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="211"/>
-      <c r="D34" s="211"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -24736,10 +24736,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="204" t="s">
+      <c r="G35" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="204"/>
+      <c r="H35" s="205"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -24758,8 +24758,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="194"/>
-      <c r="H36" s="194"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -24778,8 +24778,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="209"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -24798,8 +24798,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -24818,8 +24818,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="212"/>
-      <c r="H39" s="212"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -24838,8 +24838,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="212"/>
-      <c r="H40" s="212"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -24858,10 +24858,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="213" t="s">
+      <c r="G41" s="228" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="214"/>
+      <c r="H41" s="229"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -24880,10 +24880,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="213" t="s">
+      <c r="G42" s="228" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="214"/>
+      <c r="H42" s="229"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -24902,10 +24902,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="213" t="s">
+      <c r="G43" s="228" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="214"/>
+      <c r="H43" s="229"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -24924,8 +24924,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="215"/>
-      <c r="H44" s="216"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="231"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -24946,10 +24946,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="213" t="s">
+      <c r="G45" s="228" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="214"/>
+      <c r="H45" s="229"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -24970,8 +24970,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -24992,8 +24992,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="194"/>
-      <c r="H47" s="194"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -25014,10 +25014,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="194" t="s">
+      <c r="G48" s="209" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="194"/>
+      <c r="H48" s="209"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -25036,8 +25036,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="195"/>
-      <c r="H49" s="195"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -25056,8 +25056,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="195"/>
-      <c r="H50" s="195"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="226"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -25078,8 +25078,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="195"/>
-      <c r="H51" s="195"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -25100,8 +25100,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="195"/>
-      <c r="H52" s="195"/>
+      <c r="G52" s="226"/>
+      <c r="H52" s="226"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -25122,8 +25122,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="195"/>
-      <c r="H53" s="195"/>
+      <c r="G53" s="226"/>
+      <c r="H53" s="226"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -25144,8 +25144,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="195"/>
-      <c r="H54" s="195"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="226"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -25166,8 +25166,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="195"/>
-      <c r="H55" s="195"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="226"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -25186,8 +25186,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="195"/>
-      <c r="H56" s="195"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="226"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -25206,8 +25206,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="195"/>
-      <c r="H57" s="195"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -25226,8 +25226,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="195"/>
-      <c r="H58" s="195"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -25248,8 +25248,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="195"/>
-      <c r="H59" s="195"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -25360,13 +25360,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="211" t="s">
+      <c r="B70" s="204" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
+      <c r="F70" s="204"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -25387,10 +25387,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="217" t="s">
+      <c r="G71" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="217"/>
+      <c r="H71" s="232"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -25411,10 +25411,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="202" t="s">
+      <c r="G72" s="210" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="194"/>
+      <c r="H72" s="209"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -25435,10 +25435,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="194" t="s">
+      <c r="G73" s="209" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="194"/>
+      <c r="H73" s="209"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -25459,8 +25459,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="194"/>
-      <c r="H74" s="194"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -25481,10 +25481,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="200" t="s">
+      <c r="G75" s="224" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="201"/>
+      <c r="H75" s="225"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -25493,7 +25493,7 @@
       <c r="B76" s="33" t="s">
         <v>713</v>
       </c>
-      <c r="C76" s="186" t="s">
+      <c r="C76" s="196" t="s">
         <v>761</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -25505,8 +25505,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="194"/>
-      <c r="H76" s="194"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -25515,7 +25515,7 @@
       <c r="B77" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="C77" s="187"/>
+      <c r="C77" s="197"/>
       <c r="D77" s="1" t="s">
         <v>712</v>
       </c>
@@ -25525,8 +25525,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="194"/>
-      <c r="H77" s="194"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -25535,7 +25535,7 @@
       <c r="B78" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="C78" s="187"/>
+      <c r="C78" s="197"/>
       <c r="D78" s="1" t="s">
         <v>729</v>
       </c>
@@ -25545,8 +25545,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="200"/>
-      <c r="H78" s="201"/>
+      <c r="G78" s="224"/>
+      <c r="H78" s="225"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -25555,7 +25555,7 @@
       <c r="B79" s="33" t="s">
         <v>721</v>
       </c>
-      <c r="C79" s="187"/>
+      <c r="C79" s="197"/>
       <c r="D79" s="1" t="s">
         <v>716</v>
       </c>
@@ -25565,8 +25565,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="194"/>
-      <c r="H79" s="194"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -25575,7 +25575,7 @@
       <c r="B80" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C80" s="187"/>
+      <c r="C80" s="197"/>
       <c r="D80" s="1" t="s">
         <v>719</v>
       </c>
@@ -25585,8 +25585,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="194"/>
-      <c r="H80" s="194"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -25595,7 +25595,7 @@
       <c r="B81" s="155" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="187"/>
+      <c r="C81" s="197"/>
       <c r="D81" s="1" t="s">
         <v>720</v>
       </c>
@@ -25605,8 +25605,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="194"/>
-      <c r="H81" s="194"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -25615,7 +25615,7 @@
       <c r="B82" s="33" t="s">
         <v>723</v>
       </c>
-      <c r="C82" s="187"/>
+      <c r="C82" s="197"/>
       <c r="D82" s="1" t="s">
         <v>722</v>
       </c>
@@ -25625,8 +25625,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="194"/>
-      <c r="H82" s="194"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -25635,7 +25635,7 @@
       <c r="B83" s="33" t="s">
         <v>726</v>
       </c>
-      <c r="C83" s="187"/>
+      <c r="C83" s="197"/>
       <c r="D83" s="1" t="s">
         <v>724</v>
       </c>
@@ -25645,8 +25645,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="194"/>
-      <c r="H83" s="194"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -25655,7 +25655,7 @@
       <c r="B84" s="33" t="s">
         <v>725</v>
       </c>
-      <c r="C84" s="187"/>
+      <c r="C84" s="197"/>
       <c r="D84" s="1" t="s">
         <v>727</v>
       </c>
@@ -25665,8 +25665,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="194"/>
-      <c r="H84" s="194"/>
+      <c r="G84" s="209"/>
+      <c r="H84" s="209"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -25675,7 +25675,7 @@
       <c r="B85" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C85" s="187"/>
+      <c r="C85" s="197"/>
       <c r="D85" s="1" t="s">
         <v>734</v>
       </c>
@@ -25685,8 +25685,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="194"/>
-      <c r="H85" s="194"/>
+      <c r="G85" s="209"/>
+      <c r="H85" s="209"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -25695,7 +25695,7 @@
       <c r="B86" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C86" s="187"/>
+      <c r="C86" s="197"/>
       <c r="D86" s="1" t="s">
         <v>735</v>
       </c>
@@ -25705,8 +25705,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="194"/>
-      <c r="H86" s="194"/>
+      <c r="G86" s="209"/>
+      <c r="H86" s="209"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -25715,7 +25715,7 @@
       <c r="B87" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C87" s="187"/>
+      <c r="C87" s="197"/>
       <c r="D87" s="1" t="s">
         <v>736</v>
       </c>
@@ -25725,8 +25725,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="194"/>
-      <c r="H87" s="194"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -25735,7 +25735,7 @@
       <c r="B88" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="C88" s="187"/>
+      <c r="C88" s="197"/>
       <c r="D88" s="1" t="s">
         <v>737</v>
       </c>
@@ -25745,8 +25745,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="194"/>
-      <c r="H88" s="194"/>
+      <c r="G88" s="209"/>
+      <c r="H88" s="209"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -25755,7 +25755,7 @@
       <c r="B89" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C89" s="187"/>
+      <c r="C89" s="197"/>
       <c r="D89" s="1" t="s">
         <v>733</v>
       </c>
@@ -25765,8 +25765,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="194"/>
-      <c r="H89" s="194"/>
+      <c r="G89" s="209"/>
+      <c r="H89" s="209"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -25775,7 +25775,7 @@
       <c r="B90" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C90" s="187"/>
+      <c r="C90" s="197"/>
       <c r="D90" s="4" t="s">
         <v>739</v>
       </c>
@@ -25785,8 +25785,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="194"/>
-      <c r="H90" s="194"/>
+      <c r="G90" s="209"/>
+      <c r="H90" s="209"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -25795,7 +25795,7 @@
       <c r="B91" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C91" s="187"/>
+      <c r="C91" s="197"/>
       <c r="D91" s="4" t="s">
         <v>739</v>
       </c>
@@ -25805,8 +25805,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="194"/>
-      <c r="H91" s="194"/>
+      <c r="G91" s="209"/>
+      <c r="H91" s="209"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -25815,7 +25815,7 @@
       <c r="B92" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C92" s="187"/>
+      <c r="C92" s="197"/>
       <c r="D92" s="4" t="s">
         <v>739</v>
       </c>
@@ -25825,8 +25825,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="194"/>
-      <c r="H92" s="194"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -25835,7 +25835,7 @@
       <c r="B93" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C93" s="188"/>
+      <c r="C93" s="198"/>
       <c r="D93" s="4" t="s">
         <v>739</v>
       </c>
@@ -25845,8 +25845,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="194"/>
-      <c r="H93" s="194"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -25865,8 +25865,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="196"/>
-      <c r="H94" s="197"/>
+      <c r="G94" s="211"/>
+      <c r="H94" s="212"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -25885,8 +25885,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="196"/>
-      <c r="H95" s="197"/>
+      <c r="G95" s="211"/>
+      <c r="H95" s="212"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -25905,8 +25905,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="196"/>
-      <c r="H96" s="197"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="212"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -25927,8 +25927,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="196"/>
-      <c r="H97" s="197"/>
+      <c r="G97" s="211"/>
+      <c r="H97" s="212"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -25949,8 +25949,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="195"/>
-      <c r="H98" s="195"/>
+      <c r="G98" s="226"/>
+      <c r="H98" s="226"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -25971,10 +25971,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="194" t="s">
+      <c r="G99" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="194"/>
+      <c r="H99" s="209"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -25995,10 +25995,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="194" t="s">
+      <c r="G100" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="194"/>
+      <c r="H100" s="209"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -26019,10 +26019,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="194" t="s">
+      <c r="G101" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="194"/>
+      <c r="H101" s="209"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -26041,8 +26041,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="194"/>
-      <c r="H102" s="194"/>
+      <c r="G102" s="209"/>
+      <c r="H102" s="209"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -26061,8 +26061,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="194"/>
-      <c r="H103" s="194"/>
+      <c r="G103" s="209"/>
+      <c r="H103" s="209"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -26071,7 +26071,7 @@
       <c r="B104" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C104" s="189" t="s">
+      <c r="C104" s="199" t="s">
         <v>516</v>
       </c>
       <c r="D104" s="20" t="s">
@@ -26083,8 +26083,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="194"/>
-      <c r="H104" s="194"/>
+      <c r="G104" s="209"/>
+      <c r="H104" s="209"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -26093,7 +26093,7 @@
       <c r="B105" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C105" s="189"/>
+      <c r="C105" s="199"/>
       <c r="D105" s="20" t="s">
         <v>766</v>
       </c>
@@ -26103,8 +26103,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="194"/>
-      <c r="H105" s="194"/>
+      <c r="G105" s="209"/>
+      <c r="H105" s="209"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -26113,7 +26113,7 @@
       <c r="B106" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="189"/>
+      <c r="C106" s="199"/>
       <c r="D106" s="20" t="s">
         <v>767</v>
       </c>
@@ -26123,8 +26123,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="194"/>
-      <c r="H106" s="194"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -26133,7 +26133,7 @@
       <c r="B107" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="189"/>
+      <c r="C107" s="199"/>
       <c r="D107" s="20" t="s">
         <v>768</v>
       </c>
@@ -26143,8 +26143,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="194"/>
-      <c r="H107" s="194"/>
+      <c r="G107" s="209"/>
+      <c r="H107" s="209"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -26165,17 +26165,17 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="194"/>
-      <c r="H108" s="194"/>
+      <c r="G108" s="209"/>
+      <c r="H108" s="209"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
         <v>38</v>
       </c>
-      <c r="B109" s="189" t="s">
+      <c r="B109" s="199" t="s">
         <v>786</v>
       </c>
-      <c r="C109" s="189" t="s">
+      <c r="C109" s="199" t="s">
         <v>787</v>
       </c>
       <c r="D109" s="33" t="s">
@@ -26187,17 +26187,17 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="205" t="s">
+      <c r="G109" s="234" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="206"/>
+      <c r="H109" s="235"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
         <v>39</v>
       </c>
-      <c r="B110" s="189"/>
-      <c r="C110" s="189"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="199"/>
       <c r="D110" s="33" t="s">
         <v>774</v>
       </c>
@@ -26207,15 +26207,15 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="207"/>
-      <c r="H110" s="208"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="237"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
         <v>40</v>
       </c>
-      <c r="B111" s="189"/>
-      <c r="C111" s="189"/>
+      <c r="B111" s="199"/>
+      <c r="C111" s="199"/>
       <c r="D111" s="33" t="s">
         <v>775</v>
       </c>
@@ -26225,15 +26225,15 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="207"/>
-      <c r="H111" s="208"/>
+      <c r="G111" s="236"/>
+      <c r="H111" s="237"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
         <v>41</v>
       </c>
-      <c r="B112" s="189"/>
-      <c r="C112" s="189"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="199"/>
       <c r="D112" s="33" t="s">
         <v>776</v>
       </c>
@@ -26243,15 +26243,15 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="207"/>
-      <c r="H112" s="208"/>
+      <c r="G112" s="236"/>
+      <c r="H112" s="237"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
         <v>42</v>
       </c>
-      <c r="B113" s="189"/>
-      <c r="C113" s="189"/>
+      <c r="B113" s="199"/>
+      <c r="C113" s="199"/>
       <c r="D113" s="33" t="s">
         <v>784</v>
       </c>
@@ -26261,15 +26261,15 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="207"/>
-      <c r="H113" s="208"/>
+      <c r="G113" s="236"/>
+      <c r="H113" s="237"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
         <v>43</v>
       </c>
-      <c r="B114" s="189"/>
-      <c r="C114" s="189"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="199"/>
       <c r="D114" s="33" t="s">
         <v>777</v>
       </c>
@@ -26279,15 +26279,15 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="207"/>
-      <c r="H114" s="208"/>
+      <c r="G114" s="236"/>
+      <c r="H114" s="237"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
         <v>44</v>
       </c>
-      <c r="B115" s="189"/>
-      <c r="C115" s="189"/>
+      <c r="B115" s="199"/>
+      <c r="C115" s="199"/>
       <c r="D115" s="33" t="s">
         <v>778</v>
       </c>
@@ -26297,15 +26297,15 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="207"/>
-      <c r="H115" s="208"/>
+      <c r="G115" s="236"/>
+      <c r="H115" s="237"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
         <v>45</v>
       </c>
-      <c r="B116" s="189"/>
-      <c r="C116" s="189"/>
+      <c r="B116" s="199"/>
+      <c r="C116" s="199"/>
       <c r="D116" s="33" t="s">
         <v>779</v>
       </c>
@@ -26315,15 +26315,15 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="207"/>
-      <c r="H116" s="208"/>
+      <c r="G116" s="236"/>
+      <c r="H116" s="237"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
         <v>46</v>
       </c>
-      <c r="B117" s="189"/>
-      <c r="C117" s="189"/>
+      <c r="B117" s="199"/>
+      <c r="C117" s="199"/>
       <c r="D117" s="33" t="s">
         <v>780</v>
       </c>
@@ -26333,15 +26333,15 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="207"/>
-      <c r="H117" s="208"/>
+      <c r="G117" s="236"/>
+      <c r="H117" s="237"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
         <v>47</v>
       </c>
-      <c r="B118" s="189"/>
-      <c r="C118" s="189"/>
+      <c r="B118" s="199"/>
+      <c r="C118" s="199"/>
       <c r="D118" s="33" t="s">
         <v>781</v>
       </c>
@@ -26351,15 +26351,15 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="207"/>
-      <c r="H118" s="208"/>
+      <c r="G118" s="236"/>
+      <c r="H118" s="237"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
         <v>48</v>
       </c>
-      <c r="B119" s="189"/>
-      <c r="C119" s="189"/>
+      <c r="B119" s="199"/>
+      <c r="C119" s="199"/>
       <c r="D119" s="33" t="s">
         <v>782</v>
       </c>
@@ -26369,15 +26369,15 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="207"/>
-      <c r="H119" s="208"/>
+      <c r="G119" s="236"/>
+      <c r="H119" s="237"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
         <v>49</v>
       </c>
-      <c r="B120" s="189"/>
-      <c r="C120" s="189"/>
+      <c r="B120" s="199"/>
+      <c r="C120" s="199"/>
       <c r="D120" s="33" t="s">
         <v>783</v>
       </c>
@@ -26387,15 +26387,15 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="207"/>
-      <c r="H120" s="208"/>
+      <c r="G120" s="236"/>
+      <c r="H120" s="237"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
         <v>50</v>
       </c>
-      <c r="B121" s="189"/>
-      <c r="C121" s="189"/>
+      <c r="B121" s="199"/>
+      <c r="C121" s="199"/>
       <c r="D121" s="33" t="s">
         <v>785</v>
       </c>
@@ -26405,8 +26405,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="209"/>
-      <c r="H121" s="210"/>
+      <c r="G121" s="238"/>
+      <c r="H121" s="239"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -26542,13 +26542,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="211" t="s">
+      <c r="B135" s="204" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="211"/>
-      <c r="D135" s="211"/>
-      <c r="E135" s="211"/>
-      <c r="F135" s="211"/>
+      <c r="C135" s="204"/>
+      <c r="D135" s="204"/>
+      <c r="E135" s="204"/>
+      <c r="F135" s="204"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -26569,10 +26569,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="204" t="s">
+      <c r="G136" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="204"/>
+      <c r="H136" s="205"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -26591,8 +26591,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="196"/>
-      <c r="H137" s="197"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="212"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -26613,10 +26613,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="202" t="s">
+      <c r="G138" s="210" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="194"/>
+      <c r="H138" s="209"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -26637,8 +26637,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="194"/>
-      <c r="H139" s="194"/>
+      <c r="G139" s="209"/>
+      <c r="H139" s="209"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -26647,7 +26647,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="198" t="s">
+      <c r="C140" s="240" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -26659,10 +26659,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="218" t="s">
+      <c r="G140" s="220" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="219"/>
+      <c r="H140" s="221"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -26671,7 +26671,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="199"/>
+      <c r="C141" s="241"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -26681,8 +26681,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="220"/>
-      <c r="H141" s="221"/>
+      <c r="G141" s="222"/>
+      <c r="H141" s="223"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -26691,7 +26691,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="198" t="s">
+      <c r="C142" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -26703,8 +26703,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="194"/>
-      <c r="H142" s="194"/>
+      <c r="G142" s="209"/>
+      <c r="H142" s="209"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -26713,7 +26713,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="199"/>
+      <c r="C143" s="241"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -26723,8 +26723,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="194"/>
-      <c r="H143" s="194"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="209"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -26733,7 +26733,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="198" t="s">
+      <c r="C144" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -26745,8 +26745,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="196"/>
-      <c r="H144" s="197"/>
+      <c r="G144" s="211"/>
+      <c r="H144" s="212"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -26755,7 +26755,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="199"/>
+      <c r="C145" s="241"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -26765,8 +26765,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="194"/>
-      <c r="H145" s="194"/>
+      <c r="G145" s="209"/>
+      <c r="H145" s="209"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -26775,7 +26775,7 @@
       <c r="B146" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C146" s="186" t="s">
+      <c r="C146" s="196" t="s">
         <v>634</v>
       </c>
       <c r="D146" s="36" t="s">
@@ -26787,8 +26787,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="194"/>
-      <c r="H146" s="194"/>
+      <c r="G146" s="209"/>
+      <c r="H146" s="209"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -26797,7 +26797,7 @@
       <c r="B147" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="C147" s="187"/>
+      <c r="C147" s="197"/>
       <c r="D147" s="36" t="s">
         <v>809</v>
       </c>
@@ -26807,8 +26807,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="194"/>
-      <c r="H147" s="194"/>
+      <c r="G147" s="209"/>
+      <c r="H147" s="209"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -26817,7 +26817,7 @@
       <c r="B148" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="C148" s="188"/>
+      <c r="C148" s="198"/>
       <c r="D148" s="158" t="s">
         <v>810</v>
       </c>
@@ -26827,8 +26827,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="194"/>
-      <c r="H148" s="194"/>
+      <c r="G148" s="209"/>
+      <c r="H148" s="209"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -26849,10 +26849,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="194" t="s">
+      <c r="G149" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="194"/>
+      <c r="H149" s="209"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -26873,10 +26873,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="194" t="s">
+      <c r="G150" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="194"/>
+      <c r="H150" s="209"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -26897,10 +26897,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="194" t="s">
+      <c r="G151" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="194"/>
+      <c r="H151" s="209"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -26909,7 +26909,7 @@
       <c r="B152" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C152" s="186" t="s">
+      <c r="C152" s="196" t="s">
         <v>575</v>
       </c>
       <c r="D152" s="20" t="s">
@@ -26921,8 +26921,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="194"/>
-      <c r="H152" s="194"/>
+      <c r="G152" s="209"/>
+      <c r="H152" s="209"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -26931,7 +26931,7 @@
       <c r="B153" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C153" s="187"/>
+      <c r="C153" s="197"/>
       <c r="D153" s="20" t="s">
         <v>818</v>
       </c>
@@ -26941,8 +26941,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="194"/>
-      <c r="H153" s="194"/>
+      <c r="G153" s="209"/>
+      <c r="H153" s="209"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -26951,7 +26951,7 @@
       <c r="B154" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C154" s="187"/>
+      <c r="C154" s="197"/>
       <c r="D154" s="20" t="s">
         <v>819</v>
       </c>
@@ -26961,8 +26961,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="194"/>
-      <c r="H154" s="194"/>
+      <c r="G154" s="209"/>
+      <c r="H154" s="209"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -26971,7 +26971,7 @@
       <c r="B155" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C155" s="187"/>
+      <c r="C155" s="197"/>
       <c r="D155" s="20" t="s">
         <v>820</v>
       </c>
@@ -26981,8 +26981,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="194"/>
-      <c r="H155" s="194"/>
+      <c r="G155" s="209"/>
+      <c r="H155" s="209"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -26991,7 +26991,7 @@
       <c r="B156" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C156" s="187"/>
+      <c r="C156" s="197"/>
       <c r="D156" s="20" t="s">
         <v>821</v>
       </c>
@@ -27001,8 +27001,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="194"/>
-      <c r="H156" s="194"/>
+      <c r="G156" s="209"/>
+      <c r="H156" s="209"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -27011,7 +27011,7 @@
       <c r="B157" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C157" s="187"/>
+      <c r="C157" s="197"/>
       <c r="D157" s="20" t="s">
         <v>822</v>
       </c>
@@ -27021,8 +27021,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="194"/>
-      <c r="H157" s="194"/>
+      <c r="G157" s="209"/>
+      <c r="H157" s="209"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -27031,7 +27031,7 @@
       <c r="B158" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C158" s="187"/>
+      <c r="C158" s="197"/>
       <c r="D158" s="20" t="s">
         <v>823</v>
       </c>
@@ -27041,8 +27041,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="194"/>
-      <c r="H158" s="194"/>
+      <c r="G158" s="209"/>
+      <c r="H158" s="209"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -27051,7 +27051,7 @@
       <c r="B159" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C159" s="187"/>
+      <c r="C159" s="197"/>
       <c r="D159" s="20" t="s">
         <v>824</v>
       </c>
@@ -27061,8 +27061,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="194"/>
-      <c r="H159" s="194"/>
+      <c r="G159" s="209"/>
+      <c r="H159" s="209"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -27071,7 +27071,7 @@
       <c r="B160" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C160" s="187"/>
+      <c r="C160" s="197"/>
       <c r="D160" s="20" t="s">
         <v>825</v>
       </c>
@@ -27081,8 +27081,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="194"/>
-      <c r="H160" s="194"/>
+      <c r="G160" s="209"/>
+      <c r="H160" s="209"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -27091,7 +27091,7 @@
       <c r="B161" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C161" s="187"/>
+      <c r="C161" s="197"/>
       <c r="D161" s="20" t="s">
         <v>826</v>
       </c>
@@ -27101,8 +27101,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="194"/>
-      <c r="H161" s="194"/>
+      <c r="G161" s="209"/>
+      <c r="H161" s="209"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -27111,7 +27111,7 @@
       <c r="B162" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C162" s="187"/>
+      <c r="C162" s="197"/>
       <c r="D162" s="20" t="s">
         <v>827</v>
       </c>
@@ -27121,8 +27121,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="194"/>
-      <c r="H162" s="194"/>
+      <c r="G162" s="209"/>
+      <c r="H162" s="209"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -27131,7 +27131,7 @@
       <c r="B163" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C163" s="187"/>
+      <c r="C163" s="197"/>
       <c r="D163" s="20" t="s">
         <v>828</v>
       </c>
@@ -27141,8 +27141,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="194"/>
-      <c r="H163" s="194"/>
+      <c r="G163" s="209"/>
+      <c r="H163" s="209"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -27151,7 +27151,7 @@
       <c r="B164" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C164" s="187"/>
+      <c r="C164" s="197"/>
       <c r="D164" s="20" t="s">
         <v>829</v>
       </c>
@@ -27161,8 +27161,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="194"/>
-      <c r="H164" s="194"/>
+      <c r="G164" s="209"/>
+      <c r="H164" s="209"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -27171,7 +27171,7 @@
       <c r="B165" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C165" s="187"/>
+      <c r="C165" s="197"/>
       <c r="D165" s="20" t="s">
         <v>830</v>
       </c>
@@ -27181,8 +27181,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="194"/>
-      <c r="H165" s="194"/>
+      <c r="G165" s="209"/>
+      <c r="H165" s="209"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -27191,7 +27191,7 @@
       <c r="B166" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C166" s="187"/>
+      <c r="C166" s="197"/>
       <c r="D166" s="20" t="s">
         <v>831</v>
       </c>
@@ -27201,8 +27201,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="194"/>
-      <c r="H166" s="194"/>
+      <c r="G166" s="209"/>
+      <c r="H166" s="209"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -27211,7 +27211,7 @@
       <c r="B167" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C167" s="187"/>
+      <c r="C167" s="197"/>
       <c r="D167" s="20" t="s">
         <v>832</v>
       </c>
@@ -27221,8 +27221,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="194"/>
-      <c r="H167" s="194"/>
+      <c r="G167" s="209"/>
+      <c r="H167" s="209"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -27231,7 +27231,7 @@
       <c r="B168" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C168" s="187"/>
+      <c r="C168" s="197"/>
       <c r="D168" s="20" t="s">
         <v>833</v>
       </c>
@@ -27241,8 +27241,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="194"/>
-      <c r="H168" s="194"/>
+      <c r="G168" s="209"/>
+      <c r="H168" s="209"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -27251,7 +27251,7 @@
       <c r="B169" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C169" s="187"/>
+      <c r="C169" s="197"/>
       <c r="D169" s="20" t="s">
         <v>834</v>
       </c>
@@ -27261,8 +27261,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="194"/>
-      <c r="H169" s="194"/>
+      <c r="G169" s="209"/>
+      <c r="H169" s="209"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -27271,7 +27271,7 @@
       <c r="B170" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C170" s="187"/>
+      <c r="C170" s="197"/>
       <c r="D170" s="20" t="s">
         <v>835</v>
       </c>
@@ -27281,8 +27281,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="194"/>
-      <c r="H170" s="194"/>
+      <c r="G170" s="209"/>
+      <c r="H170" s="209"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -27291,7 +27291,7 @@
       <c r="B171" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C171" s="187"/>
+      <c r="C171" s="197"/>
       <c r="D171" s="20" t="s">
         <v>836</v>
       </c>
@@ -27301,8 +27301,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="194"/>
-      <c r="H171" s="194"/>
+      <c r="G171" s="209"/>
+      <c r="H171" s="209"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -27311,7 +27311,7 @@
       <c r="B172" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C172" s="187"/>
+      <c r="C172" s="197"/>
       <c r="D172" s="20" t="s">
         <v>837</v>
       </c>
@@ -27321,8 +27321,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="194"/>
-      <c r="H172" s="194"/>
+      <c r="G172" s="209"/>
+      <c r="H172" s="209"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -27331,7 +27331,7 @@
       <c r="B173" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C173" s="187"/>
+      <c r="C173" s="197"/>
       <c r="D173" s="20" t="s">
         <v>838</v>
       </c>
@@ -27341,8 +27341,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="194"/>
-      <c r="H173" s="194"/>
+      <c r="G173" s="209"/>
+      <c r="H173" s="209"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -27351,7 +27351,7 @@
       <c r="B174" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C174" s="187"/>
+      <c r="C174" s="197"/>
       <c r="D174" s="20" t="s">
         <v>839</v>
       </c>
@@ -27361,8 +27361,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="194"/>
-      <c r="H174" s="194"/>
+      <c r="G174" s="209"/>
+      <c r="H174" s="209"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -27371,7 +27371,7 @@
       <c r="B175" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="C175" s="188"/>
+      <c r="C175" s="198"/>
       <c r="D175" s="20" t="s">
         <v>840</v>
       </c>
@@ -27381,8 +27381,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="194"/>
-      <c r="H175" s="194"/>
+      <c r="G175" s="209"/>
+      <c r="H175" s="209"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -27391,7 +27391,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="222" t="s">
+      <c r="C176" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -27403,10 +27403,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="225" t="s">
+      <c r="G176" s="216" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="226"/>
+      <c r="H176" s="217"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -27415,7 +27415,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="223"/>
+      <c r="C177" s="214"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -27425,8 +27425,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="227"/>
-      <c r="H177" s="228"/>
+      <c r="G177" s="218"/>
+      <c r="H177" s="219"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -27435,7 +27435,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="222" t="s">
+      <c r="C178" s="213" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -27447,8 +27447,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="194"/>
-      <c r="H178" s="194"/>
+      <c r="G178" s="209"/>
+      <c r="H178" s="209"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -27457,7 +27457,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="223"/>
+      <c r="C179" s="214"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -27467,8 +27467,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="194"/>
-      <c r="H179" s="194"/>
+      <c r="G179" s="209"/>
+      <c r="H179" s="209"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -27477,7 +27477,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="222" t="s">
+      <c r="C180" s="213" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -27489,8 +27489,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="194"/>
-      <c r="H180" s="194"/>
+      <c r="G180" s="209"/>
+      <c r="H180" s="209"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -27499,7 +27499,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="224"/>
+      <c r="C181" s="215"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -27509,8 +27509,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="194"/>
-      <c r="H181" s="194"/>
+      <c r="G181" s="209"/>
+      <c r="H181" s="209"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -27519,7 +27519,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="224"/>
+      <c r="C182" s="215"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -27529,8 +27529,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="194"/>
-      <c r="H182" s="194"/>
+      <c r="G182" s="209"/>
+      <c r="H182" s="209"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -27539,7 +27539,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="224"/>
+      <c r="C183" s="215"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -27549,8 +27549,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="194"/>
-      <c r="H183" s="194"/>
+      <c r="G183" s="209"/>
+      <c r="H183" s="209"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -27559,7 +27559,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="224"/>
+      <c r="C184" s="215"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -27569,8 +27569,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="194"/>
-      <c r="H184" s="194"/>
+      <c r="G184" s="209"/>
+      <c r="H184" s="209"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -27579,7 +27579,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="224"/>
+      <c r="C185" s="215"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -27589,8 +27589,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="194"/>
-      <c r="H185" s="194"/>
+      <c r="G185" s="209"/>
+      <c r="H185" s="209"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -27599,7 +27599,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="224"/>
+      <c r="C186" s="215"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -27609,8 +27609,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="194"/>
-      <c r="H186" s="194"/>
+      <c r="G186" s="209"/>
+      <c r="H186" s="209"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -27619,7 +27619,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="224"/>
+      <c r="C187" s="215"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -27629,8 +27629,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="194"/>
-      <c r="H187" s="194"/>
+      <c r="G187" s="209"/>
+      <c r="H187" s="209"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -27639,7 +27639,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="224"/>
+      <c r="C188" s="215"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -27649,8 +27649,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="194"/>
-      <c r="H188" s="194"/>
+      <c r="G188" s="209"/>
+      <c r="H188" s="209"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -27659,7 +27659,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="224"/>
+      <c r="C189" s="215"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -27669,8 +27669,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="194"/>
-      <c r="H189" s="194"/>
+      <c r="G189" s="209"/>
+      <c r="H189" s="209"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -27679,7 +27679,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="224"/>
+      <c r="C190" s="215"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -27689,8 +27689,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="194"/>
-      <c r="H190" s="194"/>
+      <c r="G190" s="209"/>
+      <c r="H190" s="209"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -27699,7 +27699,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="224"/>
+      <c r="C191" s="215"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -27709,8 +27709,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="194"/>
-      <c r="H191" s="194"/>
+      <c r="G191" s="209"/>
+      <c r="H191" s="209"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -27719,7 +27719,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="224"/>
+      <c r="C192" s="215"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -27729,8 +27729,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="194"/>
-      <c r="H192" s="194"/>
+      <c r="G192" s="209"/>
+      <c r="H192" s="209"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -27739,7 +27739,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="224"/>
+      <c r="C193" s="215"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -27749,8 +27749,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="194"/>
-      <c r="H193" s="194"/>
+      <c r="G193" s="209"/>
+      <c r="H193" s="209"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -27759,7 +27759,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="224"/>
+      <c r="C194" s="215"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -27769,8 +27769,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="194"/>
-      <c r="H194" s="194"/>
+      <c r="G194" s="209"/>
+      <c r="H194" s="209"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -27779,7 +27779,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="224"/>
+      <c r="C195" s="215"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -27789,8 +27789,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="194"/>
-      <c r="H195" s="194"/>
+      <c r="G195" s="209"/>
+      <c r="H195" s="209"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -27799,7 +27799,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="224"/>
+      <c r="C196" s="215"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -27809,8 +27809,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="194"/>
-      <c r="H196" s="194"/>
+      <c r="G196" s="209"/>
+      <c r="H196" s="209"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -27819,7 +27819,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="224"/>
+      <c r="C197" s="215"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -27829,8 +27829,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="194"/>
-      <c r="H197" s="194"/>
+      <c r="G197" s="209"/>
+      <c r="H197" s="209"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -27839,7 +27839,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="224"/>
+      <c r="C198" s="215"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -27849,8 +27849,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="194"/>
-      <c r="H198" s="194"/>
+      <c r="G198" s="209"/>
+      <c r="H198" s="209"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -27859,7 +27859,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="224"/>
+      <c r="C199" s="215"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -27869,8 +27869,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="194"/>
-      <c r="H199" s="194"/>
+      <c r="G199" s="209"/>
+      <c r="H199" s="209"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -27879,7 +27879,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="224"/>
+      <c r="C200" s="215"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -27889,8 +27889,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="194"/>
-      <c r="H200" s="194"/>
+      <c r="G200" s="209"/>
+      <c r="H200" s="209"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -27899,7 +27899,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="224"/>
+      <c r="C201" s="215"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -27909,8 +27909,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="194"/>
-      <c r="H201" s="194"/>
+      <c r="G201" s="209"/>
+      <c r="H201" s="209"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -27919,7 +27919,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="224"/>
+      <c r="C202" s="215"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -27929,8 +27929,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="194"/>
-      <c r="H202" s="194"/>
+      <c r="G202" s="209"/>
+      <c r="H202" s="209"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -27939,7 +27939,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="223"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -27949,8 +27949,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="194"/>
-      <c r="H203" s="194"/>
+      <c r="G203" s="209"/>
+      <c r="H203" s="209"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -27971,8 +27971,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="194"/>
-      <c r="H204" s="194"/>
+      <c r="G204" s="209"/>
+      <c r="H204" s="209"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -27991,10 +27991,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="194" t="s">
+      <c r="G205" s="209" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="194"/>
+      <c r="H205" s="209"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -28015,8 +28015,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="196"/>
-      <c r="H206" s="197"/>
+      <c r="G206" s="211"/>
+      <c r="H206" s="212"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -28037,8 +28037,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="196"/>
-      <c r="H207" s="197"/>
+      <c r="G207" s="211"/>
+      <c r="H207" s="212"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -28059,8 +28059,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="195"/>
-      <c r="H208" s="195"/>
+      <c r="G208" s="226"/>
+      <c r="H208" s="226"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -28136,13 +28136,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="211" t="s">
+      <c r="B216" s="204" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="211"/>
-      <c r="D216" s="211"/>
-      <c r="E216" s="211"/>
-      <c r="F216" s="211"/>
+      <c r="C216" s="204"/>
+      <c r="D216" s="204"/>
+      <c r="E216" s="204"/>
+      <c r="F216" s="204"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -28163,10 +28163,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="204" t="s">
+      <c r="G217" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="204"/>
+      <c r="H217" s="205"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -28183,10 +28183,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="202" t="s">
+      <c r="G218" s="210" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="194"/>
+      <c r="H218" s="209"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -28195,7 +28195,7 @@
       <c r="B219" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C219" s="186" t="s">
+      <c r="C219" s="196" t="s">
         <v>516</v>
       </c>
       <c r="D219" s="20" t="s">
@@ -28207,8 +28207,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="202"/>
-      <c r="H219" s="194"/>
+      <c r="G219" s="210"/>
+      <c r="H219" s="209"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -28217,7 +28217,7 @@
       <c r="B220" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C220" s="188"/>
+      <c r="C220" s="198"/>
       <c r="D220" s="178" t="s">
         <v>805</v>
       </c>
@@ -28227,8 +28227,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="194"/>
-      <c r="H220" s="194"/>
+      <c r="G220" s="209"/>
+      <c r="H220" s="209"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -28237,7 +28237,7 @@
       <c r="B221" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C221" s="186" t="s">
+      <c r="C221" s="196" t="s">
         <v>516</v>
       </c>
       <c r="D221" s="161" t="s">
@@ -28249,8 +28249,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="194"/>
-      <c r="H221" s="194"/>
+      <c r="G221" s="209"/>
+      <c r="H221" s="209"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -28259,7 +28259,7 @@
       <c r="B222" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C222" s="188"/>
+      <c r="C222" s="198"/>
       <c r="D222" s="161" t="s">
         <v>797</v>
       </c>
@@ -28269,8 +28269,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="194"/>
-      <c r="H222" s="194"/>
+      <c r="G222" s="209"/>
+      <c r="H222" s="209"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -28289,8 +28289,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="194"/>
-      <c r="H223" s="194"/>
+      <c r="G223" s="209"/>
+      <c r="H223" s="209"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -28337,7 +28337,7 @@
       <c r="B226" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C226" s="186" t="s">
+      <c r="C226" s="196" t="s">
         <v>905</v>
       </c>
       <c r="D226" s="20" t="s">
@@ -28358,7 +28358,7 @@
       <c r="B227" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C227" s="188"/>
+      <c r="C227" s="198"/>
       <c r="D227" s="20" t="s">
         <v>851</v>
       </c>
@@ -28433,10 +28433,10 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="229" t="s">
+      <c r="B231" s="206" t="s">
         <v>899</v>
       </c>
-      <c r="C231" s="186" t="s">
+      <c r="C231" s="196" t="s">
         <v>900</v>
       </c>
       <c r="D231" s="33" t="s">
@@ -28454,8 +28454,8 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="230"/>
-      <c r="C232" s="187"/>
+      <c r="B232" s="207"/>
+      <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
       </c>
@@ -28471,8 +28471,8 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="230"/>
-      <c r="C233" s="187"/>
+      <c r="B233" s="207"/>
+      <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
       </c>
@@ -28488,8 +28488,8 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="230"/>
-      <c r="C234" s="187"/>
+      <c r="B234" s="207"/>
+      <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
       </c>
@@ -28505,8 +28505,8 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="230"/>
-      <c r="C235" s="187"/>
+      <c r="B235" s="207"/>
+      <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
       </c>
@@ -28522,8 +28522,8 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="230"/>
-      <c r="C236" s="187"/>
+      <c r="B236" s="207"/>
+      <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
       </c>
@@ -28539,8 +28539,8 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="230"/>
-      <c r="C237" s="187"/>
+      <c r="B237" s="207"/>
+      <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
       </c>
@@ -28556,8 +28556,8 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="230"/>
-      <c r="C238" s="187"/>
+      <c r="B238" s="207"/>
+      <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
       </c>
@@ -28573,8 +28573,8 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="230"/>
-      <c r="C239" s="187"/>
+      <c r="B239" s="207"/>
+      <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
       </c>
@@ -28590,8 +28590,8 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="230"/>
-      <c r="C240" s="187"/>
+      <c r="B240" s="207"/>
+      <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
       </c>
@@ -28607,10 +28607,10 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="229" t="s">
+      <c r="B241" s="206" t="s">
         <v>901</v>
       </c>
-      <c r="C241" s="186" t="s">
+      <c r="C241" s="196" t="s">
         <v>761</v>
       </c>
       <c r="D241" s="9" t="s">
@@ -28628,8 +28628,8 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="230"/>
-      <c r="C242" s="187"/>
+      <c r="B242" s="207"/>
+      <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
       </c>
@@ -28645,8 +28645,8 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="230"/>
-      <c r="C243" s="187"/>
+      <c r="B243" s="207"/>
+      <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
       </c>
@@ -28662,8 +28662,8 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="230"/>
-      <c r="C244" s="187"/>
+      <c r="B244" s="207"/>
+      <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
       </c>
@@ -28679,8 +28679,8 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="230"/>
-      <c r="C245" s="187"/>
+      <c r="B245" s="207"/>
+      <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
       </c>
@@ -28696,8 +28696,8 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="230"/>
-      <c r="C246" s="187"/>
+      <c r="B246" s="207"/>
+      <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
       </c>
@@ -28713,8 +28713,8 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="231"/>
-      <c r="C247" s="188"/>
+      <c r="B247" s="208"/>
+      <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
       </c>
@@ -28730,10 +28730,10 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="229" t="s">
+      <c r="B248" s="206" t="s">
         <v>903</v>
       </c>
-      <c r="C248" s="186" t="s">
+      <c r="C248" s="196" t="s">
         <v>902</v>
       </c>
       <c r="D248" s="9" t="s">
@@ -28751,8 +28751,8 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="230"/>
-      <c r="C249" s="187"/>
+      <c r="B249" s="207"/>
+      <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
       </c>
@@ -28768,8 +28768,8 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="230"/>
-      <c r="C250" s="187"/>
+      <c r="B250" s="207"/>
+      <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
       </c>
@@ -28785,8 +28785,8 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="230"/>
-      <c r="C251" s="187"/>
+      <c r="B251" s="207"/>
+      <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
       </c>
@@ -28802,8 +28802,8 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="230"/>
-      <c r="C252" s="187"/>
+      <c r="B252" s="207"/>
+      <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
       </c>
@@ -28819,8 +28819,8 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="230"/>
-      <c r="C253" s="187"/>
+      <c r="B253" s="207"/>
+      <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
       </c>
@@ -28836,8 +28836,8 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="230"/>
-      <c r="C254" s="187"/>
+      <c r="B254" s="207"/>
+      <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
       </c>
@@ -28853,8 +28853,8 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="230"/>
-      <c r="C255" s="187"/>
+      <c r="B255" s="207"/>
+      <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
       </c>
@@ -28870,8 +28870,8 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="230"/>
-      <c r="C256" s="187"/>
+      <c r="B256" s="207"/>
+      <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
       </c>
@@ -28887,8 +28887,8 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="231"/>
-      <c r="C257" s="188"/>
+      <c r="B257" s="208"/>
+      <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
       </c>
@@ -29106,65 +29106,179 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="203" t="s">
+      <c r="A272" s="233" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="203"/>
-      <c r="C272" s="203"/>
-      <c r="D272" s="203"/>
+      <c r="B272" s="233"/>
+      <c r="C272" s="233"/>
+      <c r="D272" s="233"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="194" t="s">
+      <c r="B273" s="209" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="194"/>
-      <c r="D273" s="194"/>
+      <c r="C273" s="209"/>
+      <c r="D273" s="209"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="194" t="s">
+      <c r="B274" s="209" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="194"/>
-      <c r="D274" s="194"/>
+      <c r="C274" s="209"/>
+      <c r="D274" s="209"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="194" t="s">
+      <c r="B275" s="209" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="194"/>
-      <c r="D275" s="194"/>
+      <c r="C275" s="209"/>
+      <c r="D275" s="209"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="C178:C179"/>
@@ -29189,137 +29303,23 @@
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2CAC78F8-19E6-4D44-9FDC-481553AD0A8B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC705774-78CC-4C42-9F70-520075C0D9D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3809,32 +3809,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3857,71 +3914,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11648,16 +11648,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2948940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2499360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5029200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11672,7 +11672,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5273040" y="373380"/>
+          <a:off x="13723620" y="1722120"/>
           <a:ext cx="2080260" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12064,16 +12064,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>2583180</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>4594860</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12088,7 +12088,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2583180" y="1844040"/>
+          <a:off x="7437120" y="297180"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12210,16 +12210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2301240</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2278380</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12234,7 +12234,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="289560" y="403860"/>
+          <a:off x="5120640" y="1821180"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12356,16 +12356,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2651760</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2621280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4663440</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4632960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12380,7 +12380,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="411480"/>
+          <a:off x="7475220" y="1722120"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12503,15 +12503,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>2887980</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2621280</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>5280660</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12526,7 +12526,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5082540" y="4953000"/>
+          <a:off x="7741920" y="5029200"/>
           <a:ext cx="2392680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12708,15 +12708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>3337560</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2240280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>5349240</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12731,7 +12731,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5082540" y="3360420"/>
+          <a:off x="8191500" y="13304520"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12861,16 +12861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3017520</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2186940</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5029200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12885,7 +12885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175260" y="3337560"/>
+          <a:off x="7871460" y="8046720"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13007,16 +13007,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2567940</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4579620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13031,7 +13031,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2567940" y="3337560"/>
+          <a:off x="5280660" y="13304520"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13153,16 +13153,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1668780</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3680460</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2575560</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13177,7 +13177,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1668780" y="6469380"/>
+          <a:off x="5417820" y="8008620"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13334,16 +13334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2186940</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2575560</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13358,7 +13358,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175260" y="4945380"/>
+          <a:off x="5417820" y="6576060"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13458,7 +13458,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>到货地址</a:t>
+            <a:t>销售区域</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -13481,15 +13481,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2118360</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>2232660</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13504,7 +13504,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10881360" y="7947660"/>
+          <a:off x="10995660" y="9631680"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13678,15 +13678,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>2529840</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3726180</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>4541520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13701,7 +13701,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="7993380"/>
+          <a:off x="2529840" y="9753600"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13824,15 +13824,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2933700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4945380</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>2598420</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13847,7 +13847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7787640" y="4930140"/>
+          <a:off x="5440680" y="5029200"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13990,15 +13990,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2484120</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4503420</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>2186940</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14013,7 +14013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7338060" y="6499860"/>
+          <a:off x="5021580" y="11521440"/>
           <a:ext cx="2019300" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14392,15 +14392,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3017520</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5029200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>4983480</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14415,7 +14415,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13792200" y="7940040"/>
+          <a:off x="13746480" y="9608820"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14550,7 +14550,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(Binding Plan)</a:t>
+            <a:t>(Bidding Plan)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -14565,15 +14565,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>2712720</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2164080</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>4724400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14588,7 +14588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5006340" y="6477000"/>
+          <a:off x="7566660" y="9685020"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14735,15 +14735,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2179320</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14758,7 +14758,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5021580" y="7917180"/>
+          <a:off x="5052060" y="9715500"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14916,16 +14916,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3032760</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5044440</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4945380</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14940,7 +14940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7886700" y="350520"/>
+          <a:off x="13708380" y="304800"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15058,16 +15058,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3078480</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5090160</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15082,7 +15082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7932420" y="1783080"/>
+          <a:off x="11049000" y="1767840"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15200,16 +15200,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236220</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2247900</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2209800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15224,7 +15224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="236220" y="1851660"/>
+          <a:off x="5052060" y="289560"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15354,16 +15354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2468880</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4480560</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2453640</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15378,7 +15378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7322820" y="3345180"/>
+          <a:off x="11216640" y="13281660"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15472,6 +15472,14 @@
             </a:rPr>
             <a:t>数据库注释</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(DB document about order)</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -15485,15 +15493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>2385060</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>3726180</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>4396740</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15508,7 +15516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1714500" y="9745980"/>
+          <a:off x="2385060" y="5029200"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15563,7 +15571,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Jun Lei</a:t>
+            <a:t>Zhuwei</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15597,6 +15605,30 @@
               </a:solidFill>
             </a:rPr>
             <a:t>订单版本查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(order version</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> list and status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -15610,16 +15642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2369820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2278380</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4381500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15634,7 +15666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5120640" y="9753600"/>
+          <a:off x="2369820" y="6606540"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15689,7 +15721,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Jun Lei</a:t>
+            <a:t>Zhuwei</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15722,9 +15754,1158 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>向推送订单</a:t>
+            <a:t>向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>推送订单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(push order to SAP)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2560320</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B261643-2AA6-46A2-A6C1-838310ABEC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2560320" y="11323320"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>货币选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Currency Choice)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只填写元货币，自动计算出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RMB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2301240</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B97D10-1A23-4F1B-8757-8CDDBB339EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="289560" y="11376660"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>运输方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transport type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2948940</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4960620</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A829CB63-398C-4541-9607-C36B8D22F694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7802880" y="6522720"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>运输方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transport type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2240280</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rectangle 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF9A3D1-882F-4B50-866A-E0C90289565F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="9791700"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>收货方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(received type)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2423160</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07C039D-A793-4918-950E-AB29DD716286}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="175260" y="304800"/>
+          <a:ext cx="2247900" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chunzhao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP and save to ST DB.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>特征</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(default Characteristics)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2125980</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9312180-E933-41FC-BCB5-1A1E411E386A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="5036820"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DB View about the order by sequence</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>订单内容查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(order select)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2095500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4343400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F36464-2C4A-4DB5-B22E-92FF298312D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="13281660"/>
+          <a:ext cx="2247900" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chunzhao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP and save to ST DB.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>特征</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(default Characteristics)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -23201,8 +24382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C6AD1-5689-4250-A295-7F87DEA26DF9}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24433,13 +25614,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="221" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -24709,13 +25890,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="221" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -24736,10 +25917,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="205"/>
+      <c r="H35" s="214"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -24758,8 +25939,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -24778,8 +25959,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -24798,8 +25979,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -24818,8 +25999,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -24838,8 +26019,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -24858,10 +26039,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="228" t="s">
+      <c r="G41" s="223" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="229"/>
+      <c r="H41" s="224"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -24880,10 +26061,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="228" t="s">
+      <c r="G42" s="223" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="229"/>
+      <c r="H42" s="224"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -24902,10 +26083,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="228" t="s">
+      <c r="G43" s="223" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="229"/>
+      <c r="H43" s="224"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -24924,8 +26105,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="230"/>
-      <c r="H44" s="231"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="226"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -24946,10 +26127,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="228" t="s">
+      <c r="G45" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="229"/>
+      <c r="H45" s="224"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -24970,8 +26151,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="209"/>
-      <c r="H46" s="209"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -24992,8 +26173,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -25014,10 +26195,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="209" t="s">
+      <c r="G48" s="204" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="209"/>
+      <c r="H48" s="204"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -25036,8 +26217,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -25056,8 +26237,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="226"/>
-      <c r="H50" s="226"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -25078,8 +26259,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="226"/>
-      <c r="H51" s="226"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -25100,8 +26281,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="226"/>
-      <c r="H52" s="226"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -25122,8 +26303,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="226"/>
-      <c r="H53" s="226"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="205"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -25144,8 +26325,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="226"/>
-      <c r="H54" s="226"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -25166,8 +26347,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="226"/>
-      <c r="H55" s="226"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -25186,8 +26367,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="226"/>
-      <c r="H56" s="226"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -25206,8 +26387,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="226"/>
-      <c r="H57" s="226"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -25226,8 +26407,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -25248,8 +26429,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -25360,13 +26541,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="204" t="s">
+      <c r="B70" s="221" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="221"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -25387,10 +26568,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="232" t="s">
+      <c r="G71" s="227" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="232"/>
+      <c r="H71" s="227"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -25411,10 +26592,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="210" t="s">
+      <c r="G72" s="212" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="209"/>
+      <c r="H72" s="204"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -25435,10 +26616,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="209" t="s">
+      <c r="G73" s="204" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="209"/>
+      <c r="H73" s="204"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -25459,8 +26640,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209"/>
+      <c r="G74" s="204"/>
+      <c r="H74" s="204"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -25481,10 +26662,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="224" t="s">
+      <c r="G75" s="210" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="225"/>
+      <c r="H75" s="211"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -25505,8 +26686,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -25525,8 +26706,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -25545,8 +26726,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="224"/>
-      <c r="H78" s="225"/>
+      <c r="G78" s="210"/>
+      <c r="H78" s="211"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -25565,8 +26746,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -25585,8 +26766,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
+      <c r="G80" s="204"/>
+      <c r="H80" s="204"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -25605,8 +26786,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="209"/>
-      <c r="H81" s="209"/>
+      <c r="G81" s="204"/>
+      <c r="H81" s="204"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -25625,8 +26806,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
+      <c r="G82" s="204"/>
+      <c r="H82" s="204"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -25645,8 +26826,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
+      <c r="G83" s="204"/>
+      <c r="H83" s="204"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -25665,8 +26846,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="209"/>
-      <c r="H84" s="209"/>
+      <c r="G84" s="204"/>
+      <c r="H84" s="204"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -25685,8 +26866,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="209"/>
-      <c r="H85" s="209"/>
+      <c r="G85" s="204"/>
+      <c r="H85" s="204"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -25705,8 +26886,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="209"/>
-      <c r="H86" s="209"/>
+      <c r="G86" s="204"/>
+      <c r="H86" s="204"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -25725,8 +26906,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="209"/>
-      <c r="H87" s="209"/>
+      <c r="G87" s="204"/>
+      <c r="H87" s="204"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -25745,8 +26926,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="209"/>
-      <c r="H88" s="209"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="204"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -25765,8 +26946,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="209"/>
-      <c r="H89" s="209"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="204"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -25785,8 +26966,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="209"/>
-      <c r="H90" s="209"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -25805,8 +26986,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="209"/>
-      <c r="H91" s="209"/>
+      <c r="G91" s="204"/>
+      <c r="H91" s="204"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -25825,8 +27006,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="209"/>
-      <c r="H92" s="209"/>
+      <c r="G92" s="204"/>
+      <c r="H92" s="204"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -25845,8 +27026,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="209"/>
-      <c r="H93" s="209"/>
+      <c r="G93" s="204"/>
+      <c r="H93" s="204"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -25865,8 +27046,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="211"/>
-      <c r="H94" s="212"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="207"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -25885,8 +27066,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="211"/>
-      <c r="H95" s="212"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="207"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -25905,8 +27086,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="211"/>
-      <c r="H96" s="212"/>
+      <c r="G96" s="206"/>
+      <c r="H96" s="207"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -25927,8 +27108,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="211"/>
-      <c r="H97" s="212"/>
+      <c r="G97" s="206"/>
+      <c r="H97" s="207"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -25949,8 +27130,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
+      <c r="G98" s="205"/>
+      <c r="H98" s="205"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -25971,10 +27152,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="209" t="s">
+      <c r="G99" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="209"/>
+      <c r="H99" s="204"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -25995,10 +27176,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="209" t="s">
+      <c r="G100" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="209"/>
+      <c r="H100" s="204"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -26019,10 +27200,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="209" t="s">
+      <c r="G101" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="209"/>
+      <c r="H101" s="204"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -26041,8 +27222,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="209"/>
-      <c r="H102" s="209"/>
+      <c r="G102" s="204"/>
+      <c r="H102" s="204"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -26061,8 +27242,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="209"/>
-      <c r="H103" s="209"/>
+      <c r="G103" s="204"/>
+      <c r="H103" s="204"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -26083,8 +27264,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="209"/>
-      <c r="H104" s="209"/>
+      <c r="G104" s="204"/>
+      <c r="H104" s="204"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -26103,8 +27284,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="209"/>
-      <c r="H105" s="209"/>
+      <c r="G105" s="204"/>
+      <c r="H105" s="204"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -26123,8 +27304,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="209"/>
-      <c r="H106" s="209"/>
+      <c r="G106" s="204"/>
+      <c r="H106" s="204"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -26143,8 +27324,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="209"/>
-      <c r="H107" s="209"/>
+      <c r="G107" s="204"/>
+      <c r="H107" s="204"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -26165,8 +27346,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="209"/>
-      <c r="H108" s="209"/>
+      <c r="G108" s="204"/>
+      <c r="H108" s="204"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -26187,10 +27368,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="234" t="s">
+      <c r="G109" s="215" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="235"/>
+      <c r="H109" s="216"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -26207,8 +27388,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="236"/>
-      <c r="H110" s="237"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="218"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -26225,8 +27406,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="236"/>
-      <c r="H111" s="237"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="218"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -26243,8 +27424,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="236"/>
-      <c r="H112" s="237"/>
+      <c r="G112" s="217"/>
+      <c r="H112" s="218"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -26261,8 +27442,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="236"/>
-      <c r="H113" s="237"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="218"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -26279,8 +27460,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="236"/>
-      <c r="H114" s="237"/>
+      <c r="G114" s="217"/>
+      <c r="H114" s="218"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -26297,8 +27478,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="236"/>
-      <c r="H115" s="237"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="218"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -26315,8 +27496,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="236"/>
-      <c r="H116" s="237"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="218"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -26333,8 +27514,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="236"/>
-      <c r="H117" s="237"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="218"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -26351,8 +27532,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="236"/>
-      <c r="H118" s="237"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="218"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -26369,8 +27550,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="236"/>
-      <c r="H119" s="237"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="218"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -26387,8 +27568,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="236"/>
-      <c r="H120" s="237"/>
+      <c r="G120" s="217"/>
+      <c r="H120" s="218"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -26405,8 +27586,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="238"/>
-      <c r="H121" s="239"/>
+      <c r="G121" s="219"/>
+      <c r="H121" s="220"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -26542,13 +27723,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="221" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="204"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
+      <c r="C135" s="221"/>
+      <c r="D135" s="221"/>
+      <c r="E135" s="221"/>
+      <c r="F135" s="221"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -26569,10 +27750,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="205" t="s">
+      <c r="G136" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="205"/>
+      <c r="H136" s="214"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -26591,8 +27772,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="211"/>
-      <c r="H137" s="212"/>
+      <c r="G137" s="206"/>
+      <c r="H137" s="207"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -26613,10 +27794,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="210" t="s">
+      <c r="G138" s="212" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="209"/>
+      <c r="H138" s="204"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -26637,8 +27818,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="209"/>
-      <c r="H139" s="209"/>
+      <c r="G139" s="204"/>
+      <c r="H139" s="204"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -26647,7 +27828,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="240" t="s">
+      <c r="C140" s="208" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -26659,10 +27840,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="220" t="s">
+      <c r="G140" s="228" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="221"/>
+      <c r="H140" s="229"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -26671,7 +27852,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="241"/>
+      <c r="C141" s="209"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -26681,8 +27862,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="222"/>
-      <c r="H141" s="223"/>
+      <c r="G141" s="230"/>
+      <c r="H141" s="231"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -26691,7 +27872,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="240" t="s">
+      <c r="C142" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -26703,8 +27884,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="209"/>
-      <c r="H142" s="209"/>
+      <c r="G142" s="204"/>
+      <c r="H142" s="204"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -26713,7 +27894,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="241"/>
+      <c r="C143" s="209"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -26723,8 +27904,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="209"/>
-      <c r="H143" s="209"/>
+      <c r="G143" s="204"/>
+      <c r="H143" s="204"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -26733,7 +27914,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -26745,8 +27926,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="211"/>
-      <c r="H144" s="212"/>
+      <c r="G144" s="206"/>
+      <c r="H144" s="207"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -26755,7 +27936,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="241"/>
+      <c r="C145" s="209"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -26765,8 +27946,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="209"/>
-      <c r="H145" s="209"/>
+      <c r="G145" s="204"/>
+      <c r="H145" s="204"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -26787,8 +27968,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="209"/>
-      <c r="H146" s="209"/>
+      <c r="G146" s="204"/>
+      <c r="H146" s="204"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -26807,8 +27988,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="209"/>
-      <c r="H147" s="209"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -26827,8 +28008,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="209"/>
-      <c r="H148" s="209"/>
+      <c r="G148" s="204"/>
+      <c r="H148" s="204"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -26849,10 +28030,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="209" t="s">
+      <c r="G149" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="209"/>
+      <c r="H149" s="204"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -26873,10 +28054,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="209" t="s">
+      <c r="G150" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="209"/>
+      <c r="H150" s="204"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -26897,10 +28078,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="209" t="s">
+      <c r="G151" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="209"/>
+      <c r="H151" s="204"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -26921,8 +28102,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="209"/>
-      <c r="H152" s="209"/>
+      <c r="G152" s="204"/>
+      <c r="H152" s="204"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -26941,8 +28122,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="209"/>
-      <c r="H153" s="209"/>
+      <c r="G153" s="204"/>
+      <c r="H153" s="204"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -26961,8 +28142,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="209"/>
-      <c r="H154" s="209"/>
+      <c r="G154" s="204"/>
+      <c r="H154" s="204"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -26981,8 +28162,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="209"/>
-      <c r="H155" s="209"/>
+      <c r="G155" s="204"/>
+      <c r="H155" s="204"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -27001,8 +28182,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="209"/>
-      <c r="H156" s="209"/>
+      <c r="G156" s="204"/>
+      <c r="H156" s="204"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -27021,8 +28202,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="209"/>
-      <c r="H157" s="209"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -27041,8 +28222,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="209"/>
-      <c r="H158" s="209"/>
+      <c r="G158" s="204"/>
+      <c r="H158" s="204"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -27061,8 +28242,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="209"/>
-      <c r="H159" s="209"/>
+      <c r="G159" s="204"/>
+      <c r="H159" s="204"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -27081,8 +28262,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="209"/>
-      <c r="H160" s="209"/>
+      <c r="G160" s="204"/>
+      <c r="H160" s="204"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -27101,8 +28282,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="209"/>
-      <c r="H161" s="209"/>
+      <c r="G161" s="204"/>
+      <c r="H161" s="204"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -27121,8 +28302,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="209"/>
-      <c r="H162" s="209"/>
+      <c r="G162" s="204"/>
+      <c r="H162" s="204"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -27141,8 +28322,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="209"/>
-      <c r="H163" s="209"/>
+      <c r="G163" s="204"/>
+      <c r="H163" s="204"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -27161,8 +28342,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="209"/>
-      <c r="H164" s="209"/>
+      <c r="G164" s="204"/>
+      <c r="H164" s="204"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -27181,8 +28362,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="209"/>
-      <c r="H165" s="209"/>
+      <c r="G165" s="204"/>
+      <c r="H165" s="204"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -27201,8 +28382,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="209"/>
-      <c r="H166" s="209"/>
+      <c r="G166" s="204"/>
+      <c r="H166" s="204"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -27221,8 +28402,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="209"/>
-      <c r="H167" s="209"/>
+      <c r="G167" s="204"/>
+      <c r="H167" s="204"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -27241,8 +28422,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="209"/>
-      <c r="H168" s="209"/>
+      <c r="G168" s="204"/>
+      <c r="H168" s="204"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -27261,8 +28442,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="209"/>
-      <c r="H169" s="209"/>
+      <c r="G169" s="204"/>
+      <c r="H169" s="204"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -27281,8 +28462,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="209"/>
-      <c r="H170" s="209"/>
+      <c r="G170" s="204"/>
+      <c r="H170" s="204"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -27301,8 +28482,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="209"/>
-      <c r="H171" s="209"/>
+      <c r="G171" s="204"/>
+      <c r="H171" s="204"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -27321,8 +28502,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="209"/>
-      <c r="H172" s="209"/>
+      <c r="G172" s="204"/>
+      <c r="H172" s="204"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -27341,8 +28522,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="209"/>
-      <c r="H173" s="209"/>
+      <c r="G173" s="204"/>
+      <c r="H173" s="204"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -27361,8 +28542,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="209"/>
-      <c r="H174" s="209"/>
+      <c r="G174" s="204"/>
+      <c r="H174" s="204"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -27381,8 +28562,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="209"/>
-      <c r="H175" s="209"/>
+      <c r="G175" s="204"/>
+      <c r="H175" s="204"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -27391,7 +28572,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="213" t="s">
+      <c r="C176" s="232" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -27403,10 +28584,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="216" t="s">
+      <c r="G176" s="235" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="217"/>
+      <c r="H176" s="236"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -27415,7 +28596,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="214"/>
+      <c r="C177" s="233"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -27425,8 +28606,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="218"/>
-      <c r="H177" s="219"/>
+      <c r="G177" s="237"/>
+      <c r="H177" s="238"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -27435,7 +28616,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="213" t="s">
+      <c r="C178" s="232" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -27447,8 +28628,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="209"/>
-      <c r="H178" s="209"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="204"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -27457,7 +28638,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="214"/>
+      <c r="C179" s="233"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -27467,8 +28648,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="209"/>
-      <c r="H179" s="209"/>
+      <c r="G179" s="204"/>
+      <c r="H179" s="204"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -27477,7 +28658,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="213" t="s">
+      <c r="C180" s="232" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -27489,8 +28670,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="209"/>
-      <c r="H180" s="209"/>
+      <c r="G180" s="204"/>
+      <c r="H180" s="204"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -27499,7 +28680,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="215"/>
+      <c r="C181" s="234"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -27509,8 +28690,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="209"/>
-      <c r="H181" s="209"/>
+      <c r="G181" s="204"/>
+      <c r="H181" s="204"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -27519,7 +28700,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="215"/>
+      <c r="C182" s="234"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -27529,8 +28710,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="209"/>
-      <c r="H182" s="209"/>
+      <c r="G182" s="204"/>
+      <c r="H182" s="204"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -27539,7 +28720,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="215"/>
+      <c r="C183" s="234"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -27549,8 +28730,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="209"/>
-      <c r="H183" s="209"/>
+      <c r="G183" s="204"/>
+      <c r="H183" s="204"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -27559,7 +28740,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="215"/>
+      <c r="C184" s="234"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -27569,8 +28750,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="209"/>
-      <c r="H184" s="209"/>
+      <c r="G184" s="204"/>
+      <c r="H184" s="204"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -27579,7 +28760,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="215"/>
+      <c r="C185" s="234"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -27589,8 +28770,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="209"/>
-      <c r="H185" s="209"/>
+      <c r="G185" s="204"/>
+      <c r="H185" s="204"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -27599,7 +28780,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="215"/>
+      <c r="C186" s="234"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -27609,8 +28790,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="209"/>
-      <c r="H186" s="209"/>
+      <c r="G186" s="204"/>
+      <c r="H186" s="204"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -27619,7 +28800,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="215"/>
+      <c r="C187" s="234"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -27629,8 +28810,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="209"/>
-      <c r="H187" s="209"/>
+      <c r="G187" s="204"/>
+      <c r="H187" s="204"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -27639,7 +28820,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="215"/>
+      <c r="C188" s="234"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -27649,8 +28830,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="209"/>
-      <c r="H188" s="209"/>
+      <c r="G188" s="204"/>
+      <c r="H188" s="204"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -27659,7 +28840,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="215"/>
+      <c r="C189" s="234"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -27669,8 +28850,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="209"/>
-      <c r="H189" s="209"/>
+      <c r="G189" s="204"/>
+      <c r="H189" s="204"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -27679,7 +28860,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="215"/>
+      <c r="C190" s="234"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -27689,8 +28870,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="209"/>
-      <c r="H190" s="209"/>
+      <c r="G190" s="204"/>
+      <c r="H190" s="204"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -27699,7 +28880,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="215"/>
+      <c r="C191" s="234"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -27709,8 +28890,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="209"/>
-      <c r="H191" s="209"/>
+      <c r="G191" s="204"/>
+      <c r="H191" s="204"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -27719,7 +28900,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="215"/>
+      <c r="C192" s="234"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -27729,8 +28910,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="209"/>
-      <c r="H192" s="209"/>
+      <c r="G192" s="204"/>
+      <c r="H192" s="204"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -27739,7 +28920,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="215"/>
+      <c r="C193" s="234"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -27749,8 +28930,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="209"/>
-      <c r="H193" s="209"/>
+      <c r="G193" s="204"/>
+      <c r="H193" s="204"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -27759,7 +28940,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="215"/>
+      <c r="C194" s="234"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -27769,8 +28950,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="209"/>
-      <c r="H194" s="209"/>
+      <c r="G194" s="204"/>
+      <c r="H194" s="204"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -27779,7 +28960,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="215"/>
+      <c r="C195" s="234"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -27789,8 +28970,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="209"/>
-      <c r="H195" s="209"/>
+      <c r="G195" s="204"/>
+      <c r="H195" s="204"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -27799,7 +28980,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="215"/>
+      <c r="C196" s="234"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -27809,8 +28990,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="209"/>
-      <c r="H196" s="209"/>
+      <c r="G196" s="204"/>
+      <c r="H196" s="204"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -27819,7 +29000,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="215"/>
+      <c r="C197" s="234"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -27829,8 +29010,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="209"/>
-      <c r="H197" s="209"/>
+      <c r="G197" s="204"/>
+      <c r="H197" s="204"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -27839,7 +29020,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="215"/>
+      <c r="C198" s="234"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -27849,8 +29030,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="209"/>
-      <c r="H198" s="209"/>
+      <c r="G198" s="204"/>
+      <c r="H198" s="204"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -27859,7 +29040,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="215"/>
+      <c r="C199" s="234"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -27869,8 +29050,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="209"/>
-      <c r="H199" s="209"/>
+      <c r="G199" s="204"/>
+      <c r="H199" s="204"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -27879,7 +29060,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="215"/>
+      <c r="C200" s="234"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -27889,8 +29070,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="209"/>
-      <c r="H200" s="209"/>
+      <c r="G200" s="204"/>
+      <c r="H200" s="204"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -27899,7 +29080,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="215"/>
+      <c r="C201" s="234"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -27909,8 +29090,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="209"/>
-      <c r="H201" s="209"/>
+      <c r="G201" s="204"/>
+      <c r="H201" s="204"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -27919,7 +29100,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="215"/>
+      <c r="C202" s="234"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -27929,8 +29110,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="209"/>
-      <c r="H202" s="209"/>
+      <c r="G202" s="204"/>
+      <c r="H202" s="204"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -27939,7 +29120,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="214"/>
+      <c r="C203" s="233"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -27949,8 +29130,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="209"/>
-      <c r="H203" s="209"/>
+      <c r="G203" s="204"/>
+      <c r="H203" s="204"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -27971,8 +29152,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="209"/>
-      <c r="H204" s="209"/>
+      <c r="G204" s="204"/>
+      <c r="H204" s="204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -27991,10 +29172,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="209" t="s">
+      <c r="G205" s="204" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="209"/>
+      <c r="H205" s="204"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -28015,8 +29196,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="211"/>
-      <c r="H206" s="212"/>
+      <c r="G206" s="206"/>
+      <c r="H206" s="207"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -28037,8 +29218,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="211"/>
-      <c r="H207" s="212"/>
+      <c r="G207" s="206"/>
+      <c r="H207" s="207"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -28059,8 +29240,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="226"/>
-      <c r="H208" s="226"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="205"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -28136,13 +29317,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="204" t="s">
+      <c r="B216" s="221" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="204"/>
-      <c r="D216" s="204"/>
-      <c r="E216" s="204"/>
-      <c r="F216" s="204"/>
+      <c r="C216" s="221"/>
+      <c r="D216" s="221"/>
+      <c r="E216" s="221"/>
+      <c r="F216" s="221"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -28163,10 +29344,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="205" t="s">
+      <c r="G217" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="205"/>
+      <c r="H217" s="214"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -28183,10 +29364,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="210" t="s">
+      <c r="G218" s="212" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="209"/>
+      <c r="H218" s="204"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -28207,8 +29388,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="210"/>
-      <c r="H219" s="209"/>
+      <c r="G219" s="212"/>
+      <c r="H219" s="204"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -28227,8 +29408,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="209"/>
-      <c r="H220" s="209"/>
+      <c r="G220" s="204"/>
+      <c r="H220" s="204"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -28249,8 +29430,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="209"/>
-      <c r="H221" s="209"/>
+      <c r="G221" s="204"/>
+      <c r="H221" s="204"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -28269,8 +29450,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="209"/>
-      <c r="H222" s="209"/>
+      <c r="G222" s="204"/>
+      <c r="H222" s="204"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -28289,8 +29470,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="209"/>
-      <c r="H223" s="209"/>
+      <c r="G223" s="204"/>
+      <c r="H223" s="204"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -28433,7 +29614,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="206" t="s">
+      <c r="B231" s="239" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -28454,7 +29635,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="207"/>
+      <c r="B232" s="240"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -28471,7 +29652,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="207"/>
+      <c r="B233" s="240"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -28488,7 +29669,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="207"/>
+      <c r="B234" s="240"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -28505,7 +29686,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="207"/>
+      <c r="B235" s="240"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -28522,7 +29703,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="207"/>
+      <c r="B236" s="240"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -28539,7 +29720,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="207"/>
+      <c r="B237" s="240"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -28556,7 +29737,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="207"/>
+      <c r="B238" s="240"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -28573,7 +29754,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="207"/>
+      <c r="B239" s="240"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -28590,7 +29771,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="207"/>
+      <c r="B240" s="240"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -28607,7 +29788,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="206" t="s">
+      <c r="B241" s="239" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -28628,7 +29809,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="207"/>
+      <c r="B242" s="240"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -28645,7 +29826,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="207"/>
+      <c r="B243" s="240"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -28662,7 +29843,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="207"/>
+      <c r="B244" s="240"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -28679,7 +29860,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="207"/>
+      <c r="B245" s="240"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -28696,7 +29877,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="207"/>
+      <c r="B246" s="240"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -28713,7 +29894,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="208"/>
+      <c r="B247" s="241"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -28730,7 +29911,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="206" t="s">
+      <c r="B248" s="239" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -28751,7 +29932,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="207"/>
+      <c r="B249" s="240"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -28768,7 +29949,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="207"/>
+      <c r="B250" s="240"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -28785,7 +29966,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="207"/>
+      <c r="B251" s="240"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -28802,7 +29983,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="207"/>
+      <c r="B252" s="240"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -28819,7 +30000,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="207"/>
+      <c r="B253" s="240"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -28836,7 +30017,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="207"/>
+      <c r="B254" s="240"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -28853,7 +30034,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="207"/>
+      <c r="B255" s="240"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -28870,7 +30051,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="207"/>
+      <c r="B256" s="240"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -28887,7 +30068,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="208"/>
+      <c r="B257" s="241"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -29106,48 +30287,196 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="233" t="s">
+      <c r="A272" s="213" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="233"/>
-      <c r="C272" s="233"/>
-      <c r="D272" s="233"/>
+      <c r="B272" s="213"/>
+      <c r="C272" s="213"/>
+      <c r="D272" s="213"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="209" t="s">
+      <c r="B273" s="204" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="209"/>
-      <c r="D273" s="209"/>
+      <c r="C273" s="204"/>
+      <c r="D273" s="204"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="209" t="s">
+      <c r="B274" s="204" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="209"/>
-      <c r="D274" s="209"/>
+      <c r="C274" s="204"/>
+      <c r="D274" s="204"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="209" t="s">
+      <c r="B275" s="204" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="209"/>
-      <c r="D275" s="209"/>
+      <c r="C275" s="204"/>
+      <c r="D275" s="204"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G191:H191"/>
@@ -29172,154 +30501,6 @@
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="G181:H181"/>
     <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CC705774-78CC-4C42-9F70-520075C0D9D3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1774931-B733-4B39-AC59-A0A03B8A5AEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3809,89 +3809,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3914,14 +3857,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -15643,15 +15643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2369820</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:colOff>2438400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4381500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>4450080</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15666,7 +15666,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2369820" y="6606540"/>
+          <a:off x="2438400" y="3566160"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16599,15 +16599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>167640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2125980</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>2179320</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16622,7 +16622,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114300" y="5036820"/>
+          <a:off x="167640" y="4945380"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16720,7 +16720,10 @@
             </a:rPr>
             <a:t>(order select)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" i="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16906,6 +16909,501 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2407920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4419600</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E768A232-9DF2-4317-A211-2F20D03944BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407920" y="8046720"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> data from SAP and save to ST DB.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>物料评估类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(material group)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>常量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2621280</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53DECD2-0201-4FFC-845C-CB7546C6B342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5463540" y="3596640"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push order into SAP in Bayern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物料单位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(unit of measurement)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>常量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2964180</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4975860</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C245AFAB-9922-4E20-A6D1-206D6D8E4A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7818120" y="3512820"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> data from SAP and save to ST DB.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>物料评估类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(material group)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>常量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -24382,8 +24880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C6AD1-5689-4250-A295-7F87DEA26DF9}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25296,7 +25794,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -25614,13 +26113,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="204" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -25890,13 +26389,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="221" t="s">
+      <c r="B34" s="204" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="221"/>
-      <c r="D34" s="221"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -25917,10 +26416,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="214" t="s">
+      <c r="G35" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="214"/>
+      <c r="H35" s="205"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -25939,8 +26438,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -25959,8 +26458,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="209"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -25979,8 +26478,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -25999,8 +26498,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -26019,8 +26518,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -26039,10 +26538,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="223" t="s">
+      <c r="G41" s="228" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="224"/>
+      <c r="H41" s="229"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -26061,10 +26560,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="223" t="s">
+      <c r="G42" s="228" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="224"/>
+      <c r="H42" s="229"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -26083,10 +26582,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="223" t="s">
+      <c r="G43" s="228" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="224"/>
+      <c r="H43" s="229"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -26105,8 +26604,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="225"/>
-      <c r="H44" s="226"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="231"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -26127,10 +26626,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="223" t="s">
+      <c r="G45" s="228" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="224"/>
+      <c r="H45" s="229"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -26151,8 +26650,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -26173,8 +26672,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="204"/>
-      <c r="H47" s="204"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -26195,10 +26694,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="204" t="s">
+      <c r="G48" s="209" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="204"/>
+      <c r="H48" s="209"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -26217,8 +26716,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="205"/>
-      <c r="H49" s="205"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -26237,8 +26736,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="226"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -26259,8 +26758,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="205"/>
-      <c r="H51" s="205"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -26281,8 +26780,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
+      <c r="G52" s="226"/>
+      <c r="H52" s="226"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -26303,8 +26802,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="205"/>
-      <c r="H53" s="205"/>
+      <c r="G53" s="226"/>
+      <c r="H53" s="226"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -26325,8 +26824,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="205"/>
-      <c r="H54" s="205"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="226"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -26347,8 +26846,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="226"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -26367,8 +26866,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="226"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -26387,8 +26886,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -26407,8 +26906,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -26429,8 +26928,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="205"/>
-      <c r="H59" s="205"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -26541,13 +27040,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="221" t="s">
+      <c r="B70" s="204" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="221"/>
-      <c r="D70" s="221"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
+      <c r="F70" s="204"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -26568,10 +27067,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="227" t="s">
+      <c r="G71" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="227"/>
+      <c r="H71" s="232"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -26592,10 +27091,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="212" t="s">
+      <c r="G72" s="210" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="204"/>
+      <c r="H72" s="209"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -26616,10 +27115,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="204" t="s">
+      <c r="G73" s="209" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="204"/>
+      <c r="H73" s="209"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -26640,8 +27139,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="204"/>
-      <c r="H74" s="204"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -26662,10 +27161,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="210" t="s">
+      <c r="G75" s="224" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="211"/>
+      <c r="H75" s="225"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -26686,8 +27185,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -26706,8 +27205,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="204"/>
-      <c r="H77" s="204"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -26726,8 +27225,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="210"/>
-      <c r="H78" s="211"/>
+      <c r="G78" s="224"/>
+      <c r="H78" s="225"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -26746,8 +27245,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="204"/>
-      <c r="H79" s="204"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -26766,8 +27265,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="204"/>
-      <c r="H80" s="204"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -26786,8 +27285,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="204"/>
-      <c r="H81" s="204"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -26806,8 +27305,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="204"/>
-      <c r="H82" s="204"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -26826,8 +27325,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="204"/>
-      <c r="H83" s="204"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -26846,8 +27345,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="204"/>
-      <c r="H84" s="204"/>
+      <c r="G84" s="209"/>
+      <c r="H84" s="209"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -26866,8 +27365,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="204"/>
-      <c r="H85" s="204"/>
+      <c r="G85" s="209"/>
+      <c r="H85" s="209"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -26886,8 +27385,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="204"/>
-      <c r="H86" s="204"/>
+      <c r="G86" s="209"/>
+      <c r="H86" s="209"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -26906,8 +27405,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="204"/>
-      <c r="H87" s="204"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -26926,8 +27425,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="204"/>
-      <c r="H88" s="204"/>
+      <c r="G88" s="209"/>
+      <c r="H88" s="209"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -26946,8 +27445,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="204"/>
-      <c r="H89" s="204"/>
+      <c r="G89" s="209"/>
+      <c r="H89" s="209"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -26966,8 +27465,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="204"/>
-      <c r="H90" s="204"/>
+      <c r="G90" s="209"/>
+      <c r="H90" s="209"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -26986,8 +27485,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="204"/>
-      <c r="H91" s="204"/>
+      <c r="G91" s="209"/>
+      <c r="H91" s="209"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -27006,8 +27505,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="204"/>
-      <c r="H92" s="204"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -27026,8 +27525,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="204"/>
-      <c r="H93" s="204"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -27046,8 +27545,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="206"/>
-      <c r="H94" s="207"/>
+      <c r="G94" s="211"/>
+      <c r="H94" s="212"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -27066,8 +27565,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="206"/>
-      <c r="H95" s="207"/>
+      <c r="G95" s="211"/>
+      <c r="H95" s="212"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -27086,8 +27585,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="206"/>
-      <c r="H96" s="207"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="212"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -27108,8 +27607,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="206"/>
-      <c r="H97" s="207"/>
+      <c r="G97" s="211"/>
+      <c r="H97" s="212"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -27130,8 +27629,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="205"/>
-      <c r="H98" s="205"/>
+      <c r="G98" s="226"/>
+      <c r="H98" s="226"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -27152,10 +27651,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="204" t="s">
+      <c r="G99" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="204"/>
+      <c r="H99" s="209"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -27176,10 +27675,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="204" t="s">
+      <c r="G100" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="204"/>
+      <c r="H100" s="209"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -27200,10 +27699,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="204" t="s">
+      <c r="G101" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="204"/>
+      <c r="H101" s="209"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -27222,8 +27721,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="204"/>
-      <c r="H102" s="204"/>
+      <c r="G102" s="209"/>
+      <c r="H102" s="209"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -27242,8 +27741,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="204"/>
-      <c r="H103" s="204"/>
+      <c r="G103" s="209"/>
+      <c r="H103" s="209"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -27264,8 +27763,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="204"/>
-      <c r="H104" s="204"/>
+      <c r="G104" s="209"/>
+      <c r="H104" s="209"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -27284,8 +27783,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
+      <c r="G105" s="209"/>
+      <c r="H105" s="209"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -27304,8 +27803,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="204"/>
-      <c r="H106" s="204"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -27324,8 +27823,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="204"/>
-      <c r="H107" s="204"/>
+      <c r="G107" s="209"/>
+      <c r="H107" s="209"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -27346,8 +27845,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="204"/>
-      <c r="H108" s="204"/>
+      <c r="G108" s="209"/>
+      <c r="H108" s="209"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -27368,10 +27867,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="215" t="s">
+      <c r="G109" s="234" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="216"/>
+      <c r="H109" s="235"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -27388,8 +27887,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="217"/>
-      <c r="H110" s="218"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="237"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -27406,8 +27905,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="217"/>
-      <c r="H111" s="218"/>
+      <c r="G111" s="236"/>
+      <c r="H111" s="237"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -27424,8 +27923,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="217"/>
-      <c r="H112" s="218"/>
+      <c r="G112" s="236"/>
+      <c r="H112" s="237"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -27442,8 +27941,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="217"/>
-      <c r="H113" s="218"/>
+      <c r="G113" s="236"/>
+      <c r="H113" s="237"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -27460,8 +27959,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="217"/>
-      <c r="H114" s="218"/>
+      <c r="G114" s="236"/>
+      <c r="H114" s="237"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -27478,8 +27977,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="217"/>
-      <c r="H115" s="218"/>
+      <c r="G115" s="236"/>
+      <c r="H115" s="237"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -27496,8 +27995,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="217"/>
-      <c r="H116" s="218"/>
+      <c r="G116" s="236"/>
+      <c r="H116" s="237"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -27514,8 +28013,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="217"/>
-      <c r="H117" s="218"/>
+      <c r="G117" s="236"/>
+      <c r="H117" s="237"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -27532,8 +28031,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="217"/>
-      <c r="H118" s="218"/>
+      <c r="G118" s="236"/>
+      <c r="H118" s="237"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -27550,8 +28049,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="217"/>
-      <c r="H119" s="218"/>
+      <c r="G119" s="236"/>
+      <c r="H119" s="237"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -27568,8 +28067,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="217"/>
-      <c r="H120" s="218"/>
+      <c r="G120" s="236"/>
+      <c r="H120" s="237"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -27586,8 +28085,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="219"/>
-      <c r="H121" s="220"/>
+      <c r="G121" s="238"/>
+      <c r="H121" s="239"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -27723,13 +28222,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="221" t="s">
+      <c r="B135" s="204" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="221"/>
-      <c r="D135" s="221"/>
-      <c r="E135" s="221"/>
-      <c r="F135" s="221"/>
+      <c r="C135" s="204"/>
+      <c r="D135" s="204"/>
+      <c r="E135" s="204"/>
+      <c r="F135" s="204"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -27750,10 +28249,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="214" t="s">
+      <c r="G136" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="214"/>
+      <c r="H136" s="205"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -27772,8 +28271,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="206"/>
-      <c r="H137" s="207"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="212"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -27794,10 +28293,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="212" t="s">
+      <c r="G138" s="210" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="204"/>
+      <c r="H138" s="209"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -27818,8 +28317,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="204"/>
-      <c r="H139" s="204"/>
+      <c r="G139" s="209"/>
+      <c r="H139" s="209"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -27828,7 +28327,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="208" t="s">
+      <c r="C140" s="240" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -27840,10 +28339,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="228" t="s">
+      <c r="G140" s="220" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="229"/>
+      <c r="H140" s="221"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -27852,7 +28351,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="209"/>
+      <c r="C141" s="241"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -27862,8 +28361,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="230"/>
-      <c r="H141" s="231"/>
+      <c r="G141" s="222"/>
+      <c r="H141" s="223"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -27872,7 +28371,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="208" t="s">
+      <c r="C142" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -27884,8 +28383,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="204"/>
-      <c r="H142" s="204"/>
+      <c r="G142" s="209"/>
+      <c r="H142" s="209"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -27894,7 +28393,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="209"/>
+      <c r="C143" s="241"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -27904,8 +28403,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="204"/>
-      <c r="H143" s="204"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="209"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -27914,7 +28413,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="208" t="s">
+      <c r="C144" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -27926,8 +28425,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="206"/>
-      <c r="H144" s="207"/>
+      <c r="G144" s="211"/>
+      <c r="H144" s="212"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -27936,7 +28435,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="209"/>
+      <c r="C145" s="241"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -27946,8 +28445,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="204"/>
-      <c r="H145" s="204"/>
+      <c r="G145" s="209"/>
+      <c r="H145" s="209"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -27968,8 +28467,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="204"/>
-      <c r="H146" s="204"/>
+      <c r="G146" s="209"/>
+      <c r="H146" s="209"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -27988,8 +28487,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
+      <c r="G147" s="209"/>
+      <c r="H147" s="209"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -28008,8 +28507,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="204"/>
-      <c r="H148" s="204"/>
+      <c r="G148" s="209"/>
+      <c r="H148" s="209"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -28030,10 +28529,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="204" t="s">
+      <c r="G149" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="204"/>
+      <c r="H149" s="209"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -28054,10 +28553,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="204" t="s">
+      <c r="G150" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="204"/>
+      <c r="H150" s="209"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -28078,10 +28577,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="204" t="s">
+      <c r="G151" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="204"/>
+      <c r="H151" s="209"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -28102,8 +28601,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="204"/>
-      <c r="H152" s="204"/>
+      <c r="G152" s="209"/>
+      <c r="H152" s="209"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -28122,8 +28621,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="204"/>
-      <c r="H153" s="204"/>
+      <c r="G153" s="209"/>
+      <c r="H153" s="209"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -28142,8 +28641,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="204"/>
-      <c r="H154" s="204"/>
+      <c r="G154" s="209"/>
+      <c r="H154" s="209"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -28162,8 +28661,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="204"/>
-      <c r="H155" s="204"/>
+      <c r="G155" s="209"/>
+      <c r="H155" s="209"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -28182,8 +28681,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="204"/>
-      <c r="H156" s="204"/>
+      <c r="G156" s="209"/>
+      <c r="H156" s="209"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -28202,8 +28701,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="204"/>
-      <c r="H157" s="204"/>
+      <c r="G157" s="209"/>
+      <c r="H157" s="209"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -28222,8 +28721,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="204"/>
-      <c r="H158" s="204"/>
+      <c r="G158" s="209"/>
+      <c r="H158" s="209"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -28242,8 +28741,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="204"/>
-      <c r="H159" s="204"/>
+      <c r="G159" s="209"/>
+      <c r="H159" s="209"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -28262,8 +28761,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="204"/>
-      <c r="H160" s="204"/>
+      <c r="G160" s="209"/>
+      <c r="H160" s="209"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -28282,8 +28781,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="204"/>
-      <c r="H161" s="204"/>
+      <c r="G161" s="209"/>
+      <c r="H161" s="209"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -28302,8 +28801,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="204"/>
-      <c r="H162" s="204"/>
+      <c r="G162" s="209"/>
+      <c r="H162" s="209"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -28322,8 +28821,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="204"/>
-      <c r="H163" s="204"/>
+      <c r="G163" s="209"/>
+      <c r="H163" s="209"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -28342,8 +28841,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="204"/>
-      <c r="H164" s="204"/>
+      <c r="G164" s="209"/>
+      <c r="H164" s="209"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -28362,8 +28861,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="204"/>
-      <c r="H165" s="204"/>
+      <c r="G165" s="209"/>
+      <c r="H165" s="209"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -28382,8 +28881,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="204"/>
-      <c r="H166" s="204"/>
+      <c r="G166" s="209"/>
+      <c r="H166" s="209"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -28402,8 +28901,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="204"/>
-      <c r="H167" s="204"/>
+      <c r="G167" s="209"/>
+      <c r="H167" s="209"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -28422,8 +28921,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="204"/>
-      <c r="H168" s="204"/>
+      <c r="G168" s="209"/>
+      <c r="H168" s="209"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -28442,8 +28941,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="204"/>
-      <c r="H169" s="204"/>
+      <c r="G169" s="209"/>
+      <c r="H169" s="209"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -28462,8 +28961,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="204"/>
-      <c r="H170" s="204"/>
+      <c r="G170" s="209"/>
+      <c r="H170" s="209"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -28482,8 +28981,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="204"/>
-      <c r="H171" s="204"/>
+      <c r="G171" s="209"/>
+      <c r="H171" s="209"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -28502,8 +29001,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="204"/>
-      <c r="H172" s="204"/>
+      <c r="G172" s="209"/>
+      <c r="H172" s="209"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -28522,8 +29021,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="204"/>
-      <c r="H173" s="204"/>
+      <c r="G173" s="209"/>
+      <c r="H173" s="209"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -28542,8 +29041,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="204"/>
-      <c r="H174" s="204"/>
+      <c r="G174" s="209"/>
+      <c r="H174" s="209"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -28562,8 +29061,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="204"/>
-      <c r="H175" s="204"/>
+      <c r="G175" s="209"/>
+      <c r="H175" s="209"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -28572,7 +29071,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="232" t="s">
+      <c r="C176" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -28584,10 +29083,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="235" t="s">
+      <c r="G176" s="216" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="236"/>
+      <c r="H176" s="217"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -28596,7 +29095,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="233"/>
+      <c r="C177" s="214"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -28606,8 +29105,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="237"/>
-      <c r="H177" s="238"/>
+      <c r="G177" s="218"/>
+      <c r="H177" s="219"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -28616,7 +29115,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="232" t="s">
+      <c r="C178" s="213" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -28628,8 +29127,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="204"/>
-      <c r="H178" s="204"/>
+      <c r="G178" s="209"/>
+      <c r="H178" s="209"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -28638,7 +29137,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="233"/>
+      <c r="C179" s="214"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -28648,8 +29147,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="204"/>
-      <c r="H179" s="204"/>
+      <c r="G179" s="209"/>
+      <c r="H179" s="209"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -28658,7 +29157,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="232" t="s">
+      <c r="C180" s="213" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -28670,8 +29169,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="204"/>
-      <c r="H180" s="204"/>
+      <c r="G180" s="209"/>
+      <c r="H180" s="209"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -28680,7 +29179,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="234"/>
+      <c r="C181" s="215"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -28690,8 +29189,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="204"/>
-      <c r="H181" s="204"/>
+      <c r="G181" s="209"/>
+      <c r="H181" s="209"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -28700,7 +29199,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="234"/>
+      <c r="C182" s="215"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -28710,8 +29209,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="204"/>
-      <c r="H182" s="204"/>
+      <c r="G182" s="209"/>
+      <c r="H182" s="209"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -28720,7 +29219,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="234"/>
+      <c r="C183" s="215"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -28730,8 +29229,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="204"/>
-      <c r="H183" s="204"/>
+      <c r="G183" s="209"/>
+      <c r="H183" s="209"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -28740,7 +29239,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="234"/>
+      <c r="C184" s="215"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -28750,8 +29249,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="204"/>
-      <c r="H184" s="204"/>
+      <c r="G184" s="209"/>
+      <c r="H184" s="209"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -28760,7 +29259,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="234"/>
+      <c r="C185" s="215"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -28770,8 +29269,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="204"/>
-      <c r="H185" s="204"/>
+      <c r="G185" s="209"/>
+      <c r="H185" s="209"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -28780,7 +29279,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="234"/>
+      <c r="C186" s="215"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -28790,8 +29289,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="204"/>
-      <c r="H186" s="204"/>
+      <c r="G186" s="209"/>
+      <c r="H186" s="209"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -28800,7 +29299,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="234"/>
+      <c r="C187" s="215"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -28810,8 +29309,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="204"/>
-      <c r="H187" s="204"/>
+      <c r="G187" s="209"/>
+      <c r="H187" s="209"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -28820,7 +29319,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="234"/>
+      <c r="C188" s="215"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -28830,8 +29329,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="204"/>
-      <c r="H188" s="204"/>
+      <c r="G188" s="209"/>
+      <c r="H188" s="209"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -28840,7 +29339,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="234"/>
+      <c r="C189" s="215"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -28850,8 +29349,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="204"/>
-      <c r="H189" s="204"/>
+      <c r="G189" s="209"/>
+      <c r="H189" s="209"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -28860,7 +29359,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="234"/>
+      <c r="C190" s="215"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -28870,8 +29369,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="204"/>
-      <c r="H190" s="204"/>
+      <c r="G190" s="209"/>
+      <c r="H190" s="209"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -28880,7 +29379,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="234"/>
+      <c r="C191" s="215"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -28890,8 +29389,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="204"/>
-      <c r="H191" s="204"/>
+      <c r="G191" s="209"/>
+      <c r="H191" s="209"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -28900,7 +29399,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="234"/>
+      <c r="C192" s="215"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -28910,8 +29409,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="204"/>
-      <c r="H192" s="204"/>
+      <c r="G192" s="209"/>
+      <c r="H192" s="209"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -28920,7 +29419,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="234"/>
+      <c r="C193" s="215"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -28930,8 +29429,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="204"/>
-      <c r="H193" s="204"/>
+      <c r="G193" s="209"/>
+      <c r="H193" s="209"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -28940,7 +29439,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="234"/>
+      <c r="C194" s="215"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -28950,8 +29449,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="204"/>
-      <c r="H194" s="204"/>
+      <c r="G194" s="209"/>
+      <c r="H194" s="209"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -28960,7 +29459,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="234"/>
+      <c r="C195" s="215"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -28970,8 +29469,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="204"/>
-      <c r="H195" s="204"/>
+      <c r="G195" s="209"/>
+      <c r="H195" s="209"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -28980,7 +29479,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="234"/>
+      <c r="C196" s="215"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -28990,8 +29489,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="204"/>
-      <c r="H196" s="204"/>
+      <c r="G196" s="209"/>
+      <c r="H196" s="209"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -29000,7 +29499,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="234"/>
+      <c r="C197" s="215"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -29010,8 +29509,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="204"/>
-      <c r="H197" s="204"/>
+      <c r="G197" s="209"/>
+      <c r="H197" s="209"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -29020,7 +29519,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="234"/>
+      <c r="C198" s="215"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -29030,8 +29529,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="204"/>
-      <c r="H198" s="204"/>
+      <c r="G198" s="209"/>
+      <c r="H198" s="209"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -29040,7 +29539,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="234"/>
+      <c r="C199" s="215"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -29050,8 +29549,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="204"/>
-      <c r="H199" s="204"/>
+      <c r="G199" s="209"/>
+      <c r="H199" s="209"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -29060,7 +29559,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="234"/>
+      <c r="C200" s="215"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -29070,8 +29569,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="204"/>
-      <c r="H200" s="204"/>
+      <c r="G200" s="209"/>
+      <c r="H200" s="209"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -29080,7 +29579,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="234"/>
+      <c r="C201" s="215"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -29090,8 +29589,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="204"/>
-      <c r="H201" s="204"/>
+      <c r="G201" s="209"/>
+      <c r="H201" s="209"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -29100,7 +29599,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="234"/>
+      <c r="C202" s="215"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -29110,8 +29609,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="204"/>
-      <c r="H202" s="204"/>
+      <c r="G202" s="209"/>
+      <c r="H202" s="209"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -29120,7 +29619,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="233"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -29130,8 +29629,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="204"/>
-      <c r="H203" s="204"/>
+      <c r="G203" s="209"/>
+      <c r="H203" s="209"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -29152,8 +29651,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="204"/>
-      <c r="H204" s="204"/>
+      <c r="G204" s="209"/>
+      <c r="H204" s="209"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -29172,10 +29671,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="204" t="s">
+      <c r="G205" s="209" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="204"/>
+      <c r="H205" s="209"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -29196,8 +29695,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="206"/>
-      <c r="H206" s="207"/>
+      <c r="G206" s="211"/>
+      <c r="H206" s="212"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -29218,8 +29717,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="206"/>
-      <c r="H207" s="207"/>
+      <c r="G207" s="211"/>
+      <c r="H207" s="212"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -29240,8 +29739,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="205"/>
-      <c r="H208" s="205"/>
+      <c r="G208" s="226"/>
+      <c r="H208" s="226"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -29317,13 +29816,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="221" t="s">
+      <c r="B216" s="204" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="221"/>
-      <c r="D216" s="221"/>
-      <c r="E216" s="221"/>
-      <c r="F216" s="221"/>
+      <c r="C216" s="204"/>
+      <c r="D216" s="204"/>
+      <c r="E216" s="204"/>
+      <c r="F216" s="204"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -29344,10 +29843,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="214" t="s">
+      <c r="G217" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="214"/>
+      <c r="H217" s="205"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -29364,10 +29863,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="212" t="s">
+      <c r="G218" s="210" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="204"/>
+      <c r="H218" s="209"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -29388,8 +29887,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="212"/>
-      <c r="H219" s="204"/>
+      <c r="G219" s="210"/>
+      <c r="H219" s="209"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -29408,8 +29907,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="204"/>
-      <c r="H220" s="204"/>
+      <c r="G220" s="209"/>
+      <c r="H220" s="209"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -29430,8 +29929,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="204"/>
-      <c r="H221" s="204"/>
+      <c r="G221" s="209"/>
+      <c r="H221" s="209"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -29450,8 +29949,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="204"/>
-      <c r="H222" s="204"/>
+      <c r="G222" s="209"/>
+      <c r="H222" s="209"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -29470,8 +29969,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="204"/>
-      <c r="H223" s="204"/>
+      <c r="G223" s="209"/>
+      <c r="H223" s="209"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -29614,7 +30113,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="239" t="s">
+      <c r="B231" s="206" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -29635,7 +30134,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="240"/>
+      <c r="B232" s="207"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -29652,7 +30151,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="240"/>
+      <c r="B233" s="207"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -29669,7 +30168,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="240"/>
+      <c r="B234" s="207"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -29686,7 +30185,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="240"/>
+      <c r="B235" s="207"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -29703,7 +30202,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="240"/>
+      <c r="B236" s="207"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -29720,7 +30219,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="240"/>
+      <c r="B237" s="207"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -29737,7 +30236,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="240"/>
+      <c r="B238" s="207"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -29754,7 +30253,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="240"/>
+      <c r="B239" s="207"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -29771,7 +30270,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="240"/>
+      <c r="B240" s="207"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -29788,7 +30287,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="239" t="s">
+      <c r="B241" s="206" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -29809,7 +30308,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="240"/>
+      <c r="B242" s="207"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -29826,7 +30325,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="240"/>
+      <c r="B243" s="207"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -29843,7 +30342,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="240"/>
+      <c r="B244" s="207"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -29860,7 +30359,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="240"/>
+      <c r="B245" s="207"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -29877,7 +30376,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="240"/>
+      <c r="B246" s="207"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -29894,7 +30393,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="241"/>
+      <c r="B247" s="208"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -29911,7 +30410,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="206" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -29932,7 +30431,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="240"/>
+      <c r="B249" s="207"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -29949,7 +30448,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="240"/>
+      <c r="B250" s="207"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -29966,7 +30465,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="240"/>
+      <c r="B251" s="207"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -29983,7 +30482,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="240"/>
+      <c r="B252" s="207"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -30000,7 +30499,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="240"/>
+      <c r="B253" s="207"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -30017,7 +30516,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="240"/>
+      <c r="B254" s="207"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -30034,7 +30533,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="240"/>
+      <c r="B255" s="207"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -30051,7 +30550,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="240"/>
+      <c r="B256" s="207"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -30068,7 +30567,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="241"/>
+      <c r="B257" s="208"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -30287,65 +30786,179 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="213" t="s">
+      <c r="A272" s="233" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="213"/>
-      <c r="C272" s="213"/>
-      <c r="D272" s="213"/>
+      <c r="B272" s="233"/>
+      <c r="C272" s="233"/>
+      <c r="D272" s="233"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="204" t="s">
+      <c r="B273" s="209" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="204"/>
-      <c r="D273" s="204"/>
+      <c r="C273" s="209"/>
+      <c r="D273" s="209"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="204" t="s">
+      <c r="B274" s="209" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="204"/>
-      <c r="D274" s="204"/>
+      <c r="C274" s="209"/>
+      <c r="D274" s="209"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="204" t="s">
+      <c r="B275" s="209" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="204"/>
-      <c r="D275" s="204"/>
+      <c r="C275" s="209"/>
+      <c r="D275" s="209"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="C178:C179"/>
@@ -30370,137 +30983,23 @@
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F1774931-B733-4B39-AC59-A0A03B8A5AEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A248DC5C-9721-44C4-AF95-B05DF473BE33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3809,32 +3809,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3857,71 +3914,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -12708,15 +12708,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3337560</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5349240</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>5326380</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12731,7 +12731,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8191500" y="13304520"/>
+          <a:off x="8168640" y="14462760"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12862,15 +12862,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3017520</xdr:colOff>
+      <xdr:colOff>2659380</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5029200</xdr:colOff>
+      <xdr:colOff>4671060</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12885,7 +12885,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7871460" y="8046720"/>
+          <a:off x="7513320" y="8054340"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13008,15 +13008,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>2308860</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13031,7 +13031,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5280660" y="13304520"/>
+          <a:off x="5151120" y="14493240"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13116,7 +13116,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> data from SAP and save to ST DB.</a:t>
+            <a:t> data from ST DB to Page.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -13154,15 +13154,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2575560</xdr:colOff>
+      <xdr:colOff>2186940</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13177,7 +13177,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5417820" y="8008620"/>
+          <a:off x="5029200" y="8023860"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13990,14 +13990,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2186940</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>2232660</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14013,7 +14013,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5021580" y="11521440"/>
+          <a:off x="5067300" y="11338560"/>
           <a:ext cx="2019300" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15355,15 +15355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2453640</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>2430780</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15378,7 +15378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11216640" y="13281660"/>
+          <a:off x="11193780" y="14523720"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15793,15 +15793,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2560320</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>2598420</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4572000</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>4610100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15816,7 +15816,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2560320" y="11323320"/>
+          <a:off x="2598420" y="11369040"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16736,15 +16736,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2095500</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>2415540</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4343400</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>4663440</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16759,7 +16759,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2095500" y="13281660"/>
+          <a:off x="2415540" y="14508480"/>
           <a:ext cx="2247900" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16812,7 +16812,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Chunzhao</a:t>
+            <a:t>Wayne</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16858,7 +16858,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> data from SAP and save to ST DB.</a:t>
+            <a:t> data from ST DB to web page.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -17094,15 +17094,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>586740</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2621280</xdr:colOff>
+      <xdr:colOff>2598420</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17117,7 +17117,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5463540" y="3596640"/>
+          <a:off x="5440680" y="3581400"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17205,7 +17205,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>物料单位</a:t>
+            <a:t>物料在订单上的分类</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -17213,7 +17213,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(unit of measurement)</a:t>
+            <a:t>(material group in order item tab)</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -17404,6 +17404,986 @@
             <a:t>常量</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" i="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2263140</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28374265-F2CF-49C3-B2D2-F2ABE7E194F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="251460" y="12748260"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物料选择（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>material choice</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{077028A8-7A9F-459F-9CE5-77FCF7809578}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121920" y="14523720"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wayne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP to Page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配置新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BOM(BOM explosion)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rectangle 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2150FCA-7194-4B68-AA94-1A54F237A2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="121920" y="16085820"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wayne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP to Page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>配置新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BOM(BOM explosion)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4480560</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangle 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171E07B7-E7C5-40DC-A062-3FB4D212102D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2468880" y="16093440"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wayne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可选项对比</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Configurable item comparison</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73EDC49E-6E71-4A3F-B748-6EC23FBA693B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="17739360"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wayne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>价格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>optional price,optional transcation price</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2484120</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4495800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8963AF82-24E6-4020-B045-117E83900FD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484120" y="17762220"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wayne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>BOM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>价格</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>optional price,optional transcation price</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -24880,8 +25860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C6AD1-5689-4250-A295-7F87DEA26DF9}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26113,13 +27093,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="221" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -26389,13 +27369,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="221" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -26416,10 +27396,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="205"/>
+      <c r="H35" s="214"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -26438,8 +27418,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -26458,8 +27438,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -26478,8 +27458,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -26498,8 +27478,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -26518,8 +27498,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -26538,10 +27518,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="228" t="s">
+      <c r="G41" s="223" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="229"/>
+      <c r="H41" s="224"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -26560,10 +27540,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="228" t="s">
+      <c r="G42" s="223" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="229"/>
+      <c r="H42" s="224"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -26582,10 +27562,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="228" t="s">
+      <c r="G43" s="223" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="229"/>
+      <c r="H43" s="224"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -26604,8 +27584,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="230"/>
-      <c r="H44" s="231"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="226"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -26626,10 +27606,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="228" t="s">
+      <c r="G45" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="229"/>
+      <c r="H45" s="224"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -26650,8 +27630,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="209"/>
-      <c r="H46" s="209"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -26672,8 +27652,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -26694,10 +27674,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="209" t="s">
+      <c r="G48" s="204" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="209"/>
+      <c r="H48" s="204"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -26716,8 +27696,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -26736,8 +27716,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="226"/>
-      <c r="H50" s="226"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -26758,8 +27738,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="226"/>
-      <c r="H51" s="226"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -26780,8 +27760,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="226"/>
-      <c r="H52" s="226"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -26802,8 +27782,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="226"/>
-      <c r="H53" s="226"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="205"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -26824,8 +27804,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="226"/>
-      <c r="H54" s="226"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -26846,8 +27826,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="226"/>
-      <c r="H55" s="226"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -26866,8 +27846,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="226"/>
-      <c r="H56" s="226"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -26886,8 +27866,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="226"/>
-      <c r="H57" s="226"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -26906,8 +27886,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -26928,8 +27908,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -27040,13 +28020,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="204" t="s">
+      <c r="B70" s="221" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="221"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -27067,10 +28047,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="232" t="s">
+      <c r="G71" s="227" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="232"/>
+      <c r="H71" s="227"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -27091,10 +28071,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="210" t="s">
+      <c r="G72" s="212" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="209"/>
+      <c r="H72" s="204"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -27115,10 +28095,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="209" t="s">
+      <c r="G73" s="204" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="209"/>
+      <c r="H73" s="204"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -27139,8 +28119,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209"/>
+      <c r="G74" s="204"/>
+      <c r="H74" s="204"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -27161,10 +28141,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="224" t="s">
+      <c r="G75" s="210" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="225"/>
+      <c r="H75" s="211"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -27185,8 +28165,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -27205,8 +28185,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -27225,8 +28205,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="224"/>
-      <c r="H78" s="225"/>
+      <c r="G78" s="210"/>
+      <c r="H78" s="211"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -27245,8 +28225,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -27265,8 +28245,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
+      <c r="G80" s="204"/>
+      <c r="H80" s="204"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -27285,8 +28265,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="209"/>
-      <c r="H81" s="209"/>
+      <c r="G81" s="204"/>
+      <c r="H81" s="204"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -27305,8 +28285,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
+      <c r="G82" s="204"/>
+      <c r="H82" s="204"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -27325,8 +28305,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
+      <c r="G83" s="204"/>
+      <c r="H83" s="204"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -27345,8 +28325,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="209"/>
-      <c r="H84" s="209"/>
+      <c r="G84" s="204"/>
+      <c r="H84" s="204"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -27365,8 +28345,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="209"/>
-      <c r="H85" s="209"/>
+      <c r="G85" s="204"/>
+      <c r="H85" s="204"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -27385,8 +28365,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="209"/>
-      <c r="H86" s="209"/>
+      <c r="G86" s="204"/>
+      <c r="H86" s="204"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -27405,8 +28385,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="209"/>
-      <c r="H87" s="209"/>
+      <c r="G87" s="204"/>
+      <c r="H87" s="204"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -27425,8 +28405,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="209"/>
-      <c r="H88" s="209"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="204"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -27445,8 +28425,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="209"/>
-      <c r="H89" s="209"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="204"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -27465,8 +28445,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="209"/>
-      <c r="H90" s="209"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -27485,8 +28465,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="209"/>
-      <c r="H91" s="209"/>
+      <c r="G91" s="204"/>
+      <c r="H91" s="204"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -27505,8 +28485,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="209"/>
-      <c r="H92" s="209"/>
+      <c r="G92" s="204"/>
+      <c r="H92" s="204"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -27525,8 +28505,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="209"/>
-      <c r="H93" s="209"/>
+      <c r="G93" s="204"/>
+      <c r="H93" s="204"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -27545,8 +28525,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="211"/>
-      <c r="H94" s="212"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="207"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -27565,8 +28545,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="211"/>
-      <c r="H95" s="212"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="207"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -27585,8 +28565,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="211"/>
-      <c r="H96" s="212"/>
+      <c r="G96" s="206"/>
+      <c r="H96" s="207"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -27607,8 +28587,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="211"/>
-      <c r="H97" s="212"/>
+      <c r="G97" s="206"/>
+      <c r="H97" s="207"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -27629,8 +28609,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
+      <c r="G98" s="205"/>
+      <c r="H98" s="205"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -27651,10 +28631,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="209" t="s">
+      <c r="G99" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="209"/>
+      <c r="H99" s="204"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -27675,10 +28655,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="209" t="s">
+      <c r="G100" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="209"/>
+      <c r="H100" s="204"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -27699,10 +28679,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="209" t="s">
+      <c r="G101" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="209"/>
+      <c r="H101" s="204"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -27721,8 +28701,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="209"/>
-      <c r="H102" s="209"/>
+      <c r="G102" s="204"/>
+      <c r="H102" s="204"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -27741,8 +28721,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="209"/>
-      <c r="H103" s="209"/>
+      <c r="G103" s="204"/>
+      <c r="H103" s="204"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -27763,8 +28743,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="209"/>
-      <c r="H104" s="209"/>
+      <c r="G104" s="204"/>
+      <c r="H104" s="204"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -27783,8 +28763,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="209"/>
-      <c r="H105" s="209"/>
+      <c r="G105" s="204"/>
+      <c r="H105" s="204"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -27803,8 +28783,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="209"/>
-      <c r="H106" s="209"/>
+      <c r="G106" s="204"/>
+      <c r="H106" s="204"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -27823,8 +28803,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="209"/>
-      <c r="H107" s="209"/>
+      <c r="G107" s="204"/>
+      <c r="H107" s="204"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -27845,8 +28825,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="209"/>
-      <c r="H108" s="209"/>
+      <c r="G108" s="204"/>
+      <c r="H108" s="204"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -27867,10 +28847,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="234" t="s">
+      <c r="G109" s="215" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="235"/>
+      <c r="H109" s="216"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -27887,8 +28867,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="236"/>
-      <c r="H110" s="237"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="218"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -27905,8 +28885,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="236"/>
-      <c r="H111" s="237"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="218"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -27923,8 +28903,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="236"/>
-      <c r="H112" s="237"/>
+      <c r="G112" s="217"/>
+      <c r="H112" s="218"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -27941,8 +28921,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="236"/>
-      <c r="H113" s="237"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="218"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -27959,8 +28939,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="236"/>
-      <c r="H114" s="237"/>
+      <c r="G114" s="217"/>
+      <c r="H114" s="218"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -27977,8 +28957,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="236"/>
-      <c r="H115" s="237"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="218"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -27995,8 +28975,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="236"/>
-      <c r="H116" s="237"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="218"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -28013,8 +28993,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="236"/>
-      <c r="H117" s="237"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="218"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -28031,8 +29011,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="236"/>
-      <c r="H118" s="237"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="218"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -28049,8 +29029,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="236"/>
-      <c r="H119" s="237"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="218"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -28067,8 +29047,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="236"/>
-      <c r="H120" s="237"/>
+      <c r="G120" s="217"/>
+      <c r="H120" s="218"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -28085,8 +29065,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="238"/>
-      <c r="H121" s="239"/>
+      <c r="G121" s="219"/>
+      <c r="H121" s="220"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -28222,13 +29202,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="221" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="204"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
+      <c r="C135" s="221"/>
+      <c r="D135" s="221"/>
+      <c r="E135" s="221"/>
+      <c r="F135" s="221"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -28249,10 +29229,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="205" t="s">
+      <c r="G136" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="205"/>
+      <c r="H136" s="214"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -28271,8 +29251,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="211"/>
-      <c r="H137" s="212"/>
+      <c r="G137" s="206"/>
+      <c r="H137" s="207"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -28293,10 +29273,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="210" t="s">
+      <c r="G138" s="212" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="209"/>
+      <c r="H138" s="204"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -28317,8 +29297,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="209"/>
-      <c r="H139" s="209"/>
+      <c r="G139" s="204"/>
+      <c r="H139" s="204"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -28327,7 +29307,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="240" t="s">
+      <c r="C140" s="208" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -28339,10 +29319,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="220" t="s">
+      <c r="G140" s="228" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="221"/>
+      <c r="H140" s="229"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -28351,7 +29331,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="241"/>
+      <c r="C141" s="209"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -28361,8 +29341,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="222"/>
-      <c r="H141" s="223"/>
+      <c r="G141" s="230"/>
+      <c r="H141" s="231"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -28371,7 +29351,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="240" t="s">
+      <c r="C142" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -28383,8 +29363,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="209"/>
-      <c r="H142" s="209"/>
+      <c r="G142" s="204"/>
+      <c r="H142" s="204"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -28393,7 +29373,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="241"/>
+      <c r="C143" s="209"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -28403,8 +29383,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="209"/>
-      <c r="H143" s="209"/>
+      <c r="G143" s="204"/>
+      <c r="H143" s="204"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -28413,7 +29393,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -28425,8 +29405,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="211"/>
-      <c r="H144" s="212"/>
+      <c r="G144" s="206"/>
+      <c r="H144" s="207"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -28435,7 +29415,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="241"/>
+      <c r="C145" s="209"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -28445,8 +29425,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="209"/>
-      <c r="H145" s="209"/>
+      <c r="G145" s="204"/>
+      <c r="H145" s="204"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -28467,8 +29447,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="209"/>
-      <c r="H146" s="209"/>
+      <c r="G146" s="204"/>
+      <c r="H146" s="204"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -28487,8 +29467,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="209"/>
-      <c r="H147" s="209"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -28507,8 +29487,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="209"/>
-      <c r="H148" s="209"/>
+      <c r="G148" s="204"/>
+      <c r="H148" s="204"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -28529,10 +29509,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="209" t="s">
+      <c r="G149" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="209"/>
+      <c r="H149" s="204"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -28553,10 +29533,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="209" t="s">
+      <c r="G150" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="209"/>
+      <c r="H150" s="204"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -28577,10 +29557,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="209" t="s">
+      <c r="G151" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="209"/>
+      <c r="H151" s="204"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -28601,8 +29581,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="209"/>
-      <c r="H152" s="209"/>
+      <c r="G152" s="204"/>
+      <c r="H152" s="204"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -28621,8 +29601,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="209"/>
-      <c r="H153" s="209"/>
+      <c r="G153" s="204"/>
+      <c r="H153" s="204"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -28641,8 +29621,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="209"/>
-      <c r="H154" s="209"/>
+      <c r="G154" s="204"/>
+      <c r="H154" s="204"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -28661,8 +29641,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="209"/>
-      <c r="H155" s="209"/>
+      <c r="G155" s="204"/>
+      <c r="H155" s="204"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -28681,8 +29661,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="209"/>
-      <c r="H156" s="209"/>
+      <c r="G156" s="204"/>
+      <c r="H156" s="204"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -28701,8 +29681,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="209"/>
-      <c r="H157" s="209"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -28721,8 +29701,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="209"/>
-      <c r="H158" s="209"/>
+      <c r="G158" s="204"/>
+      <c r="H158" s="204"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -28741,8 +29721,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="209"/>
-      <c r="H159" s="209"/>
+      <c r="G159" s="204"/>
+      <c r="H159" s="204"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -28761,8 +29741,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="209"/>
-      <c r="H160" s="209"/>
+      <c r="G160" s="204"/>
+      <c r="H160" s="204"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -28781,8 +29761,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="209"/>
-      <c r="H161" s="209"/>
+      <c r="G161" s="204"/>
+      <c r="H161" s="204"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -28801,8 +29781,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="209"/>
-      <c r="H162" s="209"/>
+      <c r="G162" s="204"/>
+      <c r="H162" s="204"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -28821,8 +29801,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="209"/>
-      <c r="H163" s="209"/>
+      <c r="G163" s="204"/>
+      <c r="H163" s="204"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -28841,8 +29821,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="209"/>
-      <c r="H164" s="209"/>
+      <c r="G164" s="204"/>
+      <c r="H164" s="204"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -28861,8 +29841,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="209"/>
-      <c r="H165" s="209"/>
+      <c r="G165" s="204"/>
+      <c r="H165" s="204"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -28881,8 +29861,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="209"/>
-      <c r="H166" s="209"/>
+      <c r="G166" s="204"/>
+      <c r="H166" s="204"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -28901,8 +29881,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="209"/>
-      <c r="H167" s="209"/>
+      <c r="G167" s="204"/>
+      <c r="H167" s="204"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -28921,8 +29901,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="209"/>
-      <c r="H168" s="209"/>
+      <c r="G168" s="204"/>
+      <c r="H168" s="204"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -28941,8 +29921,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="209"/>
-      <c r="H169" s="209"/>
+      <c r="G169" s="204"/>
+      <c r="H169" s="204"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -28961,8 +29941,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="209"/>
-      <c r="H170" s="209"/>
+      <c r="G170" s="204"/>
+      <c r="H170" s="204"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -28981,8 +29961,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="209"/>
-      <c r="H171" s="209"/>
+      <c r="G171" s="204"/>
+      <c r="H171" s="204"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -29001,8 +29981,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="209"/>
-      <c r="H172" s="209"/>
+      <c r="G172" s="204"/>
+      <c r="H172" s="204"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -29021,8 +30001,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="209"/>
-      <c r="H173" s="209"/>
+      <c r="G173" s="204"/>
+      <c r="H173" s="204"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -29041,8 +30021,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="209"/>
-      <c r="H174" s="209"/>
+      <c r="G174" s="204"/>
+      <c r="H174" s="204"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -29061,8 +30041,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="209"/>
-      <c r="H175" s="209"/>
+      <c r="G175" s="204"/>
+      <c r="H175" s="204"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -29071,7 +30051,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="213" t="s">
+      <c r="C176" s="232" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -29083,10 +30063,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="216" t="s">
+      <c r="G176" s="235" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="217"/>
+      <c r="H176" s="236"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -29095,7 +30075,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="214"/>
+      <c r="C177" s="233"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -29105,8 +30085,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="218"/>
-      <c r="H177" s="219"/>
+      <c r="G177" s="237"/>
+      <c r="H177" s="238"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -29115,7 +30095,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="213" t="s">
+      <c r="C178" s="232" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -29127,8 +30107,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="209"/>
-      <c r="H178" s="209"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="204"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -29137,7 +30117,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="214"/>
+      <c r="C179" s="233"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -29147,8 +30127,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="209"/>
-      <c r="H179" s="209"/>
+      <c r="G179" s="204"/>
+      <c r="H179" s="204"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -29157,7 +30137,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="213" t="s">
+      <c r="C180" s="232" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -29169,8 +30149,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="209"/>
-      <c r="H180" s="209"/>
+      <c r="G180" s="204"/>
+      <c r="H180" s="204"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -29179,7 +30159,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="215"/>
+      <c r="C181" s="234"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -29189,8 +30169,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="209"/>
-      <c r="H181" s="209"/>
+      <c r="G181" s="204"/>
+      <c r="H181" s="204"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -29199,7 +30179,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="215"/>
+      <c r="C182" s="234"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -29209,8 +30189,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="209"/>
-      <c r="H182" s="209"/>
+      <c r="G182" s="204"/>
+      <c r="H182" s="204"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -29219,7 +30199,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="215"/>
+      <c r="C183" s="234"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -29229,8 +30209,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="209"/>
-      <c r="H183" s="209"/>
+      <c r="G183" s="204"/>
+      <c r="H183" s="204"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -29239,7 +30219,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="215"/>
+      <c r="C184" s="234"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -29249,8 +30229,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="209"/>
-      <c r="H184" s="209"/>
+      <c r="G184" s="204"/>
+      <c r="H184" s="204"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -29259,7 +30239,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="215"/>
+      <c r="C185" s="234"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -29269,8 +30249,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="209"/>
-      <c r="H185" s="209"/>
+      <c r="G185" s="204"/>
+      <c r="H185" s="204"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -29279,7 +30259,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="215"/>
+      <c r="C186" s="234"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -29289,8 +30269,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="209"/>
-      <c r="H186" s="209"/>
+      <c r="G186" s="204"/>
+      <c r="H186" s="204"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -29299,7 +30279,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="215"/>
+      <c r="C187" s="234"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -29309,8 +30289,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="209"/>
-      <c r="H187" s="209"/>
+      <c r="G187" s="204"/>
+      <c r="H187" s="204"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -29319,7 +30299,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="215"/>
+      <c r="C188" s="234"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -29329,8 +30309,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="209"/>
-      <c r="H188" s="209"/>
+      <c r="G188" s="204"/>
+      <c r="H188" s="204"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -29339,7 +30319,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="215"/>
+      <c r="C189" s="234"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -29349,8 +30329,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="209"/>
-      <c r="H189" s="209"/>
+      <c r="G189" s="204"/>
+      <c r="H189" s="204"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -29359,7 +30339,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="215"/>
+      <c r="C190" s="234"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -29369,8 +30349,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="209"/>
-      <c r="H190" s="209"/>
+      <c r="G190" s="204"/>
+      <c r="H190" s="204"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -29379,7 +30359,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="215"/>
+      <c r="C191" s="234"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -29389,8 +30369,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="209"/>
-      <c r="H191" s="209"/>
+      <c r="G191" s="204"/>
+      <c r="H191" s="204"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -29399,7 +30379,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="215"/>
+      <c r="C192" s="234"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -29409,8 +30389,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="209"/>
-      <c r="H192" s="209"/>
+      <c r="G192" s="204"/>
+      <c r="H192" s="204"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -29419,7 +30399,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="215"/>
+      <c r="C193" s="234"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -29429,8 +30409,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="209"/>
-      <c r="H193" s="209"/>
+      <c r="G193" s="204"/>
+      <c r="H193" s="204"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -29439,7 +30419,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="215"/>
+      <c r="C194" s="234"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -29449,8 +30429,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="209"/>
-      <c r="H194" s="209"/>
+      <c r="G194" s="204"/>
+      <c r="H194" s="204"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -29459,7 +30439,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="215"/>
+      <c r="C195" s="234"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -29469,8 +30449,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="209"/>
-      <c r="H195" s="209"/>
+      <c r="G195" s="204"/>
+      <c r="H195" s="204"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -29479,7 +30459,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="215"/>
+      <c r="C196" s="234"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -29489,8 +30469,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="209"/>
-      <c r="H196" s="209"/>
+      <c r="G196" s="204"/>
+      <c r="H196" s="204"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -29499,7 +30479,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="215"/>
+      <c r="C197" s="234"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -29509,8 +30489,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="209"/>
-      <c r="H197" s="209"/>
+      <c r="G197" s="204"/>
+      <c r="H197" s="204"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -29519,7 +30499,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="215"/>
+      <c r="C198" s="234"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -29529,8 +30509,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="209"/>
-      <c r="H198" s="209"/>
+      <c r="G198" s="204"/>
+      <c r="H198" s="204"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -29539,7 +30519,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="215"/>
+      <c r="C199" s="234"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -29549,8 +30529,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="209"/>
-      <c r="H199" s="209"/>
+      <c r="G199" s="204"/>
+      <c r="H199" s="204"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -29559,7 +30539,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="215"/>
+      <c r="C200" s="234"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -29569,8 +30549,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="209"/>
-      <c r="H200" s="209"/>
+      <c r="G200" s="204"/>
+      <c r="H200" s="204"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -29579,7 +30559,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="215"/>
+      <c r="C201" s="234"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -29589,8 +30569,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="209"/>
-      <c r="H201" s="209"/>
+      <c r="G201" s="204"/>
+      <c r="H201" s="204"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -29599,7 +30579,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="215"/>
+      <c r="C202" s="234"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -29609,8 +30589,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="209"/>
-      <c r="H202" s="209"/>
+      <c r="G202" s="204"/>
+      <c r="H202" s="204"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -29619,7 +30599,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="214"/>
+      <c r="C203" s="233"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -29629,8 +30609,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="209"/>
-      <c r="H203" s="209"/>
+      <c r="G203" s="204"/>
+      <c r="H203" s="204"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -29651,8 +30631,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="209"/>
-      <c r="H204" s="209"/>
+      <c r="G204" s="204"/>
+      <c r="H204" s="204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -29671,10 +30651,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="209" t="s">
+      <c r="G205" s="204" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="209"/>
+      <c r="H205" s="204"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -29695,8 +30675,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="211"/>
-      <c r="H206" s="212"/>
+      <c r="G206" s="206"/>
+      <c r="H206" s="207"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -29717,8 +30697,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="211"/>
-      <c r="H207" s="212"/>
+      <c r="G207" s="206"/>
+      <c r="H207" s="207"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -29739,8 +30719,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="226"/>
-      <c r="H208" s="226"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="205"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -29816,13 +30796,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="204" t="s">
+      <c r="B216" s="221" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="204"/>
-      <c r="D216" s="204"/>
-      <c r="E216" s="204"/>
-      <c r="F216" s="204"/>
+      <c r="C216" s="221"/>
+      <c r="D216" s="221"/>
+      <c r="E216" s="221"/>
+      <c r="F216" s="221"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -29843,10 +30823,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="205" t="s">
+      <c r="G217" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="205"/>
+      <c r="H217" s="214"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -29863,10 +30843,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="210" t="s">
+      <c r="G218" s="212" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="209"/>
+      <c r="H218" s="204"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -29887,8 +30867,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="210"/>
-      <c r="H219" s="209"/>
+      <c r="G219" s="212"/>
+      <c r="H219" s="204"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -29907,8 +30887,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="209"/>
-      <c r="H220" s="209"/>
+      <c r="G220" s="204"/>
+      <c r="H220" s="204"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -29929,8 +30909,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="209"/>
-      <c r="H221" s="209"/>
+      <c r="G221" s="204"/>
+      <c r="H221" s="204"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -29949,8 +30929,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="209"/>
-      <c r="H222" s="209"/>
+      <c r="G222" s="204"/>
+      <c r="H222" s="204"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -29969,8 +30949,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="209"/>
-      <c r="H223" s="209"/>
+      <c r="G223" s="204"/>
+      <c r="H223" s="204"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -30113,7 +31093,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="206" t="s">
+      <c r="B231" s="239" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -30134,7 +31114,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="207"/>
+      <c r="B232" s="240"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -30151,7 +31131,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="207"/>
+      <c r="B233" s="240"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -30168,7 +31148,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="207"/>
+      <c r="B234" s="240"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -30185,7 +31165,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="207"/>
+      <c r="B235" s="240"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -30202,7 +31182,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="207"/>
+      <c r="B236" s="240"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -30219,7 +31199,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="207"/>
+      <c r="B237" s="240"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -30236,7 +31216,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="207"/>
+      <c r="B238" s="240"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -30253,7 +31233,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="207"/>
+      <c r="B239" s="240"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -30270,7 +31250,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="207"/>
+      <c r="B240" s="240"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -30287,7 +31267,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="206" t="s">
+      <c r="B241" s="239" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -30308,7 +31288,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="207"/>
+      <c r="B242" s="240"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -30325,7 +31305,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="207"/>
+      <c r="B243" s="240"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -30342,7 +31322,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="207"/>
+      <c r="B244" s="240"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -30359,7 +31339,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="207"/>
+      <c r="B245" s="240"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -30376,7 +31356,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="207"/>
+      <c r="B246" s="240"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -30393,7 +31373,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="208"/>
+      <c r="B247" s="241"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -30410,7 +31390,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="206" t="s">
+      <c r="B248" s="239" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -30431,7 +31411,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="207"/>
+      <c r="B249" s="240"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -30448,7 +31428,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="207"/>
+      <c r="B250" s="240"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -30465,7 +31445,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="207"/>
+      <c r="B251" s="240"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -30482,7 +31462,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="207"/>
+      <c r="B252" s="240"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -30499,7 +31479,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="207"/>
+      <c r="B253" s="240"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -30516,7 +31496,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="207"/>
+      <c r="B254" s="240"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -30533,7 +31513,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="207"/>
+      <c r="B255" s="240"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -30550,7 +31530,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="207"/>
+      <c r="B256" s="240"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -30567,7 +31547,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="208"/>
+      <c r="B257" s="241"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -30786,48 +31766,196 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="233" t="s">
+      <c r="A272" s="213" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="233"/>
-      <c r="C272" s="233"/>
-      <c r="D272" s="233"/>
+      <c r="B272" s="213"/>
+      <c r="C272" s="213"/>
+      <c r="D272" s="213"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="209" t="s">
+      <c r="B273" s="204" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="209"/>
-      <c r="D273" s="209"/>
+      <c r="C273" s="204"/>
+      <c r="D273" s="204"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="209" t="s">
+      <c r="B274" s="204" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="209"/>
-      <c r="D274" s="209"/>
+      <c r="C274" s="204"/>
+      <c r="D274" s="204"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="209" t="s">
+      <c r="B275" s="204" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="209"/>
-      <c r="D275" s="209"/>
+      <c r="C275" s="204"/>
+      <c r="D275" s="204"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G191:H191"/>
@@ -30852,154 +31980,6 @@
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="G181:H181"/>
     <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A248DC5C-9721-44C4-AF95-B05DF473BE33}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA171B41-1B3F-449D-A273-8C9FB7E86928}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Object" sheetId="2" r:id="rId1"/>
@@ -3809,89 +3809,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3914,14 +3857,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17711,15 +17711,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>2171700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17734,7 +17734,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="121920" y="16085820"/>
+          <a:off x="160020" y="17853660"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17834,7 +17834,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>配置新</a:t>
+            <a:t>保存新配置表</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -17842,7 +17842,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>BOM(BOM explosion)</a:t>
+            <a:t>(Save new charactistic list and charactistic value)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -18026,15 +18026,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2171700</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>2164080</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18049,7 +18049,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="160020" y="17739360"/>
+          <a:off x="152400" y="16116300"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18319,7 +18319,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> data from SAP to Page.</a:t>
+            <a:t> data from ST DB to Page.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -18330,23 +18330,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>新</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>BOM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>价格</a:t>
+            <a:t>特征列表</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -18373,7 +18357,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>optional price,optional transcation price</a:t>
+            <a:t>charactristic configuration</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -20039,8 +20023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25860,8 +25844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C6AD1-5689-4250-A295-7F87DEA26DF9}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27093,13 +27077,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="204" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -27369,13 +27353,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="221" t="s">
+      <c r="B34" s="204" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="221"/>
-      <c r="D34" s="221"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -27396,10 +27380,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="214" t="s">
+      <c r="G35" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="214"/>
+      <c r="H35" s="205"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -27418,8 +27402,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -27438,8 +27422,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="209"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -27458,8 +27442,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -27478,8 +27462,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -27498,8 +27482,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -27518,10 +27502,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="223" t="s">
+      <c r="G41" s="228" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="224"/>
+      <c r="H41" s="229"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -27540,10 +27524,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="223" t="s">
+      <c r="G42" s="228" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="224"/>
+      <c r="H42" s="229"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -27562,10 +27546,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="223" t="s">
+      <c r="G43" s="228" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="224"/>
+      <c r="H43" s="229"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -27584,8 +27568,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="225"/>
-      <c r="H44" s="226"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="231"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -27606,10 +27590,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="223" t="s">
+      <c r="G45" s="228" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="224"/>
+      <c r="H45" s="229"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -27630,8 +27614,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -27652,8 +27636,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="204"/>
-      <c r="H47" s="204"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -27674,10 +27658,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="204" t="s">
+      <c r="G48" s="209" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="204"/>
+      <c r="H48" s="209"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -27696,8 +27680,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="205"/>
-      <c r="H49" s="205"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -27716,8 +27700,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="226"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -27738,8 +27722,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="205"/>
-      <c r="H51" s="205"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -27760,8 +27744,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
+      <c r="G52" s="226"/>
+      <c r="H52" s="226"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -27782,8 +27766,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="205"/>
-      <c r="H53" s="205"/>
+      <c r="G53" s="226"/>
+      <c r="H53" s="226"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -27804,8 +27788,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="205"/>
-      <c r="H54" s="205"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="226"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -27826,8 +27810,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="226"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -27846,8 +27830,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="226"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -27866,8 +27850,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -27886,8 +27870,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -27908,8 +27892,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="205"/>
-      <c r="H59" s="205"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -28020,13 +28004,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="221" t="s">
+      <c r="B70" s="204" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="221"/>
-      <c r="D70" s="221"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
+      <c r="F70" s="204"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -28047,10 +28031,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="227" t="s">
+      <c r="G71" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="227"/>
+      <c r="H71" s="232"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -28071,10 +28055,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="212" t="s">
+      <c r="G72" s="210" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="204"/>
+      <c r="H72" s="209"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -28095,10 +28079,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="204" t="s">
+      <c r="G73" s="209" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="204"/>
+      <c r="H73" s="209"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -28119,8 +28103,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="204"/>
-      <c r="H74" s="204"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -28141,10 +28125,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="210" t="s">
+      <c r="G75" s="224" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="211"/>
+      <c r="H75" s="225"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -28165,8 +28149,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -28185,8 +28169,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="204"/>
-      <c r="H77" s="204"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -28205,8 +28189,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="210"/>
-      <c r="H78" s="211"/>
+      <c r="G78" s="224"/>
+      <c r="H78" s="225"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -28225,8 +28209,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="204"/>
-      <c r="H79" s="204"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -28245,8 +28229,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="204"/>
-      <c r="H80" s="204"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -28265,8 +28249,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="204"/>
-      <c r="H81" s="204"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -28285,8 +28269,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="204"/>
-      <c r="H82" s="204"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -28305,8 +28289,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="204"/>
-      <c r="H83" s="204"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -28325,8 +28309,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="204"/>
-      <c r="H84" s="204"/>
+      <c r="G84" s="209"/>
+      <c r="H84" s="209"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -28345,8 +28329,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="204"/>
-      <c r="H85" s="204"/>
+      <c r="G85" s="209"/>
+      <c r="H85" s="209"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -28365,8 +28349,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="204"/>
-      <c r="H86" s="204"/>
+      <c r="G86" s="209"/>
+      <c r="H86" s="209"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -28385,8 +28369,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="204"/>
-      <c r="H87" s="204"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -28405,8 +28389,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="204"/>
-      <c r="H88" s="204"/>
+      <c r="G88" s="209"/>
+      <c r="H88" s="209"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -28425,8 +28409,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="204"/>
-      <c r="H89" s="204"/>
+      <c r="G89" s="209"/>
+      <c r="H89" s="209"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -28445,8 +28429,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="204"/>
-      <c r="H90" s="204"/>
+      <c r="G90" s="209"/>
+      <c r="H90" s="209"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -28465,8 +28449,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="204"/>
-      <c r="H91" s="204"/>
+      <c r="G91" s="209"/>
+      <c r="H91" s="209"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -28485,8 +28469,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="204"/>
-      <c r="H92" s="204"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -28505,8 +28489,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="204"/>
-      <c r="H93" s="204"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -28525,8 +28509,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="206"/>
-      <c r="H94" s="207"/>
+      <c r="G94" s="211"/>
+      <c r="H94" s="212"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -28545,8 +28529,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="206"/>
-      <c r="H95" s="207"/>
+      <c r="G95" s="211"/>
+      <c r="H95" s="212"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -28565,8 +28549,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="206"/>
-      <c r="H96" s="207"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="212"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -28587,8 +28571,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="206"/>
-      <c r="H97" s="207"/>
+      <c r="G97" s="211"/>
+      <c r="H97" s="212"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -28609,8 +28593,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="205"/>
-      <c r="H98" s="205"/>
+      <c r="G98" s="226"/>
+      <c r="H98" s="226"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -28631,10 +28615,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="204" t="s">
+      <c r="G99" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="204"/>
+      <c r="H99" s="209"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -28655,10 +28639,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="204" t="s">
+      <c r="G100" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="204"/>
+      <c r="H100" s="209"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -28679,10 +28663,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="204" t="s">
+      <c r="G101" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="204"/>
+      <c r="H101" s="209"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -28701,8 +28685,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="204"/>
-      <c r="H102" s="204"/>
+      <c r="G102" s="209"/>
+      <c r="H102" s="209"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -28721,8 +28705,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="204"/>
-      <c r="H103" s="204"/>
+      <c r="G103" s="209"/>
+      <c r="H103" s="209"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -28743,8 +28727,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="204"/>
-      <c r="H104" s="204"/>
+      <c r="G104" s="209"/>
+      <c r="H104" s="209"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -28763,8 +28747,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
+      <c r="G105" s="209"/>
+      <c r="H105" s="209"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -28783,8 +28767,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="204"/>
-      <c r="H106" s="204"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -28803,8 +28787,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="204"/>
-      <c r="H107" s="204"/>
+      <c r="G107" s="209"/>
+      <c r="H107" s="209"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -28825,8 +28809,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="204"/>
-      <c r="H108" s="204"/>
+      <c r="G108" s="209"/>
+      <c r="H108" s="209"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -28847,10 +28831,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="215" t="s">
+      <c r="G109" s="234" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="216"/>
+      <c r="H109" s="235"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -28867,8 +28851,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="217"/>
-      <c r="H110" s="218"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="237"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -28885,8 +28869,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="217"/>
-      <c r="H111" s="218"/>
+      <c r="G111" s="236"/>
+      <c r="H111" s="237"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -28903,8 +28887,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="217"/>
-      <c r="H112" s="218"/>
+      <c r="G112" s="236"/>
+      <c r="H112" s="237"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -28921,8 +28905,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="217"/>
-      <c r="H113" s="218"/>
+      <c r="G113" s="236"/>
+      <c r="H113" s="237"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -28939,8 +28923,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="217"/>
-      <c r="H114" s="218"/>
+      <c r="G114" s="236"/>
+      <c r="H114" s="237"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -28957,8 +28941,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="217"/>
-      <c r="H115" s="218"/>
+      <c r="G115" s="236"/>
+      <c r="H115" s="237"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -28975,8 +28959,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="217"/>
-      <c r="H116" s="218"/>
+      <c r="G116" s="236"/>
+      <c r="H116" s="237"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -28993,8 +28977,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="217"/>
-      <c r="H117" s="218"/>
+      <c r="G117" s="236"/>
+      <c r="H117" s="237"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -29011,8 +28995,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="217"/>
-      <c r="H118" s="218"/>
+      <c r="G118" s="236"/>
+      <c r="H118" s="237"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -29029,8 +29013,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="217"/>
-      <c r="H119" s="218"/>
+      <c r="G119" s="236"/>
+      <c r="H119" s="237"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -29047,8 +29031,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="217"/>
-      <c r="H120" s="218"/>
+      <c r="G120" s="236"/>
+      <c r="H120" s="237"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -29065,8 +29049,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="219"/>
-      <c r="H121" s="220"/>
+      <c r="G121" s="238"/>
+      <c r="H121" s="239"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -29202,13 +29186,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="221" t="s">
+      <c r="B135" s="204" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="221"/>
-      <c r="D135" s="221"/>
-      <c r="E135" s="221"/>
-      <c r="F135" s="221"/>
+      <c r="C135" s="204"/>
+      <c r="D135" s="204"/>
+      <c r="E135" s="204"/>
+      <c r="F135" s="204"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -29229,10 +29213,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="214" t="s">
+      <c r="G136" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="214"/>
+      <c r="H136" s="205"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -29251,8 +29235,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="206"/>
-      <c r="H137" s="207"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="212"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -29273,10 +29257,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="212" t="s">
+      <c r="G138" s="210" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="204"/>
+      <c r="H138" s="209"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -29297,8 +29281,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="204"/>
-      <c r="H139" s="204"/>
+      <c r="G139" s="209"/>
+      <c r="H139" s="209"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -29307,7 +29291,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="208" t="s">
+      <c r="C140" s="240" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -29319,10 +29303,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="228" t="s">
+      <c r="G140" s="220" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="229"/>
+      <c r="H140" s="221"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -29331,7 +29315,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="209"/>
+      <c r="C141" s="241"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -29341,8 +29325,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="230"/>
-      <c r="H141" s="231"/>
+      <c r="G141" s="222"/>
+      <c r="H141" s="223"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -29351,7 +29335,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="208" t="s">
+      <c r="C142" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -29363,8 +29347,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="204"/>
-      <c r="H142" s="204"/>
+      <c r="G142" s="209"/>
+      <c r="H142" s="209"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -29373,7 +29357,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="209"/>
+      <c r="C143" s="241"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -29383,8 +29367,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="204"/>
-      <c r="H143" s="204"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="209"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -29393,7 +29377,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="208" t="s">
+      <c r="C144" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -29405,8 +29389,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="206"/>
-      <c r="H144" s="207"/>
+      <c r="G144" s="211"/>
+      <c r="H144" s="212"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -29415,7 +29399,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="209"/>
+      <c r="C145" s="241"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -29425,8 +29409,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="204"/>
-      <c r="H145" s="204"/>
+      <c r="G145" s="209"/>
+      <c r="H145" s="209"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -29447,8 +29431,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="204"/>
-      <c r="H146" s="204"/>
+      <c r="G146" s="209"/>
+      <c r="H146" s="209"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -29467,8 +29451,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
+      <c r="G147" s="209"/>
+      <c r="H147" s="209"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -29487,8 +29471,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="204"/>
-      <c r="H148" s="204"/>
+      <c r="G148" s="209"/>
+      <c r="H148" s="209"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -29509,10 +29493,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="204" t="s">
+      <c r="G149" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="204"/>
+      <c r="H149" s="209"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -29533,10 +29517,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="204" t="s">
+      <c r="G150" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="204"/>
+      <c r="H150" s="209"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -29557,10 +29541,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="204" t="s">
+      <c r="G151" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="204"/>
+      <c r="H151" s="209"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -29581,8 +29565,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="204"/>
-      <c r="H152" s="204"/>
+      <c r="G152" s="209"/>
+      <c r="H152" s="209"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -29601,8 +29585,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="204"/>
-      <c r="H153" s="204"/>
+      <c r="G153" s="209"/>
+      <c r="H153" s="209"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -29621,8 +29605,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="204"/>
-      <c r="H154" s="204"/>
+      <c r="G154" s="209"/>
+      <c r="H154" s="209"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -29641,8 +29625,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="204"/>
-      <c r="H155" s="204"/>
+      <c r="G155" s="209"/>
+      <c r="H155" s="209"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -29661,8 +29645,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="204"/>
-      <c r="H156" s="204"/>
+      <c r="G156" s="209"/>
+      <c r="H156" s="209"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -29681,8 +29665,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="204"/>
-      <c r="H157" s="204"/>
+      <c r="G157" s="209"/>
+      <c r="H157" s="209"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -29701,8 +29685,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="204"/>
-      <c r="H158" s="204"/>
+      <c r="G158" s="209"/>
+      <c r="H158" s="209"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -29721,8 +29705,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="204"/>
-      <c r="H159" s="204"/>
+      <c r="G159" s="209"/>
+      <c r="H159" s="209"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -29741,8 +29725,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="204"/>
-      <c r="H160" s="204"/>
+      <c r="G160" s="209"/>
+      <c r="H160" s="209"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -29761,8 +29745,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="204"/>
-      <c r="H161" s="204"/>
+      <c r="G161" s="209"/>
+      <c r="H161" s="209"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -29781,8 +29765,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="204"/>
-      <c r="H162" s="204"/>
+      <c r="G162" s="209"/>
+      <c r="H162" s="209"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -29801,8 +29785,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="204"/>
-      <c r="H163" s="204"/>
+      <c r="G163" s="209"/>
+      <c r="H163" s="209"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -29821,8 +29805,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="204"/>
-      <c r="H164" s="204"/>
+      <c r="G164" s="209"/>
+      <c r="H164" s="209"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -29841,8 +29825,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="204"/>
-      <c r="H165" s="204"/>
+      <c r="G165" s="209"/>
+      <c r="H165" s="209"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -29861,8 +29845,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="204"/>
-      <c r="H166" s="204"/>
+      <c r="G166" s="209"/>
+      <c r="H166" s="209"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -29881,8 +29865,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="204"/>
-      <c r="H167" s="204"/>
+      <c r="G167" s="209"/>
+      <c r="H167" s="209"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -29901,8 +29885,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="204"/>
-      <c r="H168" s="204"/>
+      <c r="G168" s="209"/>
+      <c r="H168" s="209"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -29921,8 +29905,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="204"/>
-      <c r="H169" s="204"/>
+      <c r="G169" s="209"/>
+      <c r="H169" s="209"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -29941,8 +29925,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="204"/>
-      <c r="H170" s="204"/>
+      <c r="G170" s="209"/>
+      <c r="H170" s="209"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -29961,8 +29945,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="204"/>
-      <c r="H171" s="204"/>
+      <c r="G171" s="209"/>
+      <c r="H171" s="209"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -29981,8 +29965,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="204"/>
-      <c r="H172" s="204"/>
+      <c r="G172" s="209"/>
+      <c r="H172" s="209"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -30001,8 +29985,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="204"/>
-      <c r="H173" s="204"/>
+      <c r="G173" s="209"/>
+      <c r="H173" s="209"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -30021,8 +30005,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="204"/>
-      <c r="H174" s="204"/>
+      <c r="G174" s="209"/>
+      <c r="H174" s="209"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -30041,8 +30025,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="204"/>
-      <c r="H175" s="204"/>
+      <c r="G175" s="209"/>
+      <c r="H175" s="209"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -30051,7 +30035,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="232" t="s">
+      <c r="C176" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -30063,10 +30047,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="235" t="s">
+      <c r="G176" s="216" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="236"/>
+      <c r="H176" s="217"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -30075,7 +30059,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="233"/>
+      <c r="C177" s="214"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -30085,8 +30069,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="237"/>
-      <c r="H177" s="238"/>
+      <c r="G177" s="218"/>
+      <c r="H177" s="219"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -30095,7 +30079,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="232" t="s">
+      <c r="C178" s="213" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -30107,8 +30091,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="204"/>
-      <c r="H178" s="204"/>
+      <c r="G178" s="209"/>
+      <c r="H178" s="209"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -30117,7 +30101,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="233"/>
+      <c r="C179" s="214"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -30127,8 +30111,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="204"/>
-      <c r="H179" s="204"/>
+      <c r="G179" s="209"/>
+      <c r="H179" s="209"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -30137,7 +30121,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="232" t="s">
+      <c r="C180" s="213" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -30149,8 +30133,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="204"/>
-      <c r="H180" s="204"/>
+      <c r="G180" s="209"/>
+      <c r="H180" s="209"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -30159,7 +30143,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="234"/>
+      <c r="C181" s="215"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -30169,8 +30153,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="204"/>
-      <c r="H181" s="204"/>
+      <c r="G181" s="209"/>
+      <c r="H181" s="209"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -30179,7 +30163,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="234"/>
+      <c r="C182" s="215"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -30189,8 +30173,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="204"/>
-      <c r="H182" s="204"/>
+      <c r="G182" s="209"/>
+      <c r="H182" s="209"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -30199,7 +30183,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="234"/>
+      <c r="C183" s="215"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -30209,8 +30193,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="204"/>
-      <c r="H183" s="204"/>
+      <c r="G183" s="209"/>
+      <c r="H183" s="209"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -30219,7 +30203,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="234"/>
+      <c r="C184" s="215"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -30229,8 +30213,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="204"/>
-      <c r="H184" s="204"/>
+      <c r="G184" s="209"/>
+      <c r="H184" s="209"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -30239,7 +30223,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="234"/>
+      <c r="C185" s="215"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -30249,8 +30233,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="204"/>
-      <c r="H185" s="204"/>
+      <c r="G185" s="209"/>
+      <c r="H185" s="209"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -30259,7 +30243,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="234"/>
+      <c r="C186" s="215"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -30269,8 +30253,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="204"/>
-      <c r="H186" s="204"/>
+      <c r="G186" s="209"/>
+      <c r="H186" s="209"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -30279,7 +30263,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="234"/>
+      <c r="C187" s="215"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -30289,8 +30273,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="204"/>
-      <c r="H187" s="204"/>
+      <c r="G187" s="209"/>
+      <c r="H187" s="209"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -30299,7 +30283,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="234"/>
+      <c r="C188" s="215"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -30309,8 +30293,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="204"/>
-      <c r="H188" s="204"/>
+      <c r="G188" s="209"/>
+      <c r="H188" s="209"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -30319,7 +30303,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="234"/>
+      <c r="C189" s="215"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -30329,8 +30313,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="204"/>
-      <c r="H189" s="204"/>
+      <c r="G189" s="209"/>
+      <c r="H189" s="209"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -30339,7 +30323,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="234"/>
+      <c r="C190" s="215"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -30349,8 +30333,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="204"/>
-      <c r="H190" s="204"/>
+      <c r="G190" s="209"/>
+      <c r="H190" s="209"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -30359,7 +30343,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="234"/>
+      <c r="C191" s="215"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -30369,8 +30353,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="204"/>
-      <c r="H191" s="204"/>
+      <c r="G191" s="209"/>
+      <c r="H191" s="209"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -30379,7 +30363,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="234"/>
+      <c r="C192" s="215"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -30389,8 +30373,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="204"/>
-      <c r="H192" s="204"/>
+      <c r="G192" s="209"/>
+      <c r="H192" s="209"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -30399,7 +30383,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="234"/>
+      <c r="C193" s="215"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -30409,8 +30393,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="204"/>
-      <c r="H193" s="204"/>
+      <c r="G193" s="209"/>
+      <c r="H193" s="209"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -30419,7 +30403,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="234"/>
+      <c r="C194" s="215"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -30429,8 +30413,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="204"/>
-      <c r="H194" s="204"/>
+      <c r="G194" s="209"/>
+      <c r="H194" s="209"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -30439,7 +30423,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="234"/>
+      <c r="C195" s="215"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -30449,8 +30433,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="204"/>
-      <c r="H195" s="204"/>
+      <c r="G195" s="209"/>
+      <c r="H195" s="209"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -30459,7 +30443,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="234"/>
+      <c r="C196" s="215"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -30469,8 +30453,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="204"/>
-      <c r="H196" s="204"/>
+      <c r="G196" s="209"/>
+      <c r="H196" s="209"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -30479,7 +30463,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="234"/>
+      <c r="C197" s="215"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -30489,8 +30473,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="204"/>
-      <c r="H197" s="204"/>
+      <c r="G197" s="209"/>
+      <c r="H197" s="209"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -30499,7 +30483,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="234"/>
+      <c r="C198" s="215"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -30509,8 +30493,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="204"/>
-      <c r="H198" s="204"/>
+      <c r="G198" s="209"/>
+      <c r="H198" s="209"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -30519,7 +30503,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="234"/>
+      <c r="C199" s="215"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -30529,8 +30513,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="204"/>
-      <c r="H199" s="204"/>
+      <c r="G199" s="209"/>
+      <c r="H199" s="209"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -30539,7 +30523,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="234"/>
+      <c r="C200" s="215"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -30549,8 +30533,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="204"/>
-      <c r="H200" s="204"/>
+      <c r="G200" s="209"/>
+      <c r="H200" s="209"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -30559,7 +30543,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="234"/>
+      <c r="C201" s="215"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -30569,8 +30553,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="204"/>
-      <c r="H201" s="204"/>
+      <c r="G201" s="209"/>
+      <c r="H201" s="209"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -30579,7 +30563,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="234"/>
+      <c r="C202" s="215"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -30589,8 +30573,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="204"/>
-      <c r="H202" s="204"/>
+      <c r="G202" s="209"/>
+      <c r="H202" s="209"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -30599,7 +30583,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="233"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -30609,8 +30593,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="204"/>
-      <c r="H203" s="204"/>
+      <c r="G203" s="209"/>
+      <c r="H203" s="209"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -30631,8 +30615,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="204"/>
-      <c r="H204" s="204"/>
+      <c r="G204" s="209"/>
+      <c r="H204" s="209"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -30651,10 +30635,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="204" t="s">
+      <c r="G205" s="209" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="204"/>
+      <c r="H205" s="209"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -30675,8 +30659,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="206"/>
-      <c r="H206" s="207"/>
+      <c r="G206" s="211"/>
+      <c r="H206" s="212"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -30697,8 +30681,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="206"/>
-      <c r="H207" s="207"/>
+      <c r="G207" s="211"/>
+      <c r="H207" s="212"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -30719,8 +30703,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="205"/>
-      <c r="H208" s="205"/>
+      <c r="G208" s="226"/>
+      <c r="H208" s="226"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -30796,13 +30780,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="221" t="s">
+      <c r="B216" s="204" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="221"/>
-      <c r="D216" s="221"/>
-      <c r="E216" s="221"/>
-      <c r="F216" s="221"/>
+      <c r="C216" s="204"/>
+      <c r="D216" s="204"/>
+      <c r="E216" s="204"/>
+      <c r="F216" s="204"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -30823,10 +30807,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="214" t="s">
+      <c r="G217" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="214"/>
+      <c r="H217" s="205"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -30843,10 +30827,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="212" t="s">
+      <c r="G218" s="210" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="204"/>
+      <c r="H218" s="209"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -30867,8 +30851,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="212"/>
-      <c r="H219" s="204"/>
+      <c r="G219" s="210"/>
+      <c r="H219" s="209"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -30887,8 +30871,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="204"/>
-      <c r="H220" s="204"/>
+      <c r="G220" s="209"/>
+      <c r="H220" s="209"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -30909,8 +30893,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="204"/>
-      <c r="H221" s="204"/>
+      <c r="G221" s="209"/>
+      <c r="H221" s="209"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -30929,8 +30913,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="204"/>
-      <c r="H222" s="204"/>
+      <c r="G222" s="209"/>
+      <c r="H222" s="209"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -30949,8 +30933,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="204"/>
-      <c r="H223" s="204"/>
+      <c r="G223" s="209"/>
+      <c r="H223" s="209"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -31093,7 +31077,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="239" t="s">
+      <c r="B231" s="206" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -31114,7 +31098,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="240"/>
+      <c r="B232" s="207"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -31131,7 +31115,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="240"/>
+      <c r="B233" s="207"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -31148,7 +31132,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="240"/>
+      <c r="B234" s="207"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -31165,7 +31149,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="240"/>
+      <c r="B235" s="207"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -31182,7 +31166,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="240"/>
+      <c r="B236" s="207"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -31199,7 +31183,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="240"/>
+      <c r="B237" s="207"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -31216,7 +31200,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="240"/>
+      <c r="B238" s="207"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -31233,7 +31217,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="240"/>
+      <c r="B239" s="207"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -31250,7 +31234,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="240"/>
+      <c r="B240" s="207"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -31267,7 +31251,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="239" t="s">
+      <c r="B241" s="206" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -31288,7 +31272,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="240"/>
+      <c r="B242" s="207"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -31305,7 +31289,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="240"/>
+      <c r="B243" s="207"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -31322,7 +31306,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="240"/>
+      <c r="B244" s="207"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -31339,7 +31323,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="240"/>
+      <c r="B245" s="207"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -31356,7 +31340,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="240"/>
+      <c r="B246" s="207"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -31373,7 +31357,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="241"/>
+      <c r="B247" s="208"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -31390,7 +31374,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="206" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -31411,7 +31395,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="240"/>
+      <c r="B249" s="207"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -31428,7 +31412,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="240"/>
+      <c r="B250" s="207"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -31445,7 +31429,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="240"/>
+      <c r="B251" s="207"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -31462,7 +31446,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="240"/>
+      <c r="B252" s="207"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -31479,7 +31463,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="240"/>
+      <c r="B253" s="207"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -31496,7 +31480,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="240"/>
+      <c r="B254" s="207"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -31513,7 +31497,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="240"/>
+      <c r="B255" s="207"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -31530,7 +31514,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="240"/>
+      <c r="B256" s="207"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -31547,7 +31531,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="241"/>
+      <c r="B257" s="208"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -31766,65 +31750,179 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="213" t="s">
+      <c r="A272" s="233" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="213"/>
-      <c r="C272" s="213"/>
-      <c r="D272" s="213"/>
+      <c r="B272" s="233"/>
+      <c r="C272" s="233"/>
+      <c r="D272" s="233"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="204" t="s">
+      <c r="B273" s="209" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="204"/>
-      <c r="D273" s="204"/>
+      <c r="C273" s="209"/>
+      <c r="D273" s="209"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="204" t="s">
+      <c r="B274" s="209" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="204"/>
-      <c r="D274" s="204"/>
+      <c r="C274" s="209"/>
+      <c r="D274" s="209"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="204" t="s">
+      <c r="B275" s="209" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="204"/>
-      <c r="D275" s="204"/>
+      <c r="C275" s="209"/>
+      <c r="D275" s="209"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="C178:C179"/>
@@ -31849,137 +31947,23 @@
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EA171B41-1B3F-449D-A273-8C9FB7E86928}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6A9BE85F-559B-4801-9B90-633F3B5A5452}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Object" sheetId="2" r:id="rId1"/>
@@ -18,17 +18,18 @@
     <sheet name="Epic" sheetId="12" r:id="rId3"/>
     <sheet name="UserStoryV.3" sheetId="19" r:id="rId4"/>
     <sheet name="User Story" sheetId="11" state="hidden" r:id="rId5"/>
-    <sheet name="kanban" sheetId="20" r:id="rId6"/>
-    <sheet name="Sprints" sheetId="13" r:id="rId7"/>
-    <sheet name="Milestone" sheetId="17" r:id="rId8"/>
-    <sheet name="BPM" sheetId="8" r:id="rId9"/>
-    <sheet name=" Bestsign（Contract Management）" sheetId="9" r:id="rId10"/>
-    <sheet name="LDAP" sheetId="15" r:id="rId11"/>
-    <sheet name="SAP Interface" sheetId="16" r:id="rId12"/>
-    <sheet name="Gross Margin" sheetId="7" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId6"/>
+    <sheet name="kanban" sheetId="20" r:id="rId7"/>
+    <sheet name="Sprints" sheetId="13" r:id="rId8"/>
+    <sheet name="Milestone" sheetId="17" r:id="rId9"/>
+    <sheet name="BPM" sheetId="8" r:id="rId10"/>
+    <sheet name=" Bestsign（Contract Management）" sheetId="9" r:id="rId11"/>
+    <sheet name="LDAP" sheetId="15" r:id="rId12"/>
+    <sheet name="SAP Interface" sheetId="16" r:id="rId13"/>
+    <sheet name="Gross Margin" sheetId="7" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sprints!$A$217:$H$260</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sprints!$A$217:$H$260</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'User Story'!$A$1:$H$104</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="930">
   <si>
     <t>Category</t>
   </si>
@@ -2819,6 +2820,51 @@
   </si>
   <si>
     <t>Verified</t>
+  </si>
+  <si>
+    <t>v1123123</t>
+  </si>
+  <si>
+    <t>v23242</t>
+  </si>
+  <si>
+    <t>pushed to sap</t>
+  </si>
+  <si>
+    <t>draft</t>
+  </si>
+  <si>
+    <t>veriion</t>
+  </si>
+  <si>
+    <t>seq123</t>
+  </si>
+  <si>
+    <t>currency_version</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>seq234</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>drap</t>
+  </si>
+  <si>
+    <t>seq345</t>
+  </si>
+  <si>
+    <t>detail1</t>
+  </si>
+  <si>
+    <t>dea2</t>
   </si>
 </sst>
 </file>
@@ -3809,32 +3855,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3857,71 +3960,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -11649,15 +11695,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2948940</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5029200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>5166360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11672,7 +11718,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13723620" y="1722120"/>
+          <a:off x="13860780" y="403860"/>
           <a:ext cx="2080260" cy="1577340"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12064,16 +12110,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2583180</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1325880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4594860</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3337560</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12088,7 +12134,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7437120" y="297180"/>
+          <a:off x="12100560" y="601980"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12211,15 +12257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:colOff>3512820</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2278380</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>5524500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12234,7 +12280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5120640" y="1821180"/>
+          <a:off x="8366760" y="342900"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12357,15 +12403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2621280</xdr:colOff>
+      <xdr:colOff>1981200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4632960</xdr:colOff>
+      <xdr:colOff>3992880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12380,7 +12426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7475220" y="1722120"/>
+          <a:off x="6835140" y="1729740"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12502,16 +12548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2887980</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5280660</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2727960</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12526,7 +12572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7741920" y="5029200"/>
+          <a:off x="11109960" y="3268980"/>
           <a:ext cx="2392680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12707,16 +12753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3314700</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5326380</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2385060</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12731,7 +12777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8168640" y="14462760"/>
+          <a:off x="11148060" y="15902940"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12862,22 +12908,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2659380</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>3429000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4671060</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>5440680</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
+        <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C5A722B-CC58-4B9F-8E1F-29C51955C17B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02047958-C7EB-4BDA-BE1F-BAB1DC75688B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12885,7 +12931,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7513320" y="8054340"/>
+          <a:off x="8282940" y="14615160"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12970,7 +13016,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> data from SAP and save to ST DB.</a:t>
+            <a:t> data from ST DB to Page.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -12985,7 +13031,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>付款条件</a:t>
+            <a:t>价格主数据</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -12993,7 +13039,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(Payment terms)</a:t>
+            <a:t>(Price)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:solidFill>
@@ -13007,343 +13053,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1615440</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2308860</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02047958-C7EB-4BDA-BE1F-BAB1DC75688B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5151120" y="14493240"/>
-          <a:ext cx="2011680" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Owner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Wayne</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Retrieve</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> data from ST DB to Page.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>价格主数据</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Price)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2186940</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Rectangle 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFB6EE8-45B0-4F3A-AAA3-B6C5D446617B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5029200" y="8023860"/>
-          <a:ext cx="2011680" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>US</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>#421</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>: </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>delievery address</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Owner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Zhuwei</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Retrieve</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> data from SAP and save to ST DB.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>到货地址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Delivery address)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2575560</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3627120</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13358,7 +13077,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5417820" y="6576060"/>
+          <a:off x="12390120" y="4450080"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13677,16 +13396,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2529840</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4541520</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2225040</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13701,7 +13420,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2529840" y="9753600"/>
+          <a:off x="10988040" y="12824460"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13823,16 +13542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2598420</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2415540</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13847,7 +13566,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5440680" y="5029200"/>
+          <a:off x="11178540" y="5425440"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13989,16 +13708,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2232660</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4488180</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14013,7 +13732,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="11338560"/>
+          <a:off x="13243560" y="12725400"/>
           <a:ext cx="2019300" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14211,15 +13930,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2697480</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>2872740</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14234,7 +13953,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049000" y="320040"/>
+          <a:off x="11224260" y="800100"/>
           <a:ext cx="2423160" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14564,16 +14283,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2712720</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4724400</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2263140</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14588,7 +14307,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7566660" y="9685020"/>
+          <a:off x="11026140" y="11102340"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14734,16 +14453,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2766060</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14758,7 +14477,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5052060" y="9715500"/>
+          <a:off x="11529060" y="11391900"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14916,16 +14635,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2933700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4945380</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2240280</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14940,7 +14659,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13708380" y="304800"/>
+          <a:off x="16337280" y="2072640"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15059,15 +14778,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2286000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15082,7 +14801,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049000" y="1767840"/>
+          <a:off x="11430000" y="1127760"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15200,16 +14919,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2209800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2659380</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15224,7 +14943,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5052060" y="289560"/>
+          <a:off x="11422380" y="1447800"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15492,16 +15211,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2385060</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4396740</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2636520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15516,7 +15235,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2385060" y="5029200"/>
+          <a:off x="5478780" y="3520440"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15620,7 +15339,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> list and status</a:t>
+            <a:t> list and statusv</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
@@ -15642,16 +15361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2438400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4450080</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3215640</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15666,7 +15385,192 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="3566160"/>
+          <a:off x="5471160" y="5082540"/>
+          <a:ext cx="2598420" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>push order into SAP in Bayern</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>推送订单</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(push order to SAP)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bayern</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的输入结构见</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SAP</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>订单创建说明书</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1211580</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3223260</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B261643-2AA6-46A2-A6C1-838310ABEC51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11986260" y="11612880"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15721,7 +15625,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Zhuwei</a:t>
+            <a:t>Song</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -15743,44 +15647,63 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>push order into SAP in Bayern</a:t>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>货币选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Currency Choice)</a:t>
           </a:r>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>向</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SAP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>推送订单</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(push order to SAP)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>只填写元货币，自动计算出</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RMB</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" i="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -15792,23 +15715,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2598420</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3665220</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4610100</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5676900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Rectangle 26">
+        <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B261643-2AA6-46A2-A6C1-838310ABEC51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B97D10-1A23-4F1B-8757-8CDDBB339EC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15816,7 +15739,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2598420" y="11369040"/>
+          <a:off x="14439900" y="11125200"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15908,7 +15831,23 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>货币选择</a:t>
+            <a:t>运输方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Transport type</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
@@ -15920,40 +15859,8 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>(Currency Choice)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1000" b="0" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>只填写元货币，自动计算出</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1000" b="0" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>RMB</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1000" i="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15961,23 +15868,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2278380</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2301240</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4290060</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Rectangle 27">
+        <xdr:cNvPr id="29" name="Rectangle 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B97D10-1A23-4F1B-8757-8CDDBB339EC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A829CB63-398C-4541-9607-C36B8D22F694}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15985,7 +15892,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="289560" y="11376660"/>
+          <a:off x="13053060" y="5737860"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16040,7 +15947,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Song</a:t>
+            <a:t>Zhuwei</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16115,22 +16022,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2948940</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4960620</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>2651760</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Rectangle 28">
+        <xdr:cNvPr id="30" name="Rectangle 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A829CB63-398C-4541-9607-C36B8D22F694}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF9A3D1-882F-4B50-866A-E0C90289565F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16138,7 +16045,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7802880" y="6522720"/>
+          <a:off x="5494020" y="9532620"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16193,7 +16100,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Zhuwei</a:t>
+            <a:t>Song</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16225,31 +16132,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>运输方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Transport type</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -16258,8 +16141,25 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
+            <a:t>收货方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(received type)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16267,23 +16167,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2240280</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2644140</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Rectangle 29">
+        <xdr:cNvPr id="32" name="Rectangle 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBF9A3D1-882F-4B50-866A-E0C90289565F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07C039D-A793-4918-950E-AB29DD716286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16291,7 +16191,192 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="228600" y="9791700"/>
+          <a:off x="5250180" y="312420"/>
+          <a:ext cx="2247900" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chunzhao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> data from SAP and save to ST DB.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>默认</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>特征</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(default Characteristics)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3368040</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5379720</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9312180-E933-41FC-BCB5-1A1E411E386A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8221980" y="3505200"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16346,7 +16431,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Song</a:t>
+            <a:t>Zhuwei</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16368,40 +16453,55 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Show the data to place order page.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>收货方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(received type)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+            <a:t>DB View about the order by sequence</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>订单内容查询</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(order select)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>需要推送到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>sap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的订单</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" i="1">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16414,22 +16514,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>2522220</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2423160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>4770120</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Rectangle 31">
+        <xdr:cNvPr id="35" name="Rectangle 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07C039D-A793-4918-950E-AB29DD716286}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F36464-2C4A-4DB5-B22E-92FF298312D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16437,7 +16537,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="175260" y="304800"/>
+          <a:off x="2522220" y="14630400"/>
           <a:ext cx="2247900" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16490,7 +16590,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Chunzhao</a:t>
+            <a:t>Wayne</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16536,7 +16636,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> data from SAP and save to ST DB.</a:t>
+            <a:t> data from ST DB to web page.</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" baseline="0">
@@ -16598,23 +16698,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3848100</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2179320</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5859780</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Rectangle 33">
+        <xdr:cNvPr id="37" name="Rectangle 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9312180-E933-41FC-BCB5-1A1E411E386A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53DECD2-0201-4FFC-845C-CB7546C6B342}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16622,7 +16722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="167640" y="4945380"/>
+          <a:off x="14622780" y="5097780"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16699,31 +16799,43 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>DB View about the order by sequence</a:t>
+            <a:t>push order into SAP in Bayern</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>订单内容查询</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(order select)</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物料在订单上的分类</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(material group in order item tab)</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100" i="1">
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>常量</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
@@ -16735,23 +16847,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2415540</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3573780</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4663440</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5585460</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Rectangle 34">
+        <xdr:cNvPr id="38" name="Rectangle 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1F36464-2C4A-4DB5-B22E-92FF298312D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C245AFAB-9922-4E20-A6D1-206D6D8E4A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16759,192 +16871,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2415540" y="14508480"/>
-          <a:ext cx="2247900" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Owner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Wayne</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Retrieve</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> data from ST DB to web page.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>默认</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>特征</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>(default Characteristics)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2407920</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4419600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Rectangle 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E768A232-9DF2-4317-A211-2F20D03944BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2407920" y="8046720"/>
+          <a:off x="14348460" y="3779520"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17094,337 +17021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>3284220</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2598420</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Rectangle 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D53DECD2-0201-4FFC-845C-CB7546C6B342}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5440680" y="3581400"/>
-          <a:ext cx="2011680" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Owner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Zhuwei</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>push order into SAP in Bayern</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>物料在订单上的分类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(material group in order item tab)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>常量</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2964180</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4975860</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Rectangle 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C245AFAB-9922-4E20-A6D1-206D6D8E4A8F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7818120" y="3512820"/>
-          <a:ext cx="2011680" cy="1249680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Owner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Zhuwei</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Retrieve</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> data from SAP and save to ST DB.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>物料评估类</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(material group)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>常量</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" i="1" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2263140</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:colOff>5295900</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17439,7 +17044,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="251460" y="12748260"/>
+          <a:off x="8138160" y="9570720"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17857,15 +17462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2468880</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>2560320</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4480560</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>4572000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17880,7 +17485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2468880" y="16093440"/>
+          <a:off x="2560320" y="16283940"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18210,16 +17815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2484120</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4495800</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18234,7 +17839,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2484120" y="17762220"/>
+          <a:off x="5623560" y="14660880"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18358,6 +17963,819 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>charactristic configuration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3535680</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5547360</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43113329-32D7-4B19-B33C-4EA425336A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8389620" y="5120640"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>zhuwei</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Retrieve </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data to from st db to order page.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>收货方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(received type)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3307080</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5318760</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB1C2B0-70CC-409F-894E-C696A24AA6B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8161020" y="11163300"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>物料价格（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>material price</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>640080</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2651760</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="Rectangle 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5153239E-1A8E-412C-9FC5-6B81EC3B95EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5494020" y="11094720"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>特征列表</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>charactristic configuration</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FDFE08-E081-4D1F-9D2F-E29C173950A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5509260" y="12588240"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>提交订单</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post order form</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2255520</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60F43B2C-FD5A-43C0-9542-64C4DE7F5FA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11018520" y="8138160"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Show the data to place order page.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>毛利率</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order margin</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -18716,6 +19134,125 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="G1" s="52" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="56" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://10.126.81.29/UltimusResources/SaleToolService.asmx" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -18881,7 +19418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -18916,7 +19453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
@@ -19235,7 +19772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
@@ -20023,7 +20560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -25841,18 +26378,127 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4D3CEB-935F-492C-BBB5-B1E88CA42B6D}">
+  <dimension ref="A3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>919</v>
+      </c>
+      <c r="D3" t="s">
+        <v>921</v>
+      </c>
+      <c r="E3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>920</v>
+      </c>
+      <c r="B4" t="s">
+        <v>915</v>
+      </c>
+      <c r="C4" t="s">
+        <v>917</v>
+      </c>
+      <c r="D4" t="s">
+        <v>915</v>
+      </c>
+      <c r="E4" t="s">
+        <v>916</v>
+      </c>
+      <c r="F4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>920</v>
+      </c>
+      <c r="B5" t="s">
+        <v>916</v>
+      </c>
+      <c r="C5" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>924</v>
+      </c>
+      <c r="B7" t="s">
+        <v>925</v>
+      </c>
+      <c r="C7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D7" t="s">
+        <v>925</v>
+      </c>
+      <c r="E7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F7" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>927</v>
+      </c>
+      <c r="B12" t="s">
+        <v>925</v>
+      </c>
+      <c r="D12" t="s">
+        <v>925</v>
+      </c>
+      <c r="E12" t="s">
+        <v>925</v>
+      </c>
+      <c r="F12" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>929</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1C6AD1-5689-4250-A295-7F87DEA26DF9}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.77734375" style="191" customWidth="1"/>
     <col min="2" max="2" width="86.33203125" style="192" customWidth="1"/>
-    <col min="3" max="3" width="77.77734375" style="191" customWidth="1"/>
+    <col min="3" max="3" width="91.77734375" style="191" customWidth="1"/>
     <col min="4" max="4" width="112" style="191" customWidth="1"/>
     <col min="5" max="5" width="25.77734375" customWidth="1"/>
   </cols>
@@ -26763,7 +27409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H275"/>
   <sheetViews>
@@ -27077,13 +27723,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="221" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -27353,13 +27999,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="221" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -27380,10 +28026,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="205"/>
+      <c r="H35" s="214"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -27402,8 +28048,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -27422,8 +28068,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -27442,8 +28088,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -27462,8 +28108,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -27482,8 +28128,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -27502,10 +28148,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="228" t="s">
+      <c r="G41" s="223" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="229"/>
+      <c r="H41" s="224"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -27524,10 +28170,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="228" t="s">
+      <c r="G42" s="223" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="229"/>
+      <c r="H42" s="224"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -27546,10 +28192,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="228" t="s">
+      <c r="G43" s="223" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="229"/>
+      <c r="H43" s="224"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -27568,8 +28214,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="230"/>
-      <c r="H44" s="231"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="226"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -27590,10 +28236,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="228" t="s">
+      <c r="G45" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="229"/>
+      <c r="H45" s="224"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -27614,8 +28260,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="209"/>
-      <c r="H46" s="209"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -27636,8 +28282,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -27658,10 +28304,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="209" t="s">
+      <c r="G48" s="204" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="209"/>
+      <c r="H48" s="204"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -27680,8 +28326,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -27700,8 +28346,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="226"/>
-      <c r="H50" s="226"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -27722,8 +28368,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="226"/>
-      <c r="H51" s="226"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -27744,8 +28390,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="226"/>
-      <c r="H52" s="226"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -27766,8 +28412,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="226"/>
-      <c r="H53" s="226"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="205"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -27788,8 +28434,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="226"/>
-      <c r="H54" s="226"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -27810,8 +28456,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="226"/>
-      <c r="H55" s="226"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -27830,8 +28476,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="226"/>
-      <c r="H56" s="226"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -27850,8 +28496,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="226"/>
-      <c r="H57" s="226"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -27870,8 +28516,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -27892,8 +28538,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -28004,13 +28650,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="204" t="s">
+      <c r="B70" s="221" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="221"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -28031,10 +28677,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="232" t="s">
+      <c r="G71" s="227" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="232"/>
+      <c r="H71" s="227"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -28055,10 +28701,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="210" t="s">
+      <c r="G72" s="212" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="209"/>
+      <c r="H72" s="204"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -28079,10 +28725,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="209" t="s">
+      <c r="G73" s="204" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="209"/>
+      <c r="H73" s="204"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -28103,8 +28749,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209"/>
+      <c r="G74" s="204"/>
+      <c r="H74" s="204"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -28125,10 +28771,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="224" t="s">
+      <c r="G75" s="210" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="225"/>
+      <c r="H75" s="211"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -28149,8 +28795,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -28169,8 +28815,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -28189,8 +28835,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="224"/>
-      <c r="H78" s="225"/>
+      <c r="G78" s="210"/>
+      <c r="H78" s="211"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -28209,8 +28855,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -28229,8 +28875,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
+      <c r="G80" s="204"/>
+      <c r="H80" s="204"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -28249,8 +28895,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="209"/>
-      <c r="H81" s="209"/>
+      <c r="G81" s="204"/>
+      <c r="H81" s="204"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -28269,8 +28915,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
+      <c r="G82" s="204"/>
+      <c r="H82" s="204"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -28289,8 +28935,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
+      <c r="G83" s="204"/>
+      <c r="H83" s="204"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -28309,8 +28955,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="209"/>
-      <c r="H84" s="209"/>
+      <c r="G84" s="204"/>
+      <c r="H84" s="204"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -28329,8 +28975,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="209"/>
-      <c r="H85" s="209"/>
+      <c r="G85" s="204"/>
+      <c r="H85" s="204"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -28349,8 +28995,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="209"/>
-      <c r="H86" s="209"/>
+      <c r="G86" s="204"/>
+      <c r="H86" s="204"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -28369,8 +29015,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="209"/>
-      <c r="H87" s="209"/>
+      <c r="G87" s="204"/>
+      <c r="H87" s="204"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -28389,8 +29035,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="209"/>
-      <c r="H88" s="209"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="204"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -28409,8 +29055,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="209"/>
-      <c r="H89" s="209"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="204"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -28429,8 +29075,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="209"/>
-      <c r="H90" s="209"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -28449,8 +29095,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="209"/>
-      <c r="H91" s="209"/>
+      <c r="G91" s="204"/>
+      <c r="H91" s="204"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -28469,8 +29115,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="209"/>
-      <c r="H92" s="209"/>
+      <c r="G92" s="204"/>
+      <c r="H92" s="204"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -28489,8 +29135,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="209"/>
-      <c r="H93" s="209"/>
+      <c r="G93" s="204"/>
+      <c r="H93" s="204"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -28509,8 +29155,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="211"/>
-      <c r="H94" s="212"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="207"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -28529,8 +29175,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="211"/>
-      <c r="H95" s="212"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="207"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -28549,8 +29195,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="211"/>
-      <c r="H96" s="212"/>
+      <c r="G96" s="206"/>
+      <c r="H96" s="207"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -28571,8 +29217,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="211"/>
-      <c r="H97" s="212"/>
+      <c r="G97" s="206"/>
+      <c r="H97" s="207"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -28593,8 +29239,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
+      <c r="G98" s="205"/>
+      <c r="H98" s="205"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -28615,10 +29261,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="209" t="s">
+      <c r="G99" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="209"/>
+      <c r="H99" s="204"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -28639,10 +29285,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="209" t="s">
+      <c r="G100" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="209"/>
+      <c r="H100" s="204"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -28663,10 +29309,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="209" t="s">
+      <c r="G101" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="209"/>
+      <c r="H101" s="204"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -28685,8 +29331,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="209"/>
-      <c r="H102" s="209"/>
+      <c r="G102" s="204"/>
+      <c r="H102" s="204"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -28705,8 +29351,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="209"/>
-      <c r="H103" s="209"/>
+      <c r="G103" s="204"/>
+      <c r="H103" s="204"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -28727,8 +29373,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="209"/>
-      <c r="H104" s="209"/>
+      <c r="G104" s="204"/>
+      <c r="H104" s="204"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -28747,8 +29393,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="209"/>
-      <c r="H105" s="209"/>
+      <c r="G105" s="204"/>
+      <c r="H105" s="204"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -28767,8 +29413,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="209"/>
-      <c r="H106" s="209"/>
+      <c r="G106" s="204"/>
+      <c r="H106" s="204"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -28787,8 +29433,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="209"/>
-      <c r="H107" s="209"/>
+      <c r="G107" s="204"/>
+      <c r="H107" s="204"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -28809,8 +29455,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="209"/>
-      <c r="H108" s="209"/>
+      <c r="G108" s="204"/>
+      <c r="H108" s="204"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -28831,10 +29477,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="234" t="s">
+      <c r="G109" s="215" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="235"/>
+      <c r="H109" s="216"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -28851,8 +29497,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="236"/>
-      <c r="H110" s="237"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="218"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -28869,8 +29515,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="236"/>
-      <c r="H111" s="237"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="218"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -28887,8 +29533,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="236"/>
-      <c r="H112" s="237"/>
+      <c r="G112" s="217"/>
+      <c r="H112" s="218"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -28905,8 +29551,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="236"/>
-      <c r="H113" s="237"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="218"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -28923,8 +29569,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="236"/>
-      <c r="H114" s="237"/>
+      <c r="G114" s="217"/>
+      <c r="H114" s="218"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -28941,8 +29587,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="236"/>
-      <c r="H115" s="237"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="218"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -28959,8 +29605,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="236"/>
-      <c r="H116" s="237"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="218"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -28977,8 +29623,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="236"/>
-      <c r="H117" s="237"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="218"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -28995,8 +29641,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="236"/>
-      <c r="H118" s="237"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="218"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -29013,8 +29659,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="236"/>
-      <c r="H119" s="237"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="218"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -29031,8 +29677,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="236"/>
-      <c r="H120" s="237"/>
+      <c r="G120" s="217"/>
+      <c r="H120" s="218"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -29049,8 +29695,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="238"/>
-      <c r="H121" s="239"/>
+      <c r="G121" s="219"/>
+      <c r="H121" s="220"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -29186,13 +29832,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="221" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="204"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
+      <c r="C135" s="221"/>
+      <c r="D135" s="221"/>
+      <c r="E135" s="221"/>
+      <c r="F135" s="221"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -29213,10 +29859,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="205" t="s">
+      <c r="G136" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="205"/>
+      <c r="H136" s="214"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -29235,8 +29881,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="211"/>
-      <c r="H137" s="212"/>
+      <c r="G137" s="206"/>
+      <c r="H137" s="207"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -29257,10 +29903,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="210" t="s">
+      <c r="G138" s="212" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="209"/>
+      <c r="H138" s="204"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -29281,8 +29927,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="209"/>
-      <c r="H139" s="209"/>
+      <c r="G139" s="204"/>
+      <c r="H139" s="204"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -29291,7 +29937,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="240" t="s">
+      <c r="C140" s="208" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -29303,10 +29949,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="220" t="s">
+      <c r="G140" s="228" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="221"/>
+      <c r="H140" s="229"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -29315,7 +29961,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="241"/>
+      <c r="C141" s="209"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -29325,8 +29971,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="222"/>
-      <c r="H141" s="223"/>
+      <c r="G141" s="230"/>
+      <c r="H141" s="231"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -29335,7 +29981,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="240" t="s">
+      <c r="C142" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -29347,8 +29993,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="209"/>
-      <c r="H142" s="209"/>
+      <c r="G142" s="204"/>
+      <c r="H142" s="204"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -29357,7 +30003,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="241"/>
+      <c r="C143" s="209"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -29367,8 +30013,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="209"/>
-      <c r="H143" s="209"/>
+      <c r="G143" s="204"/>
+      <c r="H143" s="204"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -29377,7 +30023,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -29389,8 +30035,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="211"/>
-      <c r="H144" s="212"/>
+      <c r="G144" s="206"/>
+      <c r="H144" s="207"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -29399,7 +30045,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="241"/>
+      <c r="C145" s="209"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -29409,8 +30055,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="209"/>
-      <c r="H145" s="209"/>
+      <c r="G145" s="204"/>
+      <c r="H145" s="204"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -29431,8 +30077,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="209"/>
-      <c r="H146" s="209"/>
+      <c r="G146" s="204"/>
+      <c r="H146" s="204"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -29451,8 +30097,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="209"/>
-      <c r="H147" s="209"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -29471,8 +30117,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="209"/>
-      <c r="H148" s="209"/>
+      <c r="G148" s="204"/>
+      <c r="H148" s="204"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -29493,10 +30139,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="209" t="s">
+      <c r="G149" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="209"/>
+      <c r="H149" s="204"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -29517,10 +30163,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="209" t="s">
+      <c r="G150" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="209"/>
+      <c r="H150" s="204"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -29541,10 +30187,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="209" t="s">
+      <c r="G151" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="209"/>
+      <c r="H151" s="204"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -29565,8 +30211,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="209"/>
-      <c r="H152" s="209"/>
+      <c r="G152" s="204"/>
+      <c r="H152" s="204"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -29585,8 +30231,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="209"/>
-      <c r="H153" s="209"/>
+      <c r="G153" s="204"/>
+      <c r="H153" s="204"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -29605,8 +30251,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="209"/>
-      <c r="H154" s="209"/>
+      <c r="G154" s="204"/>
+      <c r="H154" s="204"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -29625,8 +30271,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="209"/>
-      <c r="H155" s="209"/>
+      <c r="G155" s="204"/>
+      <c r="H155" s="204"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -29645,8 +30291,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="209"/>
-      <c r="H156" s="209"/>
+      <c r="G156" s="204"/>
+      <c r="H156" s="204"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -29665,8 +30311,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="209"/>
-      <c r="H157" s="209"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -29685,8 +30331,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="209"/>
-      <c r="H158" s="209"/>
+      <c r="G158" s="204"/>
+      <c r="H158" s="204"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -29705,8 +30351,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="209"/>
-      <c r="H159" s="209"/>
+      <c r="G159" s="204"/>
+      <c r="H159" s="204"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -29725,8 +30371,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="209"/>
-      <c r="H160" s="209"/>
+      <c r="G160" s="204"/>
+      <c r="H160" s="204"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -29745,8 +30391,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="209"/>
-      <c r="H161" s="209"/>
+      <c r="G161" s="204"/>
+      <c r="H161" s="204"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -29765,8 +30411,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="209"/>
-      <c r="H162" s="209"/>
+      <c r="G162" s="204"/>
+      <c r="H162" s="204"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -29785,8 +30431,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="209"/>
-      <c r="H163" s="209"/>
+      <c r="G163" s="204"/>
+      <c r="H163" s="204"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -29805,8 +30451,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="209"/>
-      <c r="H164" s="209"/>
+      <c r="G164" s="204"/>
+      <c r="H164" s="204"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -29825,8 +30471,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="209"/>
-      <c r="H165" s="209"/>
+      <c r="G165" s="204"/>
+      <c r="H165" s="204"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -29845,8 +30491,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="209"/>
-      <c r="H166" s="209"/>
+      <c r="G166" s="204"/>
+      <c r="H166" s="204"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -29865,8 +30511,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="209"/>
-      <c r="H167" s="209"/>
+      <c r="G167" s="204"/>
+      <c r="H167" s="204"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -29885,8 +30531,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="209"/>
-      <c r="H168" s="209"/>
+      <c r="G168" s="204"/>
+      <c r="H168" s="204"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -29905,8 +30551,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="209"/>
-      <c r="H169" s="209"/>
+      <c r="G169" s="204"/>
+      <c r="H169" s="204"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -29925,8 +30571,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="209"/>
-      <c r="H170" s="209"/>
+      <c r="G170" s="204"/>
+      <c r="H170" s="204"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -29945,8 +30591,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="209"/>
-      <c r="H171" s="209"/>
+      <c r="G171" s="204"/>
+      <c r="H171" s="204"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -29965,8 +30611,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="209"/>
-      <c r="H172" s="209"/>
+      <c r="G172" s="204"/>
+      <c r="H172" s="204"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -29985,8 +30631,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="209"/>
-      <c r="H173" s="209"/>
+      <c r="G173" s="204"/>
+      <c r="H173" s="204"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -30005,8 +30651,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="209"/>
-      <c r="H174" s="209"/>
+      <c r="G174" s="204"/>
+      <c r="H174" s="204"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -30025,8 +30671,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="209"/>
-      <c r="H175" s="209"/>
+      <c r="G175" s="204"/>
+      <c r="H175" s="204"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -30035,7 +30681,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="213" t="s">
+      <c r="C176" s="232" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -30047,10 +30693,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="216" t="s">
+      <c r="G176" s="235" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="217"/>
+      <c r="H176" s="236"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -30059,7 +30705,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="214"/>
+      <c r="C177" s="233"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -30069,8 +30715,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="218"/>
-      <c r="H177" s="219"/>
+      <c r="G177" s="237"/>
+      <c r="H177" s="238"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -30079,7 +30725,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="213" t="s">
+      <c r="C178" s="232" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -30091,8 +30737,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="209"/>
-      <c r="H178" s="209"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="204"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -30101,7 +30747,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="214"/>
+      <c r="C179" s="233"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -30111,8 +30757,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="209"/>
-      <c r="H179" s="209"/>
+      <c r="G179" s="204"/>
+      <c r="H179" s="204"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -30121,7 +30767,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="213" t="s">
+      <c r="C180" s="232" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -30133,8 +30779,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="209"/>
-      <c r="H180" s="209"/>
+      <c r="G180" s="204"/>
+      <c r="H180" s="204"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -30143,7 +30789,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="215"/>
+      <c r="C181" s="234"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -30153,8 +30799,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="209"/>
-      <c r="H181" s="209"/>
+      <c r="G181" s="204"/>
+      <c r="H181" s="204"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -30163,7 +30809,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="215"/>
+      <c r="C182" s="234"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -30173,8 +30819,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="209"/>
-      <c r="H182" s="209"/>
+      <c r="G182" s="204"/>
+      <c r="H182" s="204"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -30183,7 +30829,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="215"/>
+      <c r="C183" s="234"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -30193,8 +30839,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="209"/>
-      <c r="H183" s="209"/>
+      <c r="G183" s="204"/>
+      <c r="H183" s="204"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -30203,7 +30849,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="215"/>
+      <c r="C184" s="234"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -30213,8 +30859,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="209"/>
-      <c r="H184" s="209"/>
+      <c r="G184" s="204"/>
+      <c r="H184" s="204"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -30223,7 +30869,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="215"/>
+      <c r="C185" s="234"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -30233,8 +30879,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="209"/>
-      <c r="H185" s="209"/>
+      <c r="G185" s="204"/>
+      <c r="H185" s="204"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -30243,7 +30889,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="215"/>
+      <c r="C186" s="234"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -30253,8 +30899,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="209"/>
-      <c r="H186" s="209"/>
+      <c r="G186" s="204"/>
+      <c r="H186" s="204"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -30263,7 +30909,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="215"/>
+      <c r="C187" s="234"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -30273,8 +30919,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="209"/>
-      <c r="H187" s="209"/>
+      <c r="G187" s="204"/>
+      <c r="H187" s="204"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -30283,7 +30929,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="215"/>
+      <c r="C188" s="234"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -30293,8 +30939,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="209"/>
-      <c r="H188" s="209"/>
+      <c r="G188" s="204"/>
+      <c r="H188" s="204"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -30303,7 +30949,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="215"/>
+      <c r="C189" s="234"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -30313,8 +30959,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="209"/>
-      <c r="H189" s="209"/>
+      <c r="G189" s="204"/>
+      <c r="H189" s="204"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -30323,7 +30969,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="215"/>
+      <c r="C190" s="234"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -30333,8 +30979,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="209"/>
-      <c r="H190" s="209"/>
+      <c r="G190" s="204"/>
+      <c r="H190" s="204"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -30343,7 +30989,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="215"/>
+      <c r="C191" s="234"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -30353,8 +30999,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="209"/>
-      <c r="H191" s="209"/>
+      <c r="G191" s="204"/>
+      <c r="H191" s="204"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -30363,7 +31009,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="215"/>
+      <c r="C192" s="234"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -30373,8 +31019,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="209"/>
-      <c r="H192" s="209"/>
+      <c r="G192" s="204"/>
+      <c r="H192" s="204"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -30383,7 +31029,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="215"/>
+      <c r="C193" s="234"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -30393,8 +31039,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="209"/>
-      <c r="H193" s="209"/>
+      <c r="G193" s="204"/>
+      <c r="H193" s="204"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -30403,7 +31049,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="215"/>
+      <c r="C194" s="234"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -30413,8 +31059,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="209"/>
-      <c r="H194" s="209"/>
+      <c r="G194" s="204"/>
+      <c r="H194" s="204"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -30423,7 +31069,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="215"/>
+      <c r="C195" s="234"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -30433,8 +31079,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="209"/>
-      <c r="H195" s="209"/>
+      <c r="G195" s="204"/>
+      <c r="H195" s="204"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -30443,7 +31089,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="215"/>
+      <c r="C196" s="234"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -30453,8 +31099,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="209"/>
-      <c r="H196" s="209"/>
+      <c r="G196" s="204"/>
+      <c r="H196" s="204"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -30463,7 +31109,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="215"/>
+      <c r="C197" s="234"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -30473,8 +31119,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="209"/>
-      <c r="H197" s="209"/>
+      <c r="G197" s="204"/>
+      <c r="H197" s="204"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -30483,7 +31129,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="215"/>
+      <c r="C198" s="234"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -30493,8 +31139,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="209"/>
-      <c r="H198" s="209"/>
+      <c r="G198" s="204"/>
+      <c r="H198" s="204"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -30503,7 +31149,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="215"/>
+      <c r="C199" s="234"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -30513,8 +31159,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="209"/>
-      <c r="H199" s="209"/>
+      <c r="G199" s="204"/>
+      <c r="H199" s="204"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -30523,7 +31169,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="215"/>
+      <c r="C200" s="234"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -30533,8 +31179,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="209"/>
-      <c r="H200" s="209"/>
+      <c r="G200" s="204"/>
+      <c r="H200" s="204"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -30543,7 +31189,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="215"/>
+      <c r="C201" s="234"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -30553,8 +31199,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="209"/>
-      <c r="H201" s="209"/>
+      <c r="G201" s="204"/>
+      <c r="H201" s="204"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -30563,7 +31209,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="215"/>
+      <c r="C202" s="234"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -30573,8 +31219,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="209"/>
-      <c r="H202" s="209"/>
+      <c r="G202" s="204"/>
+      <c r="H202" s="204"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -30583,7 +31229,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="214"/>
+      <c r="C203" s="233"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -30593,8 +31239,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="209"/>
-      <c r="H203" s="209"/>
+      <c r="G203" s="204"/>
+      <c r="H203" s="204"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -30615,8 +31261,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="209"/>
-      <c r="H204" s="209"/>
+      <c r="G204" s="204"/>
+      <c r="H204" s="204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -30635,10 +31281,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="209" t="s">
+      <c r="G205" s="204" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="209"/>
+      <c r="H205" s="204"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -30659,8 +31305,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="211"/>
-      <c r="H206" s="212"/>
+      <c r="G206" s="206"/>
+      <c r="H206" s="207"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -30681,8 +31327,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="211"/>
-      <c r="H207" s="212"/>
+      <c r="G207" s="206"/>
+      <c r="H207" s="207"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -30703,8 +31349,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="226"/>
-      <c r="H208" s="226"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="205"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -30780,13 +31426,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="204" t="s">
+      <c r="B216" s="221" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="204"/>
-      <c r="D216" s="204"/>
-      <c r="E216" s="204"/>
-      <c r="F216" s="204"/>
+      <c r="C216" s="221"/>
+      <c r="D216" s="221"/>
+      <c r="E216" s="221"/>
+      <c r="F216" s="221"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -30807,10 +31453,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="205" t="s">
+      <c r="G217" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="205"/>
+      <c r="H217" s="214"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -30827,10 +31473,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="210" t="s">
+      <c r="G218" s="212" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="209"/>
+      <c r="H218" s="204"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -30851,8 +31497,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="210"/>
-      <c r="H219" s="209"/>
+      <c r="G219" s="212"/>
+      <c r="H219" s="204"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -30871,8 +31517,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="209"/>
-      <c r="H220" s="209"/>
+      <c r="G220" s="204"/>
+      <c r="H220" s="204"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -30893,8 +31539,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="209"/>
-      <c r="H221" s="209"/>
+      <c r="G221" s="204"/>
+      <c r="H221" s="204"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -30913,8 +31559,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="209"/>
-      <c r="H222" s="209"/>
+      <c r="G222" s="204"/>
+      <c r="H222" s="204"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -30933,8 +31579,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="209"/>
-      <c r="H223" s="209"/>
+      <c r="G223" s="204"/>
+      <c r="H223" s="204"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -31077,7 +31723,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="206" t="s">
+      <c r="B231" s="239" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -31098,7 +31744,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="207"/>
+      <c r="B232" s="240"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -31115,7 +31761,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="207"/>
+      <c r="B233" s="240"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -31132,7 +31778,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="207"/>
+      <c r="B234" s="240"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -31149,7 +31795,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="207"/>
+      <c r="B235" s="240"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -31166,7 +31812,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="207"/>
+      <c r="B236" s="240"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -31183,7 +31829,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="207"/>
+      <c r="B237" s="240"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -31200,7 +31846,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="207"/>
+      <c r="B238" s="240"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -31217,7 +31863,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="207"/>
+      <c r="B239" s="240"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -31234,7 +31880,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="207"/>
+      <c r="B240" s="240"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -31251,7 +31897,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="206" t="s">
+      <c r="B241" s="239" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -31272,7 +31918,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="207"/>
+      <c r="B242" s="240"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -31289,7 +31935,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="207"/>
+      <c r="B243" s="240"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -31306,7 +31952,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="207"/>
+      <c r="B244" s="240"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -31323,7 +31969,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="207"/>
+      <c r="B245" s="240"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -31340,7 +31986,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="207"/>
+      <c r="B246" s="240"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -31357,7 +32003,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="208"/>
+      <c r="B247" s="241"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -31374,7 +32020,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="206" t="s">
+      <c r="B248" s="239" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -31395,7 +32041,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="207"/>
+      <c r="B249" s="240"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -31412,7 +32058,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="207"/>
+      <c r="B250" s="240"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -31429,7 +32075,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="207"/>
+      <c r="B251" s="240"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -31446,7 +32092,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="207"/>
+      <c r="B252" s="240"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -31463,7 +32109,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="207"/>
+      <c r="B253" s="240"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -31480,7 +32126,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="207"/>
+      <c r="B254" s="240"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -31497,7 +32143,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="207"/>
+      <c r="B255" s="240"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -31514,7 +32160,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="207"/>
+      <c r="B256" s="240"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -31531,7 +32177,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="208"/>
+      <c r="B257" s="241"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -31750,48 +32396,196 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="233" t="s">
+      <c r="A272" s="213" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="233"/>
-      <c r="C272" s="233"/>
-      <c r="D272" s="233"/>
+      <c r="B272" s="213"/>
+      <c r="C272" s="213"/>
+      <c r="D272" s="213"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="209" t="s">
+      <c r="B273" s="204" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="209"/>
-      <c r="D273" s="209"/>
+      <c r="C273" s="204"/>
+      <c r="D273" s="204"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="209" t="s">
+      <c r="B274" s="204" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="209"/>
-      <c r="D274" s="209"/>
+      <c r="C274" s="204"/>
+      <c r="D274" s="204"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="209" t="s">
+      <c r="B275" s="204" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="209"/>
-      <c r="D275" s="209"/>
+      <c r="C275" s="204"/>
+      <c r="D275" s="204"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G191:H191"/>
@@ -31816,161 +32610,13 @@
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="G181:H181"/>
     <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -32021,123 +32667,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.88671875" customWidth="1"/>
-    <col min="4" max="4" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="13">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="51" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="51" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="56" t="s">
-        <v>297</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>296</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://10.126.81.29/UltimusResources/SaleToolService.asmx" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
-</worksheet>
 </file>
--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{29927FC3-95B7-4F78-9ECC-8DBF1EF2DE90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A1264BD-1726-40BC-ADA5-18265540F77E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12256,16 +12256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2430780</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>4442460</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2339340</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12280,7 +12280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13197840" y="1678305"/>
+          <a:off x="5173980" y="1891665"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12402,16 +12402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3101340</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3787140</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5113020</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5798820</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12426,7 +12426,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7947660" y="358140"/>
+          <a:off x="14554200" y="2026920"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15368,7 +15368,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:colOff>3063240</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -15386,7 +15386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5181600" y="4206240"/>
-          <a:ext cx="2598420" cy="1249680"/>
+          <a:ext cx="2727960" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16455,7 +16455,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>DB View about the order by sequence</a:t>
+            <a:t>search from DB View about the order content by sequence number</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -16515,16 +16515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2571750</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2564130</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16539,7 +16539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5227320" y="16093440"/>
+          <a:off x="11140440" y="17381220"/>
           <a:ext cx="2190750" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17174,15 +17174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2807970</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>3288030</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>4819650</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>5299710</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17197,7 +17197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7654290" y="14569440"/>
+          <a:off x="8134350" y="14813280"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17320,15 +17320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2625090</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:colOff>2320290</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>40005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4636770</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>4331970</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17343,7 +17343,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2625090" y="14632305"/>
+          <a:off x="2320290" y="16316325"/>
           <a:ext cx="2011680" cy="1257300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17465,16 +17465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2065020</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2819400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17489,7 +17489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53340" y="16011525"/>
+          <a:off x="5654040" y="16392525"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17635,15 +17635,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>836295</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2459355</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>2847975</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17658,7 +17658,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5293995" y="14588490"/>
+          <a:off x="5682615" y="14855190"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18292,15 +18292,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3208020</xdr:colOff>
+      <xdr:colOff>2903220</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5219700</xdr:colOff>
+      <xdr:colOff>4914900</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18315,7 +18315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8054340" y="8164830"/>
+          <a:off x="7749540" y="8081010"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18462,15 +18462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2567940</xdr:colOff>
+      <xdr:colOff>2468880</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18485,7 +18485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5402580" y="8138160"/>
+          <a:off x="5303520" y="8130540"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18801,16 +18801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2609850</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2929890</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4621530</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4941570</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18825,7 +18825,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2609850" y="8113395"/>
+          <a:off x="7776210" y="9568815"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18987,15 +18987,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>567690</xdr:colOff>
+      <xdr:colOff>483870</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2579370</xdr:colOff>
+      <xdr:colOff>2495550</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19010,7 +19010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5414010" y="9681210"/>
+          <a:off x="5330190" y="9574530"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19140,16 +19140,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2377440</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4389120</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5135880</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19164,7 +19164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2377440" y="365760"/>
+          <a:off x="7970520" y="358140"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19286,16 +19286,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1836420</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4434840</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2971800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19310,7 +19310,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1836420" y="4183380"/>
+          <a:off x="5219700" y="5867400"/>
           <a:ext cx="2598420" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19387,7 +19387,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>push order into SAP in Bayern</a:t>
+            <a:t>data conversion from db to sap side</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -19448,15 +19448,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2567940</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4579620</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:colOff>2278380</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19471,7 +19471,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2567940" y="9669780"/>
+          <a:off x="266700" y="10980420"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19611,6 +19611,938 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Margin</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2659380</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4671060</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0BB9CB-50A9-40FF-AE4C-A1799293E65A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2659380" y="8130540"/>
+          <a:ext cx="2011680" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ST DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>订单修改</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Order Change</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2339340</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53785D68-27D0-44F9-A08A-51D61245D65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="327660" y="8145780"/>
+          <a:ext cx="2011680" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ST DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>工程审核</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Engining cost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2369820</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C45E8710-183E-49B5-820D-344F4680A446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="358140" y="9517380"/>
+          <a:ext cx="2011680" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ST DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>B2C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>审核</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B2C cost</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2651760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4663440</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Rectangle 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D5AC14-C685-4B6A-82E0-1FC0789B77F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2651760" y="9479280"/>
+          <a:ext cx="2011680" cy="1242060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Song</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Show </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>data from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ST DB </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>to Page.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>支持经理审核</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(Support manger </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>review</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2430780</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4442460</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF79BDB-AAED-4AB2-A560-D32CA42119BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2430780" y="14897100"/>
+          <a:ext cx="2011680" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wayne</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Push</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> data from  Page to DB.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>提交订单</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>post order form</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
@@ -27325,15 +28257,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.6640625" style="191" customWidth="1"/>
     <col min="2" max="2" width="86.33203125" style="192" customWidth="1"/>
-    <col min="3" max="3" width="91.6640625" style="191" customWidth="1"/>
+    <col min="3" max="3" width="107.44140625" style="191" customWidth="1"/>
     <col min="4" max="4" width="112" style="191" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1A1264BD-1726-40BC-ADA5-18265540F77E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6A36CFE-6B73-439C-867B-D69A26F752E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12256,16 +12256,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4861560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2339340</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6873240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>93345</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12280,7 +12280,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5173980" y="1891665"/>
+          <a:off x="15628620" y="672465"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15361,16 +15361,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5715000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3063240</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8442960</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15385,7 +15385,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181600" y="4206240"/>
+          <a:off x="16482060" y="4053840"/>
           <a:ext cx="2727960" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16355,15 +16355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3566160</xdr:colOff>
+      <xdr:colOff>2918460</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5577840</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>5128260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16378,8 +16378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8412480" y="4221480"/>
-          <a:ext cx="2011680" cy="1249680"/>
+          <a:off x="7764780" y="4236720"/>
+          <a:ext cx="2209800" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17173,16 +17173,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3288030</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5101590</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5299710</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7113270</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17197,7 +17197,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8134350" y="14813280"/>
+          <a:off x="15868650" y="14584680"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17465,16 +17465,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>807720</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>116205</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2819400</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4945380</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17489,7 +17489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5654040" y="16392525"/>
+          <a:off x="13700760" y="17337405"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17634,16 +17634,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>836295</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5240655</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2847975</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7252335</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -17658,7 +17658,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5682615" y="14855190"/>
+          <a:off x="16007715" y="15967710"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18291,16 +18291,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2903220</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4914900</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3467100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18315,7 +18315,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7749540" y="8081010"/>
+          <a:off x="12222480" y="9833610"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18462,15 +18462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>2933700</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:colOff>4945380</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18485,7 +18485,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5303520" y="8130540"/>
+          <a:off x="7780020" y="8107680"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19141,15 +19141,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3124200</xdr:colOff>
+      <xdr:colOff>3230880</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5135880</xdr:colOff>
+      <xdr:colOff>5242560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19164,7 +19164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7970520" y="358140"/>
+          <a:off x="8077200" y="289560"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19287,15 +19287,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2971800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>2583180</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19310,8 +19310,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5219700" y="5867400"/>
-          <a:ext cx="2598420" cy="1249680"/>
+          <a:off x="5173980" y="4198620"/>
+          <a:ext cx="2255520" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20380,16 +20380,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2430780</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4442460</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2743200</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20404,7 +20404,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2430780" y="14897100"/>
+          <a:off x="5577840" y="14889480"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28257,15 +28257,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="70.6640625" style="191" customWidth="1"/>
     <col min="2" max="2" width="86.33203125" style="192" customWidth="1"/>
-    <col min="3" max="3" width="107.44140625" style="191" customWidth="1"/>
+    <col min="3" max="3" width="126.21875" style="191" customWidth="1"/>
     <col min="4" max="4" width="112" style="191" customWidth="1"/>
     <col min="5" max="5" width="25.6640625" customWidth="1"/>
   </cols>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C6A36CFE-6B73-439C-867B-D69A26F752E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2D5AA913-6A1D-4080-9EBF-DC72E7DBF835}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3855,89 +3855,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3960,14 +3903,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16355,14 +16355,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2918460</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:colOff>2903220</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>5128260</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>5113020</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -16378,7 +16378,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7764780" y="4236720"/>
+          <a:off x="7749540" y="4053840"/>
           <a:ext cx="2209800" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16515,16 +16515,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3116580</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2564130</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5307330</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16539,7 +16539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11140440" y="17381220"/>
+          <a:off x="7962900" y="14668500"/>
           <a:ext cx="2190750" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -17319,152 +17319,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2320290</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>40005</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4331970</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>17145</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Rectangle 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2320290" y="16316325"/>
-          <a:ext cx="2011680" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Owner</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Wayne</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Description:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Retrieve</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> data from SAP to Page.</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-          </a:br>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>保存新配置表</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>(Save new charactistic list and charactistic value)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>2933700</xdr:colOff>
       <xdr:row>94</xdr:row>
@@ -18801,16 +18655,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2929890</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5284470</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>59055</xdr:rowOff>
+      <xdr:rowOff>135255</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4941570</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>7296150</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>20955</xdr:rowOff>
+      <xdr:rowOff>97155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -18825,7 +18679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7776210" y="9568815"/>
+          <a:off x="16051530" y="9645015"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -18987,15 +18841,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
+      <xdr:colOff>2967990</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2495550</xdr:colOff>
+      <xdr:colOff>4979670</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19010,7 +18864,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5330190" y="9574530"/>
+          <a:off x="7814310" y="9612630"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19140,16 +18994,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3230880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5989320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5242560</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8001000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19164,7 +19018,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8077200" y="289560"/>
+          <a:off x="16756380" y="1737360"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19289,13 +19143,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2583180</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19310,7 +19164,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5173980" y="4198620"/>
+          <a:off x="5173980" y="4030980"/>
           <a:ext cx="2255520" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19633,15 +19487,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2659380</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4671060</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19656,7 +19510,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2659380" y="8130540"/>
+          <a:off x="236220" y="8778240"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -19817,16 +19671,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2339340</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2613660</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19841,7 +19695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="327660" y="8145780"/>
+          <a:off x="5448300" y="8054340"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20002,15 +19856,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2369820</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2560320</xdr:colOff>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -20026,7 +19880,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358140" y="9517380"/>
+          <a:off x="5394960" y="11163300"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20195,16 +20049,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2651760</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>4663440</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2560320</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20219,7 +20073,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2651760" y="9479280"/>
+          <a:off x="5394960" y="9555480"/>
           <a:ext cx="2011680" cy="1242060"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -20381,15 +20235,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>731520</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2743200</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:colOff>2468880</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -20404,7 +20258,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5577840" y="14889480"/>
+          <a:off x="5303520" y="14599920"/>
           <a:ext cx="2011680" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -28257,8 +28111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29490,13 +29344,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="204" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
+      <c r="C17" s="204"/>
+      <c r="D17" s="204"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="204"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -29766,13 +29620,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="221" t="s">
+      <c r="B34" s="204" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="221"/>
-      <c r="D34" s="221"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
+      <c r="C34" s="204"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -29793,10 +29647,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="214" t="s">
+      <c r="G35" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="214"/>
+      <c r="H35" s="205"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -29815,8 +29669,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="204"/>
-      <c r="H36" s="204"/>
+      <c r="G36" s="209"/>
+      <c r="H36" s="209"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -29835,8 +29689,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="204"/>
-      <c r="H37" s="204"/>
+      <c r="G37" s="209"/>
+      <c r="H37" s="209"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -29855,8 +29709,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="204"/>
-      <c r="H38" s="204"/>
+      <c r="G38" s="209"/>
+      <c r="H38" s="209"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -29875,8 +29729,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="222"/>
-      <c r="H39" s="222"/>
+      <c r="G39" s="227"/>
+      <c r="H39" s="227"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -29895,8 +29749,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="222"/>
-      <c r="H40" s="222"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -29915,10 +29769,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="223" t="s">
+      <c r="G41" s="228" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="224"/>
+      <c r="H41" s="229"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -29937,10 +29791,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="223" t="s">
+      <c r="G42" s="228" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="224"/>
+      <c r="H42" s="229"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -29959,10 +29813,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="223" t="s">
+      <c r="G43" s="228" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="224"/>
+      <c r="H43" s="229"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -29981,8 +29835,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="225"/>
-      <c r="H44" s="226"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="231"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -30003,10 +29857,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="223" t="s">
+      <c r="G45" s="228" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="224"/>
+      <c r="H45" s="229"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -30027,8 +29881,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="204"/>
-      <c r="H46" s="204"/>
+      <c r="G46" s="209"/>
+      <c r="H46" s="209"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -30049,8 +29903,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="204"/>
-      <c r="H47" s="204"/>
+      <c r="G47" s="209"/>
+      <c r="H47" s="209"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -30071,10 +29925,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="204" t="s">
+      <c r="G48" s="209" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="204"/>
+      <c r="H48" s="209"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -30093,8 +29947,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="205"/>
-      <c r="H49" s="205"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="226"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -30113,8 +29967,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="205"/>
-      <c r="H50" s="205"/>
+      <c r="G50" s="226"/>
+      <c r="H50" s="226"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -30135,8 +29989,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="205"/>
-      <c r="H51" s="205"/>
+      <c r="G51" s="226"/>
+      <c r="H51" s="226"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -30157,8 +30011,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="205"/>
-      <c r="H52" s="205"/>
+      <c r="G52" s="226"/>
+      <c r="H52" s="226"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -30179,8 +30033,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="205"/>
-      <c r="H53" s="205"/>
+      <c r="G53" s="226"/>
+      <c r="H53" s="226"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -30201,8 +30055,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="205"/>
-      <c r="H54" s="205"/>
+      <c r="G54" s="226"/>
+      <c r="H54" s="226"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -30223,8 +30077,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="226"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -30243,8 +30097,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
+      <c r="G56" s="226"/>
+      <c r="H56" s="226"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -30263,8 +30117,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
+      <c r="G57" s="226"/>
+      <c r="H57" s="226"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -30283,8 +30137,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -30305,8 +30159,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="205"/>
-      <c r="H59" s="205"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="226"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -30417,13 +30271,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="221" t="s">
+      <c r="B70" s="204" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="221"/>
-      <c r="D70" s="221"/>
-      <c r="E70" s="221"/>
-      <c r="F70" s="221"/>
+      <c r="C70" s="204"/>
+      <c r="D70" s="204"/>
+      <c r="E70" s="204"/>
+      <c r="F70" s="204"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -30444,10 +30298,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="227" t="s">
+      <c r="G71" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="227"/>
+      <c r="H71" s="232"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -30468,10 +30322,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="212" t="s">
+      <c r="G72" s="210" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="204"/>
+      <c r="H72" s="209"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -30492,10 +30346,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="204" t="s">
+      <c r="G73" s="209" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="204"/>
+      <c r="H73" s="209"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -30516,8 +30370,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="204"/>
-      <c r="H74" s="204"/>
+      <c r="G74" s="209"/>
+      <c r="H74" s="209"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -30538,10 +30392,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="210" t="s">
+      <c r="G75" s="224" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="211"/>
+      <c r="H75" s="225"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -30562,8 +30416,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="204"/>
-      <c r="H76" s="204"/>
+      <c r="G76" s="209"/>
+      <c r="H76" s="209"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -30582,8 +30436,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="204"/>
-      <c r="H77" s="204"/>
+      <c r="G77" s="209"/>
+      <c r="H77" s="209"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -30602,8 +30456,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="210"/>
-      <c r="H78" s="211"/>
+      <c r="G78" s="224"/>
+      <c r="H78" s="225"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -30622,8 +30476,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="204"/>
-      <c r="H79" s="204"/>
+      <c r="G79" s="209"/>
+      <c r="H79" s="209"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -30642,8 +30496,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="204"/>
-      <c r="H80" s="204"/>
+      <c r="G80" s="209"/>
+      <c r="H80" s="209"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -30662,8 +30516,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="204"/>
-      <c r="H81" s="204"/>
+      <c r="G81" s="209"/>
+      <c r="H81" s="209"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -30682,8 +30536,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="204"/>
-      <c r="H82" s="204"/>
+      <c r="G82" s="209"/>
+      <c r="H82" s="209"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -30702,8 +30556,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="204"/>
-      <c r="H83" s="204"/>
+      <c r="G83" s="209"/>
+      <c r="H83" s="209"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -30722,8 +30576,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="204"/>
-      <c r="H84" s="204"/>
+      <c r="G84" s="209"/>
+      <c r="H84" s="209"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -30742,8 +30596,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="204"/>
-      <c r="H85" s="204"/>
+      <c r="G85" s="209"/>
+      <c r="H85" s="209"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -30762,8 +30616,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="204"/>
-      <c r="H86" s="204"/>
+      <c r="G86" s="209"/>
+      <c r="H86" s="209"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -30782,8 +30636,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="204"/>
-      <c r="H87" s="204"/>
+      <c r="G87" s="209"/>
+      <c r="H87" s="209"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -30802,8 +30656,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="204"/>
-      <c r="H88" s="204"/>
+      <c r="G88" s="209"/>
+      <c r="H88" s="209"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -30822,8 +30676,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="204"/>
-      <c r="H89" s="204"/>
+      <c r="G89" s="209"/>
+      <c r="H89" s="209"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -30842,8 +30696,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="204"/>
-      <c r="H90" s="204"/>
+      <c r="G90" s="209"/>
+      <c r="H90" s="209"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -30862,8 +30716,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="204"/>
-      <c r="H91" s="204"/>
+      <c r="G91" s="209"/>
+      <c r="H91" s="209"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -30882,8 +30736,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="204"/>
-      <c r="H92" s="204"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="209"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -30902,8 +30756,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="204"/>
-      <c r="H93" s="204"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="209"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -30922,8 +30776,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="206"/>
-      <c r="H94" s="207"/>
+      <c r="G94" s="211"/>
+      <c r="H94" s="212"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -30942,8 +30796,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="206"/>
-      <c r="H95" s="207"/>
+      <c r="G95" s="211"/>
+      <c r="H95" s="212"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -30962,8 +30816,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="206"/>
-      <c r="H96" s="207"/>
+      <c r="G96" s="211"/>
+      <c r="H96" s="212"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -30984,8 +30838,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="206"/>
-      <c r="H97" s="207"/>
+      <c r="G97" s="211"/>
+      <c r="H97" s="212"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -31006,8 +30860,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="205"/>
-      <c r="H98" s="205"/>
+      <c r="G98" s="226"/>
+      <c r="H98" s="226"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -31028,10 +30882,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="204" t="s">
+      <c r="G99" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="204"/>
+      <c r="H99" s="209"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -31052,10 +30906,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="204" t="s">
+      <c r="G100" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="204"/>
+      <c r="H100" s="209"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -31076,10 +30930,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="204" t="s">
+      <c r="G101" s="209" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="204"/>
+      <c r="H101" s="209"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -31098,8 +30952,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="204"/>
-      <c r="H102" s="204"/>
+      <c r="G102" s="209"/>
+      <c r="H102" s="209"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -31118,8 +30972,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="204"/>
-      <c r="H103" s="204"/>
+      <c r="G103" s="209"/>
+      <c r="H103" s="209"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -31140,8 +30994,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="204"/>
-      <c r="H104" s="204"/>
+      <c r="G104" s="209"/>
+      <c r="H104" s="209"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -31160,8 +31014,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="204"/>
-      <c r="H105" s="204"/>
+      <c r="G105" s="209"/>
+      <c r="H105" s="209"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -31180,8 +31034,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="204"/>
-      <c r="H106" s="204"/>
+      <c r="G106" s="209"/>
+      <c r="H106" s="209"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -31200,8 +31054,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="204"/>
-      <c r="H107" s="204"/>
+      <c r="G107" s="209"/>
+      <c r="H107" s="209"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -31222,8 +31076,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="204"/>
-      <c r="H108" s="204"/>
+      <c r="G108" s="209"/>
+      <c r="H108" s="209"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -31244,10 +31098,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="215" t="s">
+      <c r="G109" s="234" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="216"/>
+      <c r="H109" s="235"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -31264,8 +31118,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="217"/>
-      <c r="H110" s="218"/>
+      <c r="G110" s="236"/>
+      <c r="H110" s="237"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -31282,8 +31136,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="217"/>
-      <c r="H111" s="218"/>
+      <c r="G111" s="236"/>
+      <c r="H111" s="237"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -31300,8 +31154,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="217"/>
-      <c r="H112" s="218"/>
+      <c r="G112" s="236"/>
+      <c r="H112" s="237"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -31318,8 +31172,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="217"/>
-      <c r="H113" s="218"/>
+      <c r="G113" s="236"/>
+      <c r="H113" s="237"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -31336,8 +31190,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="217"/>
-      <c r="H114" s="218"/>
+      <c r="G114" s="236"/>
+      <c r="H114" s="237"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -31354,8 +31208,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="217"/>
-      <c r="H115" s="218"/>
+      <c r="G115" s="236"/>
+      <c r="H115" s="237"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -31372,8 +31226,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="217"/>
-      <c r="H116" s="218"/>
+      <c r="G116" s="236"/>
+      <c r="H116" s="237"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -31390,8 +31244,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="217"/>
-      <c r="H117" s="218"/>
+      <c r="G117" s="236"/>
+      <c r="H117" s="237"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -31408,8 +31262,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="217"/>
-      <c r="H118" s="218"/>
+      <c r="G118" s="236"/>
+      <c r="H118" s="237"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -31426,8 +31280,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="217"/>
-      <c r="H119" s="218"/>
+      <c r="G119" s="236"/>
+      <c r="H119" s="237"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -31444,8 +31298,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="217"/>
-      <c r="H120" s="218"/>
+      <c r="G120" s="236"/>
+      <c r="H120" s="237"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -31462,8 +31316,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="219"/>
-      <c r="H121" s="220"/>
+      <c r="G121" s="238"/>
+      <c r="H121" s="239"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -31599,13 +31453,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="221" t="s">
+      <c r="B135" s="204" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="221"/>
-      <c r="D135" s="221"/>
-      <c r="E135" s="221"/>
-      <c r="F135" s="221"/>
+      <c r="C135" s="204"/>
+      <c r="D135" s="204"/>
+      <c r="E135" s="204"/>
+      <c r="F135" s="204"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -31626,10 +31480,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="214" t="s">
+      <c r="G136" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="214"/>
+      <c r="H136" s="205"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -31648,8 +31502,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="206"/>
-      <c r="H137" s="207"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="212"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -31670,10 +31524,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="212" t="s">
+      <c r="G138" s="210" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="204"/>
+      <c r="H138" s="209"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -31694,8 +31548,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="204"/>
-      <c r="H139" s="204"/>
+      <c r="G139" s="209"/>
+      <c r="H139" s="209"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -31704,7 +31558,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="208" t="s">
+      <c r="C140" s="240" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -31716,10 +31570,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="228" t="s">
+      <c r="G140" s="220" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="229"/>
+      <c r="H140" s="221"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -31728,7 +31582,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="209"/>
+      <c r="C141" s="241"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -31738,8 +31592,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="230"/>
-      <c r="H141" s="231"/>
+      <c r="G141" s="222"/>
+      <c r="H141" s="223"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -31748,7 +31602,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="208" t="s">
+      <c r="C142" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -31760,8 +31614,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="204"/>
-      <c r="H142" s="204"/>
+      <c r="G142" s="209"/>
+      <c r="H142" s="209"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -31770,7 +31624,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="209"/>
+      <c r="C143" s="241"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -31780,8 +31634,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="204"/>
-      <c r="H143" s="204"/>
+      <c r="G143" s="209"/>
+      <c r="H143" s="209"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -31790,7 +31644,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="208" t="s">
+      <c r="C144" s="240" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -31802,8 +31656,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="206"/>
-      <c r="H144" s="207"/>
+      <c r="G144" s="211"/>
+      <c r="H144" s="212"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -31812,7 +31666,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="209"/>
+      <c r="C145" s="241"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -31822,8 +31676,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="204"/>
-      <c r="H145" s="204"/>
+      <c r="G145" s="209"/>
+      <c r="H145" s="209"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -31844,8 +31698,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="204"/>
-      <c r="H146" s="204"/>
+      <c r="G146" s="209"/>
+      <c r="H146" s="209"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -31864,8 +31718,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="204"/>
-      <c r="H147" s="204"/>
+      <c r="G147" s="209"/>
+      <c r="H147" s="209"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -31884,8 +31738,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="204"/>
-      <c r="H148" s="204"/>
+      <c r="G148" s="209"/>
+      <c r="H148" s="209"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -31906,10 +31760,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="204" t="s">
+      <c r="G149" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="204"/>
+      <c r="H149" s="209"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -31930,10 +31784,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="204" t="s">
+      <c r="G150" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="204"/>
+      <c r="H150" s="209"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -31954,10 +31808,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="204" t="s">
+      <c r="G151" s="209" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="204"/>
+      <c r="H151" s="209"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -31978,8 +31832,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="204"/>
-      <c r="H152" s="204"/>
+      <c r="G152" s="209"/>
+      <c r="H152" s="209"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -31998,8 +31852,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="204"/>
-      <c r="H153" s="204"/>
+      <c r="G153" s="209"/>
+      <c r="H153" s="209"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -32018,8 +31872,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="204"/>
-      <c r="H154" s="204"/>
+      <c r="G154" s="209"/>
+      <c r="H154" s="209"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -32038,8 +31892,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="204"/>
-      <c r="H155" s="204"/>
+      <c r="G155" s="209"/>
+      <c r="H155" s="209"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -32058,8 +31912,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="204"/>
-      <c r="H156" s="204"/>
+      <c r="G156" s="209"/>
+      <c r="H156" s="209"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -32078,8 +31932,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="204"/>
-      <c r="H157" s="204"/>
+      <c r="G157" s="209"/>
+      <c r="H157" s="209"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -32098,8 +31952,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="204"/>
-      <c r="H158" s="204"/>
+      <c r="G158" s="209"/>
+      <c r="H158" s="209"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -32118,8 +31972,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="204"/>
-      <c r="H159" s="204"/>
+      <c r="G159" s="209"/>
+      <c r="H159" s="209"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -32138,8 +31992,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="204"/>
-      <c r="H160" s="204"/>
+      <c r="G160" s="209"/>
+      <c r="H160" s="209"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -32158,8 +32012,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="204"/>
-      <c r="H161" s="204"/>
+      <c r="G161" s="209"/>
+      <c r="H161" s="209"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -32178,8 +32032,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="204"/>
-      <c r="H162" s="204"/>
+      <c r="G162" s="209"/>
+      <c r="H162" s="209"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -32198,8 +32052,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="204"/>
-      <c r="H163" s="204"/>
+      <c r="G163" s="209"/>
+      <c r="H163" s="209"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -32218,8 +32072,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="204"/>
-      <c r="H164" s="204"/>
+      <c r="G164" s="209"/>
+      <c r="H164" s="209"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -32238,8 +32092,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="204"/>
-      <c r="H165" s="204"/>
+      <c r="G165" s="209"/>
+      <c r="H165" s="209"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -32258,8 +32112,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="204"/>
-      <c r="H166" s="204"/>
+      <c r="G166" s="209"/>
+      <c r="H166" s="209"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -32278,8 +32132,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="204"/>
-      <c r="H167" s="204"/>
+      <c r="G167" s="209"/>
+      <c r="H167" s="209"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -32298,8 +32152,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="204"/>
-      <c r="H168" s="204"/>
+      <c r="G168" s="209"/>
+      <c r="H168" s="209"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -32318,8 +32172,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="204"/>
-      <c r="H169" s="204"/>
+      <c r="G169" s="209"/>
+      <c r="H169" s="209"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -32338,8 +32192,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="204"/>
-      <c r="H170" s="204"/>
+      <c r="G170" s="209"/>
+      <c r="H170" s="209"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -32358,8 +32212,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="204"/>
-      <c r="H171" s="204"/>
+      <c r="G171" s="209"/>
+      <c r="H171" s="209"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -32378,8 +32232,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="204"/>
-      <c r="H172" s="204"/>
+      <c r="G172" s="209"/>
+      <c r="H172" s="209"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -32398,8 +32252,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="204"/>
-      <c r="H173" s="204"/>
+      <c r="G173" s="209"/>
+      <c r="H173" s="209"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -32418,8 +32272,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="204"/>
-      <c r="H174" s="204"/>
+      <c r="G174" s="209"/>
+      <c r="H174" s="209"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -32438,8 +32292,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="204"/>
-      <c r="H175" s="204"/>
+      <c r="G175" s="209"/>
+      <c r="H175" s="209"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -32448,7 +32302,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="232" t="s">
+      <c r="C176" s="213" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -32460,10 +32314,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="235" t="s">
+      <c r="G176" s="216" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="236"/>
+      <c r="H176" s="217"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -32472,7 +32326,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="233"/>
+      <c r="C177" s="214"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -32482,8 +32336,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="237"/>
-      <c r="H177" s="238"/>
+      <c r="G177" s="218"/>
+      <c r="H177" s="219"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -32492,7 +32346,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="232" t="s">
+      <c r="C178" s="213" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -32504,8 +32358,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="204"/>
-      <c r="H178" s="204"/>
+      <c r="G178" s="209"/>
+      <c r="H178" s="209"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -32514,7 +32368,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="233"/>
+      <c r="C179" s="214"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -32524,8 +32378,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="204"/>
-      <c r="H179" s="204"/>
+      <c r="G179" s="209"/>
+      <c r="H179" s="209"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -32534,7 +32388,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="232" t="s">
+      <c r="C180" s="213" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -32546,8 +32400,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="204"/>
-      <c r="H180" s="204"/>
+      <c r="G180" s="209"/>
+      <c r="H180" s="209"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -32556,7 +32410,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="234"/>
+      <c r="C181" s="215"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -32566,8 +32420,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="204"/>
-      <c r="H181" s="204"/>
+      <c r="G181" s="209"/>
+      <c r="H181" s="209"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -32576,7 +32430,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="234"/>
+      <c r="C182" s="215"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -32586,8 +32440,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="204"/>
-      <c r="H182" s="204"/>
+      <c r="G182" s="209"/>
+      <c r="H182" s="209"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -32596,7 +32450,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="234"/>
+      <c r="C183" s="215"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -32606,8 +32460,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="204"/>
-      <c r="H183" s="204"/>
+      <c r="G183" s="209"/>
+      <c r="H183" s="209"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -32616,7 +32470,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="234"/>
+      <c r="C184" s="215"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -32626,8 +32480,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="204"/>
-      <c r="H184" s="204"/>
+      <c r="G184" s="209"/>
+      <c r="H184" s="209"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -32636,7 +32490,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="234"/>
+      <c r="C185" s="215"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -32646,8 +32500,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="204"/>
-      <c r="H185" s="204"/>
+      <c r="G185" s="209"/>
+      <c r="H185" s="209"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -32656,7 +32510,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="234"/>
+      <c r="C186" s="215"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -32666,8 +32520,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="204"/>
-      <c r="H186" s="204"/>
+      <c r="G186" s="209"/>
+      <c r="H186" s="209"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -32676,7 +32530,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="234"/>
+      <c r="C187" s="215"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -32686,8 +32540,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="204"/>
-      <c r="H187" s="204"/>
+      <c r="G187" s="209"/>
+      <c r="H187" s="209"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -32696,7 +32550,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="234"/>
+      <c r="C188" s="215"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -32706,8 +32560,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="204"/>
-      <c r="H188" s="204"/>
+      <c r="G188" s="209"/>
+      <c r="H188" s="209"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -32716,7 +32570,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="234"/>
+      <c r="C189" s="215"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -32726,8 +32580,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="204"/>
-      <c r="H189" s="204"/>
+      <c r="G189" s="209"/>
+      <c r="H189" s="209"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -32736,7 +32590,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="234"/>
+      <c r="C190" s="215"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -32746,8 +32600,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="204"/>
-      <c r="H190" s="204"/>
+      <c r="G190" s="209"/>
+      <c r="H190" s="209"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -32756,7 +32610,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="234"/>
+      <c r="C191" s="215"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -32766,8 +32620,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="204"/>
-      <c r="H191" s="204"/>
+      <c r="G191" s="209"/>
+      <c r="H191" s="209"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -32776,7 +32630,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="234"/>
+      <c r="C192" s="215"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -32786,8 +32640,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="204"/>
-      <c r="H192" s="204"/>
+      <c r="G192" s="209"/>
+      <c r="H192" s="209"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -32796,7 +32650,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="234"/>
+      <c r="C193" s="215"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -32806,8 +32660,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="204"/>
-      <c r="H193" s="204"/>
+      <c r="G193" s="209"/>
+      <c r="H193" s="209"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -32816,7 +32670,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="234"/>
+      <c r="C194" s="215"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -32826,8 +32680,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="204"/>
-      <c r="H194" s="204"/>
+      <c r="G194" s="209"/>
+      <c r="H194" s="209"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -32836,7 +32690,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="234"/>
+      <c r="C195" s="215"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -32846,8 +32700,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="204"/>
-      <c r="H195" s="204"/>
+      <c r="G195" s="209"/>
+      <c r="H195" s="209"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -32856,7 +32710,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="234"/>
+      <c r="C196" s="215"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -32866,8 +32720,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="204"/>
-      <c r="H196" s="204"/>
+      <c r="G196" s="209"/>
+      <c r="H196" s="209"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -32876,7 +32730,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="234"/>
+      <c r="C197" s="215"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -32886,8 +32740,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="204"/>
-      <c r="H197" s="204"/>
+      <c r="G197" s="209"/>
+      <c r="H197" s="209"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -32896,7 +32750,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="234"/>
+      <c r="C198" s="215"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -32906,8 +32760,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="204"/>
-      <c r="H198" s="204"/>
+      <c r="G198" s="209"/>
+      <c r="H198" s="209"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -32916,7 +32770,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="234"/>
+      <c r="C199" s="215"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -32926,8 +32780,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="204"/>
-      <c r="H199" s="204"/>
+      <c r="G199" s="209"/>
+      <c r="H199" s="209"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -32936,7 +32790,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="234"/>
+      <c r="C200" s="215"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -32946,8 +32800,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="204"/>
-      <c r="H200" s="204"/>
+      <c r="G200" s="209"/>
+      <c r="H200" s="209"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -32956,7 +32810,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="234"/>
+      <c r="C201" s="215"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -32966,8 +32820,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="204"/>
-      <c r="H201" s="204"/>
+      <c r="G201" s="209"/>
+      <c r="H201" s="209"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -32976,7 +32830,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="234"/>
+      <c r="C202" s="215"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -32986,8 +32840,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="204"/>
-      <c r="H202" s="204"/>
+      <c r="G202" s="209"/>
+      <c r="H202" s="209"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -32996,7 +32850,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="233"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -33006,8 +32860,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="204"/>
-      <c r="H203" s="204"/>
+      <c r="G203" s="209"/>
+      <c r="H203" s="209"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -33028,8 +32882,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="204"/>
-      <c r="H204" s="204"/>
+      <c r="G204" s="209"/>
+      <c r="H204" s="209"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -33048,10 +32902,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="204" t="s">
+      <c r="G205" s="209" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="204"/>
+      <c r="H205" s="209"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -33072,8 +32926,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="206"/>
-      <c r="H206" s="207"/>
+      <c r="G206" s="211"/>
+      <c r="H206" s="212"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -33094,8 +32948,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="206"/>
-      <c r="H207" s="207"/>
+      <c r="G207" s="211"/>
+      <c r="H207" s="212"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -33116,8 +32970,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="205"/>
-      <c r="H208" s="205"/>
+      <c r="G208" s="226"/>
+      <c r="H208" s="226"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -33193,13 +33047,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="221" t="s">
+      <c r="B216" s="204" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="221"/>
-      <c r="D216" s="221"/>
-      <c r="E216" s="221"/>
-      <c r="F216" s="221"/>
+      <c r="C216" s="204"/>
+      <c r="D216" s="204"/>
+      <c r="E216" s="204"/>
+      <c r="F216" s="204"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -33220,10 +33074,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="214" t="s">
+      <c r="G217" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="214"/>
+      <c r="H217" s="205"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -33240,10 +33094,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="212" t="s">
+      <c r="G218" s="210" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="204"/>
+      <c r="H218" s="209"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -33264,8 +33118,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="212"/>
-      <c r="H219" s="204"/>
+      <c r="G219" s="210"/>
+      <c r="H219" s="209"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -33284,8 +33138,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="204"/>
-      <c r="H220" s="204"/>
+      <c r="G220" s="209"/>
+      <c r="H220" s="209"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -33306,8 +33160,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="204"/>
-      <c r="H221" s="204"/>
+      <c r="G221" s="209"/>
+      <c r="H221" s="209"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -33326,8 +33180,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="204"/>
-      <c r="H222" s="204"/>
+      <c r="G222" s="209"/>
+      <c r="H222" s="209"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -33346,8 +33200,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="204"/>
-      <c r="H223" s="204"/>
+      <c r="G223" s="209"/>
+      <c r="H223" s="209"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -33490,7 +33344,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="239" t="s">
+      <c r="B231" s="206" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -33511,7 +33365,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="240"/>
+      <c r="B232" s="207"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -33528,7 +33382,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="240"/>
+      <c r="B233" s="207"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -33545,7 +33399,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="240"/>
+      <c r="B234" s="207"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -33562,7 +33416,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="240"/>
+      <c r="B235" s="207"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -33579,7 +33433,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="240"/>
+      <c r="B236" s="207"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -33596,7 +33450,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="240"/>
+      <c r="B237" s="207"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -33613,7 +33467,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="240"/>
+      <c r="B238" s="207"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -33630,7 +33484,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="240"/>
+      <c r="B239" s="207"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -33647,7 +33501,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="240"/>
+      <c r="B240" s="207"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -33664,7 +33518,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="239" t="s">
+      <c r="B241" s="206" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -33685,7 +33539,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="240"/>
+      <c r="B242" s="207"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -33702,7 +33556,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="240"/>
+      <c r="B243" s="207"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -33719,7 +33573,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="240"/>
+      <c r="B244" s="207"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -33736,7 +33590,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="240"/>
+      <c r="B245" s="207"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -33753,7 +33607,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="240"/>
+      <c r="B246" s="207"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -33770,7 +33624,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="241"/>
+      <c r="B247" s="208"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -33787,7 +33641,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="239" t="s">
+      <c r="B248" s="206" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -33808,7 +33662,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="240"/>
+      <c r="B249" s="207"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -33825,7 +33679,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="240"/>
+      <c r="B250" s="207"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -33842,7 +33696,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="240"/>
+      <c r="B251" s="207"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -33859,7 +33713,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="240"/>
+      <c r="B252" s="207"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -33876,7 +33730,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="240"/>
+      <c r="B253" s="207"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -33893,7 +33747,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="240"/>
+      <c r="B254" s="207"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -33910,7 +33764,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="240"/>
+      <c r="B255" s="207"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -33927,7 +33781,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="240"/>
+      <c r="B256" s="207"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -33944,7 +33798,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="241"/>
+      <c r="B257" s="208"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -34163,65 +34017,179 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="213" t="s">
+      <c r="A272" s="233" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="213"/>
-      <c r="C272" s="213"/>
-      <c r="D272" s="213"/>
+      <c r="B272" s="233"/>
+      <c r="C272" s="233"/>
+      <c r="D272" s="233"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="204" t="s">
+      <c r="B273" s="209" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="204"/>
-      <c r="D273" s="204"/>
+      <c r="C273" s="209"/>
+      <c r="D273" s="209"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="204" t="s">
+      <c r="B274" s="209" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="204"/>
-      <c r="D274" s="204"/>
+      <c r="C274" s="209"/>
+      <c r="D274" s="209"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="204" t="s">
+      <c r="B275" s="209" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="204"/>
-      <c r="D275" s="204"/>
+      <c r="C275" s="209"/>
+      <c r="D275" s="209"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="G191:H191"/>
+    <mergeCell ref="G192:H192"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C152:C175"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
     <mergeCell ref="G207:H207"/>
     <mergeCell ref="C176:C177"/>
     <mergeCell ref="C178:C179"/>
@@ -34246,137 +34214,23 @@
     <mergeCell ref="G178:H178"/>
     <mergeCell ref="G179:H179"/>
     <mergeCell ref="G193:H193"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="G191:H191"/>
-    <mergeCell ref="G192:H192"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C152:C175"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2D5AA913-6A1D-4080-9EBF-DC72E7DBF835}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB5CDC01-EB1B-45A0-ABEB-ADF9A86A08DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3855,32 +3855,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3903,71 +3960,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -20416,6 +20416,197 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3017520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Rectangle 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C317DA-6FB9-41B7-B9B8-68C4E35EF160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="396240"/>
+          <a:ext cx="2247900" cy="1249680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Owner</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Chunzhao</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Description:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>List orders</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>订单列表</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>order list</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -28111,8 +28302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D625"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29344,13 +29535,13 @@
       <c r="A17" t="s">
         <v>179</v>
       </c>
-      <c r="B17" s="204" t="s">
+      <c r="B17" s="221" t="s">
         <v>537</v>
       </c>
-      <c r="C17" s="204"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="204"/>
-      <c r="F17" s="204"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
@@ -29620,13 +29811,13 @@
       <c r="A34" t="s">
         <v>509</v>
       </c>
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="221" t="s">
         <v>706</v>
       </c>
-      <c r="C34" s="204"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="204"/>
-      <c r="F34" s="204"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="92" t="s">
@@ -29647,10 +29838,10 @@
       <c r="F35" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H35" s="205"/>
+      <c r="H35" s="214"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="103">
@@ -29669,8 +29860,8 @@
       <c r="F36" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95">
@@ -29689,8 +29880,8 @@
       <c r="F37" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G37" s="209"/>
-      <c r="H37" s="209"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="122">
@@ -29709,8 +29900,8 @@
       <c r="F38" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G38" s="209"/>
-      <c r="H38" s="209"/>
+      <c r="G38" s="204"/>
+      <c r="H38" s="204"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="122">
@@ -29729,8 +29920,8 @@
       <c r="F39" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G39" s="227"/>
-      <c r="H39" s="227"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="222"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="122">
@@ -29749,8 +29940,8 @@
       <c r="F40" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
+      <c r="G40" s="222"/>
+      <c r="H40" s="222"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="122">
@@ -29769,10 +29960,10 @@
       <c r="F41" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G41" s="228" t="s">
+      <c r="G41" s="223" t="s">
         <v>579</v>
       </c>
-      <c r="H41" s="229"/>
+      <c r="H41" s="224"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="124">
@@ -29791,10 +29982,10 @@
       <c r="F42" s="154" t="s">
         <v>559</v>
       </c>
-      <c r="G42" s="228" t="s">
+      <c r="G42" s="223" t="s">
         <v>752</v>
       </c>
-      <c r="H42" s="229"/>
+      <c r="H42" s="224"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="122">
@@ -29813,10 +30004,10 @@
       <c r="F43" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="G43" s="228" t="s">
+      <c r="G43" s="223" t="s">
         <v>751</v>
       </c>
-      <c r="H43" s="229"/>
+      <c r="H43" s="224"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="122">
@@ -29835,8 +30026,8 @@
       <c r="F44" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G44" s="230"/>
-      <c r="H44" s="231"/>
+      <c r="G44" s="225"/>
+      <c r="H44" s="226"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="122">
@@ -29857,10 +30048,10 @@
       <c r="F45" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G45" s="228" t="s">
+      <c r="G45" s="223" t="s">
         <v>574</v>
       </c>
-      <c r="H45" s="229"/>
+      <c r="H45" s="224"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="122">
@@ -29881,8 +30072,8 @@
       <c r="F46" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G46" s="209"/>
-      <c r="H46" s="209"/>
+      <c r="G46" s="204"/>
+      <c r="H46" s="204"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="122">
@@ -29903,8 +30094,8 @@
       <c r="F47" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="122">
@@ -29925,10 +30116,10 @@
       <c r="F48" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G48" s="209" t="s">
+      <c r="G48" s="204" t="s">
         <v>576</v>
       </c>
-      <c r="H48" s="209"/>
+      <c r="H48" s="204"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="122">
@@ -29947,8 +30138,8 @@
       <c r="F49" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G49" s="226"/>
-      <c r="H49" s="226"/>
+      <c r="G49" s="205"/>
+      <c r="H49" s="205"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="122">
@@ -29967,8 +30158,8 @@
       <c r="F50" s="122" t="s">
         <v>501</v>
       </c>
-      <c r="G50" s="226"/>
-      <c r="H50" s="226"/>
+      <c r="G50" s="205"/>
+      <c r="H50" s="205"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="122">
@@ -29989,8 +30180,8 @@
       <c r="F51" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G51" s="226"/>
-      <c r="H51" s="226"/>
+      <c r="G51" s="205"/>
+      <c r="H51" s="205"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="122">
@@ -30011,8 +30202,8 @@
       <c r="F52" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G52" s="226"/>
-      <c r="H52" s="226"/>
+      <c r="G52" s="205"/>
+      <c r="H52" s="205"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="122">
@@ -30033,8 +30224,8 @@
       <c r="F53" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G53" s="226"/>
-      <c r="H53" s="226"/>
+      <c r="G53" s="205"/>
+      <c r="H53" s="205"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="122">
@@ -30055,8 +30246,8 @@
       <c r="F54" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G54" s="226"/>
-      <c r="H54" s="226"/>
+      <c r="G54" s="205"/>
+      <c r="H54" s="205"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="122">
@@ -30077,8 +30268,8 @@
       <c r="F55" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G55" s="226"/>
-      <c r="H55" s="226"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="122">
@@ -30097,8 +30288,8 @@
       <c r="F56" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G56" s="226"/>
-      <c r="H56" s="226"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="122">
@@ -30117,8 +30308,8 @@
       <c r="F57" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G57" s="226"/>
-      <c r="H57" s="226"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="205"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="122">
@@ -30137,8 +30328,8 @@
       <c r="F58" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G58" s="226"/>
-      <c r="H58" s="226"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="140" t="s">
@@ -30159,8 +30350,8 @@
       <c r="F59" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G59" s="226"/>
-      <c r="H59" s="226"/>
+      <c r="G59" s="205"/>
+      <c r="H59" s="205"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="97"/>
@@ -30271,13 +30462,13 @@
       <c r="A70" t="s">
         <v>526</v>
       </c>
-      <c r="B70" s="204" t="s">
+      <c r="B70" s="221" t="s">
         <v>535</v>
       </c>
-      <c r="C70" s="204"/>
-      <c r="D70" s="204"/>
-      <c r="E70" s="204"/>
-      <c r="F70" s="204"/>
+      <c r="C70" s="221"/>
+      <c r="D70" s="221"/>
+      <c r="E70" s="221"/>
+      <c r="F70" s="221"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="92" t="s">
@@ -30298,10 +30489,10 @@
       <c r="F71" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="232" t="s">
+      <c r="G71" s="227" t="s">
         <v>167</v>
       </c>
-      <c r="H71" s="232"/>
+      <c r="H71" s="227"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="103">
@@ -30322,10 +30513,10 @@
       <c r="F72" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G72" s="210" t="s">
+      <c r="G72" s="212" t="s">
         <v>728</v>
       </c>
-      <c r="H72" s="209"/>
+      <c r="H72" s="204"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="103">
@@ -30346,10 +30537,10 @@
       <c r="F73" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G73" s="209" t="s">
+      <c r="G73" s="204" t="s">
         <v>757</v>
       </c>
-      <c r="H73" s="209"/>
+      <c r="H73" s="204"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="103">
@@ -30370,8 +30561,8 @@
       <c r="F74" s="141" t="s">
         <v>501</v>
       </c>
-      <c r="G74" s="209"/>
-      <c r="H74" s="209"/>
+      <c r="G74" s="204"/>
+      <c r="H74" s="204"/>
     </row>
     <row r="75" spans="1:8" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="145">
@@ -30392,10 +30583,10 @@
       <c r="F75" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G75" s="224" t="s">
+      <c r="G75" s="210" t="s">
         <v>760</v>
       </c>
-      <c r="H75" s="225"/>
+      <c r="H75" s="211"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="145">
@@ -30416,8 +30607,8 @@
       <c r="F76" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G76" s="209"/>
-      <c r="H76" s="209"/>
+      <c r="G76" s="204"/>
+      <c r="H76" s="204"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="145">
@@ -30436,8 +30627,8 @@
       <c r="F77" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G77" s="209"/>
-      <c r="H77" s="209"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="145">
@@ -30456,8 +30647,8 @@
       <c r="F78" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G78" s="224"/>
-      <c r="H78" s="225"/>
+      <c r="G78" s="210"/>
+      <c r="H78" s="211"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="145">
@@ -30476,8 +30667,8 @@
       <c r="F79" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G79" s="209"/>
-      <c r="H79" s="209"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="145">
@@ -30496,8 +30687,8 @@
       <c r="F80" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G80" s="209"/>
-      <c r="H80" s="209"/>
+      <c r="G80" s="204"/>
+      <c r="H80" s="204"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="145">
@@ -30516,8 +30707,8 @@
       <c r="F81" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G81" s="209"/>
-      <c r="H81" s="209"/>
+      <c r="G81" s="204"/>
+      <c r="H81" s="204"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="145">
@@ -30536,8 +30727,8 @@
       <c r="F82" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G82" s="209"/>
-      <c r="H82" s="209"/>
+      <c r="G82" s="204"/>
+      <c r="H82" s="204"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="145">
@@ -30556,8 +30747,8 @@
       <c r="F83" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G83" s="209"/>
-      <c r="H83" s="209"/>
+      <c r="G83" s="204"/>
+      <c r="H83" s="204"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="145">
@@ -30576,8 +30767,8 @@
       <c r="F84" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G84" s="209"/>
-      <c r="H84" s="209"/>
+      <c r="G84" s="204"/>
+      <c r="H84" s="204"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="145">
@@ -30596,8 +30787,8 @@
       <c r="F85" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G85" s="209"/>
-      <c r="H85" s="209"/>
+      <c r="G85" s="204"/>
+      <c r="H85" s="204"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="145">
@@ -30616,8 +30807,8 @@
       <c r="F86" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G86" s="209"/>
-      <c r="H86" s="209"/>
+      <c r="G86" s="204"/>
+      <c r="H86" s="204"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="145">
@@ -30636,8 +30827,8 @@
       <c r="F87" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G87" s="209"/>
-      <c r="H87" s="209"/>
+      <c r="G87" s="204"/>
+      <c r="H87" s="204"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="145">
@@ -30656,8 +30847,8 @@
       <c r="F88" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G88" s="209"/>
-      <c r="H88" s="209"/>
+      <c r="G88" s="204"/>
+      <c r="H88" s="204"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="145">
@@ -30676,8 +30867,8 @@
       <c r="F89" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G89" s="209"/>
-      <c r="H89" s="209"/>
+      <c r="G89" s="204"/>
+      <c r="H89" s="204"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="145">
@@ -30696,8 +30887,8 @@
       <c r="F90" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G90" s="209"/>
-      <c r="H90" s="209"/>
+      <c r="G90" s="204"/>
+      <c r="H90" s="204"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="145">
@@ -30716,8 +30907,8 @@
       <c r="F91" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G91" s="209"/>
-      <c r="H91" s="209"/>
+      <c r="G91" s="204"/>
+      <c r="H91" s="204"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="145">
@@ -30736,8 +30927,8 @@
       <c r="F92" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G92" s="209"/>
-      <c r="H92" s="209"/>
+      <c r="G92" s="204"/>
+      <c r="H92" s="204"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="145">
@@ -30756,8 +30947,8 @@
       <c r="F93" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G93" s="209"/>
-      <c r="H93" s="209"/>
+      <c r="G93" s="204"/>
+      <c r="H93" s="204"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="145">
@@ -30776,8 +30967,8 @@
       <c r="F94" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G94" s="211"/>
-      <c r="H94" s="212"/>
+      <c r="G94" s="206"/>
+      <c r="H94" s="207"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="145">
@@ -30796,8 +30987,8 @@
       <c r="F95" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G95" s="211"/>
-      <c r="H95" s="212"/>
+      <c r="G95" s="206"/>
+      <c r="H95" s="207"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="145">
@@ -30816,8 +31007,8 @@
       <c r="F96" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G96" s="211"/>
-      <c r="H96" s="212"/>
+      <c r="G96" s="206"/>
+      <c r="H96" s="207"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="145">
@@ -30838,8 +31029,8 @@
       <c r="F97" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G97" s="211"/>
-      <c r="H97" s="212"/>
+      <c r="G97" s="206"/>
+      <c r="H97" s="207"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="145">
@@ -30860,8 +31051,8 @@
       <c r="F98" s="151" t="s">
         <v>501</v>
       </c>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
+      <c r="G98" s="205"/>
+      <c r="H98" s="205"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="145">
@@ -30882,10 +31073,10 @@
       <c r="F99" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G99" s="209" t="s">
+      <c r="G99" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H99" s="209"/>
+      <c r="H99" s="204"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="145">
@@ -30906,10 +31097,10 @@
       <c r="F100" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G100" s="209" t="s">
+      <c r="G100" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H100" s="209"/>
+      <c r="H100" s="204"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="145">
@@ -30930,10 +31121,10 @@
       <c r="F101" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G101" s="209" t="s">
+      <c r="G101" s="204" t="s">
         <v>754</v>
       </c>
-      <c r="H101" s="209"/>
+      <c r="H101" s="204"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="153">
@@ -30952,8 +31143,8 @@
       <c r="F102" s="55" t="s">
         <v>569</v>
       </c>
-      <c r="G102" s="209"/>
-      <c r="H102" s="209"/>
+      <c r="G102" s="204"/>
+      <c r="H102" s="204"/>
     </row>
     <row r="103" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="110">
@@ -30972,8 +31163,8 @@
       <c r="F103" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G103" s="209"/>
-      <c r="H103" s="209"/>
+      <c r="G103" s="204"/>
+      <c r="H103" s="204"/>
     </row>
     <row r="104" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="110">
@@ -30994,8 +31185,8 @@
       <c r="F104" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G104" s="209"/>
-      <c r="H104" s="209"/>
+      <c r="G104" s="204"/>
+      <c r="H104" s="204"/>
     </row>
     <row r="105" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="110">
@@ -31014,8 +31205,8 @@
       <c r="F105" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G105" s="209"/>
-      <c r="H105" s="209"/>
+      <c r="G105" s="204"/>
+      <c r="H105" s="204"/>
     </row>
     <row r="106" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="110">
@@ -31034,8 +31225,8 @@
       <c r="F106" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G106" s="209"/>
-      <c r="H106" s="209"/>
+      <c r="G106" s="204"/>
+      <c r="H106" s="204"/>
     </row>
     <row r="107" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="110">
@@ -31054,8 +31245,8 @@
       <c r="F107" s="154" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="209"/>
-      <c r="H107" s="209"/>
+      <c r="G107" s="204"/>
+      <c r="H107" s="204"/>
     </row>
     <row r="108" spans="1:8" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
@@ -31076,8 +31267,8 @@
       <c r="F108" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G108" s="209"/>
-      <c r="H108" s="209"/>
+      <c r="G108" s="204"/>
+      <c r="H108" s="204"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="110">
@@ -31098,10 +31289,10 @@
       <c r="F109" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G109" s="234" t="s">
+      <c r="G109" s="215" t="s">
         <v>788</v>
       </c>
-      <c r="H109" s="235"/>
+      <c r="H109" s="216"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="150">
@@ -31118,8 +31309,8 @@
       <c r="F110" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G110" s="236"/>
-      <c r="H110" s="237"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="218"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="110">
@@ -31136,8 +31327,8 @@
       <c r="F111" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G111" s="236"/>
-      <c r="H111" s="237"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="218"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="150">
@@ -31154,8 +31345,8 @@
       <c r="F112" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G112" s="236"/>
-      <c r="H112" s="237"/>
+      <c r="G112" s="217"/>
+      <c r="H112" s="218"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="110">
@@ -31172,8 +31363,8 @@
       <c r="F113" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G113" s="236"/>
-      <c r="H113" s="237"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="218"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="150">
@@ -31190,8 +31381,8 @@
       <c r="F114" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G114" s="236"/>
-      <c r="H114" s="237"/>
+      <c r="G114" s="217"/>
+      <c r="H114" s="218"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="110">
@@ -31208,8 +31399,8 @@
       <c r="F115" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G115" s="236"/>
-      <c r="H115" s="237"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="218"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="150">
@@ -31226,8 +31417,8 @@
       <c r="F116" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G116" s="236"/>
-      <c r="H116" s="237"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="218"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="110">
@@ -31244,8 +31435,8 @@
       <c r="F117" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G117" s="236"/>
-      <c r="H117" s="237"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="218"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="150">
@@ -31262,8 +31453,8 @@
       <c r="F118" s="147" t="s">
         <v>559</v>
       </c>
-      <c r="G118" s="236"/>
-      <c r="H118" s="237"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="218"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="110">
@@ -31280,8 +31471,8 @@
       <c r="F119" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G119" s="236"/>
-      <c r="H119" s="237"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="218"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="150">
@@ -31298,8 +31489,8 @@
       <c r="F120" s="147" t="s">
         <v>569</v>
       </c>
-      <c r="G120" s="236"/>
-      <c r="H120" s="237"/>
+      <c r="G120" s="217"/>
+      <c r="H120" s="218"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="110">
@@ -31316,8 +31507,8 @@
       <c r="F121" s="147" t="s">
         <v>501</v>
       </c>
-      <c r="G121" s="238"/>
-      <c r="H121" s="239"/>
+      <c r="G121" s="219"/>
+      <c r="H121" s="220"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="142"/>
@@ -31453,13 +31644,13 @@
       <c r="A135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" s="204" t="s">
+      <c r="B135" s="221" t="s">
         <v>545</v>
       </c>
-      <c r="C135" s="204"/>
-      <c r="D135" s="204"/>
-      <c r="E135" s="204"/>
-      <c r="F135" s="204"/>
+      <c r="C135" s="221"/>
+      <c r="D135" s="221"/>
+      <c r="E135" s="221"/>
+      <c r="F135" s="221"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="92" t="s">
@@ -31480,10 +31671,10 @@
       <c r="F136" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G136" s="205" t="s">
+      <c r="G136" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H136" s="205"/>
+      <c r="H136" s="214"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="110">
@@ -31502,8 +31693,8 @@
       <c r="F137" s="174" t="s">
         <v>892</v>
       </c>
-      <c r="G137" s="211"/>
-      <c r="H137" s="212"/>
+      <c r="G137" s="206"/>
+      <c r="H137" s="207"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="110">
@@ -31524,10 +31715,10 @@
       <c r="F138" s="159" t="s">
         <v>842</v>
       </c>
-      <c r="G138" s="210" t="s">
+      <c r="G138" s="212" t="s">
         <v>845</v>
       </c>
-      <c r="H138" s="209"/>
+      <c r="H138" s="204"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="110">
@@ -31548,8 +31739,8 @@
       <c r="F139" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="G139" s="209"/>
-      <c r="H139" s="209"/>
+      <c r="G139" s="204"/>
+      <c r="H139" s="204"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="110">
@@ -31558,7 +31749,7 @@
       <c r="B140" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="C140" s="240" t="s">
+      <c r="C140" s="208" t="s">
         <v>881</v>
       </c>
       <c r="D140" s="161" t="s">
@@ -31570,10 +31761,10 @@
       <c r="F140" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G140" s="220" t="s">
+      <c r="G140" s="228" t="s">
         <v>898</v>
       </c>
-      <c r="H140" s="221"/>
+      <c r="H140" s="229"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="110">
@@ -31582,7 +31773,7 @@
       <c r="B141" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="C141" s="241"/>
+      <c r="C141" s="209"/>
       <c r="D141" s="161" t="s">
         <v>797</v>
       </c>
@@ -31592,8 +31783,8 @@
       <c r="F141" s="179" t="s">
         <v>559</v>
       </c>
-      <c r="G141" s="222"/>
-      <c r="H141" s="223"/>
+      <c r="G141" s="230"/>
+      <c r="H141" s="231"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="110">
@@ -31602,7 +31793,7 @@
       <c r="B142" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C142" s="240" t="s">
+      <c r="C142" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D142" s="20" t="s">
@@ -31614,8 +31805,8 @@
       <c r="F142" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="209"/>
-      <c r="H142" s="209"/>
+      <c r="G142" s="204"/>
+      <c r="H142" s="204"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="110">
@@ -31624,7 +31815,7 @@
       <c r="B143" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C143" s="241"/>
+      <c r="C143" s="209"/>
       <c r="D143" s="20" t="s">
         <v>799</v>
       </c>
@@ -31634,8 +31825,8 @@
       <c r="F143" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G143" s="209"/>
-      <c r="H143" s="209"/>
+      <c r="G143" s="204"/>
+      <c r="H143" s="204"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="110">
@@ -31644,7 +31835,7 @@
       <c r="B144" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C144" s="240" t="s">
+      <c r="C144" s="208" t="s">
         <v>516</v>
       </c>
       <c r="D144" s="20" t="s">
@@ -31656,8 +31847,8 @@
       <c r="F144" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G144" s="211"/>
-      <c r="H144" s="212"/>
+      <c r="G144" s="206"/>
+      <c r="H144" s="207"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="110">
@@ -31666,7 +31857,7 @@
       <c r="B145" s="20" t="s">
         <v>806</v>
       </c>
-      <c r="C145" s="241"/>
+      <c r="C145" s="209"/>
       <c r="D145" s="36" t="s">
         <v>805</v>
       </c>
@@ -31676,8 +31867,8 @@
       <c r="F145" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G145" s="209"/>
-      <c r="H145" s="209"/>
+      <c r="G145" s="204"/>
+      <c r="H145" s="204"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="110">
@@ -31698,8 +31889,8 @@
       <c r="F146" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G146" s="209"/>
-      <c r="H146" s="209"/>
+      <c r="G146" s="204"/>
+      <c r="H146" s="204"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="110">
@@ -31718,8 +31909,8 @@
       <c r="F147" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G147" s="209"/>
-      <c r="H147" s="209"/>
+      <c r="G147" s="204"/>
+      <c r="H147" s="204"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="110">
@@ -31738,8 +31929,8 @@
       <c r="F148" s="159" t="s">
         <v>501</v>
       </c>
-      <c r="G148" s="209"/>
-      <c r="H148" s="209"/>
+      <c r="G148" s="204"/>
+      <c r="H148" s="204"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="110">
@@ -31760,10 +31951,10 @@
       <c r="F149" s="159" t="s">
         <v>559</v>
       </c>
-      <c r="G149" s="209" t="s">
+      <c r="G149" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H149" s="209"/>
+      <c r="H149" s="204"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="110">
@@ -31784,10 +31975,10 @@
       <c r="F150" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G150" s="209" t="s">
+      <c r="G150" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H150" s="209"/>
+      <c r="H150" s="204"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="110">
@@ -31808,10 +31999,10 @@
       <c r="F151" s="175" t="s">
         <v>559</v>
       </c>
-      <c r="G151" s="209" t="s">
+      <c r="G151" s="204" t="s">
         <v>887</v>
       </c>
-      <c r="H151" s="209"/>
+      <c r="H151" s="204"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="110">
@@ -31832,8 +32023,8 @@
       <c r="F152" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G152" s="209"/>
-      <c r="H152" s="209"/>
+      <c r="G152" s="204"/>
+      <c r="H152" s="204"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="110">
@@ -31852,8 +32043,8 @@
       <c r="F153" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G153" s="209"/>
-      <c r="H153" s="209"/>
+      <c r="G153" s="204"/>
+      <c r="H153" s="204"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="110">
@@ -31872,8 +32063,8 @@
       <c r="F154" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="209"/>
-      <c r="H154" s="209"/>
+      <c r="G154" s="204"/>
+      <c r="H154" s="204"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="110">
@@ -31892,8 +32083,8 @@
       <c r="F155" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G155" s="209"/>
-      <c r="H155" s="209"/>
+      <c r="G155" s="204"/>
+      <c r="H155" s="204"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="110">
@@ -31912,8 +32103,8 @@
       <c r="F156" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G156" s="209"/>
-      <c r="H156" s="209"/>
+      <c r="G156" s="204"/>
+      <c r="H156" s="204"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="110">
@@ -31932,8 +32123,8 @@
       <c r="F157" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G157" s="209"/>
-      <c r="H157" s="209"/>
+      <c r="G157" s="204"/>
+      <c r="H157" s="204"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="110">
@@ -31952,8 +32143,8 @@
       <c r="F158" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G158" s="209"/>
-      <c r="H158" s="209"/>
+      <c r="G158" s="204"/>
+      <c r="H158" s="204"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="110">
@@ -31972,8 +32163,8 @@
       <c r="F159" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G159" s="209"/>
-      <c r="H159" s="209"/>
+      <c r="G159" s="204"/>
+      <c r="H159" s="204"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="110">
@@ -31992,8 +32183,8 @@
       <c r="F160" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G160" s="209"/>
-      <c r="H160" s="209"/>
+      <c r="G160" s="204"/>
+      <c r="H160" s="204"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="110">
@@ -32012,8 +32203,8 @@
       <c r="F161" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G161" s="209"/>
-      <c r="H161" s="209"/>
+      <c r="G161" s="204"/>
+      <c r="H161" s="204"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="110">
@@ -32032,8 +32223,8 @@
       <c r="F162" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G162" s="209"/>
-      <c r="H162" s="209"/>
+      <c r="G162" s="204"/>
+      <c r="H162" s="204"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="110">
@@ -32052,8 +32243,8 @@
       <c r="F163" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G163" s="209"/>
-      <c r="H163" s="209"/>
+      <c r="G163" s="204"/>
+      <c r="H163" s="204"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="110">
@@ -32072,8 +32263,8 @@
       <c r="F164" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G164" s="209"/>
-      <c r="H164" s="209"/>
+      <c r="G164" s="204"/>
+      <c r="H164" s="204"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="110">
@@ -32092,8 +32283,8 @@
       <c r="F165" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G165" s="209"/>
-      <c r="H165" s="209"/>
+      <c r="G165" s="204"/>
+      <c r="H165" s="204"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="110">
@@ -32112,8 +32303,8 @@
       <c r="F166" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="209"/>
-      <c r="H166" s="209"/>
+      <c r="G166" s="204"/>
+      <c r="H166" s="204"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="110">
@@ -32132,8 +32323,8 @@
       <c r="F167" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G167" s="209"/>
-      <c r="H167" s="209"/>
+      <c r="G167" s="204"/>
+      <c r="H167" s="204"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="110">
@@ -32152,8 +32343,8 @@
       <c r="F168" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G168" s="209"/>
-      <c r="H168" s="209"/>
+      <c r="G168" s="204"/>
+      <c r="H168" s="204"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="110">
@@ -32172,8 +32363,8 @@
       <c r="F169" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G169" s="209"/>
-      <c r="H169" s="209"/>
+      <c r="G169" s="204"/>
+      <c r="H169" s="204"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="110">
@@ -32192,8 +32383,8 @@
       <c r="F170" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G170" s="209"/>
-      <c r="H170" s="209"/>
+      <c r="G170" s="204"/>
+      <c r="H170" s="204"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="110">
@@ -32212,8 +32403,8 @@
       <c r="F171" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G171" s="209"/>
-      <c r="H171" s="209"/>
+      <c r="G171" s="204"/>
+      <c r="H171" s="204"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="110">
@@ -32232,8 +32423,8 @@
       <c r="F172" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G172" s="209"/>
-      <c r="H172" s="209"/>
+      <c r="G172" s="204"/>
+      <c r="H172" s="204"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="110">
@@ -32252,8 +32443,8 @@
       <c r="F173" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G173" s="209"/>
-      <c r="H173" s="209"/>
+      <c r="G173" s="204"/>
+      <c r="H173" s="204"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="110">
@@ -32272,8 +32463,8 @@
       <c r="F174" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G174" s="209"/>
-      <c r="H174" s="209"/>
+      <c r="G174" s="204"/>
+      <c r="H174" s="204"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="110">
@@ -32292,8 +32483,8 @@
       <c r="F175" s="170" t="s">
         <v>501</v>
       </c>
-      <c r="G175" s="209"/>
-      <c r="H175" s="209"/>
+      <c r="G175" s="204"/>
+      <c r="H175" s="204"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="163">
@@ -32302,7 +32493,7 @@
       <c r="B176" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="C176" s="213" t="s">
+      <c r="C176" s="232" t="s">
         <v>516</v>
       </c>
       <c r="D176" s="20" t="s">
@@ -32314,10 +32505,10 @@
       <c r="F176" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G176" s="216" t="s">
+      <c r="G176" s="235" t="s">
         <v>893</v>
       </c>
-      <c r="H176" s="217"/>
+      <c r="H176" s="236"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="163">
@@ -32326,7 +32517,7 @@
       <c r="B177" s="20" t="s">
         <v>849</v>
       </c>
-      <c r="C177" s="214"/>
+      <c r="C177" s="233"/>
       <c r="D177" s="20" t="s">
         <v>848</v>
       </c>
@@ -32336,8 +32527,8 @@
       <c r="F177" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="G177" s="218"/>
-      <c r="H177" s="219"/>
+      <c r="G177" s="237"/>
+      <c r="H177" s="238"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="163">
@@ -32346,7 +32537,7 @@
       <c r="B178" s="20" t="s">
         <v>852</v>
       </c>
-      <c r="C178" s="213" t="s">
+      <c r="C178" s="232" t="s">
         <v>634</v>
       </c>
       <c r="D178" s="20" t="s">
@@ -32358,8 +32549,8 @@
       <c r="F178" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G178" s="209"/>
-      <c r="H178" s="209"/>
+      <c r="G178" s="204"/>
+      <c r="H178" s="204"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="163">
@@ -32368,7 +32559,7 @@
       <c r="B179" s="20" t="s">
         <v>853</v>
       </c>
-      <c r="C179" s="214"/>
+      <c r="C179" s="233"/>
       <c r="D179" s="20" t="s">
         <v>851</v>
       </c>
@@ -32378,8 +32569,8 @@
       <c r="F179" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G179" s="209"/>
-      <c r="H179" s="209"/>
+      <c r="G179" s="204"/>
+      <c r="H179" s="204"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="163">
@@ -32388,7 +32579,7 @@
       <c r="B180" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C180" s="213" t="s">
+      <c r="C180" s="232" t="s">
         <v>770</v>
       </c>
       <c r="D180" s="9" t="s">
@@ -32400,8 +32591,8 @@
       <c r="F180" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G180" s="209"/>
-      <c r="H180" s="209"/>
+      <c r="G180" s="204"/>
+      <c r="H180" s="204"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="163">
@@ -32410,7 +32601,7 @@
       <c r="B181" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C181" s="215"/>
+      <c r="C181" s="234"/>
       <c r="D181" s="9" t="s">
         <v>855</v>
       </c>
@@ -32420,8 +32611,8 @@
       <c r="F181" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G181" s="209"/>
-      <c r="H181" s="209"/>
+      <c r="G181" s="204"/>
+      <c r="H181" s="204"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="163">
@@ -32430,7 +32621,7 @@
       <c r="B182" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C182" s="215"/>
+      <c r="C182" s="234"/>
       <c r="D182" s="9" t="s">
         <v>856</v>
       </c>
@@ -32440,8 +32631,8 @@
       <c r="F182" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G182" s="209"/>
-      <c r="H182" s="209"/>
+      <c r="G182" s="204"/>
+      <c r="H182" s="204"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="163">
@@ -32450,7 +32641,7 @@
       <c r="B183" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C183" s="215"/>
+      <c r="C183" s="234"/>
       <c r="D183" s="9" t="s">
         <v>857</v>
       </c>
@@ -32460,8 +32651,8 @@
       <c r="F183" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="209"/>
-      <c r="H183" s="209"/>
+      <c r="G183" s="204"/>
+      <c r="H183" s="204"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="163">
@@ -32470,7 +32661,7 @@
       <c r="B184" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C184" s="215"/>
+      <c r="C184" s="234"/>
       <c r="D184" s="9" t="s">
         <v>858</v>
       </c>
@@ -32480,8 +32671,8 @@
       <c r="F184" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G184" s="209"/>
-      <c r="H184" s="209"/>
+      <c r="G184" s="204"/>
+      <c r="H184" s="204"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="163">
@@ -32490,7 +32681,7 @@
       <c r="B185" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C185" s="215"/>
+      <c r="C185" s="234"/>
       <c r="D185" s="9" t="s">
         <v>859</v>
       </c>
@@ -32500,8 +32691,8 @@
       <c r="F185" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G185" s="209"/>
-      <c r="H185" s="209"/>
+      <c r="G185" s="204"/>
+      <c r="H185" s="204"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="163">
@@ -32510,7 +32701,7 @@
       <c r="B186" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C186" s="215"/>
+      <c r="C186" s="234"/>
       <c r="D186" s="9" t="s">
         <v>860</v>
       </c>
@@ -32520,8 +32711,8 @@
       <c r="F186" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G186" s="209"/>
-      <c r="H186" s="209"/>
+      <c r="G186" s="204"/>
+      <c r="H186" s="204"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="163">
@@ -32530,7 +32721,7 @@
       <c r="B187" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C187" s="215"/>
+      <c r="C187" s="234"/>
       <c r="D187" s="9" t="s">
         <v>861</v>
       </c>
@@ -32540,8 +32731,8 @@
       <c r="F187" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G187" s="209"/>
-      <c r="H187" s="209"/>
+      <c r="G187" s="204"/>
+      <c r="H187" s="204"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="163">
@@ -32550,7 +32741,7 @@
       <c r="B188" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C188" s="215"/>
+      <c r="C188" s="234"/>
       <c r="D188" s="9" t="s">
         <v>862</v>
       </c>
@@ -32560,8 +32751,8 @@
       <c r="F188" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G188" s="209"/>
-      <c r="H188" s="209"/>
+      <c r="G188" s="204"/>
+      <c r="H188" s="204"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="163">
@@ -32570,7 +32761,7 @@
       <c r="B189" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C189" s="215"/>
+      <c r="C189" s="234"/>
       <c r="D189" s="9" t="s">
         <v>863</v>
       </c>
@@ -32580,8 +32771,8 @@
       <c r="F189" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G189" s="209"/>
-      <c r="H189" s="209"/>
+      <c r="G189" s="204"/>
+      <c r="H189" s="204"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="163">
@@ -32590,7 +32781,7 @@
       <c r="B190" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C190" s="215"/>
+      <c r="C190" s="234"/>
       <c r="D190" s="9" t="s">
         <v>864</v>
       </c>
@@ -32600,8 +32791,8 @@
       <c r="F190" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G190" s="209"/>
-      <c r="H190" s="209"/>
+      <c r="G190" s="204"/>
+      <c r="H190" s="204"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="163">
@@ -32610,7 +32801,7 @@
       <c r="B191" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C191" s="215"/>
+      <c r="C191" s="234"/>
       <c r="D191" s="9" t="s">
         <v>865</v>
       </c>
@@ -32620,8 +32811,8 @@
       <c r="F191" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G191" s="209"/>
-      <c r="H191" s="209"/>
+      <c r="G191" s="204"/>
+      <c r="H191" s="204"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="163">
@@ -32630,7 +32821,7 @@
       <c r="B192" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C192" s="215"/>
+      <c r="C192" s="234"/>
       <c r="D192" s="9" t="s">
         <v>866</v>
       </c>
@@ -32640,8 +32831,8 @@
       <c r="F192" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G192" s="209"/>
-      <c r="H192" s="209"/>
+      <c r="G192" s="204"/>
+      <c r="H192" s="204"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="163">
@@ -32650,7 +32841,7 @@
       <c r="B193" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C193" s="215"/>
+      <c r="C193" s="234"/>
       <c r="D193" s="9" t="s">
         <v>867</v>
       </c>
@@ -32660,8 +32851,8 @@
       <c r="F193" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G193" s="209"/>
-      <c r="H193" s="209"/>
+      <c r="G193" s="204"/>
+      <c r="H193" s="204"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="163">
@@ -32670,7 +32861,7 @@
       <c r="B194" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C194" s="215"/>
+      <c r="C194" s="234"/>
       <c r="D194" s="9" t="s">
         <v>868</v>
       </c>
@@ -32680,8 +32871,8 @@
       <c r="F194" s="164" t="s">
         <v>883</v>
       </c>
-      <c r="G194" s="209"/>
-      <c r="H194" s="209"/>
+      <c r="G194" s="204"/>
+      <c r="H194" s="204"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="163">
@@ -32690,7 +32881,7 @@
       <c r="B195" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C195" s="215"/>
+      <c r="C195" s="234"/>
       <c r="D195" s="9" t="s">
         <v>869</v>
       </c>
@@ -32700,8 +32891,8 @@
       <c r="F195" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G195" s="209"/>
-      <c r="H195" s="209"/>
+      <c r="G195" s="204"/>
+      <c r="H195" s="204"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="163">
@@ -32710,7 +32901,7 @@
       <c r="B196" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C196" s="215"/>
+      <c r="C196" s="234"/>
       <c r="D196" s="9" t="s">
         <v>870</v>
       </c>
@@ -32720,8 +32911,8 @@
       <c r="F196" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G196" s="209"/>
-      <c r="H196" s="209"/>
+      <c r="G196" s="204"/>
+      <c r="H196" s="204"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="163">
@@ -32730,7 +32921,7 @@
       <c r="B197" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C197" s="215"/>
+      <c r="C197" s="234"/>
       <c r="D197" s="9" t="s">
         <v>871</v>
       </c>
@@ -32740,8 +32931,8 @@
       <c r="F197" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G197" s="209"/>
-      <c r="H197" s="209"/>
+      <c r="G197" s="204"/>
+      <c r="H197" s="204"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="163">
@@ -32750,7 +32941,7 @@
       <c r="B198" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C198" s="215"/>
+      <c r="C198" s="234"/>
       <c r="D198" s="9" t="s">
         <v>872</v>
       </c>
@@ -32760,8 +32951,8 @@
       <c r="F198" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G198" s="209"/>
-      <c r="H198" s="209"/>
+      <c r="G198" s="204"/>
+      <c r="H198" s="204"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="163">
@@ -32770,7 +32961,7 @@
       <c r="B199" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C199" s="215"/>
+      <c r="C199" s="234"/>
       <c r="D199" s="9" t="s">
         <v>873</v>
       </c>
@@ -32780,8 +32971,8 @@
       <c r="F199" s="164" t="s">
         <v>501</v>
       </c>
-      <c r="G199" s="209"/>
-      <c r="H199" s="209"/>
+      <c r="G199" s="204"/>
+      <c r="H199" s="204"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="163">
@@ -32790,7 +32981,7 @@
       <c r="B200" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C200" s="215"/>
+      <c r="C200" s="234"/>
       <c r="D200" s="9" t="s">
         <v>874</v>
       </c>
@@ -32800,8 +32991,8 @@
       <c r="F200" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G200" s="209"/>
-      <c r="H200" s="209"/>
+      <c r="G200" s="204"/>
+      <c r="H200" s="204"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="163">
@@ -32810,7 +33001,7 @@
       <c r="B201" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C201" s="215"/>
+      <c r="C201" s="234"/>
       <c r="D201" s="9" t="s">
         <v>875</v>
       </c>
@@ -32820,8 +33011,8 @@
       <c r="F201" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G201" s="209"/>
-      <c r="H201" s="209"/>
+      <c r="G201" s="204"/>
+      <c r="H201" s="204"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="163">
@@ -32830,7 +33021,7 @@
       <c r="B202" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C202" s="215"/>
+      <c r="C202" s="234"/>
       <c r="D202" s="9" t="s">
         <v>876</v>
       </c>
@@ -32840,8 +33031,8 @@
       <c r="F202" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G202" s="209"/>
-      <c r="H202" s="209"/>
+      <c r="G202" s="204"/>
+      <c r="H202" s="204"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="163">
@@ -32850,7 +33041,7 @@
       <c r="B203" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="C203" s="214"/>
+      <c r="C203" s="233"/>
       <c r="D203" s="9" t="s">
         <v>877</v>
       </c>
@@ -32860,8 +33051,8 @@
       <c r="F203" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G203" s="209"/>
-      <c r="H203" s="209"/>
+      <c r="G203" s="204"/>
+      <c r="H203" s="204"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="163">
@@ -32882,8 +33073,8 @@
       <c r="F204" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="G204" s="209"/>
-      <c r="H204" s="209"/>
+      <c r="G204" s="204"/>
+      <c r="H204" s="204"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="163">
@@ -32902,10 +33093,10 @@
       <c r="F205" s="167" t="s">
         <v>842</v>
       </c>
-      <c r="G205" s="209" t="s">
+      <c r="G205" s="204" t="s">
         <v>880</v>
       </c>
-      <c r="H205" s="209"/>
+      <c r="H205" s="204"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="168">
@@ -32926,8 +33117,8 @@
       <c r="F206" s="169" t="s">
         <v>501</v>
       </c>
-      <c r="G206" s="211"/>
-      <c r="H206" s="212"/>
+      <c r="G206" s="206"/>
+      <c r="H206" s="207"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="171">
@@ -32948,8 +33139,8 @@
       <c r="F207" s="173" t="s">
         <v>883</v>
       </c>
-      <c r="G207" s="211"/>
-      <c r="H207" s="212"/>
+      <c r="G207" s="206"/>
+      <c r="H207" s="207"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
@@ -32970,8 +33161,8 @@
       <c r="F208" s="40" t="s">
         <v>501</v>
       </c>
-      <c r="G208" s="226"/>
-      <c r="H208" s="226"/>
+      <c r="G208" s="205"/>
+      <c r="H208" s="205"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="77"/>
@@ -33047,13 +33238,13 @@
       <c r="A216" t="s">
         <v>895</v>
       </c>
-      <c r="B216" s="204" t="s">
+      <c r="B216" s="221" t="s">
         <v>896</v>
       </c>
-      <c r="C216" s="204"/>
-      <c r="D216" s="204"/>
-      <c r="E216" s="204"/>
-      <c r="F216" s="204"/>
+      <c r="C216" s="221"/>
+      <c r="D216" s="221"/>
+      <c r="E216" s="221"/>
+      <c r="F216" s="221"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="92" t="s">
@@ -33074,10 +33265,10 @@
       <c r="F217" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="G217" s="205" t="s">
+      <c r="G217" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="H217" s="205"/>
+      <c r="H217" s="214"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="110">
@@ -33094,10 +33285,10 @@
       <c r="F218" s="179" t="s">
         <v>842</v>
       </c>
-      <c r="G218" s="210" t="s">
+      <c r="G218" s="212" t="s">
         <v>897</v>
       </c>
-      <c r="H218" s="209"/>
+      <c r="H218" s="204"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="110">
@@ -33118,8 +33309,8 @@
       <c r="F219" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G219" s="210"/>
-      <c r="H219" s="209"/>
+      <c r="G219" s="212"/>
+      <c r="H219" s="204"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="110">
@@ -33138,8 +33329,8 @@
       <c r="F220" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G220" s="209"/>
-      <c r="H220" s="209"/>
+      <c r="G220" s="204"/>
+      <c r="H220" s="204"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="110">
@@ -33160,8 +33351,8 @@
       <c r="F221" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G221" s="209"/>
-      <c r="H221" s="209"/>
+      <c r="G221" s="204"/>
+      <c r="H221" s="204"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="110">
@@ -33180,8 +33371,8 @@
       <c r="F222" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G222" s="209"/>
-      <c r="H222" s="209"/>
+      <c r="G222" s="204"/>
+      <c r="H222" s="204"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="110">
@@ -33200,8 +33391,8 @@
       <c r="F223" s="179" t="s">
         <v>180</v>
       </c>
-      <c r="G223" s="209"/>
-      <c r="H223" s="209"/>
+      <c r="G223" s="204"/>
+      <c r="H223" s="204"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="177">
@@ -33344,7 +33535,7 @@
       <c r="A231" s="177">
         <v>14</v>
       </c>
-      <c r="B231" s="206" t="s">
+      <c r="B231" s="239" t="s">
         <v>899</v>
       </c>
       <c r="C231" s="196" t="s">
@@ -33365,7 +33556,7 @@
       <c r="A232" s="177">
         <v>15</v>
       </c>
-      <c r="B232" s="207"/>
+      <c r="B232" s="240"/>
       <c r="C232" s="197"/>
       <c r="D232" s="33" t="s">
         <v>774</v>
@@ -33382,7 +33573,7 @@
       <c r="A233" s="177">
         <v>16</v>
       </c>
-      <c r="B233" s="207"/>
+      <c r="B233" s="240"/>
       <c r="C233" s="197"/>
       <c r="D233" s="33" t="s">
         <v>775</v>
@@ -33399,7 +33590,7 @@
       <c r="A234" s="177">
         <v>17</v>
       </c>
-      <c r="B234" s="207"/>
+      <c r="B234" s="240"/>
       <c r="C234" s="197"/>
       <c r="D234" s="33" t="s">
         <v>776</v>
@@ -33416,7 +33607,7 @@
       <c r="A235" s="177">
         <v>18</v>
       </c>
-      <c r="B235" s="207"/>
+      <c r="B235" s="240"/>
       <c r="C235" s="197"/>
       <c r="D235" s="33" t="s">
         <v>784</v>
@@ -33433,7 +33624,7 @@
       <c r="A236" s="177">
         <v>19</v>
       </c>
-      <c r="B236" s="207"/>
+      <c r="B236" s="240"/>
       <c r="C236" s="197"/>
       <c r="D236" s="33" t="s">
         <v>777</v>
@@ -33450,7 +33641,7 @@
       <c r="A237" s="177">
         <v>20</v>
       </c>
-      <c r="B237" s="207"/>
+      <c r="B237" s="240"/>
       <c r="C237" s="197"/>
       <c r="D237" s="33" t="s">
         <v>778</v>
@@ -33467,7 +33658,7 @@
       <c r="A238" s="177">
         <v>21</v>
       </c>
-      <c r="B238" s="207"/>
+      <c r="B238" s="240"/>
       <c r="C238" s="197"/>
       <c r="D238" s="33" t="s">
         <v>779</v>
@@ -33484,7 +33675,7 @@
       <c r="A239" s="177">
         <v>22</v>
       </c>
-      <c r="B239" s="207"/>
+      <c r="B239" s="240"/>
       <c r="C239" s="197"/>
       <c r="D239" s="33" t="s">
         <v>780</v>
@@ -33501,7 +33692,7 @@
       <c r="A240" s="176">
         <v>23</v>
       </c>
-      <c r="B240" s="207"/>
+      <c r="B240" s="240"/>
       <c r="C240" s="197"/>
       <c r="D240" s="181" t="s">
         <v>785</v>
@@ -33518,7 +33709,7 @@
       <c r="A241" s="177">
         <v>24</v>
       </c>
-      <c r="B241" s="206" t="s">
+      <c r="B241" s="239" t="s">
         <v>901</v>
       </c>
       <c r="C241" s="196" t="s">
@@ -33539,7 +33730,7 @@
       <c r="A242" s="176">
         <v>25</v>
       </c>
-      <c r="B242" s="207"/>
+      <c r="B242" s="240"/>
       <c r="C242" s="197"/>
       <c r="D242" s="9" t="s">
         <v>856</v>
@@ -33556,7 +33747,7 @@
       <c r="A243" s="177">
         <v>26</v>
       </c>
-      <c r="B243" s="207"/>
+      <c r="B243" s="240"/>
       <c r="C243" s="197"/>
       <c r="D243" s="9" t="s">
         <v>858</v>
@@ -33573,7 +33764,7 @@
       <c r="A244" s="176">
         <v>27</v>
       </c>
-      <c r="B244" s="207"/>
+      <c r="B244" s="240"/>
       <c r="C244" s="197"/>
       <c r="D244" s="9" t="s">
         <v>860</v>
@@ -33590,7 +33781,7 @@
       <c r="A245" s="177">
         <v>28</v>
       </c>
-      <c r="B245" s="207"/>
+      <c r="B245" s="240"/>
       <c r="C245" s="197"/>
       <c r="D245" s="9" t="s">
         <v>874</v>
@@ -33607,7 +33798,7 @@
       <c r="A246" s="176">
         <v>29</v>
       </c>
-      <c r="B246" s="207"/>
+      <c r="B246" s="240"/>
       <c r="C246" s="197"/>
       <c r="D246" s="9" t="s">
         <v>876</v>
@@ -33624,7 +33815,7 @@
       <c r="A247" s="177">
         <v>30</v>
       </c>
-      <c r="B247" s="208"/>
+      <c r="B247" s="241"/>
       <c r="C247" s="198"/>
       <c r="D247" s="9" t="s">
         <v>877</v>
@@ -33641,7 +33832,7 @@
       <c r="A248" s="176">
         <v>31</v>
       </c>
-      <c r="B248" s="206" t="s">
+      <c r="B248" s="239" t="s">
         <v>903</v>
       </c>
       <c r="C248" s="196" t="s">
@@ -33662,7 +33853,7 @@
       <c r="A249" s="177">
         <v>32</v>
       </c>
-      <c r="B249" s="207"/>
+      <c r="B249" s="240"/>
       <c r="C249" s="197"/>
       <c r="D249" s="9" t="s">
         <v>863</v>
@@ -33679,7 +33870,7 @@
       <c r="A250" s="176">
         <v>33</v>
       </c>
-      <c r="B250" s="207"/>
+      <c r="B250" s="240"/>
       <c r="C250" s="197"/>
       <c r="D250" s="9" t="s">
         <v>864</v>
@@ -33696,7 +33887,7 @@
       <c r="A251" s="177">
         <v>34</v>
       </c>
-      <c r="B251" s="207"/>
+      <c r="B251" s="240"/>
       <c r="C251" s="197"/>
       <c r="D251" s="9" t="s">
         <v>865</v>
@@ -33713,7 +33904,7 @@
       <c r="A252" s="176">
         <v>35</v>
       </c>
-      <c r="B252" s="207"/>
+      <c r="B252" s="240"/>
       <c r="C252" s="197"/>
       <c r="D252" s="9" t="s">
         <v>866</v>
@@ -33730,7 +33921,7 @@
       <c r="A253" s="177">
         <v>36</v>
       </c>
-      <c r="B253" s="207"/>
+      <c r="B253" s="240"/>
       <c r="C253" s="197"/>
       <c r="D253" s="9" t="s">
         <v>867</v>
@@ -33747,7 +33938,7 @@
       <c r="A254" s="176">
         <v>37</v>
       </c>
-      <c r="B254" s="207"/>
+      <c r="B254" s="240"/>
       <c r="C254" s="197"/>
       <c r="D254" s="9" t="s">
         <v>868</v>
@@ -33764,7 +33955,7 @@
       <c r="A255" s="177">
         <v>38</v>
       </c>
-      <c r="B255" s="207"/>
+      <c r="B255" s="240"/>
       <c r="C255" s="197"/>
       <c r="D255" s="9" t="s">
         <v>869</v>
@@ -33781,7 +33972,7 @@
       <c r="A256" s="176">
         <v>39</v>
       </c>
-      <c r="B256" s="207"/>
+      <c r="B256" s="240"/>
       <c r="C256" s="197"/>
       <c r="D256" s="9" t="s">
         <v>870</v>
@@ -33798,7 +33989,7 @@
       <c r="A257" s="177">
         <v>40</v>
       </c>
-      <c r="B257" s="208"/>
+      <c r="B257" s="241"/>
       <c r="C257" s="198"/>
       <c r="D257" s="9" t="s">
         <v>871</v>
@@ -34017,48 +34208,196 @@
       <c r="H268" s="1"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="233" t="s">
+      <c r="A272" s="213" t="s">
         <v>528</v>
       </c>
-      <c r="B272" s="233"/>
-      <c r="C272" s="233"/>
-      <c r="D272" s="233"/>
+      <c r="B272" s="213"/>
+      <c r="C272" s="213"/>
+      <c r="D272" s="213"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="105">
         <v>1</v>
       </c>
-      <c r="B273" s="209" t="s">
+      <c r="B273" s="204" t="s">
         <v>560</v>
       </c>
-      <c r="C273" s="209"/>
-      <c r="D273" s="209"/>
+      <c r="C273" s="204"/>
+      <c r="D273" s="204"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="105">
         <v>2</v>
       </c>
-      <c r="B274" s="209" t="s">
+      <c r="B274" s="204" t="s">
         <v>568</v>
       </c>
-      <c r="C274" s="209"/>
-      <c r="D274" s="209"/>
+      <c r="C274" s="204"/>
+      <c r="D274" s="204"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="147">
         <v>2.1</v>
       </c>
-      <c r="B275" s="209" t="s">
+      <c r="B275" s="204" t="s">
         <v>704</v>
       </c>
-      <c r="C275" s="209"/>
-      <c r="D275" s="209"/>
+      <c r="C275" s="204"/>
+      <c r="D275" s="204"/>
     </row>
   </sheetData>
   <autoFilter ref="A217:H260" xr:uid="{00000000-0009-0000-0000-000007000000}">
     <filterColumn colId="6" showButton="0"/>
   </autoFilter>
   <mergeCells count="172">
+    <mergeCell ref="B216:F216"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="C221:C222"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="C231:C240"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="C241:C247"/>
+    <mergeCell ref="C248:C257"/>
+    <mergeCell ref="B241:B247"/>
+    <mergeCell ref="B248:B257"/>
+    <mergeCell ref="G221:H221"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C203"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="G196:H196"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="G176:H177"/>
+    <mergeCell ref="G194:H194"/>
+    <mergeCell ref="G195:H195"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="G140:H141"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="B135:F135"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="B109:B121"/>
+    <mergeCell ref="C109:C121"/>
+    <mergeCell ref="A272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G109:H121"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="C76:C93"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G138:H138"/>
     <mergeCell ref="G185:H185"/>
     <mergeCell ref="G186:H186"/>
     <mergeCell ref="G191:H191"/>
@@ -34083,154 +34422,6 @@
     <mergeCell ref="G180:H180"/>
     <mergeCell ref="G181:H181"/>
     <mergeCell ref="G182:H182"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="C76:C93"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="B109:B121"/>
-    <mergeCell ref="C109:C121"/>
-    <mergeCell ref="A272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="G109:H121"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="B135:F135"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="G140:H141"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C203"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="G196:H196"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="G176:H177"/>
-    <mergeCell ref="G194:H194"/>
-    <mergeCell ref="G195:H195"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="G193:H193"/>
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="C221:C222"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="C226:C227"/>
-    <mergeCell ref="C231:C240"/>
-    <mergeCell ref="B231:B240"/>
-    <mergeCell ref="C241:C247"/>
-    <mergeCell ref="C248:C257"/>
-    <mergeCell ref="B241:B247"/>
-    <mergeCell ref="B248:B257"/>
-    <mergeCell ref="G221:H221"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="G220:H220"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>

--- a/Selling  Tool II.XLSX
+++ b/Selling  Tool II.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwang67\Desktop\QHC\git\frye\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB5CDC01-EB1B-45A0-ABEB-ADF9A86A08DB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B3D49980-52FE-4C95-92CF-51B2B21D2D53}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" tabRatio="714" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16167,14 +16167,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6377940</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2598420</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8625840</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -16191,7 +16191,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5196840" y="350520"/>
+          <a:off x="17145000" y="350520"/>
           <a:ext cx="2247900" cy="1249680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16480,28 +16480,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>需要推送到</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>sap</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" i="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>的订单</a:t>
+            <a:t>=&gt;AbsOrder</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" i="1">
             <a:solidFill>
@@ -16515,15 +16499,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3116580</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5307330</xdr:colOff>
-      <xdr:row>87</xdr:row>
